--- a/Excel/작업Shop.xlsx
+++ b/Excel/작업Shop.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0735DA2D-D550-4812-89BE-697BA05E5AD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A2D667-93CA-41A4-B095-FAE618808186}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{267F816C-0B7C-49F1-97C6-1DE7EA009F36}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{267F816C-0B7C-49F1-97C6-1DE7EA009F36}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopPackageTable" sheetId="2" r:id="rId1"/>
     <sheet name="ShopCharacterTable" sheetId="5" r:id="rId2"/>
     <sheet name="ShopLevelPackageTable" sheetId="6" r:id="rId3"/>
     <sheet name="ShopBoxTable" sheetId="3" r:id="rId4"/>
-    <sheet name="ShopCashTable" sheetId="1" r:id="rId5"/>
+    <sheet name="ShopDiamondTable" sheetId="1" r:id="rId5"/>
     <sheet name="ShopGoldTable" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="75">
   <si>
     <t>cashPack|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,30 +58,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DiamondPack30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DiamondPack80</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DiamondPack170</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DiamondPack360</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DiamondPack950</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DiamondPack2000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>goldPack|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -318,6 +294,46 @@
   </si>
   <si>
     <t>serverItemId|String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diamondPack|String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyingGems|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShopUI_BestValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DiamondPack1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DiamondPack2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DiamondPack3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DiamondPack4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DiamondPack5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DiamondPack6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShopUI_Popular</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -708,71 +724,71 @@
         <v>3</v>
       </c>
       <c r="O1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="H2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="O2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="K3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="O6" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="O7">
         <v>50</v>
@@ -780,13 +796,13 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="H8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="I8" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="O8">
         <v>100</v>
@@ -818,45 +834,45 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="H9" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="I9" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="O9">
         <v>200</v>
       </c>
       <c r="P9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="Q9" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="R9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="S9" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="T9" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="W9" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="L10">
         <v>14</v>
@@ -877,77 +893,77 @@
         <v>16</v>
       </c>
       <c r="W10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="L11" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="M11" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="N11" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="P11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="L12" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E13" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="L13" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="L14" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>30</v>
@@ -980,7 +996,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B24">
         <v>150</v>
@@ -1043,16 +1059,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1117,18 +1133,18 @@
   <sheetData>
     <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>30</v>
@@ -1136,7 +1152,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>50</v>
@@ -1144,7 +1160,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>140</v>
@@ -1158,101 +1174,135 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DA8A83E-CE6D-4487-B1D5-66A12C8DB170}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.75" customWidth="1"/>
-    <col min="3" max="3" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.625" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.75" customWidth="1"/>
+    <col min="6" max="6" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="B1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2500</v>
+      </c>
+      <c r="E2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="2">
         <v>5</v>
       </c>
-      <c r="B2" s="2">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="D3" s="1">
         <v>5900</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2">
+        <v>70</v>
+      </c>
+      <c r="C4" s="2">
         <v>11</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4" s="1">
         <v>12000</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <v>170</v>
+      </c>
+      <c r="F4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2">
+        <v>71</v>
+      </c>
+      <c r="C5" s="2">
         <v>24</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5" s="1">
         <v>25000</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2">
+        <v>72</v>
+      </c>
+      <c r="C6" s="2">
         <v>60</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D6" s="1">
         <v>65000</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="2">
+        <v>73</v>
+      </c>
+      <c r="C7" s="2">
         <v>110</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D7" s="1">
         <v>119000</v>
+      </c>
+      <c r="E7">
+        <v>2000</v>
+      </c>
+      <c r="F7" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1260,8 +1310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50A51AEA-72C9-495F-800D-1309B6FF1E2F}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1274,27 +1324,27 @@
   <sheetData>
     <row r="1" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C2">
         <v>20</v>
@@ -1305,7 +1355,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C3">
         <v>140</v>
@@ -1314,7 +1364,7 @@
         <v>12000</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F3">
         <v>6</v>
@@ -1322,7 +1372,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C4">
         <v>280</v>
@@ -1331,7 +1381,7 @@
         <v>26000</v>
       </c>
       <c r="E4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F4">
         <v>15</v>

--- a/Excel/작업Shop.xlsx
+++ b/Excel/작업Shop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A2D667-93CA-41A4-B095-FAE618808186}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F7E932F-1D40-4D78-883F-4E007A9D5858}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{267F816C-0B7C-49F1-97C6-1DE7EA009F36}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{267F816C-0B7C-49F1-97C6-1DE7EA009F36}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopPackageTable" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="78">
   <si>
     <t>cashPack|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,22 +70,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SuperCharacterBox</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SuperEquipBox</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MegaEquipBox</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>드랍아이디</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>레벨 팩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -335,6 +319,31 @@
   <si>
     <t>ShopUI_Popular</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CharacterBox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EquipmentBox1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EquipmentBox8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boxName|String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShopUIName_CharacterBox</t>
+  </si>
+  <si>
+    <t>ShopUIName_EquipmentBox1</t>
+  </si>
+  <si>
+    <t>ShopUIName_EquipmentBox8</t>
   </si>
 </sst>
 </file>
@@ -724,71 +733,71 @@
         <v>3</v>
       </c>
       <c r="O1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="H2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="K2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="O2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="O6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="O7">
         <v>50</v>
@@ -796,13 +805,13 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O8">
         <v>100</v>
@@ -834,45 +843,45 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="H9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="O9">
         <v>200</v>
       </c>
       <c r="P9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="R9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="S9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="T9" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="W9" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="L10">
         <v>14</v>
@@ -893,77 +902,77 @@
         <v>16</v>
       </c>
       <c r="W10" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="L11" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M11" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="N11" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="P11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="L12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
         <v>20</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="L13" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="L14" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>30</v>
@@ -996,7 +1005,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B24">
         <v>150</v>
@@ -1059,16 +1068,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1121,14 +1130,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89163021-4976-4FA0-AE69-0980BCE6F36B}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.75" customWidth="1"/>
     <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="3" max="3" width="27.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -1139,31 +1147,40 @@
         <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="B2">
-        <v>30</v>
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="B3">
-        <v>50</v>
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="B4">
-        <v>140</v>
+        <v>200</v>
+      </c>
+      <c r="C4" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1176,9 +1193,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DA8A83E-CE6D-4487-B1D5-66A12C8DB170}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1191,10 +1206,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1203,7 +1218,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -1211,7 +1226,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2">
         <v>2</v>
@@ -1225,7 +1240,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2">
         <v>5</v>
@@ -1239,7 +1254,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C4" s="2">
         <v>11</v>
@@ -1251,12 +1266,12 @@
         <v>170</v>
       </c>
       <c r="F4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2">
         <v>24</v>
@@ -1270,7 +1285,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C6" s="2">
         <v>60</v>
@@ -1284,7 +1299,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C7" s="2">
         <v>110</v>
@@ -1296,7 +1311,7 @@
         <v>2000</v>
       </c>
       <c r="F7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1311,7 +1326,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="F4" sqref="A1:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1327,24 +1342,24 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C2">
         <v>20</v>
@@ -1355,7 +1370,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C3">
         <v>140</v>
@@ -1364,7 +1379,7 @@
         <v>12000</v>
       </c>
       <c r="E3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F3">
         <v>6</v>
@@ -1372,7 +1387,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C4">
         <v>280</v>
@@ -1381,7 +1396,7 @@
         <v>26000</v>
       </c>
       <c r="E4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F4">
         <v>15</v>

--- a/Excel/작업Shop.xlsx
+++ b/Excel/작업Shop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F7E932F-1D40-4D78-883F-4E007A9D5858}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69FF3C5-BEF4-4516-8F64-603A749025F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{267F816C-0B7C-49F1-97C6-1DE7EA009F36}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{267F816C-0B7C-49F1-97C6-1DE7EA009F36}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopPackageTable" sheetId="2" r:id="rId1"/>
@@ -350,8 +350,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="6" formatCode="&quot;₩&quot;#,##0;[Red]\-&quot;₩&quot;#,##0"/>
+  <numFmts count="1">
     <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
@@ -397,10 +396,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="24" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="24" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1130,7 +1129,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89163021-4976-4FA0-AE69-0980BCE6F36B}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1228,10 +1227,10 @@
       <c r="A2" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>2</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>2500</v>
       </c>
       <c r="E2">
@@ -1242,10 +1241,10 @@
       <c r="A3" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>5</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>5900</v>
       </c>
       <c r="E3">
@@ -1256,10 +1255,10 @@
       <c r="A4" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>11</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>12000</v>
       </c>
       <c r="E4">
@@ -1273,10 +1272,10 @@
       <c r="A5" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>24</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>25000</v>
       </c>
       <c r="E5">
@@ -1287,10 +1286,10 @@
       <c r="A6" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>60</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>65000</v>
       </c>
       <c r="E6">
@@ -1301,10 +1300,10 @@
       <c r="A7" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>110</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <v>119000</v>
       </c>
       <c r="E7">
@@ -1325,9 +1324,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50A51AEA-72C9-495F-800D-1309B6FF1E2F}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="A1:F4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>

--- a/Excel/작업Shop.xlsx
+++ b/Excel/작업Shop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69FF3C5-BEF4-4516-8F64-603A749025F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A20EBE66-6F8A-42E6-AA5D-0B10D3EE9A7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{267F816C-0B7C-49F1-97C6-1DE7EA009F36}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{267F816C-0B7C-49F1-97C6-1DE7EA009F36}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopPackageTable" sheetId="2" r:id="rId1"/>
@@ -42,14 +42,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>eng|String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kor|String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>addMark|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -344,15 +336,20 @@
   </si>
   <si>
     <t>ShopUIName_EquipmentBox8</t>
+  </si>
+  <si>
+    <t>kor|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eng|Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -392,14 +389,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="24" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -729,74 +723,74 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="H2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O7">
         <v>50</v>
@@ -804,13 +798,13 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" t="s">
         <v>39</v>
-      </c>
-      <c r="I8" t="s">
-        <v>41</v>
       </c>
       <c r="O8">
         <v>100</v>
@@ -842,45 +836,45 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="H9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" t="s">
         <v>40</v>
-      </c>
-      <c r="I9" t="s">
-        <v>42</v>
       </c>
       <c r="O9">
         <v>200</v>
       </c>
       <c r="P9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Q9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="S9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="T9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="W9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L10">
         <v>14</v>
@@ -901,77 +895,77 @@
         <v>16</v>
       </c>
       <c r="W10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="L12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B18">
         <v>30</v>
@@ -1004,7 +998,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B24">
         <v>150</v>
@@ -1046,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1067,16 +1061,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>34</v>
-      </c>
-      <c r="C1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1140,46 +1134,46 @@
   <sheetData>
     <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B2">
         <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B3">
         <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B4">
         <v>200</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1192,45 +1186,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DA8A83E-CE6D-4487-B1D5-66A12C8DB170}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.625" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
-    <col min="4" max="4" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="9.25" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.75" customWidth="1"/>
     <col min="6" max="6" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" t="s">
         <v>60</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>2500</v>
       </c>
       <c r="E2">
@@ -1239,12 +1234,12 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C3" s="1">
         <v>5</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>5900</v>
       </c>
       <c r="E3">
@@ -1253,29 +1248,29 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C4" s="1">
         <v>11</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>12000</v>
       </c>
       <c r="E4">
         <v>170</v>
       </c>
       <c r="F4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C5" s="1">
         <v>24</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>25000</v>
       </c>
       <c r="E5">
@@ -1284,12 +1279,12 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C6" s="1">
         <v>60</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>65000</v>
       </c>
       <c r="E6">
@@ -1298,19 +1293,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C7" s="1">
         <v>110</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>119000</v>
       </c>
       <c r="E7">
         <v>2000</v>
       </c>
       <c r="F7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1324,7 +1319,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50A51AEA-72C9-495F-800D-1309B6FF1E2F}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1336,27 +1331,27 @@
   <sheetData>
     <row r="1" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C2">
         <v>20</v>
@@ -1367,7 +1362,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C3">
         <v>140</v>
@@ -1376,7 +1371,7 @@
         <v>12000</v>
       </c>
       <c r="E3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F3">
         <v>6</v>
@@ -1384,7 +1379,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C4">
         <v>280</v>
@@ -1393,7 +1388,7 @@
         <v>26000</v>
       </c>
       <c r="E4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F4">
         <v>15</v>

--- a/Excel/작업Shop.xlsx
+++ b/Excel/작업Shop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A20EBE66-6F8A-42E6-AA5D-0B10D3EE9A7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A39F12-007E-4CD2-95F1-B7749DBBD319}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{267F816C-0B7C-49F1-97C6-1DE7EA009F36}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{267F816C-0B7C-49F1-97C6-1DE7EA009F36}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopPackageTable" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="81">
   <si>
     <t>cashPack|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -344,6 +344,16 @@
   <si>
     <t>eng|Float</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoldBox1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoldBox2</t>
+  </si>
+  <si>
+    <t>GoldBox3</t>
   </si>
 </sst>
 </file>
@@ -1186,7 +1196,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DA8A83E-CE6D-4487-B1D5-66A12C8DB170}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1319,7 +1329,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50A51AEA-72C9-495F-800D-1309B6FF1E2F}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1353,6 +1365,9 @@
       <c r="A2" t="s">
         <v>53</v>
       </c>
+      <c r="B2" t="s">
+        <v>78</v>
+      </c>
       <c r="C2">
         <v>20</v>
       </c>
@@ -1364,6 +1379,9 @@
       <c r="A3" t="s">
         <v>54</v>
       </c>
+      <c r="B3" t="s">
+        <v>79</v>
+      </c>
       <c r="C3">
         <v>140</v>
       </c>
@@ -1380,6 +1398,9 @@
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>55</v>
+      </c>
+      <c r="B4" t="s">
+        <v>80</v>
       </c>
       <c r="C4">
         <v>280</v>

--- a/Excel/작업Shop.xlsx
+++ b/Excel/작업Shop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A39F12-007E-4CD2-95F1-B7749DBBD319}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089F951B-D21D-4DB3-A71F-5EE041AF8342}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{267F816C-0B7C-49F1-97C6-1DE7EA009F36}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{267F816C-0B7C-49F1-97C6-1DE7EA009F36}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopPackageTable" sheetId="2" r:id="rId1"/>
@@ -35,6 +35,188 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Hoohoo</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{45A3C00C-D976-4CCE-996D-96B423AA0ED6}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>서버에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>하드코딩</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>되어있음
+장비</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">박스
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">var ned = big ? 200 : 30;
+handlers.OpenEquipBox = </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>검색가능
+캐릭터</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">박스
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">var ned = 50;
+handlers.OpenCharBox = </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>검색가능</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="81">
   <si>
@@ -360,7 +542,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -375,6 +557,27 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -399,11 +602,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1130,10 +1336,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89163021-4976-4FA0-AE69-0980BCE6F36B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89163021-4976-4FA0-AE69-0980BCE6F36B}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1146,7 +1354,7 @@
       <c r="A1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C1" t="s">
@@ -1189,6 +1397,8 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1329,7 +1539,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50A51AEA-72C9-495F-800D-1309B6FF1E2F}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/Excel/작업Shop.xlsx
+++ b/Excel/작업Shop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089F951B-D21D-4DB3-A71F-5EE041AF8342}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{220311C3-DDD7-4842-B173-815F007CE12B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{267F816C-0B7C-49F1-97C6-1DE7EA009F36}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{267F816C-0B7C-49F1-97C6-1DE7EA009F36}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopPackageTable" sheetId="2" r:id="rId1"/>
@@ -218,7 +218,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="83">
   <si>
     <t>cashPack|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -536,6 +536,12 @@
   </si>
   <si>
     <t>GoldBox3</t>
+  </si>
+  <si>
+    <t>ShopUI_BeyondOriginBox</t>
+  </si>
+  <si>
+    <t>ShopUI_GetSevenPlusOne</t>
   </si>
 </sst>
 </file>
@@ -1337,10 +1343,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89163021-4976-4FA0-AE69-0980BCE6F36B}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1348,9 +1354,10 @@
     <col min="1" max="1" width="17.75" customWidth="1"/>
     <col min="2" max="2" width="14.75" customWidth="1"/>
     <col min="3" max="3" width="27.875" customWidth="1"/>
+    <col min="4" max="4" width="24.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -1360,8 +1367,11 @@
       <c r="C1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -1371,8 +1381,11 @@
       <c r="C2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -1383,7 +1396,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>71</v>
       </c>
@@ -1392,6 +1405,9 @@
       </c>
       <c r="C4" t="s">
         <v>75</v>
+      </c>
+      <c r="D4" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1406,7 +1422,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DA8A83E-CE6D-4487-B1D5-66A12C8DB170}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>

--- a/Excel/작업Shop.xlsx
+++ b/Excel/작업Shop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{220311C3-DDD7-4842-B173-815F007CE12B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9171727C-92B2-42AC-8DF7-54B0C7097ACB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{267F816C-0B7C-49F1-97C6-1DE7EA009F36}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{267F816C-0B7C-49F1-97C6-1DE7EA009F36}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopPackageTable" sheetId="2" r:id="rId1"/>
@@ -41,6 +41,182 @@
     <author>Hoohoo</author>
   </authors>
   <commentList>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{F85BAB4F-DD20-4DBB-A65D-4CEF21D21231}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>클라의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>코드를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>고치는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>건</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>아니고</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>프리팹의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>숫자를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>고쳐야</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>한다</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Hoohoo</author>
+  </authors>
+  <commentList>
     <comment ref="B1" authorId="0" shapeId="0" xr:uid="{45A3C00C-D976-4CCE-996D-96B423AA0ED6}">
       <text>
         <r>
@@ -210,6 +386,125 @@
             <charset val="129"/>
           </rPr>
           <t>검색가능</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Hoohoo</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{3A791170-60A1-4F50-932D-AE29DF21D7CC}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>구글</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>애플</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>프로덕트</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>아이디와</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>같아야</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>함</t>
         </r>
       </text>
     </comment>
@@ -218,7 +513,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="98">
   <si>
     <t>cashPack|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -348,18 +643,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>가격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프리팹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>안 뜰 때도 있다. 데이터가 없는거</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -542,13 +825,77 @@
   </si>
   <si>
     <t>ShopUI_GetSevenPlusOne</t>
+  </si>
+  <si>
+    <t>beforEng|Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beforeKor|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TeamLevelCashPack1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TeamLevelCashPack2</t>
+  </si>
+  <si>
+    <t>TeamLevelCashPack3</t>
+  </si>
+  <si>
+    <t>TeamLevelCashPack4</t>
+  </si>
+  <si>
+    <t>imagePrefab|String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyingEquipKey|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyingEnergy|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TeamLevelCashPack0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>showingDrop|String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equipKeyDrop|String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wkdwkdql</t>
+  </si>
+  <si>
+    <t>buyingLegendEquipKey|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wjstjfwkdqll</t>
+  </si>
+  <si>
+    <t>Wjstjfwkdqlm</t>
+  </si>
+  <si>
+    <t>Wjstjfwkdqlq</t>
+  </si>
+  <si>
+    <t>ShopGoldDia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -585,6 +932,29 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -608,7 +978,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -616,6 +986,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -938,9 +1323,9 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="27" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -951,9 +1336,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23">
       <c r="H2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K2" t="s">
         <v>23</v>
@@ -962,7 +1347,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -973,16 +1358,16 @@
         <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -993,7 +1378,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1001,15 +1386,15 @@
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -1018,15 +1403,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23">
       <c r="B8" t="s">
         <v>19</v>
       </c>
       <c r="H8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="O8">
         <v>100</v>
@@ -1056,12 +1441,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23">
       <c r="H9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="O9">
         <v>200</v>
@@ -1079,13 +1464,13 @@
         <v>17</v>
       </c>
       <c r="T9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="W9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -1093,7 +1478,7 @@
         <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F10" t="s">
         <v>22</v>
@@ -1117,35 +1502,35 @@
         <v>16</v>
       </c>
       <c r="W10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="B11" t="s">
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="L11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="M11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="N11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23">
       <c r="L12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="B13" t="s">
         <v>14</v>
       </c>
@@ -1153,21 +1538,21 @@
         <v>18</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="L13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23">
       <c r="B14" t="s">
         <v>15</v>
       </c>
       <c r="L14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1175,17 +1560,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23">
       <c r="B16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2">
       <c r="B17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1193,32 +1578,32 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2">
       <c r="B19">
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2">
       <c r="B20">
         <v>170</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2">
       <c r="B21">
         <v>360</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2">
       <c r="B22">
         <v>950</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2">
       <c r="B23">
         <v>2000</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1226,17 +1611,17 @@
         <v>150</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2">
       <c r="B25">
         <v>400</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2">
       <c r="B26">
         <v>1200</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2">
       <c r="B27">
         <v>2600</v>
       </c>
@@ -1255,9 +1640,9 @@
       <selection activeCell="E2" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="27" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1272,72 +1657,253 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47AB6A37-1990-4FC7-968C-B046E0ADC71D}">
-  <dimension ref="A1:D9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47AB6A37-1990-4FC7-968C-B046E0ADC71D}">
+  <dimension ref="A1:T6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="9.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="9.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.375" customWidth="1"/>
+    <col min="7" max="7" width="16.5" customWidth="1"/>
+    <col min="8" max="12" width="14.75" customWidth="1"/>
+    <col min="13" max="13" width="14" customWidth="1"/>
+    <col min="14" max="14" width="13.875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="27" customHeight="1">
       <c r="A1" t="s">
         <v>31</v>
       </c>
-      <c r="B1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <f>D2*2</f>
+        <v>5.98</v>
+      </c>
+      <c r="C2" s="1">
+        <f t="shared" ref="C2:C6" si="0">E2*2</f>
+        <v>2200</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2.99</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1100</v>
+      </c>
+      <c r="F2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2">
+        <v>30</v>
+      </c>
+      <c r="I2">
+        <v>20000</v>
+      </c>
+      <c r="M2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="B3" s="1">
+        <f t="shared" ref="B3:B6" si="1">D3*2</f>
+        <v>7.98</v>
+      </c>
+      <c r="C3" s="1">
+        <f t="shared" si="0"/>
+        <v>5000</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3.99</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2500</v>
+      </c>
+      <c r="F3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H3">
+        <v>50</v>
+      </c>
+      <c r="I3">
+        <v>40000</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="M3" t="s">
+        <v>97</v>
+      </c>
+      <c r="N3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="B4" s="1">
+        <f t="shared" si="1"/>
+        <v>9.98</v>
+      </c>
+      <c r="C4" s="1">
+        <f t="shared" si="0"/>
+        <v>11800</v>
+      </c>
+      <c r="D4" s="1">
+        <v>4.99</v>
+      </c>
+      <c r="E4" s="1">
+        <v>5900</v>
+      </c>
+      <c r="F4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H4">
+        <v>80</v>
+      </c>
+      <c r="I4">
+        <v>50000</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4" t="s">
+        <v>97</v>
+      </c>
+      <c r="N4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="B5" s="1">
+        <f t="shared" si="1"/>
+        <v>11.98</v>
+      </c>
+      <c r="C5" s="1">
+        <f t="shared" si="0"/>
+        <v>24000</v>
+      </c>
+      <c r="D5" s="1">
+        <v>5.99</v>
+      </c>
+      <c r="E5" s="1">
+        <v>12000</v>
+      </c>
+      <c r="F5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H5">
+        <v>170</v>
+      </c>
+      <c r="I5">
+        <v>50000</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5" t="s">
+        <v>97</v>
+      </c>
+      <c r="N5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6">
         <v>35</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>125</v>
+      <c r="B6" s="1">
+        <f t="shared" si="1"/>
+        <v>13.98</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" si="0"/>
+        <v>50000</v>
+      </c>
+      <c r="D6" s="1">
+        <v>6.99</v>
+      </c>
+      <c r="E6" s="1">
+        <v>25000</v>
+      </c>
+      <c r="F6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H6">
+        <v>360</v>
+      </c>
+      <c r="I6">
+        <v>50000</v>
+      </c>
+      <c r="L6">
+        <v>7</v>
+      </c>
+      <c r="M6" t="s">
+        <v>97</v>
+      </c>
+      <c r="N6" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1345,11 +1911,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89163021-4976-4FA0-AE69-0980BCE6F36B}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="17.75" customWidth="1"/>
     <col min="2" max="2" width="14.75" customWidth="1"/>
@@ -1357,7 +1923,7 @@
     <col min="4" max="4" width="24.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="27" customHeight="1">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -1365,49 +1931,49 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B2">
         <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B3">
         <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B4">
         <v>200</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1419,14 +1985,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DA8A83E-CE6D-4487-B1D5-66A12C8DB170}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DA8A83E-CE6D-4487-B1D5-66A12C8DB170}">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="19.625" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
@@ -1436,29 +2002,29 @@
     <col min="6" max="6" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="27" customHeight="1">
       <c r="A1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" t="s">
-        <v>60</v>
+        <v>56</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -1470,9 +2036,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C3" s="1">
         <v>5</v>
@@ -1484,9 +2050,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C4" s="1">
         <v>11</v>
@@ -1498,12 +2064,12 @@
         <v>170</v>
       </c>
       <c r="F4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C5" s="1">
         <v>24</v>
@@ -1515,9 +2081,9 @@
         <v>360</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C6" s="1">
         <v>60</v>
@@ -1529,9 +2095,9 @@
         <v>950</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C7" s="1">
         <v>110</v>
@@ -1543,13 +2109,14 @@
         <v>2000</v>
       </c>
       <c r="F7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1558,10 +2125,10 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="14.75" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
@@ -1569,32 +2136,32 @@
     <col min="5" max="6" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="27" customHeight="1">
       <c r="A1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
-        <v>52</v>
+      <c r="D1" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C2">
         <v>20</v>
@@ -1603,12 +2170,12 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C3">
         <v>140</v>
@@ -1617,18 +2184,18 @@
         <v>12000</v>
       </c>
       <c r="E3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F3">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C4">
         <v>280</v>
@@ -1637,7 +2204,7 @@
         <v>26000</v>
       </c>
       <c r="E4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F4">
         <v>15</v>

--- a/Excel/작업Shop.xlsx
+++ b/Excel/작업Shop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9171727C-92B2-42AC-8DF7-54B0C7097ACB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4DE4052-F55F-4644-8F97-4AD2A23CB015}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{267F816C-0B7C-49F1-97C6-1DE7EA009F36}"/>
   </bookViews>
@@ -513,7 +513,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="103">
   <si>
     <t>cashPack|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -889,6 +889,22 @@
   </si>
   <si>
     <t>ShopGoldDia</t>
+  </si>
+  <si>
+    <t>LevelBox0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelBox1</t>
+  </si>
+  <si>
+    <t>LevelBox2</t>
+  </si>
+  <si>
+    <t>LevelBox3</t>
+  </si>
+  <si>
+    <t>LevelBox4</t>
   </si>
 </sst>
 </file>
@@ -1658,10 +1674,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47AB6A37-1990-4FC7-968C-B046E0ADC71D}">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1742,6 +1758,9 @@
       <c r="F2" t="s">
         <v>89</v>
       </c>
+      <c r="G2" t="s">
+        <v>98</v>
+      </c>
       <c r="H2">
         <v>30</v>
       </c>
@@ -1773,6 +1792,9 @@
       <c r="F3" t="s">
         <v>82</v>
       </c>
+      <c r="G3" t="s">
+        <v>99</v>
+      </c>
       <c r="H3">
         <v>50</v>
       </c>
@@ -1810,6 +1832,9 @@
       <c r="F4" t="s">
         <v>83</v>
       </c>
+      <c r="G4" t="s">
+        <v>100</v>
+      </c>
       <c r="H4">
         <v>80</v>
       </c>
@@ -1847,11 +1872,17 @@
       <c r="F5" t="s">
         <v>84</v>
       </c>
+      <c r="G5" t="s">
+        <v>101</v>
+      </c>
       <c r="H5">
         <v>170</v>
       </c>
       <c r="I5">
         <v>50000</v>
+      </c>
+      <c r="J5">
+        <v>15</v>
       </c>
       <c r="L5">
         <v>3</v>
@@ -1884,6 +1915,9 @@
       <c r="F6" t="s">
         <v>85</v>
       </c>
+      <c r="G6" t="s">
+        <v>102</v>
+      </c>
       <c r="H6">
         <v>360</v>
       </c>
@@ -1903,7 +1937,8 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Excel/작업Shop.xlsx
+++ b/Excel/작업Shop.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4DE4052-F55F-4644-8F97-4AD2A23CB015}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26EEFCB7-9388-4073-9ED9-3C3539F52043}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{267F816C-0B7C-49F1-97C6-1DE7EA009F36}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{267F816C-0B7C-49F1-97C6-1DE7EA009F36}"/>
   </bookViews>
   <sheets>
-    <sheet name="ShopPackageTable" sheetId="2" r:id="rId1"/>
-    <sheet name="ShopCharacterTable" sheetId="5" r:id="rId2"/>
-    <sheet name="ShopLevelPackageTable" sheetId="6" r:id="rId3"/>
-    <sheet name="ShopBoxTable" sheetId="3" r:id="rId4"/>
-    <sheet name="ShopDiamondTable" sheetId="1" r:id="rId5"/>
-    <sheet name="ShopGoldTable" sheetId="4" r:id="rId6"/>
+    <sheet name="ShopLevelPackageTable" sheetId="6" r:id="rId1"/>
+    <sheet name="ShopDailyDiamondTable" sheetId="7" r:id="rId2"/>
+    <sheet name="ShopPackageTable" sheetId="2" r:id="rId3"/>
+    <sheet name="ShopCharacterTable" sheetId="5" r:id="rId4"/>
+    <sheet name="ShopBoxTable" sheetId="3" r:id="rId5"/>
+    <sheet name="ShopDiamondTable" sheetId="1" r:id="rId6"/>
+    <sheet name="ShopGoldTable" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -513,7 +514,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="112">
   <si>
     <t>cashPack|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -905,6 +906,37 @@
   </si>
   <si>
     <t>LevelBox4</t>
+  </si>
+  <si>
+    <t>dailyPack|String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DailyDiamond</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>times|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShopUIName_LevelBox0</t>
+  </si>
+  <si>
+    <t>ShopUIName_LevelBox1</t>
+  </si>
+  <si>
+    <t>ShopUIName_LevelBox2</t>
+  </si>
+  <si>
+    <t>ShopUIName_LevelBox3</t>
+  </si>
+  <si>
+    <t>ShopUIName_LevelBox4</t>
+  </si>
+  <si>
+    <t>ShopUIName_DailyDiamond</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1332,6 +1364,374 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47AB6A37-1990-4FC7-968C-B046E0ADC71D}">
+  <dimension ref="A1:P6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="9.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="9.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.375" customWidth="1"/>
+    <col min="7" max="7" width="16.5" customWidth="1"/>
+    <col min="8" max="12" width="14.75" customWidth="1"/>
+    <col min="13" max="13" width="9" customWidth="1"/>
+    <col min="14" max="14" width="22.875" customWidth="1"/>
+    <col min="15" max="15" width="14" customWidth="1"/>
+    <col min="16" max="16" width="13.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="27" customHeight="1">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="M1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <f>D2*2</f>
+        <v>5.98</v>
+      </c>
+      <c r="C2" s="1">
+        <f t="shared" ref="C2:C6" si="0">E2*2</f>
+        <v>2200</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2.99</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1100</v>
+      </c>
+      <c r="F2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H2">
+        <v>30</v>
+      </c>
+      <c r="I2">
+        <v>20000</v>
+      </c>
+      <c r="M2">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>106</v>
+      </c>
+      <c r="O2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
+        <f t="shared" ref="B3:B6" si="1">D3*2</f>
+        <v>7.98</v>
+      </c>
+      <c r="C3" s="1">
+        <f t="shared" si="0"/>
+        <v>5000</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3.99</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2500</v>
+      </c>
+      <c r="F3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H3">
+        <v>50</v>
+      </c>
+      <c r="I3">
+        <v>40000</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>107</v>
+      </c>
+      <c r="O3" t="s">
+        <v>97</v>
+      </c>
+      <c r="P3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1">
+        <f t="shared" si="1"/>
+        <v>9.98</v>
+      </c>
+      <c r="C4" s="1">
+        <f t="shared" si="0"/>
+        <v>11800</v>
+      </c>
+      <c r="D4" s="1">
+        <v>4.99</v>
+      </c>
+      <c r="E4" s="1">
+        <v>5900</v>
+      </c>
+      <c r="F4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H4">
+        <v>80</v>
+      </c>
+      <c r="I4">
+        <v>50000</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>108</v>
+      </c>
+      <c r="O4" t="s">
+        <v>97</v>
+      </c>
+      <c r="P4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5">
+        <v>25</v>
+      </c>
+      <c r="B5" s="1">
+        <f t="shared" si="1"/>
+        <v>11.98</v>
+      </c>
+      <c r="C5" s="1">
+        <f t="shared" si="0"/>
+        <v>24000</v>
+      </c>
+      <c r="D5" s="1">
+        <v>5.99</v>
+      </c>
+      <c r="E5" s="1">
+        <v>12000</v>
+      </c>
+      <c r="F5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G5" t="s">
+        <v>101</v>
+      </c>
+      <c r="H5">
+        <v>170</v>
+      </c>
+      <c r="I5">
+        <v>50000</v>
+      </c>
+      <c r="J5">
+        <v>15</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>109</v>
+      </c>
+      <c r="O5" t="s">
+        <v>97</v>
+      </c>
+      <c r="P5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6">
+        <v>35</v>
+      </c>
+      <c r="B6" s="1">
+        <f t="shared" si="1"/>
+        <v>13.98</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" si="0"/>
+        <v>50000</v>
+      </c>
+      <c r="D6" s="1">
+        <v>6.99</v>
+      </c>
+      <c r="E6" s="1">
+        <v>25000</v>
+      </c>
+      <c r="F6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H6">
+        <v>360</v>
+      </c>
+      <c r="I6">
+        <v>50000</v>
+      </c>
+      <c r="L6">
+        <v>7</v>
+      </c>
+      <c r="M6">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>110</v>
+      </c>
+      <c r="O6" t="s">
+        <v>97</v>
+      </c>
+      <c r="P6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB6F3F37-E144-46C3-ACF2-C3E94C35071D}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="17.75" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="9.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" customWidth="1"/>
+    <col min="5" max="5" width="19.375" customWidth="1"/>
+    <col min="6" max="6" width="24.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="27" customHeight="1">
+      <c r="A1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2.99</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1100</v>
+      </c>
+      <c r="D2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBF42880-0EBF-4D99-8935-2329431BCAA3}">
   <dimension ref="A1:W27"/>
   <sheetViews>
@@ -1648,7 +2048,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FCF415E-0CFD-4CA8-BF06-FD047A7742F8}">
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -1672,282 +2072,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47AB6A37-1990-4FC7-968C-B046E0ADC71D}">
-  <dimension ref="A1:N6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="2" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="9.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="9.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.375" customWidth="1"/>
-    <col min="7" max="7" width="16.5" customWidth="1"/>
-    <col min="8" max="12" width="14.75" customWidth="1"/>
-    <col min="13" max="13" width="14" customWidth="1"/>
-    <col min="14" max="14" width="13.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" ht="27" customHeight="1">
-      <c r="A1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <f>D2*2</f>
-        <v>5.98</v>
-      </c>
-      <c r="C2" s="1">
-        <f t="shared" ref="C2:C6" si="0">E2*2</f>
-        <v>2200</v>
-      </c>
-      <c r="D2" s="1">
-        <v>2.99</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1100</v>
-      </c>
-      <c r="F2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G2" t="s">
-        <v>98</v>
-      </c>
-      <c r="H2">
-        <v>30</v>
-      </c>
-      <c r="I2">
-        <v>20000</v>
-      </c>
-      <c r="M2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1">
-        <f t="shared" ref="B3:B6" si="1">D3*2</f>
-        <v>7.98</v>
-      </c>
-      <c r="C3" s="1">
-        <f t="shared" si="0"/>
-        <v>5000</v>
-      </c>
-      <c r="D3" s="1">
-        <v>3.99</v>
-      </c>
-      <c r="E3" s="1">
-        <v>2500</v>
-      </c>
-      <c r="F3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G3" t="s">
-        <v>99</v>
-      </c>
-      <c r="H3">
-        <v>50</v>
-      </c>
-      <c r="I3">
-        <v>40000</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="M3" t="s">
-        <v>97</v>
-      </c>
-      <c r="N3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4">
-        <v>15</v>
-      </c>
-      <c r="B4" s="1">
-        <f t="shared" si="1"/>
-        <v>9.98</v>
-      </c>
-      <c r="C4" s="1">
-        <f t="shared" si="0"/>
-        <v>11800</v>
-      </c>
-      <c r="D4" s="1">
-        <v>4.99</v>
-      </c>
-      <c r="E4" s="1">
-        <v>5900</v>
-      </c>
-      <c r="F4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G4" t="s">
-        <v>100</v>
-      </c>
-      <c r="H4">
-        <v>80</v>
-      </c>
-      <c r="I4">
-        <v>50000</v>
-      </c>
-      <c r="L4">
-        <v>2</v>
-      </c>
-      <c r="M4" t="s">
-        <v>97</v>
-      </c>
-      <c r="N4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5">
-        <v>25</v>
-      </c>
-      <c r="B5" s="1">
-        <f t="shared" si="1"/>
-        <v>11.98</v>
-      </c>
-      <c r="C5" s="1">
-        <f t="shared" si="0"/>
-        <v>24000</v>
-      </c>
-      <c r="D5" s="1">
-        <v>5.99</v>
-      </c>
-      <c r="E5" s="1">
-        <v>12000</v>
-      </c>
-      <c r="F5" t="s">
-        <v>84</v>
-      </c>
-      <c r="G5" t="s">
-        <v>101</v>
-      </c>
-      <c r="H5">
-        <v>170</v>
-      </c>
-      <c r="I5">
-        <v>50000</v>
-      </c>
-      <c r="J5">
-        <v>15</v>
-      </c>
-      <c r="L5">
-        <v>3</v>
-      </c>
-      <c r="M5" t="s">
-        <v>97</v>
-      </c>
-      <c r="N5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6">
-        <v>35</v>
-      </c>
-      <c r="B6" s="1">
-        <f t="shared" si="1"/>
-        <v>13.98</v>
-      </c>
-      <c r="C6" s="1">
-        <f t="shared" si="0"/>
-        <v>50000</v>
-      </c>
-      <c r="D6" s="1">
-        <v>6.99</v>
-      </c>
-      <c r="E6" s="1">
-        <v>25000</v>
-      </c>
-      <c r="F6" t="s">
-        <v>85</v>
-      </c>
-      <c r="G6" t="s">
-        <v>102</v>
-      </c>
-      <c r="H6">
-        <v>360</v>
-      </c>
-      <c r="I6">
-        <v>50000</v>
-      </c>
-      <c r="L6">
-        <v>7</v>
-      </c>
-      <c r="M6" t="s">
-        <v>97</v>
-      </c>
-      <c r="N6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89163021-4976-4FA0-AE69-0980BCE6F36B}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2019,7 +2149,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DA8A83E-CE6D-4487-B1D5-66A12C8DB170}">
   <dimension ref="A1:F7"/>
   <sheetViews>
@@ -2155,7 +2285,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50A51AEA-72C9-495F-800D-1309B6FF1E2F}">
   <dimension ref="A1:F4"/>
   <sheetViews>

--- a/Excel/작업Shop.xlsx
+++ b/Excel/작업Shop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26EEFCB7-9388-4073-9ED9-3C3539F52043}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC1CF2E-8EB6-4D39-947F-8AE9DBCB2DDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{267F816C-0B7C-49F1-97C6-1DE7EA009F36}"/>
   </bookViews>
@@ -208,6 +208,269 @@
         </r>
       </text>
     </comment>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{FE1A3660-2F61-41D7-87A7-DBBAD065BB70}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>반드시</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>보석</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>골드</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 2</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>개</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>넣는다
+하나만</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>있으면</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>너무</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>약소하다
+따라서</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>편의상</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>클라에서</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>둘다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>나오게</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>해놨음</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -514,7 +777,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="150">
   <si>
     <t>cashPack|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -937,6 +1200,157 @@
   <si>
     <t>ShopUIName_DailyDiamond</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 캐릭터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 상자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초월 캐릭터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전설 캐릭터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반 캐릭터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8상자 할인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터상자 할인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 장비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반 장비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>희귀 장비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영웅 캐릭터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영웅 장비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에픽 장비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전설 장비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대량 피피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다이아 구매</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골드 구매</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭 피피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무료 구매</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;-상점 뜨고나서 맥스가 넘을 상황에 못 사게도 해야한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비 미니 상자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비 상자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대량 코인+피피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다이아 구매 낮은 급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대량 코인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>셋중 하나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>는 피피구매</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버지정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피피까지 오면 클라 전용으로 넘어가도 된다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무료도 서버가 정한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피피도 차라리 서버가 정하고 후보를 쭉 나열해도 될듯한데… 잘 섞어줘야 고르게 얻기는 한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;- 이건 아마 제거해야 할듯?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전설 장비 2~7개는 위보다 구린건가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돈주고 사는 최강인데 위보다 구린가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GemsDailyGems|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dailyCount|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShopUI_HalfMonthItem</t>
   </si>
 </sst>
 </file>
@@ -1026,7 +1440,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1049,6 +1463,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1367,7 +1784,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47AB6A37-1990-4FC7-968C-B046E0ADC71D}">
   <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -1671,11 +2090,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB6F3F37-E144-46C3-ACF2-C3E94C35071D}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -1683,11 +2100,12 @@
     <col min="2" max="2" width="9" style="1"/>
     <col min="3" max="3" width="9.25" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.5" customWidth="1"/>
-    <col min="5" max="5" width="19.375" customWidth="1"/>
-    <col min="6" max="6" width="24.875" customWidth="1"/>
+    <col min="5" max="7" width="14.75" customWidth="1"/>
+    <col min="8" max="8" width="19.375" customWidth="1"/>
+    <col min="9" max="9" width="24.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="27" customHeight="1">
+    <row r="1" spans="1:9" ht="27" customHeight="1">
       <c r="A1" t="s">
         <v>103</v>
       </c>
@@ -1700,28 +2118,49 @@
       <c r="D1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="H1" t="s">
         <v>69</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>104</v>
       </c>
       <c r="B2" s="1">
-        <v>2.99</v>
+        <v>5.99</v>
       </c>
       <c r="C2" s="1">
-        <v>1100</v>
+        <v>5500</v>
       </c>
       <c r="D2" t="s">
         <v>104</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2">
+        <v>360</v>
+      </c>
+      <c r="F2">
+        <v>15</v>
+      </c>
+      <c r="G2">
+        <v>30</v>
+      </c>
+      <c r="H2" t="s">
         <v>111</v>
+      </c>
+      <c r="I2" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -1733,10 +2172,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBF42880-0EBF-4D99-8935-2329431BCAA3}">
-  <dimension ref="A1:W27"/>
+  <dimension ref="A1:W32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1981,65 +2420,209 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:23">
       <c r="B17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:23">
       <c r="A18" t="s">
         <v>20</v>
       </c>
       <c r="B18">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="I18" t="s">
+        <v>127</v>
+      </c>
+      <c r="N18" t="s">
+        <v>136</v>
+      </c>
+      <c r="R18" t="s">
+        <v>128</v>
+      </c>
+      <c r="T18" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
       <c r="B19">
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:23">
       <c r="B20">
         <v>170</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="I20" t="s">
+        <v>114</v>
+      </c>
+      <c r="R20" t="s">
+        <v>129</v>
+      </c>
+      <c r="T20" t="s">
+        <v>129</v>
+      </c>
+      <c r="U20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
       <c r="B21">
         <v>360</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="I21" t="s">
+        <v>112</v>
+      </c>
+      <c r="K21" t="s">
+        <v>119</v>
+      </c>
+      <c r="M21" t="s">
+        <v>140</v>
+      </c>
+      <c r="N21" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="R21" t="s">
+        <v>129</v>
+      </c>
+      <c r="T21" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
       <c r="B22">
         <v>950</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="R22" t="s">
+        <v>129</v>
+      </c>
+      <c r="T22" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
       <c r="B23">
         <v>2000</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="G23" t="s">
+        <v>140</v>
+      </c>
+      <c r="H23" s="8"/>
+      <c r="I23" t="s">
+        <v>138</v>
+      </c>
+      <c r="N23" t="s">
+        <v>116</v>
+      </c>
+      <c r="P23" t="s">
+        <v>120</v>
+      </c>
+      <c r="R23" t="s">
+        <v>129</v>
+      </c>
+      <c r="T23" t="s">
+        <v>133</v>
+      </c>
+      <c r="W23" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
       <c r="A24" t="s">
         <v>21</v>
       </c>
       <c r="B24">
         <v>150</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="P24" t="s">
+        <v>121</v>
+      </c>
+      <c r="R24" t="s">
+        <v>129</v>
+      </c>
+      <c r="T24" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
       <c r="B25">
         <v>400</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="I25" t="s">
+        <v>145</v>
+      </c>
+      <c r="N25" t="s">
+        <v>122</v>
+      </c>
+      <c r="P25" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
       <c r="B26">
         <v>1200</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="I26" t="s">
+        <v>146</v>
+      </c>
+      <c r="P26" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
       <c r="B27">
         <v>2600</v>
+      </c>
+      <c r="N27" t="s">
+        <v>115</v>
+      </c>
+      <c r="P27" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="I28" s="8"/>
+      <c r="J28" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="N29" t="s">
+        <v>118</v>
+      </c>
+      <c r="P29" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="K30" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="I31" t="s">
+        <v>126</v>
+      </c>
+      <c r="K31" t="s">
+        <v>135</v>
+      </c>
+      <c r="N31" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="O31" t="s">
+        <v>139</v>
+      </c>
+      <c r="R31" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="R32" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업Shop.xlsx
+++ b/Excel/작업Shop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{545B9E05-0BFC-451E-8D02-F4E870DA9BD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04EE6964-A7D3-47EA-86A0-AC0D54959DCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="653" activeTab="3" xr2:uid="{1BFDBDDD-03BC-42BF-BA52-8E4216F92F7B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="653" activeTab="3" xr2:uid="{1BFDBDDD-03BC-42BF-BA52-8E4216F92F7B}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopLevelPackageTable" sheetId="6" r:id="rId1"/>
@@ -488,6 +488,231 @@
     <author>Hoohoo</author>
   </authors>
   <commentList>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{53654030-D32D-43F3-A8FA-3ABDC27E541C}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>주의점
+영웅상자</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>일반</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>영웅</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>)</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>과</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>지정캐릭</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>일반</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>영웅</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>)</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>은</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>같은</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>날에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>팔지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">않는다
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="G1" authorId="0" shapeId="0" xr:uid="{4511861B-77E9-4724-97D9-7E0285C36AEF}">
       <text>
         <r>
@@ -2391,17 +2616,20 @@
           <cell r="N11">
             <v>-20</v>
           </cell>
+          <cell r="P11" t="str">
+            <v>FairyAxe</v>
+          </cell>
           <cell r="Q11">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="R11" t="str">
-            <v/>
+            <v>Shot_FairyAxe</v>
           </cell>
           <cell r="S11" t="str">
-            <v/>
+            <v>EquipName_FairyAxe</v>
           </cell>
           <cell r="T11" t="str">
-            <v>스트링없음</v>
+            <v>얼룩진 도끼</v>
           </cell>
         </row>
         <row r="12">
@@ -2447,17 +2675,20 @@
           <cell r="N12">
             <v>-10</v>
           </cell>
+          <cell r="P12" t="str">
+            <v>ElvenAxe</v>
+          </cell>
           <cell r="Q12">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="R12" t="str">
-            <v/>
+            <v>Shot_ElvenAxe</v>
           </cell>
           <cell r="S12" t="str">
-            <v/>
+            <v>EquipName_ElvenAxe</v>
           </cell>
           <cell r="T12" t="str">
-            <v>스트링없음</v>
+            <v>흑빛 띠를 두른 해머</v>
           </cell>
         </row>
         <row r="13">
@@ -2503,17 +2734,20 @@
           <cell r="N13">
             <v>-10</v>
           </cell>
+          <cell r="P13" t="str">
+            <v>SlicerAxe</v>
+          </cell>
           <cell r="Q13">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="R13" t="str">
-            <v/>
+            <v>Shot_SlicerAxe</v>
           </cell>
           <cell r="S13" t="str">
-            <v/>
+            <v>EquipName_SlicerAxe</v>
           </cell>
           <cell r="T13" t="str">
-            <v>스트링없음</v>
+            <v>반달 도끼</v>
           </cell>
         </row>
         <row r="14">
@@ -3806,17 +4040,20 @@
           <cell r="N36">
             <v>-20</v>
           </cell>
+          <cell r="P36" t="str">
+            <v>ElvenBow</v>
+          </cell>
           <cell r="Q36">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="R36" t="str">
-            <v/>
+            <v>Shot_ElvenBow</v>
           </cell>
           <cell r="S36" t="str">
-            <v/>
+            <v>EquipName_ElvenBow</v>
           </cell>
           <cell r="T36" t="str">
-            <v>스트링없음</v>
+            <v>수평선을 가르는 활</v>
           </cell>
         </row>
         <row r="37">
@@ -5177,17 +5414,20 @@
           <cell r="N60" t="str">
             <v/>
           </cell>
+          <cell r="P60" t="str">
+            <v>ElvenHammer</v>
+          </cell>
           <cell r="Q60">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="R60" t="str">
-            <v/>
+            <v>Shot_ElvenHammer</v>
           </cell>
           <cell r="S60" t="str">
-            <v/>
+            <v>EquipName_ElvenHammer</v>
           </cell>
           <cell r="T60" t="str">
-            <v>스트링없음</v>
+            <v>홍연의 해머</v>
           </cell>
         </row>
         <row r="61">
@@ -5233,17 +5473,20 @@
           <cell r="N61" t="str">
             <v/>
           </cell>
+          <cell r="P61" t="str">
+            <v>MysticHammer</v>
+          </cell>
           <cell r="Q61">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="R61" t="str">
-            <v/>
+            <v>Shot_MysticHammer</v>
           </cell>
           <cell r="S61" t="str">
-            <v/>
+            <v>EquipName_MysticHammer</v>
           </cell>
           <cell r="T61" t="str">
-            <v>스트링없음</v>
+            <v>미스틱 해머</v>
           </cell>
         </row>
         <row r="62">
@@ -5982,17 +6225,20 @@
           <cell r="N74" t="str">
             <v/>
           </cell>
+          <cell r="P74" t="str">
+            <v>ElvenSword</v>
+          </cell>
           <cell r="Q74">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="R74" t="str">
-            <v/>
+            <v>Shot_ElvenSword</v>
           </cell>
           <cell r="S74" t="str">
-            <v/>
+            <v>EquipName_ElvenSword</v>
           </cell>
           <cell r="T74" t="str">
-            <v>스트링없음</v>
+            <v>생명의 붉은 검</v>
           </cell>
         </row>
         <row r="75">
@@ -6038,17 +6284,20 @@
           <cell r="N75">
             <v>-20</v>
           </cell>
+          <cell r="P75" t="str">
+            <v>SunSword</v>
+          </cell>
           <cell r="Q75">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="R75" t="str">
-            <v/>
+            <v>Shot_SunSword</v>
           </cell>
           <cell r="S75" t="str">
-            <v/>
+            <v>EquipName_SunSword</v>
           </cell>
           <cell r="T75" t="str">
-            <v>스트링없음</v>
+            <v>태양검</v>
           </cell>
         </row>
         <row r="76">
@@ -6094,17 +6343,20 @@
           <cell r="N76">
             <v>-20</v>
           </cell>
+          <cell r="P76" t="str">
+            <v>GoldenBlade</v>
+          </cell>
           <cell r="Q76">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="R76" t="str">
-            <v/>
+            <v>Shot_GoldenBlade</v>
           </cell>
           <cell r="S76" t="str">
-            <v/>
+            <v>EquipName_GoldenBlade</v>
           </cell>
           <cell r="T76" t="str">
-            <v>스트링없음</v>
+            <v>골든 블레이드</v>
           </cell>
         </row>
         <row r="77">
@@ -7238,17 +7490,20 @@
           <cell r="N96" t="str">
             <v/>
           </cell>
+          <cell r="P96" t="str">
+            <v>SkullShield</v>
+          </cell>
           <cell r="Q96">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="R96" t="str">
-            <v/>
+            <v>Shot_SkullShield</v>
           </cell>
           <cell r="S96" t="str">
-            <v/>
+            <v>EquipName_SkullShield</v>
           </cell>
           <cell r="T96" t="str">
-            <v>스트링없음</v>
+            <v>해골 대형 방패</v>
           </cell>
         </row>
         <row r="97">
@@ -7294,17 +7549,20 @@
           <cell r="N97" t="str">
             <v/>
           </cell>
+          <cell r="P97" t="str">
+            <v>FantasyShield</v>
+          </cell>
           <cell r="Q97">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="R97" t="str">
-            <v/>
+            <v>Shot_FantasyShield</v>
           </cell>
           <cell r="S97" t="str">
-            <v/>
+            <v>EquipName_FantasyShield</v>
           </cell>
           <cell r="T97" t="str">
-            <v>스트링없음</v>
+            <v>고대 주술인의 방패</v>
           </cell>
         </row>
         <row r="98">
@@ -8096,17 +8354,20 @@
           <cell r="N111" t="str">
             <v/>
           </cell>
+          <cell r="P111" t="str">
+            <v>AncientBlade</v>
+          </cell>
           <cell r="Q111">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="R111" t="str">
-            <v/>
+            <v>Shot_AncientBlade</v>
           </cell>
           <cell r="S111" t="str">
-            <v/>
+            <v>EquipName_AncientBlade</v>
           </cell>
           <cell r="T111" t="str">
-            <v>스트링없음</v>
+            <v>고대인의 블레이드</v>
           </cell>
         </row>
         <row r="112">
@@ -8277,7 +8538,7 @@
             <v>EquipName_StylizedFantasySword</v>
           </cell>
           <cell r="T114" t="str">
-            <v>빛나는 스톤 소드</v>
+            <v>발열하는 스톤 소드</v>
           </cell>
         </row>
         <row r="115">
@@ -8505,12 +8766,12 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -9574,14 +9835,26 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="2">
+          <cell r="C2">
+            <v>100</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>로그화 상수</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -10954,37 +11227,33 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6D00E40-1C77-4315-A9CA-11C225286842}">
-  <dimension ref="A1:Y280"/>
+  <dimension ref="A1:X280"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C86" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A89" sqref="A89"/>
+      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="25" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="9.875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.5" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="10.125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="9" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="9" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="9" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="9" customWidth="1"/>
-    <col min="15" max="17" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="18" max="18" width="9" collapsed="1"/>
-    <col min="19" max="19" width="26" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="20" max="22" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="23" max="23" width="9" collapsed="1"/>
-    <col min="24" max="24" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="25" max="25" width="9" collapsed="1"/>
+    <col min="3" max="3" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="25" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="9.875" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="10.125" customWidth="1"/>
+    <col min="8" max="8" width="12.75" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="9" customWidth="1"/>
+    <col min="10" max="10" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="9" customWidth="1"/>
+    <col min="12" max="12" width="11.625" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="14" width="9" customWidth="1"/>
+    <col min="15" max="17" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="26" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="22" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="24" max="24" width="9" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="26.25" customHeight="1">
@@ -11014,7 +11283,7 @@
         <v>127</v>
       </c>
       <c r="I1" s="3" t="str">
-        <f t="array" ref="I1">IF(SUM(IF(OR(H:H="밸류불필요",H:H="숫자필요",H:H="캐릭터없음",H:H="장비없음"),1,0))&gt;0,"밸류이상","cn")</f>
+        <f t="array" aca="1" ref="I1" ca="1">IF(SUM(IF(OR(H:H="밸류불필요",H:H="숫자필요",H:H="캐릭터없음",H:H="장비없음"),1,0))&gt;0,"밸류이상","cn")</f>
         <v>cn</v>
       </c>
       <c r="J1" t="s">
@@ -13880,7 +14149,7 @@
         <v>121</v>
       </c>
       <c r="H65" t="str">
-        <f>IF(OR(
+        <f ca="1">IF(OR(
   AND(NOT(ISERROR(FIND("상자",D65))),ISBLANK(G65)),
   AND(ISBLANK(D65),ISBLANK(G65)),
   AND(NOT(ISERROR(FIND("안 지정",D65))),ISNUMBER(G65))),"",
@@ -14318,7 +14587,7 @@
         <v>117</v>
       </c>
       <c r="H72" t="str">
-        <f>IF(OR(
+        <f ca="1">IF(OR(
   AND(NOT(ISERROR(FIND("상자",D72))),ISBLANK(G72)),
   AND(ISBLANK(D72),ISBLANK(G72)),
   AND(NOT(ISERROR(FIND("안 지정",D72))),ISNUMBER(G72))),"",
@@ -14378,7 +14647,7 @@
         <v>128</v>
       </c>
       <c r="H73" t="str">
-        <f>IF(OR(
+        <f ca="1">IF(OR(
   AND(NOT(ISERROR(FIND("상자",D73))),ISBLANK(G73)),
   AND(ISBLANK(D73),ISBLANK(G73)),
   AND(NOT(ISERROR(FIND("안 지정",D73))),ISNUMBER(G73))),"",
@@ -14744,7 +15013,7 @@
         <v>124</v>
       </c>
       <c r="H79" t="str">
-        <f>IF(OR(
+        <f ca="1">IF(OR(
   AND(NOT(ISERROR(FIND("상자",D79))),ISBLANK(G79)),
   AND(ISBLANK(D79),ISBLANK(G79)),
   AND(NOT(ISERROR(FIND("안 지정",D79))),ISNUMBER(G79))),"",
@@ -14807,7 +15076,7 @@
         <v>125</v>
       </c>
       <c r="H80" t="str">
-        <f>IF(OR(
+        <f ca="1">IF(OR(
   AND(NOT(ISERROR(FIND("상자",D80))),ISBLANK(G80)),
   AND(ISBLANK(D80),ISBLANK(G80)),
   AND(NOT(ISERROR(FIND("안 지정",D80))),ISNUMBER(G80))),"",
@@ -15173,7 +15442,7 @@
         <v>139</v>
       </c>
       <c r="H86" t="str">
-        <f>IF(OR(
+        <f ca="1">IF(OR(
   AND(NOT(ISERROR(FIND("상자",D86))),ISBLANK(G86)),
   AND(ISBLANK(D86),ISBLANK(G86)),
   AND(NOT(ISERROR(FIND("안 지정",D86))),ISNUMBER(G86))),"",
@@ -15598,7 +15867,7 @@
         <v>140</v>
       </c>
       <c r="H93" t="str">
-        <f>IF(OR(
+        <f ca="1">IF(OR(
   AND(NOT(ISERROR(FIND("상자",D93))),ISBLANK(G93)),
   AND(ISBLANK(D93),ISBLANK(G93)),
   AND(NOT(ISERROR(FIND("안 지정",D93))),ISNUMBER(G93))),"",
@@ -15658,7 +15927,7 @@
         <v>141</v>
       </c>
       <c r="H94" t="str">
-        <f>IF(OR(
+        <f ca="1">IF(OR(
   AND(NOT(ISERROR(FIND("상자",D94))),ISBLANK(G94)),
   AND(ISBLANK(D94),ISBLANK(G94)),
   AND(NOT(ISERROR(FIND("안 지정",D94))),ISNUMBER(G94))),"",
@@ -15984,7 +16253,7 @@
         <v>136</v>
       </c>
       <c r="H100" t="str">
-        <f>IF(OR(
+        <f ca="1">IF(OR(
   AND(NOT(ISERROR(FIND("상자",D100))),ISBLANK(G100)),
   AND(ISBLANK(D100),ISBLANK(G100)),
   AND(NOT(ISERROR(FIND("안 지정",D100))),ISNUMBER(G100))),"",
@@ -16044,7 +16313,7 @@
         <v>137</v>
       </c>
       <c r="H101" t="str">
-        <f>IF(OR(
+        <f ca="1">IF(OR(
   AND(NOT(ISERROR(FIND("상자",D101))),ISBLANK(G101)),
   AND(ISBLANK(D101),ISBLANK(G101)),
   AND(NOT(ISERROR(FIND("안 지정",D101))),ISNUMBER(G101))),"",
@@ -16368,7 +16637,7 @@
         <v>125</v>
       </c>
       <c r="H107" t="str">
-        <f>IF(OR(
+        <f ca="1">IF(OR(
   AND(NOT(ISERROR(FIND("상자",D107))),ISBLANK(G107)),
   AND(ISBLANK(D107),ISBLANK(G107)),
   AND(NOT(ISERROR(FIND("안 지정",D107))),ISNUMBER(G107))),"",
@@ -16428,7 +16697,7 @@
         <v>138</v>
       </c>
       <c r="H108" t="str">
-        <f>IF(OR(
+        <f ca="1">IF(OR(
   AND(NOT(ISERROR(FIND("상자",D108))),ISBLANK(G108)),
   AND(ISBLANK(D108),ISBLANK(G108)),
   AND(NOT(ISERROR(FIND("안 지정",D108))),ISNUMBER(G108))),"",

--- a/Excel/작업Shop.xlsx
+++ b/Excel/작업Shop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC7AEF5-F365-476D-A2BA-0CCB40586848}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785A5D68-45E0-426E-B9FD-393ED4AFF546}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="653" activeTab="3" xr2:uid="{1BFDBDDD-03BC-42BF-BA52-8E4216F92F7B}"/>
   </bookViews>
@@ -949,6 +949,48 @@
         </r>
       </text>
     </comment>
+    <comment ref="S3" authorId="0" shapeId="0" xr:uid="{308B76F9-28A0-4F7A-BAEF-896B62CD296B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>운영상</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>저렴하니</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 0~4</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -1255,7 +1297,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="146">
   <si>
     <t>addText|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1766,6 +1808,10 @@
   <si>
     <t>Equip6201</t>
   </si>
+  <si>
+    <t>DI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -8849,12 +8895,12 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -9918,14 +9964,14 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -11301,10 +11347,10 @@
   <dimension ref="A1:X280"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C109" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C118" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D126" sqref="D126"/>
+      <selection pane="bottomRight" activeCell="O139" sqref="O139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -11466,7 +11512,7 @@
         <f ca="1">"["&amp;
 IF(LEFT(P280,1)=",",SUBSTITUTE(P280,",","",1),P280)
 &amp;"]"</f>
-        <v>[{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":10,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":11,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":12,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":14,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":15,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":16,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":18,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":19,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":20,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":10,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":11,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":12,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":14,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":15,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":16,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":18,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":19,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":20,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230}]</v>
+        <v>[{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":18,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":20,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":18,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":20,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230}]</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -14245,16 +14291,13 @@
       <c r="N65">
         <v>530</v>
       </c>
-      <c r="O65">
-        <v>1</v>
-      </c>
       <c r="P65" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530}</v>
+        <f t="shared" si="4"/>
+        <v/>
       </c>
       <c r="Q65" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530}</v>
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="66" spans="1:17">
@@ -14305,15 +14348,12 @@
       <c r="N66">
         <v>30</v>
       </c>
-      <c r="O66">
-        <v>1</v>
-      </c>
       <c r="P66" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30}</v>
+        <f t="shared" si="4"/>
+        <v/>
       </c>
       <c r="Q66" t="str">
-        <f t="shared" ref="Q66:Q129" ca="1" si="7">IF(O66&lt;&gt;1,"",
+        <f t="shared" ref="Q66:Q129" si="7">IF(O66&lt;&gt;1,"",
 "{"""&amp;A$1&amp;""":"&amp;A66
 &amp;","""&amp;B$1&amp;""":"&amp;B66
 &amp;IF(LEN(E66)=0,"",","""&amp;E$1&amp;""":"""&amp;E66&amp;"""")
@@ -14322,7 +14362,7 @@
 &amp;IF(LEN(K66)=0,"",","""&amp;K$1&amp;""":"""&amp;K66&amp;"""")
 &amp;IF(LEN(M66)=0,"",","""&amp;M$1&amp;""":"&amp;M66)
 &amp;IF(LEN(N66)=0,"",","""&amp;N$1&amp;""":"&amp;N66)&amp;"}")</f>
-        <v>{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30}</v>
+        <v/>
       </c>
     </row>
     <row r="67" spans="1:17">
@@ -14374,16 +14414,13 @@
       <c r="N67">
         <v>70</v>
       </c>
-      <c r="O67">
-        <v>1</v>
-      </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P130" ca="1" si="9">P66&amp;IF(LEN(Q67)=0,"",","&amp;Q67)</f>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70}</v>
+        <f t="shared" ref="P67:P130" si="9">P66&amp;IF(LEN(Q67)=0,"",","&amp;Q67)</f>
+        <v/>
       </c>
       <c r="Q67" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70}</v>
+        <f t="shared" si="7"/>
+        <v/>
       </c>
     </row>
     <row r="68" spans="1:17">
@@ -14434,16 +14471,13 @@
       <c r="N68">
         <v>1600</v>
       </c>
-      <c r="O68">
-        <v>1</v>
-      </c>
       <c r="P68" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600}</v>
+        <f t="shared" si="9"/>
+        <v/>
       </c>
       <c r="Q68" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600}</v>
+        <f t="shared" si="7"/>
+        <v/>
       </c>
     </row>
     <row r="69" spans="1:17">
@@ -14494,16 +14528,13 @@
       <c r="N69">
         <v>1800</v>
       </c>
-      <c r="O69">
-        <v>1</v>
-      </c>
       <c r="P69" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800}</v>
+        <f t="shared" si="9"/>
+        <v/>
       </c>
       <c r="Q69" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800}</v>
+        <f t="shared" si="7"/>
+        <v/>
       </c>
     </row>
     <row r="70" spans="1:17">
@@ -14557,16 +14588,13 @@
       <c r="N70">
         <v>120</v>
       </c>
-      <c r="O70">
-        <v>1</v>
-      </c>
       <c r="P70" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120}</v>
+        <f t="shared" si="9"/>
+        <v/>
       </c>
       <c r="Q70" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120}</v>
+        <f t="shared" si="7"/>
+        <v/>
       </c>
     </row>
     <row r="71" spans="1:17">
@@ -14620,16 +14648,13 @@
       <c r="N71">
         <v>16</v>
       </c>
-      <c r="O71">
-        <v>1</v>
-      </c>
       <c r="P71" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16}</v>
+        <f t="shared" si="9"/>
+        <v/>
       </c>
       <c r="Q71" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16}</v>
+        <f t="shared" si="7"/>
+        <v/>
       </c>
     </row>
     <row r="72" spans="1:17">
@@ -14680,16 +14705,13 @@
       <c r="N72">
         <v>5000</v>
       </c>
-      <c r="O72">
-        <v>1</v>
-      </c>
       <c r="P72" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000}</v>
+        <f t="shared" si="9"/>
+        <v/>
       </c>
       <c r="Q72" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000}</v>
+        <f t="shared" si="7"/>
+        <v/>
       </c>
     </row>
     <row r="73" spans="1:17">
@@ -14740,16 +14762,13 @@
       <c r="N73">
         <v>24450</v>
       </c>
-      <c r="O73">
-        <v>1</v>
-      </c>
       <c r="P73" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450}</v>
+        <f t="shared" si="9"/>
+        <v/>
       </c>
       <c r="Q73" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450}</v>
+        <f t="shared" si="7"/>
+        <v/>
       </c>
     </row>
     <row r="74" spans="1:17">
@@ -14800,16 +14819,13 @@
       <c r="N74">
         <v>2100</v>
       </c>
-      <c r="O74">
-        <v>1</v>
-      </c>
       <c r="P74" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100}</v>
+        <f t="shared" si="9"/>
+        <v/>
       </c>
       <c r="Q74" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100}</v>
+        <f t="shared" si="7"/>
+        <v/>
       </c>
     </row>
     <row r="75" spans="1:17">
@@ -14860,16 +14876,13 @@
       <c r="N75">
         <v>1600</v>
       </c>
-      <c r="O75">
-        <v>1</v>
-      </c>
       <c r="P75" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600}</v>
+        <f t="shared" si="9"/>
+        <v/>
       </c>
       <c r="Q75" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600}</v>
+        <f t="shared" si="7"/>
+        <v/>
       </c>
     </row>
     <row r="76" spans="1:17">
@@ -14920,16 +14933,13 @@
       <c r="N76">
         <v>1800</v>
       </c>
-      <c r="O76">
-        <v>1</v>
-      </c>
       <c r="P76" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800}</v>
+        <f t="shared" si="9"/>
+        <v/>
       </c>
       <c r="Q76" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800}</v>
+        <f t="shared" si="7"/>
+        <v/>
       </c>
     </row>
     <row r="77" spans="1:17">
@@ -14983,16 +14993,13 @@
       <c r="N77">
         <v>760</v>
       </c>
-      <c r="O77">
-        <v>1</v>
-      </c>
       <c r="P77" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760}</v>
+        <f t="shared" si="9"/>
+        <v/>
       </c>
       <c r="Q77" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760}</v>
+        <f t="shared" si="7"/>
+        <v/>
       </c>
     </row>
     <row r="78" spans="1:17">
@@ -15046,16 +15053,13 @@
       <c r="N78">
         <v>830</v>
       </c>
-      <c r="O78">
-        <v>1</v>
-      </c>
       <c r="P78" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830}</v>
+        <f t="shared" si="9"/>
+        <v/>
       </c>
       <c r="Q78" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830}</v>
+        <f t="shared" si="7"/>
+        <v/>
       </c>
     </row>
     <row r="79" spans="1:17">
@@ -15109,16 +15113,13 @@
       <c r="N79">
         <v>530</v>
       </c>
-      <c r="O79">
-        <v>1</v>
-      </c>
       <c r="P79" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530}</v>
+        <f t="shared" si="9"/>
+        <v/>
       </c>
       <c r="Q79" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530}</v>
+        <f t="shared" si="7"/>
+        <v/>
       </c>
     </row>
     <row r="80" spans="1:17">
@@ -15169,16 +15170,13 @@
       <c r="N80">
         <v>30</v>
       </c>
-      <c r="O80">
-        <v>1</v>
-      </c>
       <c r="P80" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30}</v>
+        <f t="shared" si="9"/>
+        <v/>
       </c>
       <c r="Q80" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30}</v>
+        <f t="shared" si="7"/>
+        <v/>
       </c>
     </row>
     <row r="81" spans="1:17">
@@ -15229,16 +15227,13 @@
       <c r="N81">
         <v>1600</v>
       </c>
-      <c r="O81">
-        <v>1</v>
-      </c>
       <c r="P81" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600}</v>
+        <f t="shared" si="9"/>
+        <v/>
       </c>
       <c r="Q81" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600}</v>
+        <f t="shared" si="7"/>
+        <v/>
       </c>
     </row>
     <row r="82" spans="1:17">
@@ -15289,16 +15284,13 @@
       <c r="N82">
         <v>1600</v>
       </c>
-      <c r="O82">
-        <v>1</v>
-      </c>
       <c r="P82" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600}</v>
+        <f t="shared" si="9"/>
+        <v/>
       </c>
       <c r="Q82" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600}</v>
+        <f t="shared" si="7"/>
+        <v/>
       </c>
     </row>
     <row r="83" spans="1:17">
@@ -15349,16 +15341,13 @@
       <c r="N83">
         <v>1800</v>
       </c>
-      <c r="O83">
-        <v>1</v>
-      </c>
       <c r="P83" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800}</v>
+        <f t="shared" si="9"/>
+        <v/>
       </c>
       <c r="Q83" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800}</v>
+        <f t="shared" si="7"/>
+        <v/>
       </c>
     </row>
     <row r="84" spans="1:17">
@@ -15412,16 +15401,13 @@
       <c r="N84">
         <v>120</v>
       </c>
-      <c r="O84">
-        <v>1</v>
-      </c>
       <c r="P84" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120}</v>
+        <f t="shared" si="9"/>
+        <v/>
       </c>
       <c r="Q84" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120}</v>
+        <f t="shared" si="7"/>
+        <v/>
       </c>
     </row>
     <row r="85" spans="1:17">
@@ -15475,16 +15461,13 @@
       <c r="N85">
         <v>16</v>
       </c>
-      <c r="O85">
-        <v>1</v>
-      </c>
       <c r="P85" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16}</v>
+        <f t="shared" si="9"/>
+        <v/>
       </c>
       <c r="Q85" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16}</v>
+        <f t="shared" si="7"/>
+        <v/>
       </c>
     </row>
     <row r="86" spans="1:17">
@@ -15535,16 +15518,13 @@
       <c r="N86">
         <v>12000</v>
       </c>
-      <c r="O86">
-        <v>1</v>
-      </c>
       <c r="P86" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000}</v>
+        <f t="shared" si="9"/>
+        <v/>
       </c>
       <c r="Q86" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000}</v>
+        <f t="shared" si="7"/>
+        <v/>
       </c>
     </row>
     <row r="87" spans="1:17">
@@ -15594,16 +15574,13 @@
       <c r="N87">
         <v>30</v>
       </c>
-      <c r="O87">
-        <v>1</v>
-      </c>
       <c r="P87" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30}</v>
+        <f t="shared" si="9"/>
+        <v/>
       </c>
       <c r="Q87" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30}</v>
+        <f t="shared" si="7"/>
+        <v/>
       </c>
     </row>
     <row r="88" spans="1:17">
@@ -15654,16 +15631,13 @@
       <c r="N88">
         <v>70</v>
       </c>
-      <c r="O88">
-        <v>1</v>
-      </c>
       <c r="P88" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70}</v>
+        <f t="shared" si="9"/>
+        <v/>
       </c>
       <c r="Q88" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70}</v>
+        <f t="shared" si="7"/>
+        <v/>
       </c>
     </row>
     <row r="89" spans="1:17">
@@ -15714,16 +15688,13 @@
       <c r="N89">
         <v>1600</v>
       </c>
-      <c r="O89">
-        <v>1</v>
-      </c>
       <c r="P89" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600}</v>
+        <f t="shared" si="9"/>
+        <v/>
       </c>
       <c r="Q89" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600}</v>
+        <f t="shared" si="7"/>
+        <v/>
       </c>
     </row>
     <row r="90" spans="1:17">
@@ -15774,16 +15745,13 @@
       <c r="N90">
         <v>1800</v>
       </c>
-      <c r="O90">
-        <v>1</v>
-      </c>
       <c r="P90" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800}</v>
+        <f t="shared" si="9"/>
+        <v/>
       </c>
       <c r="Q90" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800}</v>
+        <f t="shared" si="7"/>
+        <v/>
       </c>
     </row>
     <row r="91" spans="1:17">
@@ -15837,16 +15805,13 @@
       <c r="N91">
         <v>120</v>
       </c>
-      <c r="O91">
-        <v>1</v>
-      </c>
       <c r="P91" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120}</v>
+        <f t="shared" si="9"/>
+        <v/>
       </c>
       <c r="Q91" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120}</v>
+        <f t="shared" si="7"/>
+        <v/>
       </c>
     </row>
     <row r="92" spans="1:17">
@@ -15900,16 +15865,13 @@
       <c r="N92">
         <v>16</v>
       </c>
-      <c r="O92">
-        <v>1</v>
-      </c>
       <c r="P92" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16}</v>
+        <f t="shared" si="9"/>
+        <v/>
       </c>
       <c r="Q92" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16}</v>
+        <f t="shared" si="7"/>
+        <v/>
       </c>
     </row>
     <row r="93" spans="1:17">
@@ -15960,16 +15922,13 @@
       <c r="N93">
         <v>5000</v>
       </c>
-      <c r="O93">
-        <v>1</v>
-      </c>
       <c r="P93" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000}</v>
+        <f t="shared" si="9"/>
+        <v/>
       </c>
       <c r="Q93" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000}</v>
+        <f t="shared" si="7"/>
+        <v/>
       </c>
     </row>
     <row r="94" spans="1:17">
@@ -16020,16 +15979,13 @@
       <c r="N94">
         <v>24450</v>
       </c>
-      <c r="O94">
-        <v>1</v>
-      </c>
       <c r="P94" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450}</v>
+        <f t="shared" si="9"/>
+        <v/>
       </c>
       <c r="Q94" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450}</v>
+        <f t="shared" si="7"/>
+        <v/>
       </c>
     </row>
     <row r="95" spans="1:17">
@@ -16080,16 +16036,13 @@
       <c r="N95">
         <v>1700</v>
       </c>
-      <c r="O95">
-        <v>1</v>
-      </c>
       <c r="P95" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700}</v>
+        <f t="shared" si="9"/>
+        <v/>
       </c>
       <c r="Q95" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700}</v>
+        <f t="shared" si="7"/>
+        <v/>
       </c>
     </row>
     <row r="96" spans="1:17">
@@ -16140,16 +16093,13 @@
       <c r="N96">
         <v>2000</v>
       </c>
-      <c r="O96">
-        <v>1</v>
-      </c>
       <c r="P96" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000}</v>
+        <f t="shared" si="9"/>
+        <v/>
       </c>
       <c r="Q96" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000}</v>
+        <f t="shared" si="7"/>
+        <v/>
       </c>
     </row>
     <row r="97" spans="1:17">
@@ -16200,16 +16150,13 @@
       <c r="N97">
         <v>1900</v>
       </c>
-      <c r="O97">
-        <v>1</v>
-      </c>
       <c r="P97" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900}</v>
+        <f t="shared" si="9"/>
+        <v/>
       </c>
       <c r="Q97" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900}</v>
+        <f t="shared" si="7"/>
+        <v/>
       </c>
     </row>
     <row r="98" spans="1:17">
@@ -16246,8 +16193,8 @@
         <v/>
       </c>
       <c r="P98" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900}</v>
+        <f t="shared" si="9"/>
+        <v/>
       </c>
       <c r="Q98" t="str">
         <f t="shared" si="7"/>
@@ -16288,8 +16235,8 @@
         <v/>
       </c>
       <c r="P99" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900}</v>
+        <f t="shared" si="9"/>
+        <v/>
       </c>
       <c r="Q99" t="str">
         <f t="shared" si="7"/>
@@ -16346,16 +16293,13 @@
       <c r="N100">
         <v>5000</v>
       </c>
-      <c r="O100">
-        <v>1</v>
-      </c>
       <c r="P100" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000}</v>
+        <f t="shared" si="9"/>
+        <v/>
       </c>
       <c r="Q100" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000}</v>
+        <f t="shared" si="7"/>
+        <v/>
       </c>
     </row>
     <row r="101" spans="1:17">
@@ -16406,16 +16350,13 @@
       <c r="N101">
         <v>24450</v>
       </c>
-      <c r="O101">
-        <v>1</v>
-      </c>
       <c r="P101" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450}</v>
+        <f t="shared" si="9"/>
+        <v/>
       </c>
       <c r="Q101" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450}</v>
+        <f t="shared" si="7"/>
+        <v/>
       </c>
     </row>
     <row r="102" spans="1:17">
@@ -16466,16 +16407,13 @@
       <c r="N102">
         <v>1600</v>
       </c>
-      <c r="O102">
-        <v>1</v>
-      </c>
       <c r="P102" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600}</v>
+        <f t="shared" si="9"/>
+        <v/>
       </c>
       <c r="Q102" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600}</v>
+        <f t="shared" si="7"/>
+        <v/>
       </c>
     </row>
     <row r="103" spans="1:17">
@@ -16526,16 +16464,13 @@
       <c r="N103">
         <v>1900</v>
       </c>
-      <c r="O103">
-        <v>1</v>
-      </c>
       <c r="P103" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900}</v>
+        <f t="shared" si="9"/>
+        <v/>
       </c>
       <c r="Q103" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900}</v>
+        <f t="shared" si="7"/>
+        <v/>
       </c>
     </row>
     <row r="104" spans="1:17">
@@ -16586,16 +16521,13 @@
       <c r="N104">
         <v>2200</v>
       </c>
-      <c r="O104">
-        <v>1</v>
-      </c>
       <c r="P104" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200}</v>
+        <f t="shared" si="9"/>
+        <v/>
       </c>
       <c r="Q104" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200}</v>
+        <f t="shared" si="7"/>
+        <v/>
       </c>
     </row>
     <row r="105" spans="1:17">
@@ -16632,8 +16564,8 @@
         <v/>
       </c>
       <c r="P105" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200}</v>
+        <f t="shared" si="9"/>
+        <v/>
       </c>
       <c r="Q105" t="str">
         <f t="shared" si="7"/>
@@ -16674,8 +16606,8 @@
         <v/>
       </c>
       <c r="P106" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200}</v>
+        <f t="shared" si="9"/>
+        <v/>
       </c>
       <c r="Q106" t="str">
         <f t="shared" si="7"/>
@@ -16730,16 +16662,13 @@
       <c r="N107">
         <v>5000</v>
       </c>
-      <c r="O107">
-        <v>1</v>
-      </c>
       <c r="P107" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000}</v>
+        <f t="shared" si="9"/>
+        <v/>
       </c>
       <c r="Q107" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000}</v>
+        <f t="shared" si="7"/>
+        <v/>
       </c>
     </row>
     <row r="108" spans="1:17">
@@ -16790,16 +16719,13 @@
       <c r="N108">
         <v>24450</v>
       </c>
-      <c r="O108">
-        <v>1</v>
-      </c>
       <c r="P108" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450}</v>
+        <f t="shared" si="9"/>
+        <v/>
       </c>
       <c r="Q108" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450}</v>
+        <f t="shared" si="7"/>
+        <v/>
       </c>
     </row>
     <row r="109" spans="1:17">
@@ -16850,16 +16776,13 @@
       <c r="N109">
         <v>1700</v>
       </c>
-      <c r="O109">
-        <v>1</v>
-      </c>
       <c r="P109" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700}</v>
+        <f t="shared" si="9"/>
+        <v/>
       </c>
       <c r="Q109" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700}</v>
+        <f t="shared" si="7"/>
+        <v/>
       </c>
     </row>
     <row r="110" spans="1:17">
@@ -16910,16 +16833,13 @@
       <c r="N110">
         <v>2000</v>
       </c>
-      <c r="O110">
-        <v>1</v>
-      </c>
       <c r="P110" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000}</v>
+        <f t="shared" si="9"/>
+        <v/>
       </c>
       <c r="Q110" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000}</v>
+        <f t="shared" si="7"/>
+        <v/>
       </c>
     </row>
     <row r="111" spans="1:17">
@@ -16970,16 +16890,13 @@
       <c r="N111">
         <v>1800</v>
       </c>
-      <c r="O111">
-        <v>1</v>
-      </c>
       <c r="P111" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800}</v>
+        <f t="shared" si="9"/>
+        <v/>
       </c>
       <c r="Q111" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800}</v>
+        <f t="shared" si="7"/>
+        <v/>
       </c>
     </row>
     <row r="112" spans="1:17">
@@ -17016,8 +16933,8 @@
         <v/>
       </c>
       <c r="P112" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800}</v>
+        <f t="shared" si="9"/>
+        <v/>
       </c>
       <c r="Q112" t="str">
         <f t="shared" si="7"/>
@@ -17058,8 +16975,8 @@
         <v/>
       </c>
       <c r="P113" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800}</v>
+        <f t="shared" si="9"/>
+        <v/>
       </c>
       <c r="Q113" t="str">
         <f t="shared" si="7"/>
@@ -17122,7 +17039,7 @@
       </c>
       <c r="P114" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530}</v>
       </c>
       <c r="Q114" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -17181,7 +17098,7 @@
       </c>
       <c r="P115" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30}</v>
       </c>
       <c r="Q115" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -17241,7 +17158,7 @@
       </c>
       <c r="P116" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70}</v>
       </c>
       <c r="Q116" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -17301,7 +17218,7 @@
       </c>
       <c r="P117" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600}</v>
       </c>
       <c r="Q117" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -17361,7 +17278,7 @@
       </c>
       <c r="P118" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800}</v>
       </c>
       <c r="Q118" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -17424,7 +17341,7 @@
       </c>
       <c r="P119" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120}</v>
       </c>
       <c r="Q119" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -17487,7 +17404,7 @@
       </c>
       <c r="P120" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16}</v>
       </c>
       <c r="Q120" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -17547,7 +17464,7 @@
       </c>
       <c r="P121" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000}</v>
       </c>
       <c r="Q121" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -17607,7 +17524,7 @@
       </c>
       <c r="P122" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450}</v>
       </c>
       <c r="Q122" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -17667,7 +17584,7 @@
       </c>
       <c r="P123" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600}</v>
       </c>
       <c r="Q123" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -17727,7 +17644,7 @@
       </c>
       <c r="P124" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900}</v>
       </c>
       <c r="Q124" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -17787,7 +17704,7 @@
       </c>
       <c r="P125" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200}</v>
       </c>
       <c r="Q125" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -17829,7 +17746,7 @@
       </c>
       <c r="P126" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200}</v>
       </c>
       <c r="Q126" t="str">
         <f t="shared" si="7"/>
@@ -17871,7 +17788,7 @@
       </c>
       <c r="P127" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200}</v>
       </c>
       <c r="Q127" t="str">
         <f t="shared" si="7"/>
@@ -17933,7 +17850,7 @@
       </c>
       <c r="P128" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000}</v>
       </c>
       <c r="Q128" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -17993,7 +17910,7 @@
       </c>
       <c r="P129" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450}</v>
       </c>
       <c r="Q129" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -18024,7 +17941,7 @@
         <v/>
       </c>
       <c r="G130">
-        <v>57153</v>
+        <v>47153</v>
       </c>
       <c r="H130" t="str">
         <f>IF(OR(
@@ -18054,7 +17971,7 @@
       </c>
       <c r="P130" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600}</v>
       </c>
       <c r="Q130" t="str">
         <f t="shared" ref="Q130:Q193" ca="1" si="15">IF(O130&lt;&gt;1,"",
@@ -18066,7 +17983,7 @@
 &amp;IF(LEN(K130)=0,"",","""&amp;K$1&amp;""":"""&amp;K130&amp;"""")
 &amp;IF(LEN(M130)=0,"",","""&amp;M$1&amp;""":"&amp;M130)
 &amp;IF(LEN(N130)=0,"",","""&amp;N$1&amp;""":"&amp;N130)&amp;"}")</f>
-        <v>{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600}</v>
+        <v>{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600}</v>
       </c>
     </row>
     <row r="131" spans="1:17">
@@ -18093,7 +18010,7 @@
         <v/>
       </c>
       <c r="G131">
-        <v>34534</v>
+        <v>24534</v>
       </c>
       <c r="H131" t="str">
         <f>IF(OR(
@@ -18123,11 +18040,11 @@
       </c>
       <c r="P131" t="str">
         <f t="shared" ref="P131:P194" ca="1" si="17">P130&amp;IF(LEN(Q131)=0,"",","&amp;Q131)</f>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900}</v>
       </c>
       <c r="Q131" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900}</v>
+        <v>{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900}</v>
       </c>
     </row>
     <row r="132" spans="1:17">
@@ -18153,7 +18070,7 @@
         <v/>
       </c>
       <c r="G132">
-        <v>66634</v>
+        <v>56634</v>
       </c>
       <c r="H132" t="str">
         <f>IF(OR(
@@ -18183,11 +18100,11 @@
       </c>
       <c r="P132" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200}</v>
       </c>
       <c r="Q132" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200}</v>
+        <v>{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200}</v>
       </c>
     </row>
     <row r="133" spans="1:17">
@@ -18200,17 +18117,23 @@
       <c r="C133">
         <f t="shared" si="14"/>
         <v>0</v>
+      </c>
+      <c r="D133" t="s">
+        <v>100</v>
       </c>
       <c r="E133" t="str">
         <f t="shared" ref="E133:E193" ca="1" si="18">IF(ISBLANK(D133),"",
 VLOOKUP(D133,OFFSET(INDIRECT("$A:$B"),0,MATCH(D$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
-        <v/>
+        <v>fp</v>
       </c>
       <c r="F133" t="str">
         <f t="shared" ref="F133:F194" si="19">IF(ISBLANK($D133),"",
 IF(AND($B133&gt;=VLOOKUP($D133,$S:$V,3,0),$B133&lt;=VLOOKUP($D133,$S:$V,4,0)),"","슬롯타입이상"))</f>
         <v/>
+      </c>
+      <c r="G133" t="s">
+        <v>123</v>
       </c>
       <c r="H133" t="str">
         <f>IF(OR(
@@ -18224,15 +18147,30 @@
 IF(NOT(ISERROR(FIND("캐릭터",D133))),
   IFERROR(VLOOKUP(G133,[2]ActorTable!$A:$G,MATCH("이름참고",[2]ActorTable!$1:$1,0),0),"캐릭터없음"),
 "")))))</f>
-        <v/>
+        <v>메디아</v>
+      </c>
+      <c r="I133">
+        <v>1470</v>
+      </c>
+      <c r="K133" t="s">
+        <v>145</v>
+      </c>
+      <c r="M133">
+        <v>340</v>
+      </c>
+      <c r="N133">
+        <v>120</v>
+      </c>
+      <c r="O133">
+        <v>1</v>
       </c>
       <c r="P133" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120}</v>
       </c>
       <c r="Q133" t="str">
-        <f t="shared" si="15"/>
-        <v/>
+        <f t="shared" ca="1" si="15"/>
+        <v>{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120}</v>
       </c>
     </row>
     <row r="134" spans="1:17">
@@ -18246,13 +18184,19 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
+      <c r="D134" t="s">
+        <v>104</v>
+      </c>
       <c r="E134" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v/>
+        <v>uch</v>
       </c>
       <c r="F134" t="str">
         <f t="shared" si="19"/>
         <v/>
+      </c>
+      <c r="G134">
+        <v>48441</v>
       </c>
       <c r="H134" t="str">
         <f>IF(OR(
@@ -18268,13 +18212,28 @@
 "")))))</f>
         <v/>
       </c>
+      <c r="I134">
+        <v>1</v>
+      </c>
+      <c r="K134" t="s">
+        <v>145</v>
+      </c>
+      <c r="M134">
+        <v>160</v>
+      </c>
+      <c r="N134">
+        <v>80</v>
+      </c>
+      <c r="O134">
+        <v>1</v>
+      </c>
       <c r="P134" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80}</v>
       </c>
       <c r="Q134" t="str">
-        <f t="shared" si="15"/>
-        <v/>
+        <f t="shared" ca="1" si="15"/>
+        <v>{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80}</v>
       </c>
     </row>
     <row r="135" spans="1:17">
@@ -18288,13 +18247,19 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
+      <c r="D135" t="s">
+        <v>96</v>
+      </c>
       <c r="E135" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v/>
+        <v>fe</v>
       </c>
       <c r="F135" t="str">
         <f t="shared" si="19"/>
         <v/>
+      </c>
+      <c r="G135" t="s">
+        <v>125</v>
       </c>
       <c r="H135" t="str">
         <f>IF(OR(
@@ -18308,15 +18273,27 @@
 IF(NOT(ISERROR(FIND("캐릭터",D135))),
   IFERROR(VLOOKUP(G135,[2]ActorTable!$A:$G,MATCH("이름참고",[2]ActorTable!$1:$1,0),0),"캐릭터없음"),
 "")))))</f>
-        <v/>
+        <v>블레이드 보우</v>
+      </c>
+      <c r="I135">
+        <v>1</v>
+      </c>
+      <c r="K135" t="s">
+        <v>73</v>
+      </c>
+      <c r="N135">
+        <v>5000</v>
+      </c>
+      <c r="O135">
+        <v>1</v>
       </c>
       <c r="P135" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000}</v>
       </c>
       <c r="Q135" t="str">
-        <f t="shared" si="15"/>
-        <v/>
+        <f t="shared" ca="1" si="15"/>
+        <v>{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000}</v>
       </c>
     </row>
     <row r="136" spans="1:17">
@@ -18330,13 +18307,19 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
+      <c r="D136" t="s">
+        <v>96</v>
+      </c>
       <c r="E136" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v/>
+        <v>fe</v>
       </c>
       <c r="F136" t="str">
         <f t="shared" si="19"/>
         <v/>
+      </c>
+      <c r="G136" t="s">
+        <v>138</v>
       </c>
       <c r="H136" t="str">
         <f>IF(OR(
@@ -18350,15 +18333,27 @@
 IF(NOT(ISERROR(FIND("캐릭터",D136))),
   IFERROR(VLOOKUP(G136,[2]ActorTable!$A:$G,MATCH("이름참고",[2]ActorTable!$1:$1,0),0),"캐릭터없음"),
 "")))))</f>
-        <v/>
+        <v>푸른 보석 지팡이</v>
+      </c>
+      <c r="I136">
+        <v>1</v>
+      </c>
+      <c r="K136" t="s">
+        <v>73</v>
+      </c>
+      <c r="N136">
+        <v>24450</v>
+      </c>
+      <c r="O136">
+        <v>1</v>
       </c>
       <c r="P136" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450}</v>
       </c>
       <c r="Q136" t="str">
-        <f t="shared" si="15"/>
-        <v/>
+        <f t="shared" ca="1" si="15"/>
+        <v>{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450}</v>
       </c>
     </row>
     <row r="137" spans="1:17">
@@ -18372,13 +18367,19 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
+      <c r="D137" t="s">
+        <v>106</v>
+      </c>
       <c r="E137" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v/>
+        <v>upn</v>
       </c>
       <c r="F137" t="str">
         <f t="shared" si="19"/>
         <v/>
+      </c>
+      <c r="G137">
+        <v>71053</v>
       </c>
       <c r="H137" t="str">
         <f>IF(OR(
@@ -18394,13 +18395,25 @@
 "")))))</f>
         <v/>
       </c>
+      <c r="I137">
+        <v>17</v>
+      </c>
+      <c r="K137" t="s">
+        <v>73</v>
+      </c>
+      <c r="N137">
+        <v>1700</v>
+      </c>
+      <c r="O137">
+        <v>1</v>
+      </c>
       <c r="P137" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700}</v>
       </c>
       <c r="Q137" t="str">
-        <f t="shared" si="15"/>
-        <v/>
+        <f t="shared" ca="1" si="15"/>
+        <v>{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700}</v>
       </c>
     </row>
     <row r="138" spans="1:17">
@@ -18414,13 +18427,19 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
+      <c r="D138" t="s">
+        <v>105</v>
+      </c>
       <c r="E138" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v/>
+        <v>uph</v>
       </c>
       <c r="F138" t="str">
         <f t="shared" si="19"/>
         <v/>
+      </c>
+      <c r="G138">
+        <v>14534</v>
       </c>
       <c r="H138" t="str">
         <f>IF(OR(
@@ -18436,13 +18455,25 @@
 "")))))</f>
         <v/>
       </c>
+      <c r="I138">
+        <v>20</v>
+      </c>
+      <c r="K138" t="s">
+        <v>73</v>
+      </c>
+      <c r="N138">
+        <v>2000</v>
+      </c>
+      <c r="O138">
+        <v>1</v>
+      </c>
       <c r="P138" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000}</v>
       </c>
       <c r="Q138" t="str">
-        <f t="shared" si="15"/>
-        <v/>
+        <f t="shared" ca="1" si="15"/>
+        <v>{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000}</v>
       </c>
     </row>
     <row r="139" spans="1:17">
@@ -18456,13 +18487,19 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
+      <c r="D139" t="s">
+        <v>106</v>
+      </c>
       <c r="E139" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v/>
+        <v>upn</v>
       </c>
       <c r="F139" t="str">
         <f t="shared" si="19"/>
         <v/>
+      </c>
+      <c r="G139">
+        <v>86634</v>
       </c>
       <c r="H139" t="str">
         <f>IF(OR(
@@ -18478,13 +18515,25 @@
 "")))))</f>
         <v/>
       </c>
+      <c r="I139">
+        <v>18</v>
+      </c>
+      <c r="K139" t="s">
+        <v>73</v>
+      </c>
+      <c r="N139">
+        <v>1800</v>
+      </c>
+      <c r="O139">
+        <v>1</v>
+      </c>
       <c r="P139" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
       </c>
       <c r="Q139" t="str">
-        <f t="shared" si="15"/>
-        <v/>
+        <f t="shared" ca="1" si="15"/>
+        <v>{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
       </c>
     </row>
     <row r="140" spans="1:17">
@@ -18522,7 +18571,7 @@
       </c>
       <c r="P140" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
       </c>
       <c r="Q140" t="str">
         <f t="shared" si="15"/>
@@ -18564,7 +18613,7 @@
       </c>
       <c r="P141" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
       </c>
       <c r="Q141" t="str">
         <f t="shared" si="15"/>
@@ -18606,7 +18655,7 @@
       </c>
       <c r="P142" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
       </c>
       <c r="Q142" t="str">
         <f t="shared" si="15"/>
@@ -18648,7 +18697,7 @@
       </c>
       <c r="P143" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
       </c>
       <c r="Q143" t="str">
         <f t="shared" si="15"/>
@@ -18690,7 +18739,7 @@
       </c>
       <c r="P144" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
       </c>
       <c r="Q144" t="str">
         <f t="shared" si="15"/>
@@ -18732,7 +18781,7 @@
       </c>
       <c r="P145" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
       </c>
       <c r="Q145" t="str">
         <f t="shared" si="15"/>
@@ -18774,7 +18823,7 @@
       </c>
       <c r="P146" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
       </c>
       <c r="Q146" t="str">
         <f t="shared" si="15"/>
@@ -18816,7 +18865,7 @@
       </c>
       <c r="P147" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
       </c>
       <c r="Q147" t="str">
         <f t="shared" si="15"/>
@@ -18858,7 +18907,7 @@
       </c>
       <c r="P148" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
       </c>
       <c r="Q148" t="str">
         <f t="shared" si="15"/>
@@ -18900,7 +18949,7 @@
       </c>
       <c r="P149" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
       </c>
       <c r="Q149" t="str">
         <f t="shared" si="15"/>
@@ -18942,7 +18991,7 @@
       </c>
       <c r="P150" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
       </c>
       <c r="Q150" t="str">
         <f t="shared" si="15"/>
@@ -18984,7 +19033,7 @@
       </c>
       <c r="P151" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
       </c>
       <c r="Q151" t="str">
         <f t="shared" si="15"/>
@@ -19026,7 +19075,7 @@
       </c>
       <c r="P152" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
       </c>
       <c r="Q152" t="str">
         <f t="shared" si="15"/>
@@ -19068,7 +19117,7 @@
       </c>
       <c r="P153" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
       </c>
       <c r="Q153" t="str">
         <f t="shared" si="15"/>
@@ -19110,7 +19159,7 @@
       </c>
       <c r="P154" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
       </c>
       <c r="Q154" t="str">
         <f t="shared" si="15"/>
@@ -19152,7 +19201,7 @@
       </c>
       <c r="P155" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
       </c>
       <c r="Q155" t="str">
         <f t="shared" si="15"/>
@@ -19194,7 +19243,7 @@
       </c>
       <c r="P156" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
       </c>
       <c r="Q156" t="str">
         <f t="shared" si="15"/>
@@ -19236,7 +19285,7 @@
       </c>
       <c r="P157" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
       </c>
       <c r="Q157" t="str">
         <f t="shared" si="15"/>
@@ -19278,7 +19327,7 @@
       </c>
       <c r="P158" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
       </c>
       <c r="Q158" t="str">
         <f t="shared" si="15"/>
@@ -19320,7 +19369,7 @@
       </c>
       <c r="P159" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
       </c>
       <c r="Q159" t="str">
         <f t="shared" si="15"/>
@@ -19362,7 +19411,7 @@
       </c>
       <c r="P160" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
       </c>
       <c r="Q160" t="str">
         <f t="shared" si="15"/>
@@ -19404,7 +19453,7 @@
       </c>
       <c r="P161" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
       </c>
       <c r="Q161" t="str">
         <f t="shared" si="15"/>
@@ -19446,7 +19495,7 @@
       </c>
       <c r="P162" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
       </c>
       <c r="Q162" t="str">
         <f t="shared" si="15"/>
@@ -19488,7 +19537,7 @@
       </c>
       <c r="P163" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
       </c>
       <c r="Q163" t="str">
         <f t="shared" si="15"/>
@@ -19530,7 +19579,7 @@
       </c>
       <c r="P164" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
       </c>
       <c r="Q164" t="str">
         <f t="shared" si="15"/>
@@ -19572,7 +19621,7 @@
       </c>
       <c r="P165" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
       </c>
       <c r="Q165" t="str">
         <f t="shared" si="15"/>
@@ -19614,7 +19663,7 @@
       </c>
       <c r="P166" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
       </c>
       <c r="Q166" t="str">
         <f t="shared" si="15"/>
@@ -19656,7 +19705,7 @@
       </c>
       <c r="P167" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
       </c>
       <c r="Q167" t="str">
         <f t="shared" si="15"/>
@@ -19698,7 +19747,7 @@
       </c>
       <c r="P168" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
       </c>
       <c r="Q168" t="str">
         <f t="shared" si="15"/>
@@ -19740,7 +19789,7 @@
       </c>
       <c r="P169" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
       </c>
       <c r="Q169" t="str">
         <f t="shared" si="15"/>
@@ -19782,7 +19831,7 @@
       </c>
       <c r="P170" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
       </c>
       <c r="Q170" t="str">
         <f t="shared" si="15"/>
@@ -19824,7 +19873,7 @@
       </c>
       <c r="P171" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
       </c>
       <c r="Q171" t="str">
         <f t="shared" si="15"/>
@@ -19866,7 +19915,7 @@
       </c>
       <c r="P172" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
       </c>
       <c r="Q172" t="str">
         <f t="shared" si="15"/>
@@ -19908,7 +19957,7 @@
       </c>
       <c r="P173" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
       </c>
       <c r="Q173" t="str">
         <f t="shared" si="15"/>
@@ -19950,7 +19999,7 @@
       </c>
       <c r="P174" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
       </c>
       <c r="Q174" t="str">
         <f t="shared" si="15"/>
@@ -19992,7 +20041,7 @@
       </c>
       <c r="P175" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
       </c>
       <c r="Q175" t="str">
         <f t="shared" si="15"/>
@@ -20034,7 +20083,7 @@
       </c>
       <c r="P176" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
       </c>
       <c r="Q176" t="str">
         <f t="shared" si="15"/>
@@ -20076,7 +20125,7 @@
       </c>
       <c r="P177" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
       </c>
       <c r="Q177" t="str">
         <f t="shared" si="15"/>
@@ -20118,7 +20167,7 @@
       </c>
       <c r="P178" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
       </c>
       <c r="Q178" t="str">
         <f t="shared" si="15"/>
@@ -20160,7 +20209,7 @@
       </c>
       <c r="P179" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
       </c>
       <c r="Q179" t="str">
         <f t="shared" si="15"/>
@@ -20202,7 +20251,7 @@
       </c>
       <c r="P180" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
       </c>
       <c r="Q180" t="str">
         <f t="shared" si="15"/>
@@ -20244,7 +20293,7 @@
       </c>
       <c r="P181" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
       </c>
       <c r="Q181" t="str">
         <f t="shared" si="15"/>
@@ -20286,7 +20335,7 @@
       </c>
       <c r="P182" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
       </c>
       <c r="Q182" t="str">
         <f t="shared" si="15"/>
@@ -20328,7 +20377,7 @@
       </c>
       <c r="P183" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
       </c>
       <c r="Q183" t="str">
         <f t="shared" si="15"/>
@@ -20370,7 +20419,7 @@
       </c>
       <c r="P184" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
       </c>
       <c r="Q184" t="str">
         <f t="shared" si="15"/>
@@ -20412,7 +20461,7 @@
       </c>
       <c r="P185" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
       </c>
       <c r="Q185" t="str">
         <f t="shared" si="15"/>
@@ -20454,7 +20503,7 @@
       </c>
       <c r="P186" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
       </c>
       <c r="Q186" t="str">
         <f t="shared" si="15"/>
@@ -20496,7 +20545,7 @@
       </c>
       <c r="P187" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
       </c>
       <c r="Q187" t="str">
         <f t="shared" si="15"/>
@@ -20538,7 +20587,7 @@
       </c>
       <c r="P188" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
       </c>
       <c r="Q188" t="str">
         <f t="shared" si="15"/>
@@ -20580,7 +20629,7 @@
       </c>
       <c r="P189" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
       </c>
       <c r="Q189" t="str">
         <f t="shared" si="15"/>
@@ -20622,7 +20671,7 @@
       </c>
       <c r="P190" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
       </c>
       <c r="Q190" t="str">
         <f t="shared" si="15"/>
@@ -20664,7 +20713,7 @@
       </c>
       <c r="P191" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
       </c>
       <c r="Q191" t="str">
         <f t="shared" si="15"/>
@@ -20706,7 +20755,7 @@
       </c>
       <c r="P192" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
       </c>
       <c r="Q192" t="str">
         <f t="shared" si="15"/>
@@ -20748,7 +20797,7 @@
       </c>
       <c r="P193" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
       </c>
       <c r="Q193" t="str">
         <f t="shared" si="15"/>
@@ -20793,7 +20842,7 @@
       </c>
       <c r="P194" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
       </c>
       <c r="Q194" t="str">
         <f t="shared" ref="Q194:Q257" si="22">IF(O194&lt;&gt;1,"",
@@ -20844,7 +20893,7 @@
       </c>
       <c r="P195" t="str">
         <f t="shared" ref="P195:P258" ca="1" si="24">P194&amp;IF(LEN(Q195)=0,"",","&amp;Q195)</f>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
       </c>
       <c r="Q195" t="str">
         <f t="shared" si="22"/>
@@ -20886,7 +20935,7 @@
       </c>
       <c r="P196" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
       </c>
       <c r="Q196" t="str">
         <f t="shared" si="22"/>
@@ -20928,7 +20977,7 @@
       </c>
       <c r="P197" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
       </c>
       <c r="Q197" t="str">
         <f t="shared" si="22"/>
@@ -20970,7 +21019,7 @@
       </c>
       <c r="P198" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
       </c>
       <c r="Q198" t="str">
         <f t="shared" si="22"/>
@@ -21012,7 +21061,7 @@
       </c>
       <c r="P199" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
       </c>
       <c r="Q199" t="str">
         <f t="shared" si="22"/>
@@ -21054,7 +21103,7 @@
       </c>
       <c r="P200" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
       </c>
       <c r="Q200" t="str">
         <f t="shared" si="22"/>
@@ -21096,7 +21145,7 @@
       </c>
       <c r="P201" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
       </c>
       <c r="Q201" t="str">
         <f t="shared" si="22"/>
@@ -21138,7 +21187,7 @@
       </c>
       <c r="P202" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
       </c>
       <c r="Q202" t="str">
         <f t="shared" si="22"/>
@@ -21180,7 +21229,7 @@
       </c>
       <c r="P203" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
       </c>
       <c r="Q203" t="str">
         <f t="shared" si="22"/>
@@ -21222,7 +21271,7 @@
       </c>
       <c r="P204" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
       </c>
       <c r="Q204" t="str">
         <f t="shared" si="22"/>
@@ -21264,7 +21313,7 @@
       </c>
       <c r="P205" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
       </c>
       <c r="Q205" t="str">
         <f t="shared" si="22"/>
@@ -21306,7 +21355,7 @@
       </c>
       <c r="P206" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
       </c>
       <c r="Q206" t="str">
         <f t="shared" si="22"/>
@@ -21348,7 +21397,7 @@
       </c>
       <c r="P207" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
       </c>
       <c r="Q207" t="str">
         <f t="shared" si="22"/>
@@ -21390,7 +21439,7 @@
       </c>
       <c r="P208" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
       </c>
       <c r="Q208" t="str">
         <f t="shared" si="22"/>
@@ -21432,7 +21481,7 @@
       </c>
       <c r="P209" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
       </c>
       <c r="Q209" t="str">
         <f t="shared" si="22"/>
@@ -21474,7 +21523,7 @@
       </c>
       <c r="P210" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
       </c>
       <c r="Q210" t="str">
         <f t="shared" si="22"/>
@@ -21516,7 +21565,7 @@
       </c>
       <c r="P211" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
       </c>
       <c r="Q211" t="str">
         <f t="shared" si="22"/>
@@ -21558,7 +21607,7 @@
       </c>
       <c r="P212" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
       </c>
       <c r="Q212" t="str">
         <f t="shared" si="22"/>
@@ -21600,7 +21649,7 @@
       </c>
       <c r="P213" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
       </c>
       <c r="Q213" t="str">
         <f t="shared" si="22"/>
@@ -21642,7 +21691,7 @@
       </c>
       <c r="P214" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
       </c>
       <c r="Q214" t="str">
         <f t="shared" si="22"/>
@@ -21684,7 +21733,7 @@
       </c>
       <c r="P215" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
       </c>
       <c r="Q215" t="str">
         <f t="shared" si="22"/>
@@ -21726,7 +21775,7 @@
       </c>
       <c r="P216" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
       </c>
       <c r="Q216" t="str">
         <f t="shared" si="22"/>
@@ -21768,7 +21817,7 @@
       </c>
       <c r="P217" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
       </c>
       <c r="Q217" t="str">
         <f t="shared" si="22"/>
@@ -21810,7 +21859,7 @@
       </c>
       <c r="P218" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
       </c>
       <c r="Q218" t="str">
         <f t="shared" si="22"/>
@@ -21852,7 +21901,7 @@
       </c>
       <c r="P219" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
       </c>
       <c r="Q219" t="str">
         <f t="shared" si="22"/>
@@ -21894,7 +21943,7 @@
       </c>
       <c r="P220" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
       </c>
       <c r="Q220" t="str">
         <f t="shared" si="22"/>
@@ -21936,7 +21985,7 @@
       </c>
       <c r="P221" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
       </c>
       <c r="Q221" t="str">
         <f t="shared" si="22"/>
@@ -21978,7 +22027,7 @@
       </c>
       <c r="P222" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
       </c>
       <c r="Q222" t="str">
         <f t="shared" si="22"/>
@@ -22020,7 +22069,7 @@
       </c>
       <c r="P223" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
       </c>
       <c r="Q223" t="str">
         <f t="shared" si="22"/>
@@ -22062,7 +22111,7 @@
       </c>
       <c r="P224" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
       </c>
       <c r="Q224" t="str">
         <f t="shared" si="22"/>
@@ -22104,7 +22153,7 @@
       </c>
       <c r="P225" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
       </c>
       <c r="Q225" t="str">
         <f t="shared" si="22"/>
@@ -22146,7 +22195,7 @@
       </c>
       <c r="P226" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
       </c>
       <c r="Q226" t="str">
         <f t="shared" si="22"/>
@@ -22188,7 +22237,7 @@
       </c>
       <c r="P227" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
       </c>
       <c r="Q227" t="str">
         <f t="shared" si="22"/>
@@ -22246,16 +22295,13 @@
       <c r="N228">
         <v>720</v>
       </c>
-      <c r="O228">
-        <v>1</v>
-      </c>
       <c r="P228" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":10,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
       </c>
       <c r="Q228" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v>{"dy":10,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720}</v>
+        <f t="shared" si="22"/>
+        <v/>
       </c>
     </row>
     <row r="229" spans="1:17">
@@ -22309,16 +22355,13 @@
       <c r="N229">
         <v>720</v>
       </c>
-      <c r="O229">
-        <v>1</v>
-      </c>
       <c r="P229" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":10,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":11,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
       </c>
       <c r="Q229" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v>{"dy":11,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720}</v>
+        <f t="shared" si="22"/>
+        <v/>
       </c>
     </row>
     <row r="230" spans="1:17">
@@ -22372,16 +22415,13 @@
       <c r="N230">
         <v>720</v>
       </c>
-      <c r="O230">
-        <v>1</v>
-      </c>
       <c r="P230" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":10,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":11,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":12,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
       </c>
       <c r="Q230" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v>{"dy":12,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720}</v>
+        <f t="shared" si="22"/>
+        <v/>
       </c>
     </row>
     <row r="231" spans="1:17">
@@ -22419,7 +22459,7 @@
       </c>
       <c r="P231" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":10,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":11,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":12,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
       </c>
       <c r="Q231" t="str">
         <f t="shared" si="22"/>
@@ -22479,16 +22519,13 @@
       <c r="N232">
         <v>720</v>
       </c>
-      <c r="O232">
-        <v>1</v>
-      </c>
       <c r="P232" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":10,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":11,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":12,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":14,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
       </c>
       <c r="Q232" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v>{"dy":14,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720}</v>
+        <f t="shared" si="22"/>
+        <v/>
       </c>
     </row>
     <row r="233" spans="1:17">
@@ -22542,16 +22579,13 @@
       <c r="N233">
         <v>720</v>
       </c>
-      <c r="O233">
-        <v>1</v>
-      </c>
       <c r="P233" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":10,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":11,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":12,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":14,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":15,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
       </c>
       <c r="Q233" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v>{"dy":15,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720}</v>
+        <f t="shared" si="22"/>
+        <v/>
       </c>
     </row>
     <row r="234" spans="1:17">
@@ -22605,16 +22639,13 @@
       <c r="N234">
         <v>720</v>
       </c>
-      <c r="O234">
-        <v>1</v>
-      </c>
       <c r="P234" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":10,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":11,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":12,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":14,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":15,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":16,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
       </c>
       <c r="Q234" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v>{"dy":16,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720}</v>
+        <f t="shared" si="22"/>
+        <v/>
       </c>
     </row>
     <row r="235" spans="1:17">
@@ -22652,7 +22683,7 @@
       </c>
       <c r="P235" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":10,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":11,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":12,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":14,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":15,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":16,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
       </c>
       <c r="Q235" t="str">
         <f t="shared" si="22"/>
@@ -22715,7 +22746,7 @@
       </c>
       <c r="P236" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":10,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":11,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":12,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":14,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":15,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":16,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":18,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":18,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720}</v>
       </c>
       <c r="Q236" t="str">
         <f t="shared" ca="1" si="22"/>
@@ -22733,56 +22764,13 @@
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="D237" t="s">
-        <v>99</v>
-      </c>
-      <c r="E237" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v>fc</v>
-      </c>
-      <c r="F237" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="G237" t="s">
-        <v>142</v>
-      </c>
-      <c r="H237" t="str">
-        <f>IF(OR(
-  AND(NOT(ISERROR(FIND("상자",D237))),ISBLANK(G237)),
-  AND(ISBLANK(D237),ISBLANK(G237)),
-  AND(NOT(ISERROR(FIND("안 지정",D237))),ISNUMBER(G237))),"",
-IF(AND(NOT(ISERROR(FIND("상자",D237))),NOT(ISBLANK(G237))),"밸류불필요",
-IF(AND(NOT(ISERROR(FIND("안 지정",D237))),NOT(ISNUMBER(G237))),"숫자필요",
-IF(NOT(ISERROR(FIND("장비",D237))),
-  IFERROR(VLOOKUP(G237,[1]EquipTable!$A:$T,MATCH("이름참고",[1]EquipTable!$1:$1,0),0),"장비없음"),
-IF(NOT(ISERROR(FIND("캐릭터",D237))),
-  IFERROR(VLOOKUP(G237,[2]ActorTable!$A:$G,MATCH("이름참고",[2]ActorTable!$1:$1,0),0),"캐릭터없음"),
-"")))))</f>
-        <v>아이스매지션</v>
-      </c>
-      <c r="I237">
-        <v>1</v>
-      </c>
-      <c r="K237" t="s">
-        <v>76</v>
-      </c>
-      <c r="M237">
-        <v>1340</v>
-      </c>
-      <c r="N237">
-        <v>720</v>
-      </c>
-      <c r="O237">
-        <v>1</v>
-      </c>
       <c r="P237" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":10,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":11,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":12,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":14,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":15,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":16,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":18,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":19,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":18,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720}</v>
       </c>
       <c r="Q237" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v>{"dy":19,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720}</v>
+        <f t="shared" si="22"/>
+        <v/>
       </c>
     </row>
     <row r="238" spans="1:17">
@@ -22841,7 +22829,7 @@
       </c>
       <c r="P238" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":10,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":11,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":12,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":14,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":15,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":16,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":18,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":19,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":20,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":18,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":20,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720}</v>
       </c>
       <c r="Q238" t="str">
         <f t="shared" ca="1" si="22"/>
@@ -22883,7 +22871,7 @@
       </c>
       <c r="P239" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":10,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":11,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":12,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":14,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":15,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":16,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":18,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":19,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":20,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":18,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":20,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720}</v>
       </c>
       <c r="Q239" t="str">
         <f t="shared" si="22"/>
@@ -22925,7 +22913,7 @@
       </c>
       <c r="P240" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":10,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":11,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":12,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":14,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":15,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":16,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":18,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":19,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":20,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":18,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":20,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720}</v>
       </c>
       <c r="Q240" t="str">
         <f t="shared" si="22"/>
@@ -22967,7 +22955,7 @@
       </c>
       <c r="P241" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":10,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":11,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":12,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":14,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":15,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":16,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":18,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":19,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":20,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":18,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":20,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720}</v>
       </c>
       <c r="Q241" t="str">
         <f t="shared" si="22"/>
@@ -23009,7 +22997,7 @@
       </c>
       <c r="P242" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":10,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":11,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":12,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":14,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":15,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":16,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":18,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":19,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":20,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":18,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":20,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720}</v>
       </c>
       <c r="Q242" t="str">
         <f t="shared" si="22"/>
@@ -23051,7 +23039,7 @@
       </c>
       <c r="P243" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":10,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":11,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":12,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":14,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":15,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":16,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":18,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":19,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":20,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":18,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":20,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720}</v>
       </c>
       <c r="Q243" t="str">
         <f t="shared" si="22"/>
@@ -23093,7 +23081,7 @@
       </c>
       <c r="P244" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":10,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":11,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":12,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":14,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":15,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":16,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":18,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":19,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":20,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":18,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":20,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720}</v>
       </c>
       <c r="Q244" t="str">
         <f t="shared" si="22"/>
@@ -23135,7 +23123,7 @@
       </c>
       <c r="P245" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":10,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":11,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":12,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":14,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":15,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":16,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":18,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":19,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":20,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":18,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":20,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720}</v>
       </c>
       <c r="Q245" t="str">
         <f t="shared" si="22"/>
@@ -23177,7 +23165,7 @@
       </c>
       <c r="P246" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":10,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":11,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":12,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":14,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":15,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":16,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":18,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":19,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":20,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":18,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":20,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720}</v>
       </c>
       <c r="Q246" t="str">
         <f t="shared" si="22"/>
@@ -23219,7 +23207,7 @@
       </c>
       <c r="P247" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":10,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":11,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":12,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":14,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":15,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":16,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":18,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":19,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":20,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":18,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":20,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720}</v>
       </c>
       <c r="Q247" t="str">
         <f t="shared" si="22"/>
@@ -23261,7 +23249,7 @@
       </c>
       <c r="P248" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":10,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":11,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":12,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":14,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":15,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":16,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":18,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":19,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":20,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":18,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":20,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720}</v>
       </c>
       <c r="Q248" t="str">
         <f t="shared" si="22"/>
@@ -23303,7 +23291,7 @@
       </c>
       <c r="P249" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":10,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":11,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":12,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":14,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":15,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":16,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":18,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":19,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":20,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":18,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":20,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720}</v>
       </c>
       <c r="Q249" t="str">
         <f t="shared" si="22"/>
@@ -23345,7 +23333,7 @@
       </c>
       <c r="P250" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":10,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":11,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":12,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":14,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":15,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":16,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":18,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":19,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":20,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":18,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":20,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720}</v>
       </c>
       <c r="Q250" t="str">
         <f t="shared" si="22"/>
@@ -23387,7 +23375,7 @@
       </c>
       <c r="P251" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":10,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":11,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":12,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":14,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":15,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":16,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":18,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":19,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":20,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":18,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":20,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720}</v>
       </c>
       <c r="Q251" t="str">
         <f t="shared" si="22"/>
@@ -23429,7 +23417,7 @@
       </c>
       <c r="P252" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":10,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":11,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":12,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":14,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":15,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":16,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":18,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":19,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":20,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":18,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":20,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720}</v>
       </c>
       <c r="Q252" t="str">
         <f t="shared" si="22"/>
@@ -23471,7 +23459,7 @@
       </c>
       <c r="P253" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":10,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":11,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":12,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":14,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":15,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":16,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":18,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":19,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":20,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":18,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":20,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720}</v>
       </c>
       <c r="Q253" t="str">
         <f t="shared" si="22"/>
@@ -23513,7 +23501,7 @@
       </c>
       <c r="P254" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":10,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":11,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":12,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":14,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":15,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":16,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":18,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":19,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":20,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":18,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":20,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720}</v>
       </c>
       <c r="Q254" t="str">
         <f t="shared" si="22"/>
@@ -23555,7 +23543,7 @@
       </c>
       <c r="P255" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":10,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":11,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":12,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":14,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":15,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":16,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":18,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":19,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":20,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":18,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":20,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720}</v>
       </c>
       <c r="Q255" t="str">
         <f t="shared" si="22"/>
@@ -23597,7 +23585,7 @@
       </c>
       <c r="P256" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":10,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":11,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":12,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":14,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":15,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":16,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":18,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":19,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":20,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":18,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":20,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720}</v>
       </c>
       <c r="Q256" t="str">
         <f t="shared" si="22"/>
@@ -23639,7 +23627,7 @@
       </c>
       <c r="P257" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":10,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":11,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":12,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":14,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":15,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":16,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":18,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":19,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":20,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":18,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":20,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720}</v>
       </c>
       <c r="Q257" t="str">
         <f t="shared" si="22"/>
@@ -23684,7 +23672,7 @@
       </c>
       <c r="P258" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":10,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":11,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":12,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":14,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":15,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":16,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":18,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":19,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":20,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":18,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":20,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720}</v>
       </c>
       <c r="Q258" t="str">
         <f t="shared" ref="Q258:Q280" si="28">IF(O258&lt;&gt;1,"",
@@ -23751,16 +23739,13 @@
       <c r="N259">
         <v>230</v>
       </c>
-      <c r="O259">
-        <v>1</v>
-      </c>
       <c r="P259" t="str">
         <f t="shared" ref="P259:P280" ca="1" si="30">P258&amp;IF(LEN(Q259)=0,"",","&amp;Q259)</f>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":10,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":11,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":12,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":14,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":15,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":16,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":18,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":19,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":20,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":10,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":18,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":20,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720}</v>
       </c>
       <c r="Q259" t="str">
-        <f t="shared" ca="1" si="28"/>
-        <v>{"dy":10,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230}</v>
+        <f t="shared" si="28"/>
+        <v/>
       </c>
     </row>
     <row r="260" spans="1:17">
@@ -23814,16 +23799,13 @@
       <c r="N260">
         <v>230</v>
       </c>
-      <c r="O260">
-        <v>1</v>
-      </c>
       <c r="P260" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":10,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":11,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":12,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":14,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":15,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":16,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":18,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":19,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":20,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":10,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":11,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":18,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":20,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720}</v>
       </c>
       <c r="Q260" t="str">
-        <f t="shared" ca="1" si="28"/>
-        <v>{"dy":11,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230}</v>
+        <f t="shared" si="28"/>
+        <v/>
       </c>
     </row>
     <row r="261" spans="1:17">
@@ -23877,16 +23859,13 @@
       <c r="N261">
         <v>230</v>
       </c>
-      <c r="O261">
-        <v>1</v>
-      </c>
       <c r="P261" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":10,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":11,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":12,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":14,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":15,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":16,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":18,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":19,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":20,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":10,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":11,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":12,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":18,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":20,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720}</v>
       </c>
       <c r="Q261" t="str">
-        <f t="shared" ca="1" si="28"/>
-        <v>{"dy":12,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230}</v>
+        <f t="shared" si="28"/>
+        <v/>
       </c>
     </row>
     <row r="262" spans="1:17">
@@ -23924,7 +23903,7 @@
       </c>
       <c r="P262" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":10,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":11,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":12,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":14,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":15,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":16,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":18,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":19,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":20,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":10,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":11,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":12,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":18,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":20,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720}</v>
       </c>
       <c r="Q262" t="str">
         <f t="shared" si="28"/>
@@ -23984,16 +23963,13 @@
       <c r="N263">
         <v>230</v>
       </c>
-      <c r="O263">
-        <v>1</v>
-      </c>
       <c r="P263" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":10,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":11,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":12,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":14,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":15,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":16,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":18,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":19,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":20,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":10,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":11,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":12,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":14,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":18,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":20,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720}</v>
       </c>
       <c r="Q263" t="str">
-        <f t="shared" ca="1" si="28"/>
-        <v>{"dy":14,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230}</v>
+        <f t="shared" si="28"/>
+        <v/>
       </c>
     </row>
     <row r="264" spans="1:17">
@@ -24047,16 +24023,13 @@
       <c r="N264">
         <v>230</v>
       </c>
-      <c r="O264">
-        <v>1</v>
-      </c>
       <c r="P264" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":10,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":11,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":12,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":14,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":15,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":16,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":18,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":19,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":20,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":10,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":11,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":12,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":14,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":15,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":18,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":20,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720}</v>
       </c>
       <c r="Q264" t="str">
-        <f t="shared" ca="1" si="28"/>
-        <v>{"dy":15,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230}</v>
+        <f t="shared" si="28"/>
+        <v/>
       </c>
     </row>
     <row r="265" spans="1:17">
@@ -24110,16 +24083,13 @@
       <c r="N265">
         <v>230</v>
       </c>
-      <c r="O265">
-        <v>1</v>
-      </c>
       <c r="P265" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":10,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":11,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":12,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":14,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":15,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":16,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":18,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":19,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":20,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":10,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":11,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":12,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":14,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":15,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":16,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":18,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":20,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720}</v>
       </c>
       <c r="Q265" t="str">
-        <f t="shared" ca="1" si="28"/>
-        <v>{"dy":16,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230}</v>
+        <f t="shared" si="28"/>
+        <v/>
       </c>
     </row>
     <row r="266" spans="1:17">
@@ -24157,7 +24127,7 @@
       </c>
       <c r="P266" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":10,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":11,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":12,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":14,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":15,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":16,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":18,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":19,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":20,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":10,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":11,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":12,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":14,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":15,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":16,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":18,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":20,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720}</v>
       </c>
       <c r="Q266" t="str">
         <f t="shared" si="28"/>
@@ -24220,7 +24190,7 @@
       </c>
       <c r="P267" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":10,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":11,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":12,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":14,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":15,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":16,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":18,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":19,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":20,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":10,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":11,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":12,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":14,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":15,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":16,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":18,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":18,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":20,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":18,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230}</v>
       </c>
       <c r="Q267" t="str">
         <f t="shared" ca="1" si="28"/>
@@ -24238,56 +24208,13 @@
         <f t="shared" si="26"/>
         <v>2</v>
       </c>
-      <c r="D268" t="s">
-        <v>104</v>
-      </c>
-      <c r="E268" t="str">
-        <f t="shared" ca="1" si="27"/>
-        <v>uch</v>
-      </c>
-      <c r="F268" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="G268">
-        <v>68415</v>
-      </c>
-      <c r="H268" t="str">
-        <f>IF(OR(
-  AND(NOT(ISERROR(FIND("상자",D268))),ISBLANK(G268)),
-  AND(ISBLANK(D268),ISBLANK(G268)),
-  AND(NOT(ISERROR(FIND("안 지정",D268))),ISNUMBER(G268))),"",
-IF(AND(NOT(ISERROR(FIND("상자",D268))),NOT(ISBLANK(G268))),"밸류불필요",
-IF(AND(NOT(ISERROR(FIND("안 지정",D268))),NOT(ISNUMBER(G268))),"숫자필요",
-IF(NOT(ISERROR(FIND("장비",D268))),
-  IFERROR(VLOOKUP(G268,[1]EquipTable!$A:$T,MATCH("이름참고",[1]EquipTable!$1:$1,0),0),"장비없음"),
-IF(NOT(ISERROR(FIND("캐릭터",D268))),
-  IFERROR(VLOOKUP(G268,[2]ActorTable!$A:$G,MATCH("이름참고",[2]ActorTable!$1:$1,0),0),"캐릭터없음"),
-"")))))</f>
-        <v/>
-      </c>
-      <c r="I268">
-        <v>1</v>
-      </c>
-      <c r="K268" t="s">
-        <v>76</v>
-      </c>
-      <c r="M268">
-        <v>620</v>
-      </c>
-      <c r="N268">
-        <v>230</v>
-      </c>
-      <c r="O268">
-        <v>1</v>
-      </c>
       <c r="P268" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":10,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":11,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":12,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":14,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":15,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":16,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":18,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":19,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":20,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":10,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":11,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":12,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":14,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":15,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":16,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":18,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":19,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":18,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":20,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":18,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230}</v>
       </c>
       <c r="Q268" t="str">
-        <f t="shared" ca="1" si="28"/>
-        <v>{"dy":19,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230}</v>
+        <f t="shared" si="28"/>
+        <v/>
       </c>
     </row>
     <row r="269" spans="1:17">
@@ -24346,7 +24273,7 @@
       </c>
       <c r="P269" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":10,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":11,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":12,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":14,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":15,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":16,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":18,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":19,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":20,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":10,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":11,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":12,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":14,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":15,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":16,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":18,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":19,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":20,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":18,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":20,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":18,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":20,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230}</v>
       </c>
       <c r="Q269" t="str">
         <f t="shared" ca="1" si="28"/>
@@ -24388,7 +24315,7 @@
       </c>
       <c r="P270" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":10,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":11,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":12,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":14,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":15,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":16,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":18,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":19,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":20,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":10,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":11,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":12,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":14,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":15,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":16,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":18,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":19,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":20,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":18,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":20,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":18,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":20,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230}</v>
       </c>
       <c r="Q270" t="str">
         <f t="shared" si="28"/>
@@ -24430,7 +24357,7 @@
       </c>
       <c r="P271" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":10,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":11,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":12,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":14,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":15,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":16,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":18,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":19,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":20,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":10,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":11,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":12,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":14,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":15,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":16,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":18,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":19,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":20,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":18,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":20,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":18,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":20,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230}</v>
       </c>
       <c r="Q271" t="str">
         <f t="shared" si="28"/>
@@ -24472,7 +24399,7 @@
       </c>
       <c r="P272" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":10,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":11,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":12,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":14,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":15,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":16,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":18,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":19,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":20,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":10,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":11,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":12,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":14,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":15,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":16,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":18,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":19,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":20,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":18,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":20,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":18,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":20,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230}</v>
       </c>
       <c r="Q272" t="str">
         <f t="shared" si="28"/>
@@ -24514,7 +24441,7 @@
       </c>
       <c r="P273" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":10,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":11,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":12,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":14,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":15,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":16,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":18,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":19,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":20,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":10,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":11,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":12,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":14,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":15,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":16,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":18,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":19,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":20,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":18,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":20,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":18,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":20,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230}</v>
       </c>
       <c r="Q273" t="str">
         <f t="shared" si="28"/>
@@ -24556,7 +24483,7 @@
       </c>
       <c r="P274" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":10,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":11,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":12,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":14,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":15,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":16,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":18,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":19,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":20,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":10,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":11,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":12,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":14,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":15,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":16,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":18,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":19,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":20,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":18,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":20,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":18,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":20,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230}</v>
       </c>
       <c r="Q274" t="str">
         <f t="shared" si="28"/>
@@ -24598,7 +24525,7 @@
       </c>
       <c r="P275" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":10,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":11,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":12,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":14,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":15,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":16,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":18,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":19,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":20,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":10,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":11,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":12,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":14,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":15,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":16,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":18,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":19,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":20,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":18,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":20,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":18,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":20,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230}</v>
       </c>
       <c r="Q275" t="str">
         <f t="shared" si="28"/>
@@ -24640,7 +24567,7 @@
       </c>
       <c r="P276" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":10,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":11,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":12,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":14,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":15,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":16,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":18,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":19,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":20,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":10,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":11,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":12,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":14,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":15,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":16,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":18,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":19,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":20,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":18,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":20,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":18,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":20,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230}</v>
       </c>
       <c r="Q276" t="str">
         <f t="shared" si="28"/>
@@ -24682,7 +24609,7 @@
       </c>
       <c r="P277" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":10,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":11,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":12,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":14,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":15,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":16,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":18,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":19,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":20,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":10,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":11,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":12,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":14,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":15,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":16,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":18,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":19,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":20,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":18,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":20,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":18,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":20,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230}</v>
       </c>
       <c r="Q277" t="str">
         <f t="shared" si="28"/>
@@ -24724,7 +24651,7 @@
       </c>
       <c r="P278" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":10,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":11,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":12,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":14,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":15,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":16,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":18,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":19,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":20,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":10,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":11,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":12,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":14,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":15,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":16,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":18,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":19,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":20,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":18,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":20,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":18,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":20,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230}</v>
       </c>
       <c r="Q278" t="str">
         <f t="shared" si="28"/>
@@ -24766,7 +24693,7 @@
       </c>
       <c r="P279" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":10,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":11,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":12,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":14,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":15,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":16,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":18,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":19,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":20,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":10,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":11,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":12,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":14,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":15,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":16,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":18,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":19,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":20,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":18,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":20,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":18,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":20,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230}</v>
       </c>
       <c r="Q279" t="str">
         <f t="shared" si="28"/>
@@ -24808,7 +24735,7 @@
       </c>
       <c r="P280" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>,{"dy":10,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":10,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":10,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":10,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":10,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":10,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":10,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":11,"sl":0,"tp":"fe","vl":"Equip1002","cn":1,"pt":"GO","pr":5000},{"dy":11,"sl":1,"tp":"fe","vl":"Equip1101","cn":1,"pt":"GO","pr":24450},{"dy":11,"sl":2,"tp":"upn","vl":"57153","cn":21,"pt":"GO","pr":2100},{"dy":11,"sl":3,"tp":"upn","vl":"34534","cn":16,"pt":"GO","pr":1600},{"dy":11,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":11,"sl":5,"tp":"fc","vl":"Actor2235","cn":1,"pt":"DI","pp":1500,"pr":760},{"dy":11,"sl":6,"tp":"fl2","vl":"Actor0037","cn":1,"pt":"DI","pp":1790,"pr":830},{"dy":12,"sl":0,"tp":"fe","vl":"Equip0401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":12,"sl":1,"tp":"fe","vl":"Equip2301","cn":1,"pt":"DI","pr":30},{"dy":12,"sl":2,"tp":"upn","vl":"71516","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":12,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":12,"sl":5,"tp":"fp","vl":"Actor2238","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":12,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":13,"sl":0,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":12000},{"dy":13,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":13,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":13,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":13,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":13,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":13,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":14,"sl":0,"tp":"fe","vl":"Equip4101","cn":1,"pt":"GO","pr":5000},{"dy":14,"sl":1,"tp":"fe","vl":"Equip4201","cn":1,"pt":"GO","pr":24450},{"dy":14,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":14,"sl":3,"tp":"upn","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":14,"sl":4,"tp":"upn","vl":"66634","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":0,"tp":"fe","vl":"Equip0101","cn":1,"pt":"GO","pr":5000},{"dy":15,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":15,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":15,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":15,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":16,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":16,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":16,"sl":2,"tp":"upn","vl":"57153","cn":17,"pt":"GO","pr":1700},{"dy":16,"sl":3,"tp":"uph","vl":"34534","cn":20,"pt":"GO","pr":2000},{"dy":16,"sl":4,"tp":"upn","vl":"66634","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":10,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":11,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":12,"sl":7,"tp":"fc","vl":"Actor3212","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":14,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":15,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":16,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":18,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":19,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":20,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":10,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":11,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":12,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":14,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":15,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":16,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":18,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":19,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":20,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":18,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":20,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":18,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":20,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230}</v>
       </c>
       <c r="Q280" t="str">
         <f t="shared" si="28"/>

--- a/Excel/작업Shop.xlsx
+++ b/Excel/작업Shop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785A5D68-45E0-426E-B9FD-393ED4AFF546}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9F7179-AD6F-42D8-8BF2-01A52565CC72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="653" activeTab="3" xr2:uid="{1BFDBDDD-03BC-42BF-BA52-8E4216F92F7B}"/>
   </bookViews>
@@ -7156,17 +7156,20 @@
           <cell r="N89">
             <v>-20</v>
           </cell>
+          <cell r="P89" t="str">
+            <v>RayRevolver</v>
+          </cell>
           <cell r="Q89">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="R89" t="str">
-            <v/>
+            <v>Shot_RayRevolver</v>
           </cell>
           <cell r="S89" t="str">
-            <v/>
+            <v>EquipName_RayRevolver</v>
           </cell>
           <cell r="T89" t="str">
-            <v>스트링없음</v>
+            <v>레이 리볼버</v>
           </cell>
         </row>
         <row r="90">
@@ -10726,7 +10729,9 @@
         <v>{"dy":1,"cd":"EN","cn":7}</v>
       </c>
       <c r="G2" t="str">
-        <f>"["&amp;D32&amp;"]"</f>
+        <f ca="1">"["&amp;
+IF(LEFT(OFFSET(D1,COUNTA(D:D)-1,0),1)=",",SUBSTITUTE(OFFSET(D1,COUNTA(D:D)-1,0),",","",1),OFFSET(D1,COUNTA(D:D)-1,0))
+&amp;"]"</f>
         <v>[{"dy":1,"cd":"EN","cn":7},{"dy":2,"cd":"GO","cn":8},{"dy":3,"cd":"EN","cn":15},{"dy":4,"cd":"GO","cn":10},{"dy":5,"cd":"EN","cn":7},{"dy":6,"cd":"GO","cn":8},{"dy":7,"cd":"EN","cn":15},{"dy":8,"cd":"GO","cn":10},{"dy":9,"cd":"EN","cn":7},{"dy":10,"cd":"DI","cn":8},{"dy":11,"cd":"EN","cn":15},{"dy":12,"cd":"GO","cn":10},{"dy":13,"cd":"EN","cn":7},{"dy":14,"cd":"GO","cn":8},{"dy":15,"cd":"GO","cn":15},{"dy":16,"cd":"EN","cn":10},{"dy":17,"cd":"GO","cn":7},{"dy":18,"cd":"EN","cn":8},{"dy":19,"cd":"GO","cn":15},{"dy":20,"cd":"EN","cn":10},{"dy":21,"cd":"GO","cn":7},{"dy":22,"cd":"EN","cn":8},{"dy":23,"cd":"DI","cn":15},{"dy":24,"cd":"EN","cn":10},{"dy":25,"cd":"GO","cn":7},{"dy":26,"cd":"EN","cn":8},{"dy":27,"cd":"GO","cn":15},{"dy":28,"cd":"GO","cn":10},{"dy":29,"cd":"EN","cn":7},{"dy":30,"cd":"GO","cn":8},{"dy":31,"cd":"EN","cn":15}]</v>
       </c>
       <c r="I2" t="s">
@@ -11347,10 +11352,10 @@
   <dimension ref="A1:X280"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C118" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O139" sqref="O139"/>
+      <selection pane="bottomRight" activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -11510,7 +11515,7 @@
       </c>
       <c r="X2" t="str">
         <f ca="1">"["&amp;
-IF(LEFT(P280,1)=",",SUBSTITUTE(P280,",","",1),P280)
+IF(LEFT(OFFSET(P1,COUNTA(P:P)-1,0),1)=",",SUBSTITUTE(OFFSET(P1,COUNTA(P:P)-1,0),",","",1),OFFSET(P1,COUNTA(P:P)-1,0))
 &amp;"]"</f>
         <v>[{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":18,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":20,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":18,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":20,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230}]</v>
       </c>

--- a/Excel/작업Shop.xlsx
+++ b/Excel/작업Shop.xlsx
@@ -8,9 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9F7179-AD6F-42D8-8BF2-01A52565CC72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF8DEA5-651B-4D43-91D4-7DAE6672BA3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="653" activeTab="3" xr2:uid="{1BFDBDDD-03BC-42BF-BA52-8E4216F92F7B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="653" activeTab="2" xr2:uid="{1BFDBDDD-03BC-42BF-BA52-8E4216F92F7B}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{7079A210-0E9D-482C-9ABA-BA8A458D39DA}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopLevelPackageTable" sheetId="6" r:id="rId1"/>
@@ -1297,7 +1298,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="162">
   <si>
     <t>addText|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1812,6 +1813,54 @@
     <t>DI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Equip0402</t>
+  </si>
+  <si>
+    <t>Equip3401</t>
+  </si>
+  <si>
+    <t>Actor1216</t>
+  </si>
+  <si>
+    <t>Actor1226</t>
+  </si>
+  <si>
+    <t>Equip5401</t>
+  </si>
+  <si>
+    <t>Equip6401</t>
+  </si>
+  <si>
+    <t>Equip8401</t>
+  </si>
+  <si>
+    <t>Equip8001</t>
+  </si>
+  <si>
+    <t>Equip7102</t>
+  </si>
+  <si>
+    <t>Equip7101</t>
+  </si>
+  <si>
+    <t>Equip6101</t>
+  </si>
+  <si>
+    <t>Equip4001</t>
+  </si>
+  <si>
+    <t>Equip5201</t>
+  </si>
+  <si>
+    <t>Equip0102</t>
+  </si>
+  <si>
+    <t>Equip1102</t>
+  </si>
+  <si>
+    <t>Equip4102</t>
+  </si>
 </sst>
 </file>
 
@@ -6628,17 +6677,20 @@
           <cell r="N80">
             <v>-5</v>
           </cell>
+          <cell r="P80" t="str">
+            <v>SciFantasyRapier</v>
+          </cell>
           <cell r="Q80">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="R80" t="str">
-            <v/>
+            <v>Shot_SciFantasyRapier</v>
           </cell>
           <cell r="S80" t="str">
-            <v/>
+            <v>EquipName_SciFantasyRapier</v>
           </cell>
           <cell r="T80" t="str">
-            <v>스트링없음</v>
+            <v>에메랄드빛 레이피어</v>
           </cell>
         </row>
         <row r="81">
@@ -8598,17 +8650,20 @@
           <cell r="N114" t="str">
             <v/>
           </cell>
+          <cell r="P114" t="str">
+            <v>SciFantasySword</v>
+          </cell>
           <cell r="Q114">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="R114" t="str">
-            <v/>
+            <v>Shot_SciFantasySword</v>
           </cell>
           <cell r="S114" t="str">
-            <v/>
+            <v>EquipName_SciFantasySword</v>
           </cell>
           <cell r="T114" t="str">
-            <v>스트링없음</v>
+            <v>붉은 보석 대검</v>
           </cell>
         </row>
         <row r="115">
@@ -10280,6 +10335,7 @@
   <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -10586,6 +10642,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -10667,10 +10724,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1070770-B9ED-49E3-BF29-C9DCD563A73C}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
   <cols>
@@ -11351,11 +11409,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6D00E40-1C77-4315-A9CA-11C225286842}">
   <dimension ref="A1:X280"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C190" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X2" sqref="X2"/>
+      <selection pane="bottomRight" activeCell="G207" sqref="G207"/>
+    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="1">
+      <pane xSplit="2" ySplit="1" topLeftCell="C221" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D227" sqref="D227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -11405,7 +11469,7 @@
         <v>127</v>
       </c>
       <c r="I1" s="3" t="str">
-        <f t="array" ref="I1">IF(SUM(IF(OR(H:H="밸류불필요",H:H="숫자필요",H:H="캐릭터없음",H:H="장비없음"),1,0))&gt;0,"밸류이상","cn")</f>
+        <f t="array" aca="1" ref="I1" ca="1">IF(SUM(IF(OR(H:H="밸류불필요",H:H="숫자필요",H:H="캐릭터없음",H:H="장비없음"),1,0))&gt;0,"밸류이상","cn")</f>
         <v>cn</v>
       </c>
       <c r="J1" t="s">
@@ -11517,7 +11581,7 @@
         <f ca="1">"["&amp;
 IF(LEFT(OFFSET(P1,COUNTA(P:P)-1,0),1)=",",SUBSTITUTE(OFFSET(P1,COUNTA(P:P)-1,0),",","",1),OFFSET(P1,COUNTA(P:P)-1,0))
 &amp;"]"</f>
-        <v>[{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":18,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":20,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":18,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":20,"sl":8,"tp":"uch","vl":"68415","cn":1,"pt":"DI","pp":620,"pr":230}]</v>
+        <v>[{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":22,"sl":0,"tp":"fe","vl":"Equip8001","cn":1,"pt":"GO","pr":5000},{"dy":22,"sl":1,"tp":"fe","vl":"Equip7102","cn":1,"pt":"GO","pr":24450},{"dy":22,"sl":2,"tp":"upn","vl":"44408","cn":16,"pt":"GO","pr":1600},{"dy":22,"sl":3,"tp":"uph","vl":"63155","cn":19,"pt":"GO","pr":1900},{"dy":22,"sl":4,"tp":"upn","vl":"38771","cn":22,"pt":"GO","pr":2200},{"dy":23,"sl":0,"tp":"fe","vl":"Equip0402","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":23,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":23,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":23,"sl":3,"tp":"upn","vl":"44055","cn":16,"pt":"GO","pr":1600},{"dy":23,"sl":4,"tp":"uph","vl":"48761","cn":18,"pt":"GO","pr":1800},{"dy":23,"sl":5,"tp":"fp","vl":"Actor1216","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":23,"sl":6,"tp":"upn","vl":"78946","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":24,"sl":0,"tp":"fe","vl":"Equip7101","cn":1,"pt":"GO","pr":5000},{"dy":24,"sl":1,"tp":"fe","vl":"Equip6101","cn":1,"pt":"GO","pr":24450},{"dy":24,"sl":2,"tp":"upn","vl":"54180","cn":16,"pt":"GO","pr":1600},{"dy":24,"sl":3,"tp":"uph","vl":"11504","cn":19,"pt":"GO","pr":1900},{"dy":24,"sl":4,"tp":"upn","vl":"18718","cn":22,"pt":"GO","pr":2200},{"dy":25,"sl":0,"tp":"fe","vl":"Equip3401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":25,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":25,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":25,"sl":3,"tp":"upn","vl":"94114","cn":16,"pt":"GO","pr":1600},{"dy":25,"sl":4,"tp":"uph","vl":"67435","cn":18,"pt":"GO","pr":1800},{"dy":25,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":25,"sl":6,"tp":"upn","vl":"43788","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":26,"sl":0,"tp":"fe","vl":"Equip4001","cn":1,"pt":"GO","pr":5000},{"dy":26,"sl":1,"tp":"fe","vl":"Equip5201","cn":1,"pt":"GO","pr":24450},{"dy":26,"sl":2,"tp":"upn","vl":"57510","cn":16,"pt":"GO","pr":1600},{"dy":26,"sl":3,"tp":"uph","vl":"13933","cn":19,"pt":"GO","pr":1900},{"dy":26,"sl":4,"tp":"upn","vl":"63758","cn":22,"pt":"GO","pr":2200},{"dy":27,"sl":0,"tp":"fe","vl":"Equip5401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":27,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":27,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":27,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":27,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":28,"sl":0,"tp":"fe","vl":"Equip0102","cn":1,"pt":"GO","pr":5000},{"dy":28,"sl":1,"tp":"fe","vl":"Equip1102","cn":1,"pt":"GO","pr":24450},{"dy":28,"sl":2,"tp":"upn","vl":"78493","cn":16,"pt":"GO","pr":1600},{"dy":28,"sl":3,"tp":"uph","vl":"65706","cn":19,"pt":"GO","pr":1900},{"dy":28,"sl":4,"tp":"upn","vl":"40322","cn":22,"pt":"GO","pr":2200},{"dy":29,"sl":0,"tp":"fe","vl":"Equip6401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":29,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":29,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":29,"sl":3,"tp":"upn","vl":"70045","cn":16,"pt":"GO","pr":1600},{"dy":29,"sl":4,"tp":"uph","vl":"35320","cn":18,"pt":"GO","pr":1800},{"dy":29,"sl":5,"tp":"fp","vl":"Actor1226","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":29,"sl":6,"tp":"upn","vl":"58062","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":30,"sl":0,"tp":"fe","vl":"Equip4102","cn":1,"pt":"GO","pr":5000},{"dy":30,"sl":1,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":24450},{"dy":30,"sl":2,"tp":"upn","vl":"23308","cn":16,"pt":"GO","pr":1600},{"dy":30,"sl":3,"tp":"uph","vl":"50149","cn":19,"pt":"GO","pr":1900},{"dy":30,"sl":4,"tp":"upn","vl":"10989","cn":22,"pt":"GO","pr":2200},{"dy":31,"sl":0,"tp":"fe","vl":"Equip8401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":31,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":31,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":31,"sl":3,"tp":"upn","vl":"72117","cn":16,"pt":"GO","pr":1600},{"dy":31,"sl":4,"tp":"uph","vl":"75026","cn":18,"pt":"GO","pr":1800},{"dy":31,"sl":5,"tp":"fp","vl":"Actor0233","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":31,"sl":6,"tp":"upn","vl":"27682","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":20,"sl":7,"tp":"fc","vl":"Actor0240","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":22,"sl":7,"tp":"fc","vl":"Actor1216","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":24,"sl":7,"tp":"fc","vl":"Actor1218","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":26,"sl":7,"tp":"fc","vl":"Actor1226","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":27,"sl":7,"tp":"fc","vl":"Actor1226","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":28,"sl":7,"tp":"fc","vl":"Actor1226","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":30,"sl":7,"tp":"fc","vl":"Actor0233","cn":1,"pt":"DI","pp":1340,"pr":720},{"dy":18,"sl":8,"tp":"uch","vl":"34554","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":20,"sl":8,"tp":"uch","vl":"34534","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":22,"sl":8,"tp":"uch","vl":"54454","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":24,"sl":8,"tp":"uch","vl":"45455","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":26,"sl":8,"tp":"uch","vl":"35454","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":27,"sl":8,"tp":"uch","vl":"35454","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":28,"sl":8,"tp":"uch","vl":"35454","cn":1,"pt":"DI","pp":620,"pr":230},{"dy":30,"sl":8,"tp":"uch","vl":"12323","cn":1,"pt":"DI","pp":620,"pr":230}]</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -14271,7 +14335,7 @@
         <v>121</v>
       </c>
       <c r="H65" t="str">
-        <f>IF(OR(
+        <f ca="1">IF(OR(
   AND(NOT(ISERROR(FIND("상자",D65))),ISBLANK(G65)),
   AND(ISBLANK(D65),ISBLANK(G65)),
   AND(NOT(ISERROR(FIND("안 지정",D65))),ISNUMBER(G65))),"",
@@ -14688,7 +14752,7 @@
         <v>117</v>
       </c>
       <c r="H72" t="str">
-        <f>IF(OR(
+        <f ca="1">IF(OR(
   AND(NOT(ISERROR(FIND("상자",D72))),ISBLANK(G72)),
   AND(ISBLANK(D72),ISBLANK(G72)),
   AND(NOT(ISERROR(FIND("안 지정",D72))),ISNUMBER(G72))),"",
@@ -14745,7 +14809,7 @@
         <v>128</v>
       </c>
       <c r="H73" t="str">
-        <f>IF(OR(
+        <f ca="1">IF(OR(
   AND(NOT(ISERROR(FIND("상자",D73))),ISBLANK(G73)),
   AND(ISBLANK(D73),ISBLANK(G73)),
   AND(NOT(ISERROR(FIND("안 지정",D73))),ISNUMBER(G73))),"",
@@ -15093,7 +15157,7 @@
         <v>124</v>
       </c>
       <c r="H79" t="str">
-        <f>IF(OR(
+        <f ca="1">IF(OR(
   AND(NOT(ISERROR(FIND("상자",D79))),ISBLANK(G79)),
   AND(ISBLANK(D79),ISBLANK(G79)),
   AND(NOT(ISERROR(FIND("안 지정",D79))),ISNUMBER(G79))),"",
@@ -15153,7 +15217,7 @@
         <v>125</v>
       </c>
       <c r="H80" t="str">
-        <f>IF(OR(
+        <f ca="1">IF(OR(
   AND(NOT(ISERROR(FIND("상자",D80))),ISBLANK(G80)),
   AND(ISBLANK(D80),ISBLANK(G80)),
   AND(NOT(ISERROR(FIND("안 지정",D80))),ISNUMBER(G80))),"",
@@ -15501,7 +15565,7 @@
         <v>139</v>
       </c>
       <c r="H86" t="str">
-        <f>IF(OR(
+        <f ca="1">IF(OR(
   AND(NOT(ISERROR(FIND("상자",D86))),ISBLANK(G86)),
   AND(ISBLANK(D86),ISBLANK(G86)),
   AND(NOT(ISERROR(FIND("안 지정",D86))),ISNUMBER(G86))),"",
@@ -15905,7 +15969,7 @@
         <v>140</v>
       </c>
       <c r="H93" t="str">
-        <f>IF(OR(
+        <f ca="1">IF(OR(
   AND(NOT(ISERROR(FIND("상자",D93))),ISBLANK(G93)),
   AND(ISBLANK(D93),ISBLANK(G93)),
   AND(NOT(ISERROR(FIND("안 지정",D93))),ISNUMBER(G93))),"",
@@ -15962,7 +16026,7 @@
         <v>141</v>
       </c>
       <c r="H94" t="str">
-        <f>IF(OR(
+        <f ca="1">IF(OR(
   AND(NOT(ISERROR(FIND("상자",D94))),ISBLANK(G94)),
   AND(ISBLANK(D94),ISBLANK(G94)),
   AND(NOT(ISERROR(FIND("안 지정",D94))),ISNUMBER(G94))),"",
@@ -16276,7 +16340,7 @@
         <v>136</v>
       </c>
       <c r="H100" t="str">
-        <f>IF(OR(
+        <f ca="1">IF(OR(
   AND(NOT(ISERROR(FIND("상자",D100))),ISBLANK(G100)),
   AND(ISBLANK(D100),ISBLANK(G100)),
   AND(NOT(ISERROR(FIND("안 지정",D100))),ISNUMBER(G100))),"",
@@ -16333,7 +16397,7 @@
         <v>137</v>
       </c>
       <c r="H101" t="str">
-        <f>IF(OR(
+        <f ca="1">IF(OR(
   AND(NOT(ISERROR(FIND("상자",D101))),ISBLANK(G101)),
   AND(ISBLANK(D101),ISBLANK(G101)),
   AND(NOT(ISERROR(FIND("안 지정",D101))),ISNUMBER(G101))),"",
@@ -16645,7 +16709,7 @@
         <v>125</v>
       </c>
       <c r="H107" t="str">
-        <f>IF(OR(
+        <f ca="1">IF(OR(
   AND(NOT(ISERROR(FIND("상자",D107))),ISBLANK(G107)),
   AND(ISBLANK(D107),ISBLANK(G107)),
   AND(NOT(ISERROR(FIND("안 지정",D107))),ISNUMBER(G107))),"",
@@ -16702,7 +16766,7 @@
         <v>138</v>
       </c>
       <c r="H108" t="str">
-        <f>IF(OR(
+        <f ca="1">IF(OR(
   AND(NOT(ISERROR(FIND("상자",D108))),ISBLANK(G108)),
   AND(ISBLANK(D108),ISBLANK(G108)),
   AND(NOT(ISERROR(FIND("안 지정",D108))),ISNUMBER(G108))),"",
@@ -17014,7 +17078,7 @@
         <v>121</v>
       </c>
       <c r="H114" t="str">
-        <f>IF(OR(
+        <f ca="1">IF(OR(
   AND(NOT(ISERROR(FIND("상자",D114))),ISBLANK(G114)),
   AND(ISBLANK(D114),ISBLANK(G114)),
   AND(NOT(ISERROR(FIND("안 지정",D114))),ISNUMBER(G114))),"",
@@ -17442,7 +17506,7 @@
         <v>144</v>
       </c>
       <c r="H121" t="str">
-        <f>IF(OR(
+        <f ca="1">IF(OR(
   AND(NOT(ISERROR(FIND("상자",D121))),ISBLANK(G121)),
   AND(ISBLANK(D121),ISBLANK(G121)),
   AND(NOT(ISERROR(FIND("안 지정",D121))),ISNUMBER(G121))),"",
@@ -17502,7 +17566,7 @@
         <v>137</v>
       </c>
       <c r="H122" t="str">
-        <f>IF(OR(
+        <f ca="1">IF(OR(
   AND(NOT(ISERROR(FIND("상자",D122))),ISBLANK(G122)),
   AND(ISBLANK(D122),ISBLANK(G122)),
   AND(NOT(ISERROR(FIND("안 지정",D122))),ISNUMBER(G122))),"",
@@ -17828,7 +17892,7 @@
         <v>143</v>
       </c>
       <c r="H128" t="str">
-        <f>IF(OR(
+        <f ca="1">IF(OR(
   AND(NOT(ISERROR(FIND("상자",D128))),ISBLANK(G128)),
   AND(ISBLANK(D128),ISBLANK(G128)),
   AND(NOT(ISERROR(FIND("안 지정",D128))),ISNUMBER(G128))),"",
@@ -17888,7 +17952,7 @@
         <v>144</v>
       </c>
       <c r="H129" t="str">
-        <f>IF(OR(
+        <f ca="1">IF(OR(
   AND(NOT(ISERROR(FIND("상자",D129))),ISBLANK(G129)),
   AND(ISBLANK(D129),ISBLANK(G129)),
   AND(NOT(ISERROR(FIND("안 지정",D129))),ISNUMBER(G129))),"",
@@ -18133,7 +18197,7 @@
         <v>fp</v>
       </c>
       <c r="F133" t="str">
-        <f t="shared" ref="F133:F194" si="19">IF(ISBLANK($D133),"",
+        <f t="shared" ref="F133:F198" si="19">IF(ISBLANK($D133),"",
 IF(AND($B133&gt;=VLOOKUP($D133,$S:$V,3,0),$B133&lt;=VLOOKUP($D133,$S:$V,4,0)),"","슬롯타입이상"))</f>
         <v/>
       </c>
@@ -18267,7 +18331,7 @@
         <v>125</v>
       </c>
       <c r="H135" t="str">
-        <f>IF(OR(
+        <f ca="1">IF(OR(
   AND(NOT(ISERROR(FIND("상자",D135))),ISBLANK(G135)),
   AND(ISBLANK(D135),ISBLANK(G135)),
   AND(NOT(ISERROR(FIND("안 지정",D135))),ISNUMBER(G135))),"",
@@ -18327,7 +18391,7 @@
         <v>138</v>
       </c>
       <c r="H136" t="str">
-        <f>IF(OR(
+        <f ca="1">IF(OR(
   AND(NOT(ISERROR(FIND("상자",D136))),ISBLANK(G136)),
   AND(ISBLANK(D136),ISBLANK(G136)),
   AND(NOT(ISERROR(FIND("안 지정",D136))),ISNUMBER(G136))),"",
@@ -18636,28 +18700,6 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="E142" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="F142" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="H142" t="str">
-        <f>IF(OR(
-  AND(NOT(ISERROR(FIND("상자",D142))),ISBLANK(G142)),
-  AND(ISBLANK(D142),ISBLANK(G142)),
-  AND(NOT(ISERROR(FIND("안 지정",D142))),ISNUMBER(G142))),"",
-IF(AND(NOT(ISERROR(FIND("상자",D142))),NOT(ISBLANK(G142))),"밸류불필요",
-IF(AND(NOT(ISERROR(FIND("안 지정",D142))),NOT(ISNUMBER(G142))),"숫자필요",
-IF(NOT(ISERROR(FIND("장비",D142))),
-  IFERROR(VLOOKUP(G142,[1]EquipTable!$A:$T,MATCH("이름참고",[1]EquipTable!$1:$1,0),0),"장비없음"),
-IF(NOT(ISERROR(FIND("캐릭터",D142))),
-  IFERROR(VLOOKUP(G142,[2]ActorTable!$A:$G,MATCH("이름참고",[2]ActorTable!$1:$1,0),0),"캐릭터없음"),
-"")))))</f>
-        <v/>
-      </c>
       <c r="P142" t="str">
         <f t="shared" ca="1" si="17"/>
         <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
@@ -18678,28 +18720,6 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="E143" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="F143" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="H143" t="str">
-        <f>IF(OR(
-  AND(NOT(ISERROR(FIND("상자",D143))),ISBLANK(G143)),
-  AND(ISBLANK(D143),ISBLANK(G143)),
-  AND(NOT(ISERROR(FIND("안 지정",D143))),ISNUMBER(G143))),"",
-IF(AND(NOT(ISERROR(FIND("상자",D143))),NOT(ISBLANK(G143))),"밸류불필요",
-IF(AND(NOT(ISERROR(FIND("안 지정",D143))),NOT(ISNUMBER(G143))),"숫자필요",
-IF(NOT(ISERROR(FIND("장비",D143))),
-  IFERROR(VLOOKUP(G143,[1]EquipTable!$A:$T,MATCH("이름참고",[1]EquipTable!$1:$1,0),0),"장비없음"),
-IF(NOT(ISERROR(FIND("캐릭터",D143))),
-  IFERROR(VLOOKUP(G143,[2]ActorTable!$A:$G,MATCH("이름참고",[2]ActorTable!$1:$1,0),0),"캐릭터없음"),
-"")))))</f>
-        <v/>
-      </c>
       <c r="P143" t="str">
         <f t="shared" ca="1" si="17"/>
         <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
@@ -18720,28 +18740,6 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="E144" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="F144" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="H144" t="str">
-        <f>IF(OR(
-  AND(NOT(ISERROR(FIND("상자",D144))),ISBLANK(G144)),
-  AND(ISBLANK(D144),ISBLANK(G144)),
-  AND(NOT(ISERROR(FIND("안 지정",D144))),ISNUMBER(G144))),"",
-IF(AND(NOT(ISERROR(FIND("상자",D144))),NOT(ISBLANK(G144))),"밸류불필요",
-IF(AND(NOT(ISERROR(FIND("안 지정",D144))),NOT(ISNUMBER(G144))),"숫자필요",
-IF(NOT(ISERROR(FIND("장비",D144))),
-  IFERROR(VLOOKUP(G144,[1]EquipTable!$A:$T,MATCH("이름참고",[1]EquipTable!$1:$1,0),0),"장비없음"),
-IF(NOT(ISERROR(FIND("캐릭터",D144))),
-  IFERROR(VLOOKUP(G144,[2]ActorTable!$A:$G,MATCH("이름참고",[2]ActorTable!$1:$1,0),0),"캐릭터없음"),
-"")))))</f>
-        <v/>
-      </c>
       <c r="P144" t="str">
         <f t="shared" ca="1" si="17"/>
         <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
@@ -18762,28 +18760,6 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="E145" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="F145" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="H145" t="str">
-        <f>IF(OR(
-  AND(NOT(ISERROR(FIND("상자",D145))),ISBLANK(G145)),
-  AND(ISBLANK(D145),ISBLANK(G145)),
-  AND(NOT(ISERROR(FIND("안 지정",D145))),ISNUMBER(G145))),"",
-IF(AND(NOT(ISERROR(FIND("상자",D145))),NOT(ISBLANK(G145))),"밸류불필요",
-IF(AND(NOT(ISERROR(FIND("안 지정",D145))),NOT(ISNUMBER(G145))),"숫자필요",
-IF(NOT(ISERROR(FIND("장비",D145))),
-  IFERROR(VLOOKUP(G145,[1]EquipTable!$A:$T,MATCH("이름참고",[1]EquipTable!$1:$1,0),0),"장비없음"),
-IF(NOT(ISERROR(FIND("캐릭터",D145))),
-  IFERROR(VLOOKUP(G145,[2]ActorTable!$A:$G,MATCH("이름참고",[2]ActorTable!$1:$1,0),0),"캐릭터없음"),
-"")))))</f>
-        <v/>
-      </c>
       <c r="P145" t="str">
         <f t="shared" ca="1" si="17"/>
         <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
@@ -18804,28 +18780,6 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="E146" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="F146" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="H146" t="str">
-        <f>IF(OR(
-  AND(NOT(ISERROR(FIND("상자",D146))),ISBLANK(G146)),
-  AND(ISBLANK(D146),ISBLANK(G146)),
-  AND(NOT(ISERROR(FIND("안 지정",D146))),ISNUMBER(G146))),"",
-IF(AND(NOT(ISERROR(FIND("상자",D146))),NOT(ISBLANK(G146))),"밸류불필요",
-IF(AND(NOT(ISERROR(FIND("안 지정",D146))),NOT(ISNUMBER(G146))),"숫자필요",
-IF(NOT(ISERROR(FIND("장비",D146))),
-  IFERROR(VLOOKUP(G146,[1]EquipTable!$A:$T,MATCH("이름참고",[1]EquipTable!$1:$1,0),0),"장비없음"),
-IF(NOT(ISERROR(FIND("캐릭터",D146))),
-  IFERROR(VLOOKUP(G146,[2]ActorTable!$A:$G,MATCH("이름참고",[2]ActorTable!$1:$1,0),0),"캐릭터없음"),
-"")))))</f>
-        <v/>
-      </c>
       <c r="P146" t="str">
         <f t="shared" ca="1" si="17"/>
         <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
@@ -18846,28 +18800,6 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="E147" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="F147" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="H147" t="str">
-        <f>IF(OR(
-  AND(NOT(ISERROR(FIND("상자",D147))),ISBLANK(G147)),
-  AND(ISBLANK(D147),ISBLANK(G147)),
-  AND(NOT(ISERROR(FIND("안 지정",D147))),ISNUMBER(G147))),"",
-IF(AND(NOT(ISERROR(FIND("상자",D147))),NOT(ISBLANK(G147))),"밸류불필요",
-IF(AND(NOT(ISERROR(FIND("안 지정",D147))),NOT(ISNUMBER(G147))),"숫자필요",
-IF(NOT(ISERROR(FIND("장비",D147))),
-  IFERROR(VLOOKUP(G147,[1]EquipTable!$A:$T,MATCH("이름참고",[1]EquipTable!$1:$1,0),0),"장비없음"),
-IF(NOT(ISERROR(FIND("캐릭터",D147))),
-  IFERROR(VLOOKUP(G147,[2]ActorTable!$A:$G,MATCH("이름참고",[2]ActorTable!$1:$1,0),0),"캐릭터없음"),
-"")))))</f>
-        <v/>
-      </c>
       <c r="P147" t="str">
         <f t="shared" ca="1" si="17"/>
         <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
@@ -18888,28 +18820,6 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="E148" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="F148" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="H148" t="str">
-        <f>IF(OR(
-  AND(NOT(ISERROR(FIND("상자",D148))),ISBLANK(G148)),
-  AND(ISBLANK(D148),ISBLANK(G148)),
-  AND(NOT(ISERROR(FIND("안 지정",D148))),ISNUMBER(G148))),"",
-IF(AND(NOT(ISERROR(FIND("상자",D148))),NOT(ISBLANK(G148))),"밸류불필요",
-IF(AND(NOT(ISERROR(FIND("안 지정",D148))),NOT(ISNUMBER(G148))),"숫자필요",
-IF(NOT(ISERROR(FIND("장비",D148))),
-  IFERROR(VLOOKUP(G148,[1]EquipTable!$A:$T,MATCH("이름참고",[1]EquipTable!$1:$1,0),0),"장비없음"),
-IF(NOT(ISERROR(FIND("캐릭터",D148))),
-  IFERROR(VLOOKUP(G148,[2]ActorTable!$A:$G,MATCH("이름참고",[2]ActorTable!$1:$1,0),0),"캐릭터없음"),
-"")))))</f>
-        <v/>
-      </c>
       <c r="P148" t="str">
         <f t="shared" ca="1" si="17"/>
         <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
@@ -18930,16 +18840,22 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
+      <c r="D149" t="s">
+        <v>96</v>
+      </c>
       <c r="E149" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v/>
+        <v>fe</v>
       </c>
       <c r="F149" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
+      <c r="G149" t="s">
+        <v>153</v>
+      </c>
       <c r="H149" t="str">
-        <f>IF(OR(
+        <f ca="1">IF(OR(
   AND(NOT(ISERROR(FIND("상자",D149))),ISBLANK(G149)),
   AND(ISBLANK(D149),ISBLANK(G149)),
   AND(NOT(ISERROR(FIND("안 지정",D149))),ISNUMBER(G149))),"",
@@ -18950,15 +18866,27 @@
 IF(NOT(ISERROR(FIND("캐릭터",D149))),
   IFERROR(VLOOKUP(G149,[2]ActorTable!$A:$G,MATCH("이름참고",[2]ActorTable!$1:$1,0),0),"캐릭터없음"),
 "")))))</f>
-        <v/>
+        <v>얼어붙은 밤</v>
+      </c>
+      <c r="I149">
+        <v>1</v>
+      </c>
+      <c r="K149" t="s">
+        <v>73</v>
+      </c>
+      <c r="N149">
+        <v>5000</v>
+      </c>
+      <c r="O149">
+        <v>1</v>
       </c>
       <c r="P149" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":22,"sl":0,"tp":"fe","vl":"Equip8001","cn":1,"pt":"GO","pr":5000}</v>
       </c>
       <c r="Q149" t="str">
-        <f t="shared" si="15"/>
-        <v/>
+        <f t="shared" ca="1" si="15"/>
+        <v>{"dy":22,"sl":0,"tp":"fe","vl":"Equip8001","cn":1,"pt":"GO","pr":5000}</v>
       </c>
     </row>
     <row r="150" spans="1:17">
@@ -18972,16 +18900,22 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
+      <c r="D150" t="s">
+        <v>96</v>
+      </c>
       <c r="E150" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v/>
+        <v>fe</v>
       </c>
       <c r="F150" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
+      <c r="G150" t="s">
+        <v>154</v>
+      </c>
       <c r="H150" t="str">
-        <f>IF(OR(
+        <f ca="1">IF(OR(
   AND(NOT(ISERROR(FIND("상자",D150))),ISBLANK(G150)),
   AND(ISBLANK(D150),ISBLANK(G150)),
   AND(NOT(ISERROR(FIND("안 지정",D150))),ISNUMBER(G150))),"",
@@ -18992,15 +18926,27 @@
 IF(NOT(ISERROR(FIND("캐릭터",D150))),
   IFERROR(VLOOKUP(G150,[2]ActorTable!$A:$G,MATCH("이름참고",[2]ActorTable!$1:$1,0),0),"캐릭터없음"),
 "")))))</f>
-        <v/>
+        <v>해골 대형 방패</v>
+      </c>
+      <c r="I150">
+        <v>1</v>
+      </c>
+      <c r="K150" t="s">
+        <v>73</v>
+      </c>
+      <c r="N150">
+        <v>24450</v>
+      </c>
+      <c r="O150">
+        <v>1</v>
       </c>
       <c r="P150" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":22,"sl":0,"tp":"fe","vl":"Equip8001","cn":1,"pt":"GO","pr":5000},{"dy":22,"sl":1,"tp":"fe","vl":"Equip7102","cn":1,"pt":"GO","pr":24450}</v>
       </c>
       <c r="Q150" t="str">
-        <f t="shared" si="15"/>
-        <v/>
+        <f t="shared" ca="1" si="15"/>
+        <v>{"dy":22,"sl":1,"tp":"fe","vl":"Equip7102","cn":1,"pt":"GO","pr":24450}</v>
       </c>
     </row>
     <row r="151" spans="1:17">
@@ -19014,13 +18960,19 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
+      <c r="D151" t="s">
+        <v>106</v>
+      </c>
       <c r="E151" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v/>
+        <v>upn</v>
       </c>
       <c r="F151" t="str">
         <f t="shared" si="19"/>
         <v/>
+      </c>
+      <c r="G151">
+        <v>44408</v>
       </c>
       <c r="H151" t="str">
         <f>IF(OR(
@@ -19036,13 +18988,25 @@
 "")))))</f>
         <v/>
       </c>
+      <c r="I151">
+        <v>16</v>
+      </c>
+      <c r="K151" t="s">
+        <v>73</v>
+      </c>
+      <c r="N151">
+        <v>1600</v>
+      </c>
+      <c r="O151">
+        <v>1</v>
+      </c>
       <c r="P151" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":22,"sl":0,"tp":"fe","vl":"Equip8001","cn":1,"pt":"GO","pr":5000},{"dy":22,"sl":1,"tp":"fe","vl":"Equip7102","cn":1,"pt":"GO","pr":24450},{"dy":22,"sl":2,"tp":"upn","vl":"44408","cn":16,"pt":"GO","pr":1600}</v>
       </c>
       <c r="Q151" t="str">
-        <f t="shared" si="15"/>
-        <v/>
+        <f t="shared" ca="1" si="15"/>
+        <v>{"dy":22,"sl":2,"tp":"upn","vl":"44408","cn":16,"pt":"GO","pr":1600}</v>
       </c>
     </row>
     <row r="152" spans="1:17">
@@ -19056,13 +19020,19 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
+      <c r="D152" t="s">
+        <v>105</v>
+      </c>
       <c r="E152" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v/>
+        <v>uph</v>
       </c>
       <c r="F152" t="str">
         <f t="shared" si="19"/>
         <v/>
+      </c>
+      <c r="G152">
+        <v>63155</v>
       </c>
       <c r="H152" t="str">
         <f>IF(OR(
@@ -19078,13 +19048,25 @@
 "")))))</f>
         <v/>
       </c>
+      <c r="I152">
+        <v>19</v>
+      </c>
+      <c r="K152" t="s">
+        <v>73</v>
+      </c>
+      <c r="N152">
+        <v>1900</v>
+      </c>
+      <c r="O152">
+        <v>1</v>
+      </c>
       <c r="P152" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":22,"sl":0,"tp":"fe","vl":"Equip8001","cn":1,"pt":"GO","pr":5000},{"dy":22,"sl":1,"tp":"fe","vl":"Equip7102","cn":1,"pt":"GO","pr":24450},{"dy":22,"sl":2,"tp":"upn","vl":"44408","cn":16,"pt":"GO","pr":1600},{"dy":22,"sl":3,"tp":"uph","vl":"63155","cn":19,"pt":"GO","pr":1900}</v>
       </c>
       <c r="Q152" t="str">
-        <f t="shared" si="15"/>
-        <v/>
+        <f t="shared" ca="1" si="15"/>
+        <v>{"dy":22,"sl":3,"tp":"uph","vl":"63155","cn":19,"pt":"GO","pr":1900}</v>
       </c>
     </row>
     <row r="153" spans="1:17">
@@ -19098,13 +19080,19 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
+      <c r="D153" t="s">
+        <v>106</v>
+      </c>
       <c r="E153" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v/>
+        <v>upn</v>
       </c>
       <c r="F153" t="str">
         <f t="shared" si="19"/>
         <v/>
+      </c>
+      <c r="G153">
+        <v>38771</v>
       </c>
       <c r="H153" t="str">
         <f>IF(OR(
@@ -19120,13 +19108,25 @@
 "")))))</f>
         <v/>
       </c>
+      <c r="I153">
+        <v>22</v>
+      </c>
+      <c r="K153" t="s">
+        <v>73</v>
+      </c>
+      <c r="N153">
+        <v>2200</v>
+      </c>
+      <c r="O153">
+        <v>1</v>
+      </c>
       <c r="P153" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":22,"sl":0,"tp":"fe","vl":"Equip8001","cn":1,"pt":"GO","pr":5000},{"dy":22,"sl":1,"tp":"fe","vl":"Equip7102","cn":1,"pt":"GO","pr":24450},{"dy":22,"sl":2,"tp":"upn","vl":"44408","cn":16,"pt":"GO","pr":1600},{"dy":22,"sl":3,"tp":"uph","vl":"63155","cn":19,"pt":"GO","pr":1900},{"dy":22,"sl":4,"tp":"upn","vl":"38771","cn":22,"pt":"GO","pr":2200}</v>
       </c>
       <c r="Q153" t="str">
-        <f t="shared" si="15"/>
-        <v/>
+        <f t="shared" ca="1" si="15"/>
+        <v>{"dy":22,"sl":4,"tp":"upn","vl":"38771","cn":22,"pt":"GO","pr":2200}</v>
       </c>
     </row>
     <row r="154" spans="1:17">
@@ -19164,7 +19164,7 @@
       </c>
       <c r="P154" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":22,"sl":0,"tp":"fe","vl":"Equip8001","cn":1,"pt":"GO","pr":5000},{"dy":22,"sl":1,"tp":"fe","vl":"Equip7102","cn":1,"pt":"GO","pr":24450},{"dy":22,"sl":2,"tp":"upn","vl":"44408","cn":16,"pt":"GO","pr":1600},{"dy":22,"sl":3,"tp":"uph","vl":"63155","cn":19,"pt":"GO","pr":1900},{"dy":22,"sl":4,"tp":"upn","vl":"38771","cn":22,"pt":"GO","pr":2200}</v>
       </c>
       <c r="Q154" t="str">
         <f t="shared" si="15"/>
@@ -19206,7 +19206,7 @@
       </c>
       <c r="P155" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":22,"sl":0,"tp":"fe","vl":"Equip8001","cn":1,"pt":"GO","pr":5000},{"dy":22,"sl":1,"tp":"fe","vl":"Equip7102","cn":1,"pt":"GO","pr":24450},{"dy":22,"sl":2,"tp":"upn","vl":"44408","cn":16,"pt":"GO","pr":1600},{"dy":22,"sl":3,"tp":"uph","vl":"63155","cn":19,"pt":"GO","pr":1900},{"dy":22,"sl":4,"tp":"upn","vl":"38771","cn":22,"pt":"GO","pr":2200}</v>
       </c>
       <c r="Q155" t="str">
         <f t="shared" si="15"/>
@@ -19224,16 +19224,24 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
+      <c r="D156" t="s">
+        <v>96</v>
+      </c>
       <c r="E156" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
+        <f t="shared" ref="E156:E197" ca="1" si="20">IF(ISBLANK(D156),"",
+VLOOKUP(D156,OFFSET(INDIRECT("$A:$B"),0,MATCH(D$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v>fe</v>
       </c>
       <c r="F156" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
+      <c r="G156" t="s">
+        <v>146</v>
+      </c>
       <c r="H156" t="str">
-        <f>IF(OR(
+        <f ca="1">IF(OR(
   AND(NOT(ISERROR(FIND("상자",D156))),ISBLANK(G156)),
   AND(ISBLANK(D156),ISBLANK(G156)),
   AND(NOT(ISERROR(FIND("안 지정",D156))),ISNUMBER(G156))),"",
@@ -19244,15 +19252,30 @@
 IF(NOT(ISERROR(FIND("캐릭터",D156))),
   IFERROR(VLOOKUP(G156,[2]ActorTable!$A:$G,MATCH("이름참고",[2]ActorTable!$1:$1,0),0),"캐릭터없음"),
 "")))))</f>
-        <v/>
+        <v>얼룩진 도끼</v>
+      </c>
+      <c r="I156">
+        <v>1</v>
+      </c>
+      <c r="K156" t="s">
+        <v>76</v>
+      </c>
+      <c r="M156">
+        <v>840</v>
+      </c>
+      <c r="N156">
+        <v>530</v>
+      </c>
+      <c r="O156">
+        <v>1</v>
       </c>
       <c r="P156" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":22,"sl":0,"tp":"fe","vl":"Equip8001","cn":1,"pt":"GO","pr":5000},{"dy":22,"sl":1,"tp":"fe","vl":"Equip7102","cn":1,"pt":"GO","pr":24450},{"dy":22,"sl":2,"tp":"upn","vl":"44408","cn":16,"pt":"GO","pr":1600},{"dy":22,"sl":3,"tp":"uph","vl":"63155","cn":19,"pt":"GO","pr":1900},{"dy":22,"sl":4,"tp":"upn","vl":"38771","cn":22,"pt":"GO","pr":2200},{"dy":23,"sl":0,"tp":"fe","vl":"Equip0402","cn":1,"pt":"DI","pp":840,"pr":530}</v>
       </c>
       <c r="Q156" t="str">
-        <f t="shared" si="15"/>
-        <v/>
+        <f t="shared" ca="1" si="15"/>
+        <v>{"dy":23,"sl":0,"tp":"fe","vl":"Equip0402","cn":1,"pt":"DI","pp":840,"pr":530}</v>
       </c>
     </row>
     <row r="157" spans="1:17">
@@ -19266,9 +19289,12 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
+      <c r="D157" t="s">
+        <v>97</v>
+      </c>
       <c r="E157" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
+        <f t="shared" ca="1" si="20"/>
+        <v>bn</v>
       </c>
       <c r="F157" t="str">
         <f t="shared" si="19"/>
@@ -19288,13 +19314,25 @@
 "")))))</f>
         <v/>
       </c>
+      <c r="I157">
+        <v>1</v>
+      </c>
+      <c r="K157" t="s">
+        <v>76</v>
+      </c>
+      <c r="N157">
+        <v>30</v>
+      </c>
+      <c r="O157">
+        <v>1</v>
+      </c>
       <c r="P157" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":22,"sl":0,"tp":"fe","vl":"Equip8001","cn":1,"pt":"GO","pr":5000},{"dy":22,"sl":1,"tp":"fe","vl":"Equip7102","cn":1,"pt":"GO","pr":24450},{"dy":22,"sl":2,"tp":"upn","vl":"44408","cn":16,"pt":"GO","pr":1600},{"dy":22,"sl":3,"tp":"uph","vl":"63155","cn":19,"pt":"GO","pr":1900},{"dy":22,"sl":4,"tp":"upn","vl":"38771","cn":22,"pt":"GO","pr":2200},{"dy":23,"sl":0,"tp":"fe","vl":"Equip0402","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":23,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30}</v>
       </c>
       <c r="Q157" t="str">
-        <f t="shared" si="15"/>
-        <v/>
+        <f t="shared" ca="1" si="15"/>
+        <v>{"dy":23,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30}</v>
       </c>
     </row>
     <row r="158" spans="1:17">
@@ -19308,9 +19346,12 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
+      <c r="D158" t="s">
+        <v>98</v>
+      </c>
       <c r="E158" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
+        <f t="shared" ca="1" si="20"/>
+        <v>bh</v>
       </c>
       <c r="F158" t="str">
         <f t="shared" si="19"/>
@@ -19330,13 +19371,28 @@
 "")))))</f>
         <v/>
       </c>
+      <c r="I158">
+        <v>1</v>
+      </c>
+      <c r="K158" t="s">
+        <v>76</v>
+      </c>
+      <c r="M158">
+        <v>120</v>
+      </c>
+      <c r="N158">
+        <v>70</v>
+      </c>
+      <c r="O158">
+        <v>1</v>
+      </c>
       <c r="P158" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":22,"sl":0,"tp":"fe","vl":"Equip8001","cn":1,"pt":"GO","pr":5000},{"dy":22,"sl":1,"tp":"fe","vl":"Equip7102","cn":1,"pt":"GO","pr":24450},{"dy":22,"sl":2,"tp":"upn","vl":"44408","cn":16,"pt":"GO","pr":1600},{"dy":22,"sl":3,"tp":"uph","vl":"63155","cn":19,"pt":"GO","pr":1900},{"dy":22,"sl":4,"tp":"upn","vl":"38771","cn":22,"pt":"GO","pr":2200},{"dy":23,"sl":0,"tp":"fe","vl":"Equip0402","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":23,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":23,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70}</v>
       </c>
       <c r="Q158" t="str">
-        <f t="shared" si="15"/>
-        <v/>
+        <f t="shared" ca="1" si="15"/>
+        <v>{"dy":23,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70}</v>
       </c>
     </row>
     <row r="159" spans="1:17">
@@ -19350,13 +19406,19 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
+      <c r="D159" t="s">
+        <v>106</v>
+      </c>
       <c r="E159" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
+        <f t="shared" ca="1" si="20"/>
+        <v>upn</v>
       </c>
       <c r="F159" t="str">
         <f t="shared" si="19"/>
         <v/>
+      </c>
+      <c r="G159">
+        <v>44055</v>
       </c>
       <c r="H159" t="str">
         <f>IF(OR(
@@ -19372,13 +19434,25 @@
 "")))))</f>
         <v/>
       </c>
+      <c r="I159">
+        <v>16</v>
+      </c>
+      <c r="K159" t="s">
+        <v>73</v>
+      </c>
+      <c r="N159">
+        <v>1600</v>
+      </c>
+      <c r="O159">
+        <v>1</v>
+      </c>
       <c r="P159" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":22,"sl":0,"tp":"fe","vl":"Equip8001","cn":1,"pt":"GO","pr":5000},{"dy":22,"sl":1,"tp":"fe","vl":"Equip7102","cn":1,"pt":"GO","pr":24450},{"dy":22,"sl":2,"tp":"upn","vl":"44408","cn":16,"pt":"GO","pr":1600},{"dy":22,"sl":3,"tp":"uph","vl":"63155","cn":19,"pt":"GO","pr":1900},{"dy":22,"sl":4,"tp":"upn","vl":"38771","cn":22,"pt":"GO","pr":2200},{"dy":23,"sl":0,"tp":"fe","vl":"Equip0402","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":23,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":23,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":23,"sl":3,"tp":"upn","vl":"44055","cn":16,"pt":"GO","pr":1600}</v>
       </c>
       <c r="Q159" t="str">
-        <f t="shared" si="15"/>
-        <v/>
+        <f t="shared" ca="1" si="15"/>
+        <v>{"dy":23,"sl":3,"tp":"upn","vl":"44055","cn":16,"pt":"GO","pr":1600}</v>
       </c>
     </row>
     <row r="160" spans="1:17">
@@ -19392,13 +19466,19 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
+      <c r="D160" t="s">
+        <v>105</v>
+      </c>
       <c r="E160" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
+        <f t="shared" ca="1" si="20"/>
+        <v>uph</v>
       </c>
       <c r="F160" t="str">
         <f t="shared" si="19"/>
         <v/>
+      </c>
+      <c r="G160">
+        <v>48761</v>
       </c>
       <c r="H160" t="str">
         <f>IF(OR(
@@ -19414,13 +19494,25 @@
 "")))))</f>
         <v/>
       </c>
+      <c r="I160">
+        <v>18</v>
+      </c>
+      <c r="K160" t="s">
+        <v>73</v>
+      </c>
+      <c r="N160">
+        <v>1800</v>
+      </c>
+      <c r="O160">
+        <v>1</v>
+      </c>
       <c r="P160" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":22,"sl":0,"tp":"fe","vl":"Equip8001","cn":1,"pt":"GO","pr":5000},{"dy":22,"sl":1,"tp":"fe","vl":"Equip7102","cn":1,"pt":"GO","pr":24450},{"dy":22,"sl":2,"tp":"upn","vl":"44408","cn":16,"pt":"GO","pr":1600},{"dy":22,"sl":3,"tp":"uph","vl":"63155","cn":19,"pt":"GO","pr":1900},{"dy":22,"sl":4,"tp":"upn","vl":"38771","cn":22,"pt":"GO","pr":2200},{"dy":23,"sl":0,"tp":"fe","vl":"Equip0402","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":23,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":23,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":23,"sl":3,"tp":"upn","vl":"44055","cn":16,"pt":"GO","pr":1600},{"dy":23,"sl":4,"tp":"uph","vl":"48761","cn":18,"pt":"GO","pr":1800}</v>
       </c>
       <c r="Q160" t="str">
-        <f t="shared" si="15"/>
-        <v/>
+        <f t="shared" ca="1" si="15"/>
+        <v>{"dy":23,"sl":4,"tp":"uph","vl":"48761","cn":18,"pt":"GO","pr":1800}</v>
       </c>
     </row>
     <row r="161" spans="1:17">
@@ -19434,13 +19526,19 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
+      <c r="D161" t="s">
+        <v>100</v>
+      </c>
       <c r="E161" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
+        <f t="shared" ca="1" si="20"/>
+        <v>fp</v>
       </c>
       <c r="F161" t="str">
         <f t="shared" si="19"/>
         <v/>
+      </c>
+      <c r="G161" t="s">
+        <v>148</v>
       </c>
       <c r="H161" t="str">
         <f>IF(OR(
@@ -19454,15 +19552,30 @@
 IF(NOT(ISERROR(FIND("캐릭터",D161))),
   IFERROR(VLOOKUP(G161,[2]ActorTable!$A:$G,MATCH("이름참고",[2]ActorTable!$1:$1,0),0),"캐릭터없음"),
 "")))))</f>
-        <v/>
+        <v>스팀펑크로봇</v>
+      </c>
+      <c r="I161">
+        <v>140</v>
+      </c>
+      <c r="K161" t="s">
+        <v>76</v>
+      </c>
+      <c r="M161">
+        <v>340</v>
+      </c>
+      <c r="N161">
+        <v>120</v>
+      </c>
+      <c r="O161">
+        <v>1</v>
       </c>
       <c r="P161" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":22,"sl":0,"tp":"fe","vl":"Equip8001","cn":1,"pt":"GO","pr":5000},{"dy":22,"sl":1,"tp":"fe","vl":"Equip7102","cn":1,"pt":"GO","pr":24450},{"dy":22,"sl":2,"tp":"upn","vl":"44408","cn":16,"pt":"GO","pr":1600},{"dy":22,"sl":3,"tp":"uph","vl":"63155","cn":19,"pt":"GO","pr":1900},{"dy":22,"sl":4,"tp":"upn","vl":"38771","cn":22,"pt":"GO","pr":2200},{"dy":23,"sl":0,"tp":"fe","vl":"Equip0402","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":23,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":23,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":23,"sl":3,"tp":"upn","vl":"44055","cn":16,"pt":"GO","pr":1600},{"dy":23,"sl":4,"tp":"uph","vl":"48761","cn":18,"pt":"GO","pr":1800},{"dy":23,"sl":5,"tp":"fp","vl":"Actor1216","cn":140,"pt":"DI","pp":340,"pr":120}</v>
       </c>
       <c r="Q161" t="str">
-        <f t="shared" si="15"/>
-        <v/>
+        <f t="shared" ca="1" si="15"/>
+        <v>{"dy":23,"sl":5,"tp":"fp","vl":"Actor1216","cn":140,"pt":"DI","pp":340,"pr":120}</v>
       </c>
     </row>
     <row r="162" spans="1:17">
@@ -19476,13 +19589,19 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
+      <c r="D162" t="s">
+        <v>106</v>
+      </c>
       <c r="E162" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
+        <f t="shared" ca="1" si="20"/>
+        <v>upn</v>
       </c>
       <c r="F162" t="str">
         <f t="shared" si="19"/>
         <v/>
+      </c>
+      <c r="G162">
+        <v>78946</v>
       </c>
       <c r="H162" t="str">
         <f>IF(OR(
@@ -19498,13 +19617,28 @@
 "")))))</f>
         <v/>
       </c>
+      <c r="I162">
+        <v>154</v>
+      </c>
+      <c r="K162" t="s">
+        <v>76</v>
+      </c>
+      <c r="M162">
+        <v>130</v>
+      </c>
+      <c r="N162">
+        <v>16</v>
+      </c>
+      <c r="O162">
+        <v>1</v>
+      </c>
       <c r="P162" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":22,"sl":0,"tp":"fe","vl":"Equip8001","cn":1,"pt":"GO","pr":5000},{"dy":22,"sl":1,"tp":"fe","vl":"Equip7102","cn":1,"pt":"GO","pr":24450},{"dy":22,"sl":2,"tp":"upn","vl":"44408","cn":16,"pt":"GO","pr":1600},{"dy":22,"sl":3,"tp":"uph","vl":"63155","cn":19,"pt":"GO","pr":1900},{"dy":22,"sl":4,"tp":"upn","vl":"38771","cn":22,"pt":"GO","pr":2200},{"dy":23,"sl":0,"tp":"fe","vl":"Equip0402","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":23,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":23,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":23,"sl":3,"tp":"upn","vl":"44055","cn":16,"pt":"GO","pr":1600},{"dy":23,"sl":4,"tp":"uph","vl":"48761","cn":18,"pt":"GO","pr":1800},{"dy":23,"sl":5,"tp":"fp","vl":"Actor1216","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":23,"sl":6,"tp":"upn","vl":"78946","cn":154,"pt":"DI","pp":130,"pr":16}</v>
       </c>
       <c r="Q162" t="str">
-        <f t="shared" si="15"/>
-        <v/>
+        <f t="shared" ca="1" si="15"/>
+        <v>{"dy":23,"sl":6,"tp":"upn","vl":"78946","cn":154,"pt":"DI","pp":130,"pr":16}</v>
       </c>
     </row>
     <row r="163" spans="1:17">
@@ -19518,16 +19652,22 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
+      <c r="D163" t="s">
+        <v>96</v>
+      </c>
       <c r="E163" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
+        <f t="shared" ca="1" si="20"/>
+        <v>fe</v>
       </c>
       <c r="F163" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
+      <c r="G163" t="s">
+        <v>155</v>
+      </c>
       <c r="H163" t="str">
-        <f>IF(OR(
+        <f ca="1">IF(OR(
   AND(NOT(ISERROR(FIND("상자",D163))),ISBLANK(G163)),
   AND(ISBLANK(D163),ISBLANK(G163)),
   AND(NOT(ISERROR(FIND("안 지정",D163))),ISNUMBER(G163))),"",
@@ -19538,15 +19678,27 @@
 IF(NOT(ISERROR(FIND("캐릭터",D163))),
   IFERROR(VLOOKUP(G163,[2]ActorTable!$A:$G,MATCH("이름참고",[2]ActorTable!$1:$1,0),0),"캐릭터없음"),
 "")))))</f>
-        <v/>
+        <v>스켈레톤 쉴드</v>
+      </c>
+      <c r="I163">
+        <v>1</v>
+      </c>
+      <c r="K163" t="s">
+        <v>73</v>
+      </c>
+      <c r="N163">
+        <v>5000</v>
+      </c>
+      <c r="O163">
+        <v>1</v>
       </c>
       <c r="P163" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":22,"sl":0,"tp":"fe","vl":"Equip8001","cn":1,"pt":"GO","pr":5000},{"dy":22,"sl":1,"tp":"fe","vl":"Equip7102","cn":1,"pt":"GO","pr":24450},{"dy":22,"sl":2,"tp":"upn","vl":"44408","cn":16,"pt":"GO","pr":1600},{"dy":22,"sl":3,"tp":"uph","vl":"63155","cn":19,"pt":"GO","pr":1900},{"dy":22,"sl":4,"tp":"upn","vl":"38771","cn":22,"pt":"GO","pr":2200},{"dy":23,"sl":0,"tp":"fe","vl":"Equip0402","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":23,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":23,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":23,"sl":3,"tp":"upn","vl":"44055","cn":16,"pt":"GO","pr":1600},{"dy":23,"sl":4,"tp":"uph","vl":"48761","cn":18,"pt":"GO","pr":1800},{"dy":23,"sl":5,"tp":"fp","vl":"Actor1216","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":23,"sl":6,"tp":"upn","vl":"78946","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":24,"sl":0,"tp":"fe","vl":"Equip7101","cn":1,"pt":"GO","pr":5000}</v>
       </c>
       <c r="Q163" t="str">
-        <f t="shared" si="15"/>
-        <v/>
+        <f t="shared" ca="1" si="15"/>
+        <v>{"dy":24,"sl":0,"tp":"fe","vl":"Equip7101","cn":1,"pt":"GO","pr":5000}</v>
       </c>
     </row>
     <row r="164" spans="1:17">
@@ -19560,16 +19712,22 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
+      <c r="D164" t="s">
+        <v>96</v>
+      </c>
       <c r="E164" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
+        <f t="shared" ca="1" si="20"/>
+        <v>fe</v>
       </c>
       <c r="F164" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
+      <c r="G164" t="s">
+        <v>156</v>
+      </c>
       <c r="H164" t="str">
-        <f>IF(OR(
+        <f ca="1">IF(OR(
   AND(NOT(ISERROR(FIND("상자",D164))),ISBLANK(G164)),
   AND(ISBLANK(D164),ISBLANK(G164)),
   AND(NOT(ISERROR(FIND("안 지정",D164))),ISNUMBER(G164))),"",
@@ -19580,15 +19738,27 @@
 IF(NOT(ISERROR(FIND("캐릭터",D164))),
   IFERROR(VLOOKUP(G164,[2]ActorTable!$A:$G,MATCH("이름참고",[2]ActorTable!$1:$1,0),0),"캐릭터없음"),
 "")))))</f>
-        <v/>
+        <v>SMG31</v>
+      </c>
+      <c r="I164">
+        <v>1</v>
+      </c>
+      <c r="K164" t="s">
+        <v>73</v>
+      </c>
+      <c r="N164">
+        <v>24450</v>
+      </c>
+      <c r="O164">
+        <v>1</v>
       </c>
       <c r="P164" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":22,"sl":0,"tp":"fe","vl":"Equip8001","cn":1,"pt":"GO","pr":5000},{"dy":22,"sl":1,"tp":"fe","vl":"Equip7102","cn":1,"pt":"GO","pr":24450},{"dy":22,"sl":2,"tp":"upn","vl":"44408","cn":16,"pt":"GO","pr":1600},{"dy":22,"sl":3,"tp":"uph","vl":"63155","cn":19,"pt":"GO","pr":1900},{"dy":22,"sl":4,"tp":"upn","vl":"38771","cn":22,"pt":"GO","pr":2200},{"dy":23,"sl":0,"tp":"fe","vl":"Equip0402","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":23,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":23,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":23,"sl":3,"tp":"upn","vl":"44055","cn":16,"pt":"GO","pr":1600},{"dy":23,"sl":4,"tp":"uph","vl":"48761","cn":18,"pt":"GO","pr":1800},{"dy":23,"sl":5,"tp":"fp","vl":"Actor1216","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":23,"sl":6,"tp":"upn","vl":"78946","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":24,"sl":0,"tp":"fe","vl":"Equip7101","cn":1,"pt":"GO","pr":5000},{"dy":24,"sl":1,"tp":"fe","vl":"Equip6101","cn":1,"pt":"GO","pr":24450}</v>
       </c>
       <c r="Q164" t="str">
-        <f t="shared" si="15"/>
-        <v/>
+        <f t="shared" ca="1" si="15"/>
+        <v>{"dy":24,"sl":1,"tp":"fe","vl":"Equip6101","cn":1,"pt":"GO","pr":24450}</v>
       </c>
     </row>
     <row r="165" spans="1:17">
@@ -19602,13 +19772,19 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
+      <c r="D165" t="s">
+        <v>106</v>
+      </c>
       <c r="E165" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
+        <f t="shared" ca="1" si="20"/>
+        <v>upn</v>
       </c>
       <c r="F165" t="str">
         <f t="shared" si="19"/>
         <v/>
+      </c>
+      <c r="G165">
+        <v>54180</v>
       </c>
       <c r="H165" t="str">
         <f>IF(OR(
@@ -19624,13 +19800,25 @@
 "")))))</f>
         <v/>
       </c>
+      <c r="I165">
+        <v>16</v>
+      </c>
+      <c r="K165" t="s">
+        <v>73</v>
+      </c>
+      <c r="N165">
+        <v>1600</v>
+      </c>
+      <c r="O165">
+        <v>1</v>
+      </c>
       <c r="P165" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":22,"sl":0,"tp":"fe","vl":"Equip8001","cn":1,"pt":"GO","pr":5000},{"dy":22,"sl":1,"tp":"fe","vl":"Equip7102","cn":1,"pt":"GO","pr":24450},{"dy":22,"sl":2,"tp":"upn","vl":"44408","cn":16,"pt":"GO","pr":1600},{"dy":22,"sl":3,"tp":"uph","vl":"63155","cn":19,"pt":"GO","pr":1900},{"dy":22,"sl":4,"tp":"upn","vl":"38771","cn":22,"pt":"GO","pr":2200},{"dy":23,"sl":0,"tp":"fe","vl":"Equip0402","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":23,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":23,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":23,"sl":3,"tp":"upn","vl":"44055","cn":16,"pt":"GO","pr":1600},{"dy":23,"sl":4,"tp":"uph","vl":"48761","cn":18,"pt":"GO","pr":1800},{"dy":23,"sl":5,"tp":"fp","vl":"Actor1216","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":23,"sl":6,"tp":"upn","vl":"78946","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":24,"sl":0,"tp":"fe","vl":"Equip7101","cn":1,"pt":"GO","pr":5000},{"dy":24,"sl":1,"tp":"fe","vl":"Equip6101","cn":1,"pt":"GO","pr":24450},{"dy":24,"sl":2,"tp":"upn","vl":"54180","cn":16,"pt":"GO","pr":1600}</v>
       </c>
       <c r="Q165" t="str">
-        <f t="shared" si="15"/>
-        <v/>
+        <f t="shared" ca="1" si="15"/>
+        <v>{"dy":24,"sl":2,"tp":"upn","vl":"54180","cn":16,"pt":"GO","pr":1600}</v>
       </c>
     </row>
     <row r="166" spans="1:17">
@@ -19644,13 +19832,19 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
+      <c r="D166" t="s">
+        <v>105</v>
+      </c>
       <c r="E166" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
+        <f t="shared" ca="1" si="20"/>
+        <v>uph</v>
       </c>
       <c r="F166" t="str">
         <f t="shared" si="19"/>
         <v/>
+      </c>
+      <c r="G166">
+        <v>11504</v>
       </c>
       <c r="H166" t="str">
         <f>IF(OR(
@@ -19666,13 +19860,25 @@
 "")))))</f>
         <v/>
       </c>
+      <c r="I166">
+        <v>19</v>
+      </c>
+      <c r="K166" t="s">
+        <v>73</v>
+      </c>
+      <c r="N166">
+        <v>1900</v>
+      </c>
+      <c r="O166">
+        <v>1</v>
+      </c>
       <c r="P166" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":22,"sl":0,"tp":"fe","vl":"Equip8001","cn":1,"pt":"GO","pr":5000},{"dy":22,"sl":1,"tp":"fe","vl":"Equip7102","cn":1,"pt":"GO","pr":24450},{"dy":22,"sl":2,"tp":"upn","vl":"44408","cn":16,"pt":"GO","pr":1600},{"dy":22,"sl":3,"tp":"uph","vl":"63155","cn":19,"pt":"GO","pr":1900},{"dy":22,"sl":4,"tp":"upn","vl":"38771","cn":22,"pt":"GO","pr":2200},{"dy":23,"sl":0,"tp":"fe","vl":"Equip0402","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":23,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":23,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":23,"sl":3,"tp":"upn","vl":"44055","cn":16,"pt":"GO","pr":1600},{"dy":23,"sl":4,"tp":"uph","vl":"48761","cn":18,"pt":"GO","pr":1800},{"dy":23,"sl":5,"tp":"fp","vl":"Actor1216","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":23,"sl":6,"tp":"upn","vl":"78946","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":24,"sl":0,"tp":"fe","vl":"Equip7101","cn":1,"pt":"GO","pr":5000},{"dy":24,"sl":1,"tp":"fe","vl":"Equip6101","cn":1,"pt":"GO","pr":24450},{"dy":24,"sl":2,"tp":"upn","vl":"54180","cn":16,"pt":"GO","pr":1600},{"dy":24,"sl":3,"tp":"uph","vl":"11504","cn":19,"pt":"GO","pr":1900}</v>
       </c>
       <c r="Q166" t="str">
-        <f t="shared" si="15"/>
-        <v/>
+        <f t="shared" ca="1" si="15"/>
+        <v>{"dy":24,"sl":3,"tp":"uph","vl":"11504","cn":19,"pt":"GO","pr":1900}</v>
       </c>
     </row>
     <row r="167" spans="1:17">
@@ -19686,13 +19892,19 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
+      <c r="D167" t="s">
+        <v>106</v>
+      </c>
       <c r="E167" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
+        <f t="shared" ca="1" si="20"/>
+        <v>upn</v>
       </c>
       <c r="F167" t="str">
         <f t="shared" si="19"/>
         <v/>
+      </c>
+      <c r="G167">
+        <v>18718</v>
       </c>
       <c r="H167" t="str">
         <f>IF(OR(
@@ -19708,13 +19920,25 @@
 "")))))</f>
         <v/>
       </c>
+      <c r="I167">
+        <v>22</v>
+      </c>
+      <c r="K167" t="s">
+        <v>73</v>
+      </c>
+      <c r="N167">
+        <v>2200</v>
+      </c>
+      <c r="O167">
+        <v>1</v>
+      </c>
       <c r="P167" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":22,"sl":0,"tp":"fe","vl":"Equip8001","cn":1,"pt":"GO","pr":5000},{"dy":22,"sl":1,"tp":"fe","vl":"Equip7102","cn":1,"pt":"GO","pr":24450},{"dy":22,"sl":2,"tp":"upn","vl":"44408","cn":16,"pt":"GO","pr":1600},{"dy":22,"sl":3,"tp":"uph","vl":"63155","cn":19,"pt":"GO","pr":1900},{"dy":22,"sl":4,"tp":"upn","vl":"38771","cn":22,"pt":"GO","pr":2200},{"dy":23,"sl":0,"tp":"fe","vl":"Equip0402","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":23,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":23,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":23,"sl":3,"tp":"upn","vl":"44055","cn":16,"pt":"GO","pr":1600},{"dy":23,"sl":4,"tp":"uph","vl":"48761","cn":18,"pt":"GO","pr":1800},{"dy":23,"sl":5,"tp":"fp","vl":"Actor1216","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":23,"sl":6,"tp":"upn","vl":"78946","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":24,"sl":0,"tp":"fe","vl":"Equip7101","cn":1,"pt":"GO","pr":5000},{"dy":24,"sl":1,"tp":"fe","vl":"Equip6101","cn":1,"pt":"GO","pr":24450},{"dy":24,"sl":2,"tp":"upn","vl":"54180","cn":16,"pt":"GO","pr":1600},{"dy":24,"sl":3,"tp":"uph","vl":"11504","cn":19,"pt":"GO","pr":1900},{"dy":24,"sl":4,"tp":"upn","vl":"18718","cn":22,"pt":"GO","pr":2200}</v>
       </c>
       <c r="Q167" t="str">
-        <f t="shared" si="15"/>
-        <v/>
+        <f t="shared" ca="1" si="15"/>
+        <v>{"dy":24,"sl":4,"tp":"upn","vl":"18718","cn":22,"pt":"GO","pr":2200}</v>
       </c>
     </row>
     <row r="168" spans="1:17">
@@ -19729,7 +19953,7 @@
         <v>0</v>
       </c>
       <c r="E168" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="F168" t="str">
@@ -19752,7 +19976,7 @@
       </c>
       <c r="P168" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":22,"sl":0,"tp":"fe","vl":"Equip8001","cn":1,"pt":"GO","pr":5000},{"dy":22,"sl":1,"tp":"fe","vl":"Equip7102","cn":1,"pt":"GO","pr":24450},{"dy":22,"sl":2,"tp":"upn","vl":"44408","cn":16,"pt":"GO","pr":1600},{"dy":22,"sl":3,"tp":"uph","vl":"63155","cn":19,"pt":"GO","pr":1900},{"dy":22,"sl":4,"tp":"upn","vl":"38771","cn":22,"pt":"GO","pr":2200},{"dy":23,"sl":0,"tp":"fe","vl":"Equip0402","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":23,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":23,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":23,"sl":3,"tp":"upn","vl":"44055","cn":16,"pt":"GO","pr":1600},{"dy":23,"sl":4,"tp":"uph","vl":"48761","cn":18,"pt":"GO","pr":1800},{"dy":23,"sl":5,"tp":"fp","vl":"Actor1216","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":23,"sl":6,"tp":"upn","vl":"78946","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":24,"sl":0,"tp":"fe","vl":"Equip7101","cn":1,"pt":"GO","pr":5000},{"dy":24,"sl":1,"tp":"fe","vl":"Equip6101","cn":1,"pt":"GO","pr":24450},{"dy":24,"sl":2,"tp":"upn","vl":"54180","cn":16,"pt":"GO","pr":1600},{"dy":24,"sl":3,"tp":"uph","vl":"11504","cn":19,"pt":"GO","pr":1900},{"dy":24,"sl":4,"tp":"upn","vl":"18718","cn":22,"pt":"GO","pr":2200}</v>
       </c>
       <c r="Q168" t="str">
         <f t="shared" si="15"/>
@@ -19771,7 +19995,7 @@
         <v>0</v>
       </c>
       <c r="E169" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="F169" t="str">
@@ -19794,7 +20018,7 @@
       </c>
       <c r="P169" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":22,"sl":0,"tp":"fe","vl":"Equip8001","cn":1,"pt":"GO","pr":5000},{"dy":22,"sl":1,"tp":"fe","vl":"Equip7102","cn":1,"pt":"GO","pr":24450},{"dy":22,"sl":2,"tp":"upn","vl":"44408","cn":16,"pt":"GO","pr":1600},{"dy":22,"sl":3,"tp":"uph","vl":"63155","cn":19,"pt":"GO","pr":1900},{"dy":22,"sl":4,"tp":"upn","vl":"38771","cn":22,"pt":"GO","pr":2200},{"dy":23,"sl":0,"tp":"fe","vl":"Equip0402","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":23,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":23,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":23,"sl":3,"tp":"upn","vl":"44055","cn":16,"pt":"GO","pr":1600},{"dy":23,"sl":4,"tp":"uph","vl":"48761","cn":18,"pt":"GO","pr":1800},{"dy":23,"sl":5,"tp":"fp","vl":"Actor1216","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":23,"sl":6,"tp":"upn","vl":"78946","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":24,"sl":0,"tp":"fe","vl":"Equip7101","cn":1,"pt":"GO","pr":5000},{"dy":24,"sl":1,"tp":"fe","vl":"Equip6101","cn":1,"pt":"GO","pr":24450},{"dy":24,"sl":2,"tp":"upn","vl":"54180","cn":16,"pt":"GO","pr":1600},{"dy":24,"sl":3,"tp":"uph","vl":"11504","cn":19,"pt":"GO","pr":1900},{"dy":24,"sl":4,"tp":"upn","vl":"18718","cn":22,"pt":"GO","pr":2200}</v>
       </c>
       <c r="Q169" t="str">
         <f t="shared" si="15"/>
@@ -19812,16 +20036,22 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
+      <c r="D170" t="s">
+        <v>96</v>
+      </c>
       <c r="E170" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
+        <f t="shared" ca="1" si="20"/>
+        <v>fe</v>
       </c>
       <c r="F170" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
+      <c r="G170" t="s">
+        <v>147</v>
+      </c>
       <c r="H170" t="str">
-        <f>IF(OR(
+        <f ca="1">IF(OR(
   AND(NOT(ISERROR(FIND("상자",D170))),ISBLANK(G170)),
   AND(ISBLANK(D170),ISBLANK(G170)),
   AND(NOT(ISERROR(FIND("안 지정",D170))),ISNUMBER(G170))),"",
@@ -19832,15 +20062,30 @@
 IF(NOT(ISERROR(FIND("캐릭터",D170))),
   IFERROR(VLOOKUP(G170,[2]ActorTable!$A:$G,MATCH("이름참고",[2]ActorTable!$1:$1,0),0),"캐릭터없음"),
 "")))))</f>
-        <v/>
+        <v>메탈 스태프</v>
+      </c>
+      <c r="I170">
+        <v>1</v>
+      </c>
+      <c r="K170" t="s">
+        <v>76</v>
+      </c>
+      <c r="M170">
+        <v>840</v>
+      </c>
+      <c r="N170">
+        <v>530</v>
+      </c>
+      <c r="O170">
+        <v>1</v>
       </c>
       <c r="P170" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":22,"sl":0,"tp":"fe","vl":"Equip8001","cn":1,"pt":"GO","pr":5000},{"dy":22,"sl":1,"tp":"fe","vl":"Equip7102","cn":1,"pt":"GO","pr":24450},{"dy":22,"sl":2,"tp":"upn","vl":"44408","cn":16,"pt":"GO","pr":1600},{"dy":22,"sl":3,"tp":"uph","vl":"63155","cn":19,"pt":"GO","pr":1900},{"dy":22,"sl":4,"tp":"upn","vl":"38771","cn":22,"pt":"GO","pr":2200},{"dy":23,"sl":0,"tp":"fe","vl":"Equip0402","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":23,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":23,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":23,"sl":3,"tp":"upn","vl":"44055","cn":16,"pt":"GO","pr":1600},{"dy":23,"sl":4,"tp":"uph","vl":"48761","cn":18,"pt":"GO","pr":1800},{"dy":23,"sl":5,"tp":"fp","vl":"Actor1216","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":23,"sl":6,"tp":"upn","vl":"78946","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":24,"sl":0,"tp":"fe","vl":"Equip7101","cn":1,"pt":"GO","pr":5000},{"dy":24,"sl":1,"tp":"fe","vl":"Equip6101","cn":1,"pt":"GO","pr":24450},{"dy":24,"sl":2,"tp":"upn","vl":"54180","cn":16,"pt":"GO","pr":1600},{"dy":24,"sl":3,"tp":"uph","vl":"11504","cn":19,"pt":"GO","pr":1900},{"dy":24,"sl":4,"tp":"upn","vl":"18718","cn":22,"pt":"GO","pr":2200},{"dy":25,"sl":0,"tp":"fe","vl":"Equip3401","cn":1,"pt":"DI","pp":840,"pr":530}</v>
       </c>
       <c r="Q170" t="str">
-        <f t="shared" si="15"/>
-        <v/>
+        <f t="shared" ca="1" si="15"/>
+        <v>{"dy":25,"sl":0,"tp":"fe","vl":"Equip3401","cn":1,"pt":"DI","pp":840,"pr":530}</v>
       </c>
     </row>
     <row r="171" spans="1:17">
@@ -19854,9 +20099,12 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
+      <c r="D171" t="s">
+        <v>97</v>
+      </c>
       <c r="E171" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
+        <f t="shared" ca="1" si="20"/>
+        <v>bn</v>
       </c>
       <c r="F171" t="str">
         <f t="shared" si="19"/>
@@ -19876,13 +20124,25 @@
 "")))))</f>
         <v/>
       </c>
+      <c r="I171">
+        <v>1</v>
+      </c>
+      <c r="K171" t="s">
+        <v>76</v>
+      </c>
+      <c r="N171">
+        <v>30</v>
+      </c>
+      <c r="O171">
+        <v>1</v>
+      </c>
       <c r="P171" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":22,"sl":0,"tp":"fe","vl":"Equip8001","cn":1,"pt":"GO","pr":5000},{"dy":22,"sl":1,"tp":"fe","vl":"Equip7102","cn":1,"pt":"GO","pr":24450},{"dy":22,"sl":2,"tp":"upn","vl":"44408","cn":16,"pt":"GO","pr":1600},{"dy":22,"sl":3,"tp":"uph","vl":"63155","cn":19,"pt":"GO","pr":1900},{"dy":22,"sl":4,"tp":"upn","vl":"38771","cn":22,"pt":"GO","pr":2200},{"dy":23,"sl":0,"tp":"fe","vl":"Equip0402","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":23,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":23,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":23,"sl":3,"tp":"upn","vl":"44055","cn":16,"pt":"GO","pr":1600},{"dy":23,"sl":4,"tp":"uph","vl":"48761","cn":18,"pt":"GO","pr":1800},{"dy":23,"sl":5,"tp":"fp","vl":"Actor1216","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":23,"sl":6,"tp":"upn","vl":"78946","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":24,"sl":0,"tp":"fe","vl":"Equip7101","cn":1,"pt":"GO","pr":5000},{"dy":24,"sl":1,"tp":"fe","vl":"Equip6101","cn":1,"pt":"GO","pr":24450},{"dy":24,"sl":2,"tp":"upn","vl":"54180","cn":16,"pt":"GO","pr":1600},{"dy":24,"sl":3,"tp":"uph","vl":"11504","cn":19,"pt":"GO","pr":1900},{"dy":24,"sl":4,"tp":"upn","vl":"18718","cn":22,"pt":"GO","pr":2200},{"dy":25,"sl":0,"tp":"fe","vl":"Equip3401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":25,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30}</v>
       </c>
       <c r="Q171" t="str">
-        <f t="shared" si="15"/>
-        <v/>
+        <f t="shared" ca="1" si="15"/>
+        <v>{"dy":25,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30}</v>
       </c>
     </row>
     <row r="172" spans="1:17">
@@ -19896,9 +20156,12 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
+      <c r="D172" t="s">
+        <v>98</v>
+      </c>
       <c r="E172" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
+        <f t="shared" ca="1" si="20"/>
+        <v>bh</v>
       </c>
       <c r="F172" t="str">
         <f t="shared" si="19"/>
@@ -19918,13 +20181,28 @@
 "")))))</f>
         <v/>
       </c>
+      <c r="I172">
+        <v>1</v>
+      </c>
+      <c r="K172" t="s">
+        <v>76</v>
+      </c>
+      <c r="M172">
+        <v>120</v>
+      </c>
+      <c r="N172">
+        <v>70</v>
+      </c>
+      <c r="O172">
+        <v>1</v>
+      </c>
       <c r="P172" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":22,"sl":0,"tp":"fe","vl":"Equip8001","cn":1,"pt":"GO","pr":5000},{"dy":22,"sl":1,"tp":"fe","vl":"Equip7102","cn":1,"pt":"GO","pr":24450},{"dy":22,"sl":2,"tp":"upn","vl":"44408","cn":16,"pt":"GO","pr":1600},{"dy":22,"sl":3,"tp":"uph","vl":"63155","cn":19,"pt":"GO","pr":1900},{"dy":22,"sl":4,"tp":"upn","vl":"38771","cn":22,"pt":"GO","pr":2200},{"dy":23,"sl":0,"tp":"fe","vl":"Equip0402","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":23,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":23,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":23,"sl":3,"tp":"upn","vl":"44055","cn":16,"pt":"GO","pr":1600},{"dy":23,"sl":4,"tp":"uph","vl":"48761","cn":18,"pt":"GO","pr":1800},{"dy":23,"sl":5,"tp":"fp","vl":"Actor1216","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":23,"sl":6,"tp":"upn","vl":"78946","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":24,"sl":0,"tp":"fe","vl":"Equip7101","cn":1,"pt":"GO","pr":5000},{"dy":24,"sl":1,"tp":"fe","vl":"Equip6101","cn":1,"pt":"GO","pr":24450},{"dy":24,"sl":2,"tp":"upn","vl":"54180","cn":16,"pt":"GO","pr":1600},{"dy":24,"sl":3,"tp":"uph","vl":"11504","cn":19,"pt":"GO","pr":1900},{"dy":24,"sl":4,"tp":"upn","vl":"18718","cn":22,"pt":"GO","pr":2200},{"dy":25,"sl":0,"tp":"fe","vl":"Equip3401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":25,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":25,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70}</v>
       </c>
       <c r="Q172" t="str">
-        <f t="shared" si="15"/>
-        <v/>
+        <f t="shared" ca="1" si="15"/>
+        <v>{"dy":25,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70}</v>
       </c>
     </row>
     <row r="173" spans="1:17">
@@ -19938,13 +20216,19 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
+      <c r="D173" t="s">
+        <v>106</v>
+      </c>
       <c r="E173" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
+        <f t="shared" ca="1" si="20"/>
+        <v>upn</v>
       </c>
       <c r="F173" t="str">
         <f t="shared" si="19"/>
         <v/>
+      </c>
+      <c r="G173">
+        <v>94114</v>
       </c>
       <c r="H173" t="str">
         <f>IF(OR(
@@ -19960,13 +20244,25 @@
 "")))))</f>
         <v/>
       </c>
+      <c r="I173">
+        <v>16</v>
+      </c>
+      <c r="K173" t="s">
+        <v>73</v>
+      </c>
+      <c r="N173">
+        <v>1600</v>
+      </c>
+      <c r="O173">
+        <v>1</v>
+      </c>
       <c r="P173" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":22,"sl":0,"tp":"fe","vl":"Equip8001","cn":1,"pt":"GO","pr":5000},{"dy":22,"sl":1,"tp":"fe","vl":"Equip7102","cn":1,"pt":"GO","pr":24450},{"dy":22,"sl":2,"tp":"upn","vl":"44408","cn":16,"pt":"GO","pr":1600},{"dy":22,"sl":3,"tp":"uph","vl":"63155","cn":19,"pt":"GO","pr":1900},{"dy":22,"sl":4,"tp":"upn","vl":"38771","cn":22,"pt":"GO","pr":2200},{"dy":23,"sl":0,"tp":"fe","vl":"Equip0402","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":23,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":23,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":23,"sl":3,"tp":"upn","vl":"44055","cn":16,"pt":"GO","pr":1600},{"dy":23,"sl":4,"tp":"uph","vl":"48761","cn":18,"pt":"GO","pr":1800},{"dy":23,"sl":5,"tp":"fp","vl":"Actor1216","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":23,"sl":6,"tp":"upn","vl":"78946","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":24,"sl":0,"tp":"fe","vl":"Equip7101","cn":1,"pt":"GO","pr":5000},{"dy":24,"sl":1,"tp":"fe","vl":"Equip6101","cn":1,"pt":"GO","pr":24450},{"dy":24,"sl":2,"tp":"upn","vl":"54180","cn":16,"pt":"GO","pr":1600},{"dy":24,"sl":3,"tp":"uph","vl":"11504","cn":19,"pt":"GO","pr":1900},{"dy":24,"sl":4,"tp":"upn","vl":"18718","cn":22,"pt":"GO","pr":2200},{"dy":25,"sl":0,"tp":"fe","vl":"Equip3401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":25,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":25,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":25,"sl":3,"tp":"upn","vl":"94114","cn":16,"pt":"GO","pr":1600}</v>
       </c>
       <c r="Q173" t="str">
-        <f t="shared" si="15"/>
-        <v/>
+        <f t="shared" ca="1" si="15"/>
+        <v>{"dy":25,"sl":3,"tp":"upn","vl":"94114","cn":16,"pt":"GO","pr":1600}</v>
       </c>
     </row>
     <row r="174" spans="1:17">
@@ -19980,13 +20276,19 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
+      <c r="D174" t="s">
+        <v>105</v>
+      </c>
       <c r="E174" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
+        <f t="shared" ca="1" si="20"/>
+        <v>uph</v>
       </c>
       <c r="F174" t="str">
         <f t="shared" si="19"/>
         <v/>
+      </c>
+      <c r="G174">
+        <v>67435</v>
       </c>
       <c r="H174" t="str">
         <f>IF(OR(
@@ -20002,13 +20304,25 @@
 "")))))</f>
         <v/>
       </c>
+      <c r="I174">
+        <v>18</v>
+      </c>
+      <c r="K174" t="s">
+        <v>73</v>
+      </c>
+      <c r="N174">
+        <v>1800</v>
+      </c>
+      <c r="O174">
+        <v>1</v>
+      </c>
       <c r="P174" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":22,"sl":0,"tp":"fe","vl":"Equip8001","cn":1,"pt":"GO","pr":5000},{"dy":22,"sl":1,"tp":"fe","vl":"Equip7102","cn":1,"pt":"GO","pr":24450},{"dy":22,"sl":2,"tp":"upn","vl":"44408","cn":16,"pt":"GO","pr":1600},{"dy":22,"sl":3,"tp":"uph","vl":"63155","cn":19,"pt":"GO","pr":1900},{"dy":22,"sl":4,"tp":"upn","vl":"38771","cn":22,"pt":"GO","pr":2200},{"dy":23,"sl":0,"tp":"fe","vl":"Equip0402","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":23,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":23,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":23,"sl":3,"tp":"upn","vl":"44055","cn":16,"pt":"GO","pr":1600},{"dy":23,"sl":4,"tp":"uph","vl":"48761","cn":18,"pt":"GO","pr":1800},{"dy":23,"sl":5,"tp":"fp","vl":"Actor1216","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":23,"sl":6,"tp":"upn","vl":"78946","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":24,"sl":0,"tp":"fe","vl":"Equip7101","cn":1,"pt":"GO","pr":5000},{"dy":24,"sl":1,"tp":"fe","vl":"Equip6101","cn":1,"pt":"GO","pr":24450},{"dy":24,"sl":2,"tp":"upn","vl":"54180","cn":16,"pt":"GO","pr":1600},{"dy":24,"sl":3,"tp":"uph","vl":"11504","cn":19,"pt":"GO","pr":1900},{"dy":24,"sl":4,"tp":"upn","vl":"18718","cn":22,"pt":"GO","pr":2200},{"dy":25,"sl":0,"tp":"fe","vl":"Equip3401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":25,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":25,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":25,"sl":3,"tp":"upn","vl":"94114","cn":16,"pt":"GO","pr":1600},{"dy":25,"sl":4,"tp":"uph","vl":"67435","cn":18,"pt":"GO","pr":1800}</v>
       </c>
       <c r="Q174" t="str">
-        <f t="shared" si="15"/>
-        <v/>
+        <f t="shared" ca="1" si="15"/>
+        <v>{"dy":25,"sl":4,"tp":"uph","vl":"67435","cn":18,"pt":"GO","pr":1800}</v>
       </c>
     </row>
     <row r="175" spans="1:17">
@@ -20022,13 +20336,19 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
+      <c r="D175" t="s">
+        <v>100</v>
+      </c>
       <c r="E175" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
+        <f t="shared" ca="1" si="20"/>
+        <v>fp</v>
       </c>
       <c r="F175" t="str">
         <f t="shared" si="19"/>
         <v/>
+      </c>
+      <c r="G175" t="s">
+        <v>123</v>
       </c>
       <c r="H175" t="str">
         <f>IF(OR(
@@ -20042,15 +20362,30 @@
 IF(NOT(ISERROR(FIND("캐릭터",D175))),
   IFERROR(VLOOKUP(G175,[2]ActorTable!$A:$G,MATCH("이름참고",[2]ActorTable!$1:$1,0),0),"캐릭터없음"),
 "")))))</f>
-        <v/>
+        <v>메디아</v>
+      </c>
+      <c r="I175">
+        <v>140</v>
+      </c>
+      <c r="K175" t="s">
+        <v>76</v>
+      </c>
+      <c r="M175">
+        <v>340</v>
+      </c>
+      <c r="N175">
+        <v>120</v>
+      </c>
+      <c r="O175">
+        <v>1</v>
       </c>
       <c r="P175" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":22,"sl":0,"tp":"fe","vl":"Equip8001","cn":1,"pt":"GO","pr":5000},{"dy":22,"sl":1,"tp":"fe","vl":"Equip7102","cn":1,"pt":"GO","pr":24450},{"dy":22,"sl":2,"tp":"upn","vl":"44408","cn":16,"pt":"GO","pr":1600},{"dy":22,"sl":3,"tp":"uph","vl":"63155","cn":19,"pt":"GO","pr":1900},{"dy":22,"sl":4,"tp":"upn","vl":"38771","cn":22,"pt":"GO","pr":2200},{"dy":23,"sl":0,"tp":"fe","vl":"Equip0402","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":23,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":23,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":23,"sl":3,"tp":"upn","vl":"44055","cn":16,"pt":"GO","pr":1600},{"dy":23,"sl":4,"tp":"uph","vl":"48761","cn":18,"pt":"GO","pr":1800},{"dy":23,"sl":5,"tp":"fp","vl":"Actor1216","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":23,"sl":6,"tp":"upn","vl":"78946","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":24,"sl":0,"tp":"fe","vl":"Equip7101","cn":1,"pt":"GO","pr":5000},{"dy":24,"sl":1,"tp":"fe","vl":"Equip6101","cn":1,"pt":"GO","pr":24450},{"dy":24,"sl":2,"tp":"upn","vl":"54180","cn":16,"pt":"GO","pr":1600},{"dy":24,"sl":3,"tp":"uph","vl":"11504","cn":19,"pt":"GO","pr":1900},{"dy":24,"sl":4,"tp":"upn","vl":"18718","cn":22,"pt":"GO","pr":2200},{"dy":25,"sl":0,"tp":"fe","vl":"Equip3401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":25,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":25,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":25,"sl":3,"tp":"upn","vl":"94114","cn":16,"pt":"GO","pr":1600},{"dy":25,"sl":4,"tp":"uph","vl":"67435","cn":18,"pt":"GO","pr":1800},{"dy":25,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120}</v>
       </c>
       <c r="Q175" t="str">
-        <f t="shared" si="15"/>
-        <v/>
+        <f t="shared" ca="1" si="15"/>
+        <v>{"dy":25,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120}</v>
       </c>
     </row>
     <row r="176" spans="1:17">
@@ -20064,13 +20399,19 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
+      <c r="D176" t="s">
+        <v>106</v>
+      </c>
       <c r="E176" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
+        <f t="shared" ca="1" si="20"/>
+        <v>upn</v>
       </c>
       <c r="F176" t="str">
         <f t="shared" si="19"/>
         <v/>
+      </c>
+      <c r="G176">
+        <v>43788</v>
       </c>
       <c r="H176" t="str">
         <f>IF(OR(
@@ -20086,13 +20427,28 @@
 "")))))</f>
         <v/>
       </c>
+      <c r="I176">
+        <v>154</v>
+      </c>
+      <c r="K176" t="s">
+        <v>76</v>
+      </c>
+      <c r="M176">
+        <v>130</v>
+      </c>
+      <c r="N176">
+        <v>16</v>
+      </c>
+      <c r="O176">
+        <v>1</v>
+      </c>
       <c r="P176" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":22,"sl":0,"tp":"fe","vl":"Equip8001","cn":1,"pt":"GO","pr":5000},{"dy":22,"sl":1,"tp":"fe","vl":"Equip7102","cn":1,"pt":"GO","pr":24450},{"dy":22,"sl":2,"tp":"upn","vl":"44408","cn":16,"pt":"GO","pr":1600},{"dy":22,"sl":3,"tp":"uph","vl":"63155","cn":19,"pt":"GO","pr":1900},{"dy":22,"sl":4,"tp":"upn","vl":"38771","cn":22,"pt":"GO","pr":2200},{"dy":23,"sl":0,"tp":"fe","vl":"Equip0402","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":23,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":23,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":23,"sl":3,"tp":"upn","vl":"44055","cn":16,"pt":"GO","pr":1600},{"dy":23,"sl":4,"tp":"uph","vl":"48761","cn":18,"pt":"GO","pr":1800},{"dy":23,"sl":5,"tp":"fp","vl":"Actor1216","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":23,"sl":6,"tp":"upn","vl":"78946","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":24,"sl":0,"tp":"fe","vl":"Equip7101","cn":1,"pt":"GO","pr":5000},{"dy":24,"sl":1,"tp":"fe","vl":"Equip6101","cn":1,"pt":"GO","pr":24450},{"dy":24,"sl":2,"tp":"upn","vl":"54180","cn":16,"pt":"GO","pr":1600},{"dy":24,"sl":3,"tp":"uph","vl":"11504","cn":19,"pt":"GO","pr":1900},{"dy":24,"sl":4,"tp":"upn","vl":"18718","cn":22,"pt":"GO","pr":2200},{"dy":25,"sl":0,"tp":"fe","vl":"Equip3401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":25,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":25,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":25,"sl":3,"tp":"upn","vl":"94114","cn":16,"pt":"GO","pr":1600},{"dy":25,"sl":4,"tp":"uph","vl":"67435","cn":18,"pt":"GO","pr":1800},{"dy":25,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":25,"sl":6,"tp":"upn","vl":"43788","cn":154,"pt":"DI","pp":130,"pr":16}</v>
       </c>
       <c r="Q176" t="str">
-        <f t="shared" si="15"/>
-        <v/>
+        <f t="shared" ca="1" si="15"/>
+        <v>{"dy":25,"sl":6,"tp":"upn","vl":"43788","cn":154,"pt":"DI","pp":130,"pr":16}</v>
       </c>
     </row>
     <row r="177" spans="1:17">
@@ -20106,16 +20462,22 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
+      <c r="D177" t="s">
+        <v>96</v>
+      </c>
       <c r="E177" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
+        <f t="shared" ca="1" si="20"/>
+        <v>fe</v>
       </c>
       <c r="F177" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
+      <c r="G177" t="s">
+        <v>157</v>
+      </c>
       <c r="H177" t="str">
-        <f>IF(OR(
+        <f ca="1">IF(OR(
   AND(NOT(ISERROR(FIND("상자",D177))),ISBLANK(G177)),
   AND(ISBLANK(D177),ISBLANK(G177)),
   AND(NOT(ISERROR(FIND("안 지정",D177))),ISNUMBER(G177))),"",
@@ -20126,15 +20488,27 @@
 IF(NOT(ISERROR(FIND("캐릭터",D177))),
   IFERROR(VLOOKUP(G177,[2]ActorTable!$A:$G,MATCH("이름참고",[2]ActorTable!$1:$1,0),0),"캐릭터없음"),
 "")))))</f>
-        <v/>
+        <v>강철 마울</v>
+      </c>
+      <c r="I177">
+        <v>1</v>
+      </c>
+      <c r="K177" t="s">
+        <v>73</v>
+      </c>
+      <c r="N177">
+        <v>5000</v>
+      </c>
+      <c r="O177">
+        <v>1</v>
       </c>
       <c r="P177" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":22,"sl":0,"tp":"fe","vl":"Equip8001","cn":1,"pt":"GO","pr":5000},{"dy":22,"sl":1,"tp":"fe","vl":"Equip7102","cn":1,"pt":"GO","pr":24450},{"dy":22,"sl":2,"tp":"upn","vl":"44408","cn":16,"pt":"GO","pr":1600},{"dy":22,"sl":3,"tp":"uph","vl":"63155","cn":19,"pt":"GO","pr":1900},{"dy":22,"sl":4,"tp":"upn","vl":"38771","cn":22,"pt":"GO","pr":2200},{"dy":23,"sl":0,"tp":"fe","vl":"Equip0402","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":23,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":23,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":23,"sl":3,"tp":"upn","vl":"44055","cn":16,"pt":"GO","pr":1600},{"dy":23,"sl":4,"tp":"uph","vl":"48761","cn":18,"pt":"GO","pr":1800},{"dy":23,"sl":5,"tp":"fp","vl":"Actor1216","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":23,"sl":6,"tp":"upn","vl":"78946","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":24,"sl":0,"tp":"fe","vl":"Equip7101","cn":1,"pt":"GO","pr":5000},{"dy":24,"sl":1,"tp":"fe","vl":"Equip6101","cn":1,"pt":"GO","pr":24450},{"dy":24,"sl":2,"tp":"upn","vl":"54180","cn":16,"pt":"GO","pr":1600},{"dy":24,"sl":3,"tp":"uph","vl":"11504","cn":19,"pt":"GO","pr":1900},{"dy":24,"sl":4,"tp":"upn","vl":"18718","cn":22,"pt":"GO","pr":2200},{"dy":25,"sl":0,"tp":"fe","vl":"Equip3401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":25,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":25,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":25,"sl":3,"tp":"upn","vl":"94114","cn":16,"pt":"GO","pr":1600},{"dy":25,"sl":4,"tp":"uph","vl":"67435","cn":18,"pt":"GO","pr":1800},{"dy":25,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":25,"sl":6,"tp":"upn","vl":"43788","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":26,"sl":0,"tp":"fe","vl":"Equip4001","cn":1,"pt":"GO","pr":5000}</v>
       </c>
       <c r="Q177" t="str">
-        <f t="shared" si="15"/>
-        <v/>
+        <f t="shared" ca="1" si="15"/>
+        <v>{"dy":26,"sl":0,"tp":"fe","vl":"Equip4001","cn":1,"pt":"GO","pr":5000}</v>
       </c>
     </row>
     <row r="178" spans="1:17">
@@ -20148,16 +20522,22 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
+      <c r="D178" t="s">
+        <v>96</v>
+      </c>
       <c r="E178" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
+        <f t="shared" ca="1" si="20"/>
+        <v>fe</v>
       </c>
       <c r="F178" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
+      <c r="G178" t="s">
+        <v>158</v>
+      </c>
       <c r="H178" t="str">
-        <f>IF(OR(
+        <f ca="1">IF(OR(
   AND(NOT(ISERROR(FIND("상자",D178))),ISBLANK(G178)),
   AND(ISBLANK(D178),ISBLANK(G178)),
   AND(NOT(ISERROR(FIND("안 지정",D178))),ISNUMBER(G178))),"",
@@ -20168,15 +20548,27 @@
 IF(NOT(ISERROR(FIND("캐릭터",D178))),
   IFERROR(VLOOKUP(G178,[2]ActorTable!$A:$G,MATCH("이름참고",[2]ActorTable!$1:$1,0),0),"캐릭터없음"),
 "")))))</f>
-        <v/>
+        <v>뼈장식 골든 소드</v>
+      </c>
+      <c r="I178">
+        <v>1</v>
+      </c>
+      <c r="K178" t="s">
+        <v>73</v>
+      </c>
+      <c r="N178">
+        <v>24450</v>
+      </c>
+      <c r="O178">
+        <v>1</v>
       </c>
       <c r="P178" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":22,"sl":0,"tp":"fe","vl":"Equip8001","cn":1,"pt":"GO","pr":5000},{"dy":22,"sl":1,"tp":"fe","vl":"Equip7102","cn":1,"pt":"GO","pr":24450},{"dy":22,"sl":2,"tp":"upn","vl":"44408","cn":16,"pt":"GO","pr":1600},{"dy":22,"sl":3,"tp":"uph","vl":"63155","cn":19,"pt":"GO","pr":1900},{"dy":22,"sl":4,"tp":"upn","vl":"38771","cn":22,"pt":"GO","pr":2200},{"dy":23,"sl":0,"tp":"fe","vl":"Equip0402","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":23,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":23,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":23,"sl":3,"tp":"upn","vl":"44055","cn":16,"pt":"GO","pr":1600},{"dy":23,"sl":4,"tp":"uph","vl":"48761","cn":18,"pt":"GO","pr":1800},{"dy":23,"sl":5,"tp":"fp","vl":"Actor1216","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":23,"sl":6,"tp":"upn","vl":"78946","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":24,"sl":0,"tp":"fe","vl":"Equip7101","cn":1,"pt":"GO","pr":5000},{"dy":24,"sl":1,"tp":"fe","vl":"Equip6101","cn":1,"pt":"GO","pr":24450},{"dy":24,"sl":2,"tp":"upn","vl":"54180","cn":16,"pt":"GO","pr":1600},{"dy":24,"sl":3,"tp":"uph","vl":"11504","cn":19,"pt":"GO","pr":1900},{"dy":24,"sl":4,"tp":"upn","vl":"18718","cn":22,"pt":"GO","pr":2200},{"dy":25,"sl":0,"tp":"fe","vl":"Equip3401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":25,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":25,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":25,"sl":3,"tp":"upn","vl":"94114","cn":16,"pt":"GO","pr":1600},{"dy":25,"sl":4,"tp":"uph","vl":"67435","cn":18,"pt":"GO","pr":1800},{"dy":25,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":25,"sl":6,"tp":"upn","vl":"43788","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":26,"sl":0,"tp":"fe","vl":"Equip4001","cn":1,"pt":"GO","pr":5000},{"dy":26,"sl":1,"tp":"fe","vl":"Equip5201","cn":1,"pt":"GO","pr":24450}</v>
       </c>
       <c r="Q178" t="str">
-        <f t="shared" si="15"/>
-        <v/>
+        <f t="shared" ca="1" si="15"/>
+        <v>{"dy":26,"sl":1,"tp":"fe","vl":"Equip5201","cn":1,"pt":"GO","pr":24450}</v>
       </c>
     </row>
     <row r="179" spans="1:17">
@@ -20190,13 +20582,19 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
+      <c r="D179" t="s">
+        <v>106</v>
+      </c>
       <c r="E179" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
+        <f t="shared" ca="1" si="20"/>
+        <v>upn</v>
       </c>
       <c r="F179" t="str">
         <f t="shared" si="19"/>
         <v/>
+      </c>
+      <c r="G179">
+        <v>57510</v>
       </c>
       <c r="H179" t="str">
         <f>IF(OR(
@@ -20212,13 +20610,25 @@
 "")))))</f>
         <v/>
       </c>
+      <c r="I179">
+        <v>16</v>
+      </c>
+      <c r="K179" t="s">
+        <v>73</v>
+      </c>
+      <c r="N179">
+        <v>1600</v>
+      </c>
+      <c r="O179">
+        <v>1</v>
+      </c>
       <c r="P179" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":22,"sl":0,"tp":"fe","vl":"Equip8001","cn":1,"pt":"GO","pr":5000},{"dy":22,"sl":1,"tp":"fe","vl":"Equip7102","cn":1,"pt":"GO","pr":24450},{"dy":22,"sl":2,"tp":"upn","vl":"44408","cn":16,"pt":"GO","pr":1600},{"dy":22,"sl":3,"tp":"uph","vl":"63155","cn":19,"pt":"GO","pr":1900},{"dy":22,"sl":4,"tp":"upn","vl":"38771","cn":22,"pt":"GO","pr":2200},{"dy":23,"sl":0,"tp":"fe","vl":"Equip0402","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":23,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":23,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":23,"sl":3,"tp":"upn","vl":"44055","cn":16,"pt":"GO","pr":1600},{"dy":23,"sl":4,"tp":"uph","vl":"48761","cn":18,"pt":"GO","pr":1800},{"dy":23,"sl":5,"tp":"fp","vl":"Actor1216","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":23,"sl":6,"tp":"upn","vl":"78946","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":24,"sl":0,"tp":"fe","vl":"Equip7101","cn":1,"pt":"GO","pr":5000},{"dy":24,"sl":1,"tp":"fe","vl":"Equip6101","cn":1,"pt":"GO","pr":24450},{"dy":24,"sl":2,"tp":"upn","vl":"54180","cn":16,"pt":"GO","pr":1600},{"dy":24,"sl":3,"tp":"uph","vl":"11504","cn":19,"pt":"GO","pr":1900},{"dy":24,"sl":4,"tp":"upn","vl":"18718","cn":22,"pt":"GO","pr":2200},{"dy":25,"sl":0,"tp":"fe","vl":"Equip3401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":25,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":25,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":25,"sl":3,"tp":"upn","vl":"94114","cn":16,"pt":"GO","pr":1600},{"dy":25,"sl":4,"tp":"uph","vl":"67435","cn":18,"pt":"GO","pr":1800},{"dy":25,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":25,"sl":6,"tp":"upn","vl":"43788","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":26,"sl":0,"tp":"fe","vl":"Equip4001","cn":1,"pt":"GO","pr":5000},{"dy":26,"sl":1,"tp":"fe","vl":"Equip5201","cn":1,"pt":"GO","pr":24450},{"dy":26,"sl":2,"tp":"upn","vl":"57510","cn":16,"pt":"GO","pr":1600}</v>
       </c>
       <c r="Q179" t="str">
-        <f t="shared" si="15"/>
-        <v/>
+        <f t="shared" ca="1" si="15"/>
+        <v>{"dy":26,"sl":2,"tp":"upn","vl":"57510","cn":16,"pt":"GO","pr":1600}</v>
       </c>
     </row>
     <row r="180" spans="1:17">
@@ -20232,13 +20642,19 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
+      <c r="D180" t="s">
+        <v>105</v>
+      </c>
       <c r="E180" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
+        <f t="shared" ca="1" si="20"/>
+        <v>uph</v>
       </c>
       <c r="F180" t="str">
         <f t="shared" si="19"/>
         <v/>
+      </c>
+      <c r="G180">
+        <v>13933</v>
       </c>
       <c r="H180" t="str">
         <f>IF(OR(
@@ -20254,13 +20670,25 @@
 "")))))</f>
         <v/>
       </c>
+      <c r="I180">
+        <v>19</v>
+      </c>
+      <c r="K180" t="s">
+        <v>73</v>
+      </c>
+      <c r="N180">
+        <v>1900</v>
+      </c>
+      <c r="O180">
+        <v>1</v>
+      </c>
       <c r="P180" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":22,"sl":0,"tp":"fe","vl":"Equip8001","cn":1,"pt":"GO","pr":5000},{"dy":22,"sl":1,"tp":"fe","vl":"Equip7102","cn":1,"pt":"GO","pr":24450},{"dy":22,"sl":2,"tp":"upn","vl":"44408","cn":16,"pt":"GO","pr":1600},{"dy":22,"sl":3,"tp":"uph","vl":"63155","cn":19,"pt":"GO","pr":1900},{"dy":22,"sl":4,"tp":"upn","vl":"38771","cn":22,"pt":"GO","pr":2200},{"dy":23,"sl":0,"tp":"fe","vl":"Equip0402","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":23,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":23,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":23,"sl":3,"tp":"upn","vl":"44055","cn":16,"pt":"GO","pr":1600},{"dy":23,"sl":4,"tp":"uph","vl":"48761","cn":18,"pt":"GO","pr":1800},{"dy":23,"sl":5,"tp":"fp","vl":"Actor1216","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":23,"sl":6,"tp":"upn","vl":"78946","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":24,"sl":0,"tp":"fe","vl":"Equip7101","cn":1,"pt":"GO","pr":5000},{"dy":24,"sl":1,"tp":"fe","vl":"Equip6101","cn":1,"pt":"GO","pr":24450},{"dy":24,"sl":2,"tp":"upn","vl":"54180","cn":16,"pt":"GO","pr":1600},{"dy":24,"sl":3,"tp":"uph","vl":"11504","cn":19,"pt":"GO","pr":1900},{"dy":24,"sl":4,"tp":"upn","vl":"18718","cn":22,"pt":"GO","pr":2200},{"dy":25,"sl":0,"tp":"fe","vl":"Equip3401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":25,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":25,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":25,"sl":3,"tp":"upn","vl":"94114","cn":16,"pt":"GO","pr":1600},{"dy":25,"sl":4,"tp":"uph","vl":"67435","cn":18,"pt":"GO","pr":1800},{"dy":25,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":25,"sl":6,"tp":"upn","vl":"43788","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":26,"sl":0,"tp":"fe","vl":"Equip4001","cn":1,"pt":"GO","pr":5000},{"dy":26,"sl":1,"tp":"fe","vl":"Equip5201","cn":1,"pt":"GO","pr":24450},{"dy":26,"sl":2,"tp":"upn","vl":"57510","cn":16,"pt":"GO","pr":1600},{"dy":26,"sl":3,"tp":"uph","vl":"13933","cn":19,"pt":"GO","pr":1900}</v>
       </c>
       <c r="Q180" t="str">
-        <f t="shared" si="15"/>
-        <v/>
+        <f t="shared" ca="1" si="15"/>
+        <v>{"dy":26,"sl":3,"tp":"uph","vl":"13933","cn":19,"pt":"GO","pr":1900}</v>
       </c>
     </row>
     <row r="181" spans="1:17">
@@ -20274,13 +20702,19 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
+      <c r="D181" t="s">
+        <v>106</v>
+      </c>
       <c r="E181" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
+        <f t="shared" ca="1" si="20"/>
+        <v>upn</v>
       </c>
       <c r="F181" t="str">
         <f t="shared" si="19"/>
         <v/>
+      </c>
+      <c r="G181">
+        <v>63758</v>
       </c>
       <c r="H181" t="str">
         <f>IF(OR(
@@ -20296,13 +20730,25 @@
 "")))))</f>
         <v/>
       </c>
+      <c r="I181">
+        <v>22</v>
+      </c>
+      <c r="K181" t="s">
+        <v>73</v>
+      </c>
+      <c r="N181">
+        <v>2200</v>
+      </c>
+      <c r="O181">
+        <v>1</v>
+      </c>
       <c r="P181" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":22,"sl":0,"tp":"fe","vl":"Equip8001","cn":1,"pt":"GO","pr":5000},{"dy":22,"sl":1,"tp":"fe","vl":"Equip7102","cn":1,"pt":"GO","pr":24450},{"dy":22,"sl":2,"tp":"upn","vl":"44408","cn":16,"pt":"GO","pr":1600},{"dy":22,"sl":3,"tp":"uph","vl":"63155","cn":19,"pt":"GO","pr":1900},{"dy":22,"sl":4,"tp":"upn","vl":"38771","cn":22,"pt":"GO","pr":2200},{"dy":23,"sl":0,"tp":"fe","vl":"Equip0402","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":23,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":23,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":23,"sl":3,"tp":"upn","vl":"44055","cn":16,"pt":"GO","pr":1600},{"dy":23,"sl":4,"tp":"uph","vl":"48761","cn":18,"pt":"GO","pr":1800},{"dy":23,"sl":5,"tp":"fp","vl":"Actor1216","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":23,"sl":6,"tp":"upn","vl":"78946","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":24,"sl":0,"tp":"fe","vl":"Equip7101","cn":1,"pt":"GO","pr":5000},{"dy":24,"sl":1,"tp":"fe","vl":"Equip6101","cn":1,"pt":"GO","pr":24450},{"dy":24,"sl":2,"tp":"upn","vl":"54180","cn":16,"pt":"GO","pr":1600},{"dy":24,"sl":3,"tp":"uph","vl":"11504","cn":19,"pt":"GO","pr":1900},{"dy":24,"sl":4,"tp":"upn","vl":"18718","cn":22,"pt":"GO","pr":2200},{"dy":25,"sl":0,"tp":"fe","vl":"Equip3401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":25,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":25,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":25,"sl":3,"tp":"upn","vl":"94114","cn":16,"pt":"GO","pr":1600},{"dy":25,"sl":4,"tp":"uph","vl":"67435","cn":18,"pt":"GO","pr":1800},{"dy":25,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":25,"sl":6,"tp":"upn","vl":"43788","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":26,"sl":0,"tp":"fe","vl":"Equip4001","cn":1,"pt":"GO","pr":5000},{"dy":26,"sl":1,"tp":"fe","vl":"Equip5201","cn":1,"pt":"GO","pr":24450},{"dy":26,"sl":2,"tp":"upn","vl":"57510","cn":16,"pt":"GO","pr":1600},{"dy":26,"sl":3,"tp":"uph","vl":"13933","cn":19,"pt":"GO","pr":1900},{"dy":26,"sl":4,"tp":"upn","vl":"63758","cn":22,"pt":"GO","pr":2200}</v>
       </c>
       <c r="Q181" t="str">
-        <f t="shared" si="15"/>
-        <v/>
+        <f t="shared" ca="1" si="15"/>
+        <v>{"dy":26,"sl":4,"tp":"upn","vl":"63758","cn":22,"pt":"GO","pr":2200}</v>
       </c>
     </row>
     <row r="182" spans="1:17">
@@ -20317,7 +20763,7 @@
         <v>0</v>
       </c>
       <c r="E182" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="F182" t="str">
@@ -20340,7 +20786,7 @@
       </c>
       <c r="P182" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":22,"sl":0,"tp":"fe","vl":"Equip8001","cn":1,"pt":"GO","pr":5000},{"dy":22,"sl":1,"tp":"fe","vl":"Equip7102","cn":1,"pt":"GO","pr":24450},{"dy":22,"sl":2,"tp":"upn","vl":"44408","cn":16,"pt":"GO","pr":1600},{"dy":22,"sl":3,"tp":"uph","vl":"63155","cn":19,"pt":"GO","pr":1900},{"dy":22,"sl":4,"tp":"upn","vl":"38771","cn":22,"pt":"GO","pr":2200},{"dy":23,"sl":0,"tp":"fe","vl":"Equip0402","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":23,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":23,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":23,"sl":3,"tp":"upn","vl":"44055","cn":16,"pt":"GO","pr":1600},{"dy":23,"sl":4,"tp":"uph","vl":"48761","cn":18,"pt":"GO","pr":1800},{"dy":23,"sl":5,"tp":"fp","vl":"Actor1216","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":23,"sl":6,"tp":"upn","vl":"78946","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":24,"sl":0,"tp":"fe","vl":"Equip7101","cn":1,"pt":"GO","pr":5000},{"dy":24,"sl":1,"tp":"fe","vl":"Equip6101","cn":1,"pt":"GO","pr":24450},{"dy":24,"sl":2,"tp":"upn","vl":"54180","cn":16,"pt":"GO","pr":1600},{"dy":24,"sl":3,"tp":"uph","vl":"11504","cn":19,"pt":"GO","pr":1900},{"dy":24,"sl":4,"tp":"upn","vl":"18718","cn":22,"pt":"GO","pr":2200},{"dy":25,"sl":0,"tp":"fe","vl":"Equip3401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":25,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":25,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":25,"sl":3,"tp":"upn","vl":"94114","cn":16,"pt":"GO","pr":1600},{"dy":25,"sl":4,"tp":"uph","vl":"67435","cn":18,"pt":"GO","pr":1800},{"dy":25,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":25,"sl":6,"tp":"upn","vl":"43788","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":26,"sl":0,"tp":"fe","vl":"Equip4001","cn":1,"pt":"GO","pr":5000},{"dy":26,"sl":1,"tp":"fe","vl":"Equip5201","cn":1,"pt":"GO","pr":24450},{"dy":26,"sl":2,"tp":"upn","vl":"57510","cn":16,"pt":"GO","pr":1600},{"dy":26,"sl":3,"tp":"uph","vl":"13933","cn":19,"pt":"GO","pr":1900},{"dy":26,"sl":4,"tp":"upn","vl":"63758","cn":22,"pt":"GO","pr":2200}</v>
       </c>
       <c r="Q182" t="str">
         <f t="shared" si="15"/>
@@ -20359,7 +20805,7 @@
         <v>0</v>
       </c>
       <c r="E183" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="F183" t="str">
@@ -20382,7 +20828,7 @@
       </c>
       <c r="P183" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":22,"sl":0,"tp":"fe","vl":"Equip8001","cn":1,"pt":"GO","pr":5000},{"dy":22,"sl":1,"tp":"fe","vl":"Equip7102","cn":1,"pt":"GO","pr":24450},{"dy":22,"sl":2,"tp":"upn","vl":"44408","cn":16,"pt":"GO","pr":1600},{"dy":22,"sl":3,"tp":"uph","vl":"63155","cn":19,"pt":"GO","pr":1900},{"dy":22,"sl":4,"tp":"upn","vl":"38771","cn":22,"pt":"GO","pr":2200},{"dy":23,"sl":0,"tp":"fe","vl":"Equip0402","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":23,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":23,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":23,"sl":3,"tp":"upn","vl":"44055","cn":16,"pt":"GO","pr":1600},{"dy":23,"sl":4,"tp":"uph","vl":"48761","cn":18,"pt":"GO","pr":1800},{"dy":23,"sl":5,"tp":"fp","vl":"Actor1216","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":23,"sl":6,"tp":"upn","vl":"78946","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":24,"sl":0,"tp":"fe","vl":"Equip7101","cn":1,"pt":"GO","pr":5000},{"dy":24,"sl":1,"tp":"fe","vl":"Equip6101","cn":1,"pt":"GO","pr":24450},{"dy":24,"sl":2,"tp":"upn","vl":"54180","cn":16,"pt":"GO","pr":1600},{"dy":24,"sl":3,"tp":"uph","vl":"11504","cn":19,"pt":"GO","pr":1900},{"dy":24,"sl":4,"tp":"upn","vl":"18718","cn":22,"pt":"GO","pr":2200},{"dy":25,"sl":0,"tp":"fe","vl":"Equip3401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":25,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":25,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":25,"sl":3,"tp":"upn","vl":"94114","cn":16,"pt":"GO","pr":1600},{"dy":25,"sl":4,"tp":"uph","vl":"67435","cn":18,"pt":"GO","pr":1800},{"dy":25,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":25,"sl":6,"tp":"upn","vl":"43788","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":26,"sl":0,"tp":"fe","vl":"Equip4001","cn":1,"pt":"GO","pr":5000},{"dy":26,"sl":1,"tp":"fe","vl":"Equip5201","cn":1,"pt":"GO","pr":24450},{"dy":26,"sl":2,"tp":"upn","vl":"57510","cn":16,"pt":"GO","pr":1600},{"dy":26,"sl":3,"tp":"uph","vl":"13933","cn":19,"pt":"GO","pr":1900},{"dy":26,"sl":4,"tp":"upn","vl":"63758","cn":22,"pt":"GO","pr":2200}</v>
       </c>
       <c r="Q183" t="str">
         <f t="shared" si="15"/>
@@ -20400,16 +20846,22 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
+      <c r="D184" t="s">
+        <v>96</v>
+      </c>
       <c r="E184" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
+        <f t="shared" ca="1" si="20"/>
+        <v>fe</v>
       </c>
       <c r="F184" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
+      <c r="G184" t="s">
+        <v>150</v>
+      </c>
       <c r="H184" t="str">
-        <f>IF(OR(
+        <f ca="1">IF(OR(
   AND(NOT(ISERROR(FIND("상자",D184))),ISBLANK(G184)),
   AND(ISBLANK(D184),ISBLANK(G184)),
   AND(NOT(ISERROR(FIND("안 지정",D184))),ISNUMBER(G184))),"",
@@ -20420,15 +20872,30 @@
 IF(NOT(ISERROR(FIND("캐릭터",D184))),
   IFERROR(VLOOKUP(G184,[2]ActorTable!$A:$G,MATCH("이름참고",[2]ActorTable!$1:$1,0),0),"캐릭터없음"),
 "")))))</f>
-        <v/>
+        <v>태양검</v>
+      </c>
+      <c r="I184">
+        <v>1</v>
+      </c>
+      <c r="K184" t="s">
+        <v>76</v>
+      </c>
+      <c r="M184">
+        <v>840</v>
+      </c>
+      <c r="N184">
+        <v>530</v>
+      </c>
+      <c r="O184">
+        <v>1</v>
       </c>
       <c r="P184" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":22,"sl":0,"tp":"fe","vl":"Equip8001","cn":1,"pt":"GO","pr":5000},{"dy":22,"sl":1,"tp":"fe","vl":"Equip7102","cn":1,"pt":"GO","pr":24450},{"dy":22,"sl":2,"tp":"upn","vl":"44408","cn":16,"pt":"GO","pr":1600},{"dy":22,"sl":3,"tp":"uph","vl":"63155","cn":19,"pt":"GO","pr":1900},{"dy":22,"sl":4,"tp":"upn","vl":"38771","cn":22,"pt":"GO","pr":2200},{"dy":23,"sl":0,"tp":"fe","vl":"Equip0402","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":23,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":23,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":23,"sl":3,"tp":"upn","vl":"44055","cn":16,"pt":"GO","pr":1600},{"dy":23,"sl":4,"tp":"uph","vl":"48761","cn":18,"pt":"GO","pr":1800},{"dy":23,"sl":5,"tp":"fp","vl":"Actor1216","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":23,"sl":6,"tp":"upn","vl":"78946","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":24,"sl":0,"tp":"fe","vl":"Equip7101","cn":1,"pt":"GO","pr":5000},{"dy":24,"sl":1,"tp":"fe","vl":"Equip6101","cn":1,"pt":"GO","pr":24450},{"dy":24,"sl":2,"tp":"upn","vl":"54180","cn":16,"pt":"GO","pr":1600},{"dy":24,"sl":3,"tp":"uph","vl":"11504","cn":19,"pt":"GO","pr":1900},{"dy":24,"sl":4,"tp":"upn","vl":"18718","cn":22,"pt":"GO","pr":2200},{"dy":25,"sl":0,"tp":"fe","vl":"Equip3401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":25,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":25,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":25,"sl":3,"tp":"upn","vl":"94114","cn":16,"pt":"GO","pr":1600},{"dy":25,"sl":4,"tp":"uph","vl":"67435","cn":18,"pt":"GO","pr":1800},{"dy":25,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":25,"sl":6,"tp":"upn","vl":"43788","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":26,"sl":0,"tp":"fe","vl":"Equip4001","cn":1,"pt":"GO","pr":5000},{"dy":26,"sl":1,"tp":"fe","vl":"Equip5201","cn":1,"pt":"GO","pr":24450},{"dy":26,"sl":2,"tp":"upn","vl":"57510","cn":16,"pt":"GO","pr":1600},{"dy":26,"sl":3,"tp":"uph","vl":"13933","cn":19,"pt":"GO","pr":1900},{"dy":26,"sl":4,"tp":"upn","vl":"63758","cn":22,"pt":"GO","pr":2200},{"dy":27,"sl":0,"tp":"fe","vl":"Equip5401","cn":1,"pt":"DI","pp":840,"pr":530}</v>
       </c>
       <c r="Q184" t="str">
-        <f t="shared" si="15"/>
-        <v/>
+        <f t="shared" ca="1" si="15"/>
+        <v>{"dy":27,"sl":0,"tp":"fe","vl":"Equip5401","cn":1,"pt":"DI","pp":840,"pr":530}</v>
       </c>
     </row>
     <row r="185" spans="1:17">
@@ -20442,9 +20909,12 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
+      <c r="D185" t="s">
+        <v>97</v>
+      </c>
       <c r="E185" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
+        <f t="shared" ca="1" si="20"/>
+        <v>bn</v>
       </c>
       <c r="F185" t="str">
         <f t="shared" si="19"/>
@@ -20464,13 +20934,25 @@
 "")))))</f>
         <v/>
       </c>
+      <c r="I185">
+        <v>1</v>
+      </c>
+      <c r="K185" t="s">
+        <v>76</v>
+      </c>
+      <c r="N185">
+        <v>30</v>
+      </c>
+      <c r="O185">
+        <v>1</v>
+      </c>
       <c r="P185" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":22,"sl":0,"tp":"fe","vl":"Equip8001","cn":1,"pt":"GO","pr":5000},{"dy":22,"sl":1,"tp":"fe","vl":"Equip7102","cn":1,"pt":"GO","pr":24450},{"dy":22,"sl":2,"tp":"upn","vl":"44408","cn":16,"pt":"GO","pr":1600},{"dy":22,"sl":3,"tp":"uph","vl":"63155","cn":19,"pt":"GO","pr":1900},{"dy":22,"sl":4,"tp":"upn","vl":"38771","cn":22,"pt":"GO","pr":2200},{"dy":23,"sl":0,"tp":"fe","vl":"Equip0402","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":23,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":23,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":23,"sl":3,"tp":"upn","vl":"44055","cn":16,"pt":"GO","pr":1600},{"dy":23,"sl":4,"tp":"uph","vl":"48761","cn":18,"pt":"GO","pr":1800},{"dy":23,"sl":5,"tp":"fp","vl":"Actor1216","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":23,"sl":6,"tp":"upn","vl":"78946","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":24,"sl":0,"tp":"fe","vl":"Equip7101","cn":1,"pt":"GO","pr":5000},{"dy":24,"sl":1,"tp":"fe","vl":"Equip6101","cn":1,"pt":"GO","pr":24450},{"dy":24,"sl":2,"tp":"upn","vl":"54180","cn":16,"pt":"GO","pr":1600},{"dy":24,"sl":3,"tp":"uph","vl":"11504","cn":19,"pt":"GO","pr":1900},{"dy":24,"sl":4,"tp":"upn","vl":"18718","cn":22,"pt":"GO","pr":2200},{"dy":25,"sl":0,"tp":"fe","vl":"Equip3401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":25,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":25,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":25,"sl":3,"tp":"upn","vl":"94114","cn":16,"pt":"GO","pr":1600},{"dy":25,"sl":4,"tp":"uph","vl":"67435","cn":18,"pt":"GO","pr":1800},{"dy":25,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":25,"sl":6,"tp":"upn","vl":"43788","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":26,"sl":0,"tp":"fe","vl":"Equip4001","cn":1,"pt":"GO","pr":5000},{"dy":26,"sl":1,"tp":"fe","vl":"Equip5201","cn":1,"pt":"GO","pr":24450},{"dy":26,"sl":2,"tp":"upn","vl":"57510","cn":16,"pt":"GO","pr":1600},{"dy":26,"sl":3,"tp":"uph","vl":"13933","cn":19,"pt":"GO","pr":1900},{"dy":26,"sl":4,"tp":"upn","vl":"63758","cn":22,"pt":"GO","pr":2200},{"dy":27,"sl":0,"tp":"fe","vl":"Equip5401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":27,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30}</v>
       </c>
       <c r="Q185" t="str">
-        <f t="shared" si="15"/>
-        <v/>
+        <f t="shared" ca="1" si="15"/>
+        <v>{"dy":27,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30}</v>
       </c>
     </row>
     <row r="186" spans="1:17">
@@ -20484,9 +20966,12 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
+      <c r="D186" t="s">
+        <v>98</v>
+      </c>
       <c r="E186" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
+        <f t="shared" ca="1" si="20"/>
+        <v>bh</v>
       </c>
       <c r="F186" t="str">
         <f t="shared" si="19"/>
@@ -20506,13 +20991,28 @@
 "")))))</f>
         <v/>
       </c>
+      <c r="I186">
+        <v>1</v>
+      </c>
+      <c r="K186" t="s">
+        <v>76</v>
+      </c>
+      <c r="M186">
+        <v>120</v>
+      </c>
+      <c r="N186">
+        <v>70</v>
+      </c>
+      <c r="O186">
+        <v>1</v>
+      </c>
       <c r="P186" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":22,"sl":0,"tp":"fe","vl":"Equip8001","cn":1,"pt":"GO","pr":5000},{"dy":22,"sl":1,"tp":"fe","vl":"Equip7102","cn":1,"pt":"GO","pr":24450},{"dy":22,"sl":2,"tp":"upn","vl":"44408","cn":16,"pt":"GO","pr":1600},{"dy":22,"sl":3,"tp":"uph","vl":"63155","cn":19,"pt":"GO","pr":1900},{"dy":22,"sl":4,"tp":"upn","vl":"38771","cn":22,"pt":"GO","pr":2200},{"dy":23,"sl":0,"tp":"fe","vl":"Equip0402","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":23,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":23,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":23,"sl":3,"tp":"upn","vl":"44055","cn":16,"pt":"GO","pr":1600},{"dy":23,"sl":4,"tp":"uph","vl":"48761","cn":18,"pt":"GO","pr":1800},{"dy":23,"sl":5,"tp":"fp","vl":"Actor1216","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":23,"sl":6,"tp":"upn","vl":"78946","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":24,"sl":0,"tp":"fe","vl":"Equip7101","cn":1,"pt":"GO","pr":5000},{"dy":24,"sl":1,"tp":"fe","vl":"Equip6101","cn":1,"pt":"GO","pr":24450},{"dy":24,"sl":2,"tp":"upn","vl":"54180","cn":16,"pt":"GO","pr":1600},{"dy":24,"sl":3,"tp":"uph","vl":"11504","cn":19,"pt":"GO","pr":1900},{"dy":24,"sl":4,"tp":"upn","vl":"18718","cn":22,"pt":"GO","pr":2200},{"dy":25,"sl":0,"tp":"fe","vl":"Equip3401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":25,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":25,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":25,"sl":3,"tp":"upn","vl":"94114","cn":16,"pt":"GO","pr":1600},{"dy":25,"sl":4,"tp":"uph","vl":"67435","cn":18,"pt":"GO","pr":1800},{"dy":25,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":25,"sl":6,"tp":"upn","vl":"43788","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":26,"sl":0,"tp":"fe","vl":"Equip4001","cn":1,"pt":"GO","pr":5000},{"dy":26,"sl":1,"tp":"fe","vl":"Equip5201","cn":1,"pt":"GO","pr":24450},{"dy":26,"sl":2,"tp":"upn","vl":"57510","cn":16,"pt":"GO","pr":1600},{"dy":26,"sl":3,"tp":"uph","vl":"13933","cn":19,"pt":"GO","pr":1900},{"dy":26,"sl":4,"tp":"upn","vl":"63758","cn":22,"pt":"GO","pr":2200},{"dy":27,"sl":0,"tp":"fe","vl":"Equip5401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":27,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":27,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70}</v>
       </c>
       <c r="Q186" t="str">
-        <f t="shared" si="15"/>
-        <v/>
+        <f t="shared" ca="1" si="15"/>
+        <v>{"dy":27,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70}</v>
       </c>
     </row>
     <row r="187" spans="1:17">
@@ -20526,13 +21026,19 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
+      <c r="D187" t="s">
+        <v>106</v>
+      </c>
       <c r="E187" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
+        <f t="shared" ca="1" si="20"/>
+        <v>upn</v>
       </c>
       <c r="F187" t="str">
         <f t="shared" si="19"/>
         <v/>
+      </c>
+      <c r="G187">
+        <v>57153</v>
       </c>
       <c r="H187" t="str">
         <f>IF(OR(
@@ -20548,13 +21054,25 @@
 "")))))</f>
         <v/>
       </c>
+      <c r="I187">
+        <v>16</v>
+      </c>
+      <c r="K187" t="s">
+        <v>73</v>
+      </c>
+      <c r="N187">
+        <v>1600</v>
+      </c>
+      <c r="O187">
+        <v>1</v>
+      </c>
       <c r="P187" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":22,"sl":0,"tp":"fe","vl":"Equip8001","cn":1,"pt":"GO","pr":5000},{"dy":22,"sl":1,"tp":"fe","vl":"Equip7102","cn":1,"pt":"GO","pr":24450},{"dy":22,"sl":2,"tp":"upn","vl":"44408","cn":16,"pt":"GO","pr":1600},{"dy":22,"sl":3,"tp":"uph","vl":"63155","cn":19,"pt":"GO","pr":1900},{"dy":22,"sl":4,"tp":"upn","vl":"38771","cn":22,"pt":"GO","pr":2200},{"dy":23,"sl":0,"tp":"fe","vl":"Equip0402","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":23,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":23,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":23,"sl":3,"tp":"upn","vl":"44055","cn":16,"pt":"GO","pr":1600},{"dy":23,"sl":4,"tp":"uph","vl":"48761","cn":18,"pt":"GO","pr":1800},{"dy":23,"sl":5,"tp":"fp","vl":"Actor1216","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":23,"sl":6,"tp":"upn","vl":"78946","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":24,"sl":0,"tp":"fe","vl":"Equip7101","cn":1,"pt":"GO","pr":5000},{"dy":24,"sl":1,"tp":"fe","vl":"Equip6101","cn":1,"pt":"GO","pr":24450},{"dy":24,"sl":2,"tp":"upn","vl":"54180","cn":16,"pt":"GO","pr":1600},{"dy":24,"sl":3,"tp":"uph","vl":"11504","cn":19,"pt":"GO","pr":1900},{"dy":24,"sl":4,"tp":"upn","vl":"18718","cn":22,"pt":"GO","pr":2200},{"dy":25,"sl":0,"tp":"fe","vl":"Equip3401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":25,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":25,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":25,"sl":3,"tp":"upn","vl":"94114","cn":16,"pt":"GO","pr":1600},{"dy":25,"sl":4,"tp":"uph","vl":"67435","cn":18,"pt":"GO","pr":1800},{"dy":25,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":25,"sl":6,"tp":"upn","vl":"43788","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":26,"sl":0,"tp":"fe","vl":"Equip4001","cn":1,"pt":"GO","pr":5000},{"dy":26,"sl":1,"tp":"fe","vl":"Equip5201","cn":1,"pt":"GO","pr":24450},{"dy":26,"sl":2,"tp":"upn","vl":"57510","cn":16,"pt":"GO","pr":1600},{"dy":26,"sl":3,"tp":"uph","vl":"13933","cn":19,"pt":"GO","pr":1900},{"dy":26,"sl":4,"tp":"upn","vl":"63758","cn":22,"pt":"GO","pr":2200},{"dy":27,"sl":0,"tp":"fe","vl":"Equip5401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":27,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":27,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":27,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600}</v>
       </c>
       <c r="Q187" t="str">
-        <f t="shared" si="15"/>
-        <v/>
+        <f t="shared" ca="1" si="15"/>
+        <v>{"dy":27,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600}</v>
       </c>
     </row>
     <row r="188" spans="1:17">
@@ -20568,13 +21086,19 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
+      <c r="D188" t="s">
+        <v>105</v>
+      </c>
       <c r="E188" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
+        <f t="shared" ca="1" si="20"/>
+        <v>uph</v>
       </c>
       <c r="F188" t="str">
         <f t="shared" si="19"/>
         <v/>
+      </c>
+      <c r="G188">
+        <v>56573</v>
       </c>
       <c r="H188" t="str">
         <f>IF(OR(
@@ -20590,13 +21114,25 @@
 "")))))</f>
         <v/>
       </c>
+      <c r="I188">
+        <v>18</v>
+      </c>
+      <c r="K188" t="s">
+        <v>73</v>
+      </c>
+      <c r="N188">
+        <v>1800</v>
+      </c>
+      <c r="O188">
+        <v>1</v>
+      </c>
       <c r="P188" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":22,"sl":0,"tp":"fe","vl":"Equip8001","cn":1,"pt":"GO","pr":5000},{"dy":22,"sl":1,"tp":"fe","vl":"Equip7102","cn":1,"pt":"GO","pr":24450},{"dy":22,"sl":2,"tp":"upn","vl":"44408","cn":16,"pt":"GO","pr":1600},{"dy":22,"sl":3,"tp":"uph","vl":"63155","cn":19,"pt":"GO","pr":1900},{"dy":22,"sl":4,"tp":"upn","vl":"38771","cn":22,"pt":"GO","pr":2200},{"dy":23,"sl":0,"tp":"fe","vl":"Equip0402","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":23,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":23,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":23,"sl":3,"tp":"upn","vl":"44055","cn":16,"pt":"GO","pr":1600},{"dy":23,"sl":4,"tp":"uph","vl":"48761","cn":18,"pt":"GO","pr":1800},{"dy":23,"sl":5,"tp":"fp","vl":"Actor1216","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":23,"sl":6,"tp":"upn","vl":"78946","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":24,"sl":0,"tp":"fe","vl":"Equip7101","cn":1,"pt":"GO","pr":5000},{"dy":24,"sl":1,"tp":"fe","vl":"Equip6101","cn":1,"pt":"GO","pr":24450},{"dy":24,"sl":2,"tp":"upn","vl":"54180","cn":16,"pt":"GO","pr":1600},{"dy":24,"sl":3,"tp":"uph","vl":"11504","cn":19,"pt":"GO","pr":1900},{"dy":24,"sl":4,"tp":"upn","vl":"18718","cn":22,"pt":"GO","pr":2200},{"dy":25,"sl":0,"tp":"fe","vl":"Equip3401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":25,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":25,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":25,"sl":3,"tp":"upn","vl":"94114","cn":16,"pt":"GO","pr":1600},{"dy":25,"sl":4,"tp":"uph","vl":"67435","cn":18,"pt":"GO","pr":1800},{"dy":25,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":25,"sl":6,"tp":"upn","vl":"43788","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":26,"sl":0,"tp":"fe","vl":"Equip4001","cn":1,"pt":"GO","pr":5000},{"dy":26,"sl":1,"tp":"fe","vl":"Equip5201","cn":1,"pt":"GO","pr":24450},{"dy":26,"sl":2,"tp":"upn","vl":"57510","cn":16,"pt":"GO","pr":1600},{"dy":26,"sl":3,"tp":"uph","vl":"13933","cn":19,"pt":"GO","pr":1900},{"dy":26,"sl":4,"tp":"upn","vl":"63758","cn":22,"pt":"GO","pr":2200},{"dy":27,"sl":0,"tp":"fe","vl":"Equip5401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":27,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":27,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":27,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":27,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800}</v>
       </c>
       <c r="Q188" t="str">
-        <f t="shared" si="15"/>
-        <v/>
+        <f t="shared" ca="1" si="15"/>
+        <v>{"dy":27,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800}</v>
       </c>
     </row>
     <row r="189" spans="1:17">
@@ -20610,31 +21146,9 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="E189" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="F189" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="H189" t="str">
-        <f>IF(OR(
-  AND(NOT(ISERROR(FIND("상자",D189))),ISBLANK(G189)),
-  AND(ISBLANK(D189),ISBLANK(G189)),
-  AND(NOT(ISERROR(FIND("안 지정",D189))),ISNUMBER(G189))),"",
-IF(AND(NOT(ISERROR(FIND("상자",D189))),NOT(ISBLANK(G189))),"밸류불필요",
-IF(AND(NOT(ISERROR(FIND("안 지정",D189))),NOT(ISNUMBER(G189))),"숫자필요",
-IF(NOT(ISERROR(FIND("장비",D189))),
-  IFERROR(VLOOKUP(G189,[1]EquipTable!$A:$T,MATCH("이름참고",[1]EquipTable!$1:$1,0),0),"장비없음"),
-IF(NOT(ISERROR(FIND("캐릭터",D189))),
-  IFERROR(VLOOKUP(G189,[2]ActorTable!$A:$G,MATCH("이름참고",[2]ActorTable!$1:$1,0),0),"캐릭터없음"),
-"")))))</f>
-        <v/>
-      </c>
       <c r="P189" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":22,"sl":0,"tp":"fe","vl":"Equip8001","cn":1,"pt":"GO","pr":5000},{"dy":22,"sl":1,"tp":"fe","vl":"Equip7102","cn":1,"pt":"GO","pr":24450},{"dy":22,"sl":2,"tp":"upn","vl":"44408","cn":16,"pt":"GO","pr":1600},{"dy":22,"sl":3,"tp":"uph","vl":"63155","cn":19,"pt":"GO","pr":1900},{"dy":22,"sl":4,"tp":"upn","vl":"38771","cn":22,"pt":"GO","pr":2200},{"dy":23,"sl":0,"tp":"fe","vl":"Equip0402","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":23,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":23,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":23,"sl":3,"tp":"upn","vl":"44055","cn":16,"pt":"GO","pr":1600},{"dy":23,"sl":4,"tp":"uph","vl":"48761","cn":18,"pt":"GO","pr":1800},{"dy":23,"sl":5,"tp":"fp","vl":"Actor1216","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":23,"sl":6,"tp":"upn","vl":"78946","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":24,"sl":0,"tp":"fe","vl":"Equip7101","cn":1,"pt":"GO","pr":5000},{"dy":24,"sl":1,"tp":"fe","vl":"Equip6101","cn":1,"pt":"GO","pr":24450},{"dy":24,"sl":2,"tp":"upn","vl":"54180","cn":16,"pt":"GO","pr":1600},{"dy":24,"sl":3,"tp":"uph","vl":"11504","cn":19,"pt":"GO","pr":1900},{"dy":24,"sl":4,"tp":"upn","vl":"18718","cn":22,"pt":"GO","pr":2200},{"dy":25,"sl":0,"tp":"fe","vl":"Equip3401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":25,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":25,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":25,"sl":3,"tp":"upn","vl":"94114","cn":16,"pt":"GO","pr":1600},{"dy":25,"sl":4,"tp":"uph","vl":"67435","cn":18,"pt":"GO","pr":1800},{"dy":25,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":25,"sl":6,"tp":"upn","vl":"43788","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":26,"sl":0,"tp":"fe","vl":"Equip4001","cn":1,"pt":"GO","pr":5000},{"dy":26,"sl":1,"tp":"fe","vl":"Equip5201","cn":1,"pt":"GO","pr":24450},{"dy":26,"sl":2,"tp":"upn","vl":"57510","cn":16,"pt":"GO","pr":1600},{"dy":26,"sl":3,"tp":"uph","vl":"13933","cn":19,"pt":"GO","pr":1900},{"dy":26,"sl":4,"tp":"upn","vl":"63758","cn":22,"pt":"GO","pr":2200},{"dy":27,"sl":0,"tp":"fe","vl":"Equip5401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":27,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":27,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":27,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":27,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800}</v>
       </c>
       <c r="Q189" t="str">
         <f t="shared" si="15"/>
@@ -20652,31 +21166,9 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="E190" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="F190" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="H190" t="str">
-        <f>IF(OR(
-  AND(NOT(ISERROR(FIND("상자",D190))),ISBLANK(G190)),
-  AND(ISBLANK(D190),ISBLANK(G190)),
-  AND(NOT(ISERROR(FIND("안 지정",D190))),ISNUMBER(G190))),"",
-IF(AND(NOT(ISERROR(FIND("상자",D190))),NOT(ISBLANK(G190))),"밸류불필요",
-IF(AND(NOT(ISERROR(FIND("안 지정",D190))),NOT(ISNUMBER(G190))),"숫자필요",
-IF(NOT(ISERROR(FIND("장비",D190))),
-  IFERROR(VLOOKUP(G190,[1]EquipTable!$A:$T,MATCH("이름참고",[1]EquipTable!$1:$1,0),0),"장비없음"),
-IF(NOT(ISERROR(FIND("캐릭터",D190))),
-  IFERROR(VLOOKUP(G190,[2]ActorTable!$A:$G,MATCH("이름참고",[2]ActorTable!$1:$1,0),0),"캐릭터없음"),
-"")))))</f>
-        <v/>
-      </c>
       <c r="P190" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":22,"sl":0,"tp":"fe","vl":"Equip8001","cn":1,"pt":"GO","pr":5000},{"dy":22,"sl":1,"tp":"fe","vl":"Equip7102","cn":1,"pt":"GO","pr":24450},{"dy":22,"sl":2,"tp":"upn","vl":"44408","cn":16,"pt":"GO","pr":1600},{"dy":22,"sl":3,"tp":"uph","vl":"63155","cn":19,"pt":"GO","pr":1900},{"dy":22,"sl":4,"tp":"upn","vl":"38771","cn":22,"pt":"GO","pr":2200},{"dy":23,"sl":0,"tp":"fe","vl":"Equip0402","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":23,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":23,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":23,"sl":3,"tp":"upn","vl":"44055","cn":16,"pt":"GO","pr":1600},{"dy":23,"sl":4,"tp":"uph","vl":"48761","cn":18,"pt":"GO","pr":1800},{"dy":23,"sl":5,"tp":"fp","vl":"Actor1216","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":23,"sl":6,"tp":"upn","vl":"78946","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":24,"sl":0,"tp":"fe","vl":"Equip7101","cn":1,"pt":"GO","pr":5000},{"dy":24,"sl":1,"tp":"fe","vl":"Equip6101","cn":1,"pt":"GO","pr":24450},{"dy":24,"sl":2,"tp":"upn","vl":"54180","cn":16,"pt":"GO","pr":1600},{"dy":24,"sl":3,"tp":"uph","vl":"11504","cn":19,"pt":"GO","pr":1900},{"dy":24,"sl":4,"tp":"upn","vl":"18718","cn":22,"pt":"GO","pr":2200},{"dy":25,"sl":0,"tp":"fe","vl":"Equip3401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":25,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":25,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":25,"sl":3,"tp":"upn","vl":"94114","cn":16,"pt":"GO","pr":1600},{"dy":25,"sl":4,"tp":"uph","vl":"67435","cn":18,"pt":"GO","pr":1800},{"dy":25,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":25,"sl":6,"tp":"upn","vl":"43788","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":26,"sl":0,"tp":"fe","vl":"Equip4001","cn":1,"pt":"GO","pr":5000},{"dy":26,"sl":1,"tp":"fe","vl":"Equip5201","cn":1,"pt":"GO","pr":24450},{"dy":26,"sl":2,"tp":"upn","vl":"57510","cn":16,"pt":"GO","pr":1600},{"dy":26,"sl":3,"tp":"uph","vl":"13933","cn":19,"pt":"GO","pr":1900},{"dy":26,"sl":4,"tp":"upn","vl":"63758","cn":22,"pt":"GO","pr":2200},{"dy":27,"sl":0,"tp":"fe","vl":"Equip5401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":27,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":27,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":27,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":27,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800}</v>
       </c>
       <c r="Q190" t="str">
         <f t="shared" si="15"/>
@@ -20694,16 +21186,22 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
+      <c r="D191" t="s">
+        <v>96</v>
+      </c>
       <c r="E191" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
+        <f t="shared" ca="1" si="20"/>
+        <v>fe</v>
       </c>
       <c r="F191" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
+      <c r="G191" t="s">
+        <v>159</v>
+      </c>
       <c r="H191" t="str">
-        <f>IF(OR(
+        <f ca="1">IF(OR(
   AND(NOT(ISERROR(FIND("상자",D191))),ISBLANK(G191)),
   AND(ISBLANK(D191),ISBLANK(G191)),
   AND(NOT(ISERROR(FIND("안 지정",D191))),ISNUMBER(G191))),"",
@@ -20714,15 +21212,27 @@
 IF(NOT(ISERROR(FIND("캐릭터",D191))),
   IFERROR(VLOOKUP(G191,[2]ActorTable!$A:$G,MATCH("이름참고",[2]ActorTable!$1:$1,0),0),"캐릭터없음"),
 "")))))</f>
-        <v/>
+        <v>헤비 액스</v>
+      </c>
+      <c r="I191">
+        <v>1</v>
+      </c>
+      <c r="K191" t="s">
+        <v>73</v>
+      </c>
+      <c r="N191">
+        <v>5000</v>
+      </c>
+      <c r="O191">
+        <v>1</v>
       </c>
       <c r="P191" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":22,"sl":0,"tp":"fe","vl":"Equip8001","cn":1,"pt":"GO","pr":5000},{"dy":22,"sl":1,"tp":"fe","vl":"Equip7102","cn":1,"pt":"GO","pr":24450},{"dy":22,"sl":2,"tp":"upn","vl":"44408","cn":16,"pt":"GO","pr":1600},{"dy":22,"sl":3,"tp":"uph","vl":"63155","cn":19,"pt":"GO","pr":1900},{"dy":22,"sl":4,"tp":"upn","vl":"38771","cn":22,"pt":"GO","pr":2200},{"dy":23,"sl":0,"tp":"fe","vl":"Equip0402","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":23,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":23,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":23,"sl":3,"tp":"upn","vl":"44055","cn":16,"pt":"GO","pr":1600},{"dy":23,"sl":4,"tp":"uph","vl":"48761","cn":18,"pt":"GO","pr":1800},{"dy":23,"sl":5,"tp":"fp","vl":"Actor1216","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":23,"sl":6,"tp":"upn","vl":"78946","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":24,"sl":0,"tp":"fe","vl":"Equip7101","cn":1,"pt":"GO","pr":5000},{"dy":24,"sl":1,"tp":"fe","vl":"Equip6101","cn":1,"pt":"GO","pr":24450},{"dy":24,"sl":2,"tp":"upn","vl":"54180","cn":16,"pt":"GO","pr":1600},{"dy":24,"sl":3,"tp":"uph","vl":"11504","cn":19,"pt":"GO","pr":1900},{"dy":24,"sl":4,"tp":"upn","vl":"18718","cn":22,"pt":"GO","pr":2200},{"dy":25,"sl":0,"tp":"fe","vl":"Equip3401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":25,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":25,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":25,"sl":3,"tp":"upn","vl":"94114","cn":16,"pt":"GO","pr":1600},{"dy":25,"sl":4,"tp":"uph","vl":"67435","cn":18,"pt":"GO","pr":1800},{"dy":25,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":25,"sl":6,"tp":"upn","vl":"43788","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":26,"sl":0,"tp":"fe","vl":"Equip4001","cn":1,"pt":"GO","pr":5000},{"dy":26,"sl":1,"tp":"fe","vl":"Equip5201","cn":1,"pt":"GO","pr":24450},{"dy":26,"sl":2,"tp":"upn","vl":"57510","cn":16,"pt":"GO","pr":1600},{"dy":26,"sl":3,"tp":"uph","vl":"13933","cn":19,"pt":"GO","pr":1900},{"dy":26,"sl":4,"tp":"upn","vl":"63758","cn":22,"pt":"GO","pr":2200},{"dy":27,"sl":0,"tp":"fe","vl":"Equip5401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":27,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":27,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":27,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":27,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":28,"sl":0,"tp":"fe","vl":"Equip0102","cn":1,"pt":"GO","pr":5000}</v>
       </c>
       <c r="Q191" t="str">
-        <f t="shared" si="15"/>
-        <v/>
+        <f t="shared" ca="1" si="15"/>
+        <v>{"dy":28,"sl":0,"tp":"fe","vl":"Equip0102","cn":1,"pt":"GO","pr":5000}</v>
       </c>
     </row>
     <row r="192" spans="1:17">
@@ -20736,16 +21246,22 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
+      <c r="D192" t="s">
+        <v>96</v>
+      </c>
       <c r="E192" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
+        <f t="shared" ca="1" si="20"/>
+        <v>fe</v>
       </c>
       <c r="F192" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
+      <c r="G192" t="s">
+        <v>160</v>
+      </c>
       <c r="H192" t="str">
-        <f>IF(OR(
+        <f ca="1">IF(OR(
   AND(NOT(ISERROR(FIND("상자",D192))),ISBLANK(G192)),
   AND(ISBLANK(D192),ISBLANK(G192)),
   AND(NOT(ISERROR(FIND("안 지정",D192))),ISNUMBER(G192))),"",
@@ -20756,15 +21272,27 @@
 IF(NOT(ISERROR(FIND("캐릭터",D192))),
   IFERROR(VLOOKUP(G192,[2]ActorTable!$A:$G,MATCH("이름참고",[2]ActorTable!$1:$1,0),0),"캐릭터없음"),
 "")))))</f>
-        <v/>
+        <v>휘어진 단검</v>
+      </c>
+      <c r="I192">
+        <v>1</v>
+      </c>
+      <c r="K192" t="s">
+        <v>73</v>
+      </c>
+      <c r="N192">
+        <v>24450</v>
+      </c>
+      <c r="O192">
+        <v>1</v>
       </c>
       <c r="P192" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":22,"sl":0,"tp":"fe","vl":"Equip8001","cn":1,"pt":"GO","pr":5000},{"dy":22,"sl":1,"tp":"fe","vl":"Equip7102","cn":1,"pt":"GO","pr":24450},{"dy":22,"sl":2,"tp":"upn","vl":"44408","cn":16,"pt":"GO","pr":1600},{"dy":22,"sl":3,"tp":"uph","vl":"63155","cn":19,"pt":"GO","pr":1900},{"dy":22,"sl":4,"tp":"upn","vl":"38771","cn":22,"pt":"GO","pr":2200},{"dy":23,"sl":0,"tp":"fe","vl":"Equip0402","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":23,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":23,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":23,"sl":3,"tp":"upn","vl":"44055","cn":16,"pt":"GO","pr":1600},{"dy":23,"sl":4,"tp":"uph","vl":"48761","cn":18,"pt":"GO","pr":1800},{"dy":23,"sl":5,"tp":"fp","vl":"Actor1216","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":23,"sl":6,"tp":"upn","vl":"78946","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":24,"sl":0,"tp":"fe","vl":"Equip7101","cn":1,"pt":"GO","pr":5000},{"dy":24,"sl":1,"tp":"fe","vl":"Equip6101","cn":1,"pt":"GO","pr":24450},{"dy":24,"sl":2,"tp":"upn","vl":"54180","cn":16,"pt":"GO","pr":1600},{"dy":24,"sl":3,"tp":"uph","vl":"11504","cn":19,"pt":"GO","pr":1900},{"dy":24,"sl":4,"tp":"upn","vl":"18718","cn":22,"pt":"GO","pr":2200},{"dy":25,"sl":0,"tp":"fe","vl":"Equip3401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":25,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":25,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":25,"sl":3,"tp":"upn","vl":"94114","cn":16,"pt":"GO","pr":1600},{"dy":25,"sl":4,"tp":"uph","vl":"67435","cn":18,"pt":"GO","pr":1800},{"dy":25,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":25,"sl":6,"tp":"upn","vl":"43788","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":26,"sl":0,"tp":"fe","vl":"Equip4001","cn":1,"pt":"GO","pr":5000},{"dy":26,"sl":1,"tp":"fe","vl":"Equip5201","cn":1,"pt":"GO","pr":24450},{"dy":26,"sl":2,"tp":"upn","vl":"57510","cn":16,"pt":"GO","pr":1600},{"dy":26,"sl":3,"tp":"uph","vl":"13933","cn":19,"pt":"GO","pr":1900},{"dy":26,"sl":4,"tp":"upn","vl":"63758","cn":22,"pt":"GO","pr":2200},{"dy":27,"sl":0,"tp":"fe","vl":"Equip5401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":27,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":27,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":27,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":27,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":28,"sl":0,"tp":"fe","vl":"Equip0102","cn":1,"pt":"GO","pr":5000},{"dy":28,"sl":1,"tp":"fe","vl":"Equip1102","cn":1,"pt":"GO","pr":24450}</v>
       </c>
       <c r="Q192" t="str">
-        <f t="shared" si="15"/>
-        <v/>
+        <f t="shared" ca="1" si="15"/>
+        <v>{"dy":28,"sl":1,"tp":"fe","vl":"Equip1102","cn":1,"pt":"GO","pr":24450}</v>
       </c>
     </row>
     <row r="193" spans="1:17">
@@ -20778,13 +21306,19 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
+      <c r="D193" t="s">
+        <v>106</v>
+      </c>
       <c r="E193" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
+        <f t="shared" ca="1" si="20"/>
+        <v>upn</v>
       </c>
       <c r="F193" t="str">
         <f t="shared" si="19"/>
         <v/>
+      </c>
+      <c r="G193">
+        <v>78493</v>
       </c>
       <c r="H193" t="str">
         <f>IF(OR(
@@ -20800,13 +21334,25 @@
 "")))))</f>
         <v/>
       </c>
+      <c r="I193">
+        <v>16</v>
+      </c>
+      <c r="K193" t="s">
+        <v>73</v>
+      </c>
+      <c r="N193">
+        <v>1600</v>
+      </c>
+      <c r="O193">
+        <v>1</v>
+      </c>
       <c r="P193" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":22,"sl":0,"tp":"fe","vl":"Equip8001","cn":1,"pt":"GO","pr":5000},{"dy":22,"sl":1,"tp":"fe","vl":"Equip7102","cn":1,"pt":"GO","pr":24450},{"dy":22,"sl":2,"tp":"upn","vl":"44408","cn":16,"pt":"GO","pr":1600},{"dy":22,"sl":3,"tp":"uph","vl":"63155","cn":19,"pt":"GO","pr":1900},{"dy":22,"sl":4,"tp":"upn","vl":"38771","cn":22,"pt":"GO","pr":2200},{"dy":23,"sl":0,"tp":"fe","vl":"Equip0402","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":23,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":23,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":23,"sl":3,"tp":"upn","vl":"44055","cn":16,"pt":"GO","pr":1600},{"dy":23,"sl":4,"tp":"uph","vl":"48761","cn":18,"pt":"GO","pr":1800},{"dy":23,"sl":5,"tp":"fp","vl":"Actor1216","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":23,"sl":6,"tp":"upn","vl":"78946","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":24,"sl":0,"tp":"fe","vl":"Equip7101","cn":1,"pt":"GO","pr":5000},{"dy":24,"sl":1,"tp":"fe","vl":"Equip6101","cn":1,"pt":"GO","pr":24450},{"dy":24,"sl":2,"tp":"upn","vl":"54180","cn":16,"pt":"GO","pr":1600},{"dy":24,"sl":3,"tp":"uph","vl":"11504","cn":19,"pt":"GO","pr":1900},{"dy":24,"sl":4,"tp":"upn","vl":"18718","cn":22,"pt":"GO","pr":2200},{"dy":25,"sl":0,"tp":"fe","vl":"Equip3401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":25,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":25,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":25,"sl":3,"tp":"upn","vl":"94114","cn":16,"pt":"GO","pr":1600},{"dy":25,"sl":4,"tp":"uph","vl":"67435","cn":18,"pt":"GO","pr":1800},{"dy":25,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":25,"sl":6,"tp":"upn","vl":"43788","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":26,"sl":0,"tp":"fe","vl":"Equip4001","cn":1,"pt":"GO","pr":5000},{"dy":26,"sl":1,"tp":"fe","vl":"Equip5201","cn":1,"pt":"GO","pr":24450},{"dy":26,"sl":2,"tp":"upn","vl":"57510","cn":16,"pt":"GO","pr":1600},{"dy":26,"sl":3,"tp":"uph","vl":"13933","cn":19,"pt":"GO","pr":1900},{"dy":26,"sl":4,"tp":"upn","vl":"63758","cn":22,"pt":"GO","pr":2200},{"dy":27,"sl":0,"tp":"fe","vl":"Equip5401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":27,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":27,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":27,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":27,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":28,"sl":0,"tp":"fe","vl":"Equip0102","cn":1,"pt":"GO","pr":5000},{"dy":28,"sl":1,"tp":"fe","vl":"Equip1102","cn":1,"pt":"GO","pr":24450},{"dy":28,"sl":2,"tp":"upn","vl":"78493","cn":16,"pt":"GO","pr":1600}</v>
       </c>
       <c r="Q193" t="str">
-        <f t="shared" si="15"/>
-        <v/>
+        <f t="shared" ca="1" si="15"/>
+        <v>{"dy":28,"sl":2,"tp":"upn","vl":"78493","cn":16,"pt":"GO","pr":1600}</v>
       </c>
     </row>
     <row r="194" spans="1:17">
@@ -20817,19 +21363,23 @@
         <v>3</v>
       </c>
       <c r="C194">
-        <f t="shared" ref="C194:C257" si="20">IF(B194&lt;=6,0,
+        <f t="shared" ref="C194:C257" si="21">IF(B194&lt;=6,0,
 IF(B194=7,1,2))</f>
         <v>0</v>
       </c>
+      <c r="D194" t="s">
+        <v>105</v>
+      </c>
       <c r="E194" t="str">
-        <f t="shared" ref="E194:E257" ca="1" si="21">IF(ISBLANK(D194),"",
-VLOOKUP(D194,OFFSET(INDIRECT("$A:$B"),0,MATCH(D$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
-        <v/>
+        <f t="shared" ca="1" si="20"/>
+        <v>uph</v>
       </c>
       <c r="F194" t="str">
         <f t="shared" si="19"/>
         <v/>
+      </c>
+      <c r="G194">
+        <v>65706</v>
       </c>
       <c r="H194" t="str">
         <f>IF(OR(
@@ -20845,12 +21395,24 @@
 "")))))</f>
         <v/>
       </c>
+      <c r="I194">
+        <v>19</v>
+      </c>
+      <c r="K194" t="s">
+        <v>73</v>
+      </c>
+      <c r="N194">
+        <v>1900</v>
+      </c>
+      <c r="O194">
+        <v>1</v>
+      </c>
       <c r="P194" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":22,"sl":0,"tp":"fe","vl":"Equip8001","cn":1,"pt":"GO","pr":5000},{"dy":22,"sl":1,"tp":"fe","vl":"Equip7102","cn":1,"pt":"GO","pr":24450},{"dy":22,"sl":2,"tp":"upn","vl":"44408","cn":16,"pt":"GO","pr":1600},{"dy":22,"sl":3,"tp":"uph","vl":"63155","cn":19,"pt":"GO","pr":1900},{"dy":22,"sl":4,"tp":"upn","vl":"38771","cn":22,"pt":"GO","pr":2200},{"dy":23,"sl":0,"tp":"fe","vl":"Equip0402","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":23,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":23,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":23,"sl":3,"tp":"upn","vl":"44055","cn":16,"pt":"GO","pr":1600},{"dy":23,"sl":4,"tp":"uph","vl":"48761","cn":18,"pt":"GO","pr":1800},{"dy":23,"sl":5,"tp":"fp","vl":"Actor1216","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":23,"sl":6,"tp":"upn","vl":"78946","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":24,"sl":0,"tp":"fe","vl":"Equip7101","cn":1,"pt":"GO","pr":5000},{"dy":24,"sl":1,"tp":"fe","vl":"Equip6101","cn":1,"pt":"GO","pr":24450},{"dy":24,"sl":2,"tp":"upn","vl":"54180","cn":16,"pt":"GO","pr":1600},{"dy":24,"sl":3,"tp":"uph","vl":"11504","cn":19,"pt":"GO","pr":1900},{"dy":24,"sl":4,"tp":"upn","vl":"18718","cn":22,"pt":"GO","pr":2200},{"dy":25,"sl":0,"tp":"fe","vl":"Equip3401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":25,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":25,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":25,"sl":3,"tp":"upn","vl":"94114","cn":16,"pt":"GO","pr":1600},{"dy":25,"sl":4,"tp":"uph","vl":"67435","cn":18,"pt":"GO","pr":1800},{"dy":25,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":25,"sl":6,"tp":"upn","vl":"43788","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":26,"sl":0,"tp":"fe","vl":"Equip4001","cn":1,"pt":"GO","pr":5000},{"dy":26,"sl":1,"tp":"fe","vl":"Equip5201","cn":1,"pt":"GO","pr":24450},{"dy":26,"sl":2,"tp":"upn","vl":"57510","cn":16,"pt":"GO","pr":1600},{"dy":26,"sl":3,"tp":"uph","vl":"13933","cn":19,"pt":"GO","pr":1900},{"dy":26,"sl":4,"tp":"upn","vl":"63758","cn":22,"pt":"GO","pr":2200},{"dy":27,"sl":0,"tp":"fe","vl":"Equip5401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":27,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":27,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":27,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":27,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":28,"sl":0,"tp":"fe","vl":"Equip0102","cn":1,"pt":"GO","pr":5000},{"dy":28,"sl":1,"tp":"fe","vl":"Equip1102","cn":1,"pt":"GO","pr":24450},{"dy":28,"sl":2,"tp":"upn","vl":"78493","cn":16,"pt":"GO","pr":1600},{"dy":28,"sl":3,"tp":"uph","vl":"65706","cn":19,"pt":"GO","pr":1900}</v>
       </c>
       <c r="Q194" t="str">
-        <f t="shared" ref="Q194:Q257" si="22">IF(O194&lt;&gt;1,"",
+        <f t="shared" ref="Q194:Q257" ca="1" si="22">IF(O194&lt;&gt;1,"",
 "{"""&amp;A$1&amp;""":"&amp;A194
 &amp;","""&amp;B$1&amp;""":"&amp;B194
 &amp;IF(LEN(E194)=0,"",","""&amp;E$1&amp;""":"""&amp;E194&amp;"""")
@@ -20859,7 +21421,7 @@
 &amp;IF(LEN(K194)=0,"",","""&amp;K$1&amp;""":"""&amp;K194&amp;"""")
 &amp;IF(LEN(M194)=0,"",","""&amp;M$1&amp;""":"&amp;M194)
 &amp;IF(LEN(N194)=0,"",","""&amp;N$1&amp;""":"&amp;N194)&amp;"}")</f>
-        <v/>
+        <v>{"dy":28,"sl":3,"tp":"uph","vl":"65706","cn":19,"pt":"GO","pr":1900}</v>
       </c>
     </row>
     <row r="195" spans="1:17">
@@ -20870,17 +21432,22 @@
         <v>4</v>
       </c>
       <c r="C195">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
+      <c r="D195" t="s">
+        <v>106</v>
+      </c>
       <c r="E195" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
+        <f t="shared" ca="1" si="20"/>
+        <v>upn</v>
       </c>
       <c r="F195" t="str">
-        <f t="shared" ref="F195:F258" si="23">IF(ISBLANK($D195),"",
-IF(AND($B195&gt;=VLOOKUP($D195,$S:$V,3,0),$B195&lt;=VLOOKUP($D195,$S:$V,4,0)),"","슬롯타입이상"))</f>
-        <v/>
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="G195">
+        <v>40322</v>
       </c>
       <c r="H195" t="str">
         <f>IF(OR(
@@ -20896,13 +21463,25 @@
 "")))))</f>
         <v/>
       </c>
+      <c r="I195">
+        <v>22</v>
+      </c>
+      <c r="K195" t="s">
+        <v>73</v>
+      </c>
+      <c r="N195">
+        <v>2200</v>
+      </c>
+      <c r="O195">
+        <v>1</v>
+      </c>
       <c r="P195" t="str">
-        <f t="shared" ref="P195:P258" ca="1" si="24">P194&amp;IF(LEN(Q195)=0,"",","&amp;Q195)</f>
-        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
+        <f t="shared" ref="P195:P258" ca="1" si="23">P194&amp;IF(LEN(Q195)=0,"",","&amp;Q195)</f>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":22,"sl":0,"tp":"fe","vl":"Equip8001","cn":1,"pt":"GO","pr":5000},{"dy":22,"sl":1,"tp":"fe","vl":"Equip7102","cn":1,"pt":"GO","pr":24450},{"dy":22,"sl":2,"tp":"upn","vl":"44408","cn":16,"pt":"GO","pr":1600},{"dy":22,"sl":3,"tp":"uph","vl":"63155","cn":19,"pt":"GO","pr":1900},{"dy":22,"sl":4,"tp":"upn","vl":"38771","cn":22,"pt":"GO","pr":2200},{"dy":23,"sl":0,"tp":"fe","vl":"Equip0402","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":23,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":23,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":23,"sl":3,"tp":"upn","vl":"44055","cn":16,"pt":"GO","pr":1600},{"dy":23,"sl":4,"tp":"uph","vl":"48761","cn":18,"pt":"GO","pr":1800},{"dy":23,"sl":5,"tp":"fp","vl":"Actor1216","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":23,"sl":6,"tp":"upn","vl":"78946","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":24,"sl":0,"tp":"fe","vl":"Equip7101","cn":1,"pt":"GO","pr":5000},{"dy":24,"sl":1,"tp":"fe","vl":"Equip6101","cn":1,"pt":"GO","pr":24450},{"dy":24,"sl":2,"tp":"upn","vl":"54180","cn":16,"pt":"GO","pr":1600},{"dy":24,"sl":3,"tp":"uph","vl":"11504","cn":19,"pt":"GO","pr":1900},{"dy":24,"sl":4,"tp":"upn","vl":"18718","cn":22,"pt":"GO","pr":2200},{"dy":25,"sl":0,"tp":"fe","vl":"Equip3401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":25,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":25,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":25,"sl":3,"tp":"upn","vl":"94114","cn":16,"pt":"GO","pr":1600},{"dy":25,"sl":4,"tp":"uph","vl":"67435","cn":18,"pt":"GO","pr":1800},{"dy":25,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":25,"sl":6,"tp":"upn","vl":"43788","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":26,"sl":0,"tp":"fe","vl":"Equip4001","cn":1,"pt":"GO","pr":5000},{"dy":26,"sl":1,"tp":"fe","vl":"Equip5201","cn":1,"pt":"GO","pr":24450},{"dy":26,"sl":2,"tp":"upn","vl":"57510","cn":16,"pt":"GO","pr":1600},{"dy":26,"sl":3,"tp":"uph","vl":"13933","cn":19,"pt":"GO","pr":1900},{"dy":26,"sl":4,"tp":"upn","vl":"63758","cn":22,"pt":"GO","pr":2200},{"dy":27,"sl":0,"tp":"fe","vl":"Equip5401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":27,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":27,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":27,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":27,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":28,"sl":0,"tp":"fe","vl":"Equip0102","cn":1,"pt":"GO","pr":5000},{"dy":28,"sl":1,"tp":"fe","vl":"Equip1102","cn":1,"pt":"GO","pr":24450},{"dy":28,"sl":2,"tp":"upn","vl":"78493","cn":16,"pt":"GO","pr":1600},{"dy":28,"sl":3,"tp":"uph","vl":"65706","cn":19,"pt":"GO","pr":1900},{"dy":28,"sl":4,"tp":"upn","vl":"40322","cn":22,"pt":"GO","pr":2200}</v>
       </c>
       <c r="Q195" t="str">
-        <f t="shared" si="22"/>
-        <v/>
+        <f t="shared" ca="1" si="22"/>
+        <v>{"dy":28,"sl":4,"tp":"upn","vl":"40322","cn":22,"pt":"GO","pr":2200}</v>
       </c>
     </row>
     <row r="196" spans="1:17">
@@ -20913,15 +21492,15 @@
         <v>5</v>
       </c>
       <c r="C196">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="E196" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="F196" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="H196" t="str">
@@ -20939,8 +21518,8 @@
         <v/>
       </c>
       <c r="P196" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":22,"sl":0,"tp":"fe","vl":"Equip8001","cn":1,"pt":"GO","pr":5000},{"dy":22,"sl":1,"tp":"fe","vl":"Equip7102","cn":1,"pt":"GO","pr":24450},{"dy":22,"sl":2,"tp":"upn","vl":"44408","cn":16,"pt":"GO","pr":1600},{"dy":22,"sl":3,"tp":"uph","vl":"63155","cn":19,"pt":"GO","pr":1900},{"dy":22,"sl":4,"tp":"upn","vl":"38771","cn":22,"pt":"GO","pr":2200},{"dy":23,"sl":0,"tp":"fe","vl":"Equip0402","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":23,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":23,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":23,"sl":3,"tp":"upn","vl":"44055","cn":16,"pt":"GO","pr":1600},{"dy":23,"sl":4,"tp":"uph","vl":"48761","cn":18,"pt":"GO","pr":1800},{"dy":23,"sl":5,"tp":"fp","vl":"Actor1216","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":23,"sl":6,"tp":"upn","vl":"78946","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":24,"sl":0,"tp":"fe","vl":"Equip7101","cn":1,"pt":"GO","pr":5000},{"dy":24,"sl":1,"tp":"fe","vl":"Equip6101","cn":1,"pt":"GO","pr":24450},{"dy":24,"sl":2,"tp":"upn","vl":"54180","cn":16,"pt":"GO","pr":1600},{"dy":24,"sl":3,"tp":"uph","vl":"11504","cn":19,"pt":"GO","pr":1900},{"dy":24,"sl":4,"tp":"upn","vl":"18718","cn":22,"pt":"GO","pr":2200},{"dy":25,"sl":0,"tp":"fe","vl":"Equip3401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":25,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":25,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":25,"sl":3,"tp":"upn","vl":"94114","cn":16,"pt":"GO","pr":1600},{"dy":25,"sl":4,"tp":"uph","vl":"67435","cn":18,"pt":"GO","pr":1800},{"dy":25,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":25,"sl":6,"tp":"upn","vl":"43788","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":26,"sl":0,"tp":"fe","vl":"Equip4001","cn":1,"pt":"GO","pr":5000},{"dy":26,"sl":1,"tp":"fe","vl":"Equip5201","cn":1,"pt":"GO","pr":24450},{"dy":26,"sl":2,"tp":"upn","vl":"57510","cn":16,"pt":"GO","pr":1600},{"dy":26,"sl":3,"tp":"uph","vl":"13933","cn":19,"pt":"GO","pr":1900},{"dy":26,"sl":4,"tp":"upn","vl":"63758","cn":22,"pt":"GO","pr":2200},{"dy":27,"sl":0,"tp":"fe","vl":"Equip5401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":27,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":27,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":27,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":27,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":28,"sl":0,"tp":"fe","vl":"Equip0102","cn":1,"pt":"GO","pr":5000},{"dy":28,"sl":1,"tp":"fe","vl":"Equip1102","cn":1,"pt":"GO","pr":24450},{"dy":28,"sl":2,"tp":"upn","vl":"78493","cn":16,"pt":"GO","pr":1600},{"dy":28,"sl":3,"tp":"uph","vl":"65706","cn":19,"pt":"GO","pr":1900},{"dy":28,"sl":4,"tp":"upn","vl":"40322","cn":22,"pt":"GO","pr":2200}</v>
       </c>
       <c r="Q196" t="str">
         <f t="shared" si="22"/>
@@ -20955,15 +21534,16 @@
         <v>6</v>
       </c>
       <c r="C197">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="E197" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="F197" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" ref="F197" si="24">IF(ISBLANK($D197),"",
+IF(AND($B197&gt;=VLOOKUP($D197,$S:$V,3,0),$B197&lt;=VLOOKUP($D197,$S:$V,4,0)),"","슬롯타입이상"))</f>
         <v/>
       </c>
       <c r="H197" t="str">
@@ -20981,8 +21561,8 @@
         <v/>
       </c>
       <c r="P197" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":22,"sl":0,"tp":"fe","vl":"Equip8001","cn":1,"pt":"GO","pr":5000},{"dy":22,"sl":1,"tp":"fe","vl":"Equip7102","cn":1,"pt":"GO","pr":24450},{"dy":22,"sl":2,"tp":"upn","vl":"44408","cn":16,"pt":"GO","pr":1600},{"dy":22,"sl":3,"tp":"uph","vl":"63155","cn":19,"pt":"GO","pr":1900},{"dy":22,"sl":4,"tp":"upn","vl":"38771","cn":22,"pt":"GO","pr":2200},{"dy":23,"sl":0,"tp":"fe","vl":"Equip0402","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":23,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":23,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":23,"sl":3,"tp":"upn","vl":"44055","cn":16,"pt":"GO","pr":1600},{"dy":23,"sl":4,"tp":"uph","vl":"48761","cn":18,"pt":"GO","pr":1800},{"dy":23,"sl":5,"tp":"fp","vl":"Actor1216","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":23,"sl":6,"tp":"upn","vl":"78946","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":24,"sl":0,"tp":"fe","vl":"Equip7101","cn":1,"pt":"GO","pr":5000},{"dy":24,"sl":1,"tp":"fe","vl":"Equip6101","cn":1,"pt":"GO","pr":24450},{"dy":24,"sl":2,"tp":"upn","vl":"54180","cn":16,"pt":"GO","pr":1600},{"dy":24,"sl":3,"tp":"uph","vl":"11504","cn":19,"pt":"GO","pr":1900},{"dy":24,"sl":4,"tp":"upn","vl":"18718","cn":22,"pt":"GO","pr":2200},{"dy":25,"sl":0,"tp":"fe","vl":"Equip3401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":25,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":25,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":25,"sl":3,"tp":"upn","vl":"94114","cn":16,"pt":"GO","pr":1600},{"dy":25,"sl":4,"tp":"uph","vl":"67435","cn":18,"pt":"GO","pr":1800},{"dy":25,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":25,"sl":6,"tp":"upn","vl":"43788","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":26,"sl":0,"tp":"fe","vl":"Equip4001","cn":1,"pt":"GO","pr":5000},{"dy":26,"sl":1,"tp":"fe","vl":"Equip5201","cn":1,"pt":"GO","pr":24450},{"dy":26,"sl":2,"tp":"upn","vl":"57510","cn":16,"pt":"GO","pr":1600},{"dy":26,"sl":3,"tp":"uph","vl":"13933","cn":19,"pt":"GO","pr":1900},{"dy":26,"sl":4,"tp":"upn","vl":"63758","cn":22,"pt":"GO","pr":2200},{"dy":27,"sl":0,"tp":"fe","vl":"Equip5401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":27,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":27,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":27,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":27,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":28,"sl":0,"tp":"fe","vl":"Equip0102","cn":1,"pt":"GO","pr":5000},{"dy":28,"sl":1,"tp":"fe","vl":"Equip1102","cn":1,"pt":"GO","pr":24450},{"dy":28,"sl":2,"tp":"upn","vl":"78493","cn":16,"pt":"GO","pr":1600},{"dy":28,"sl":3,"tp":"uph","vl":"65706","cn":19,"pt":"GO","pr":1900},{"dy":28,"sl":4,"tp":"upn","vl":"40322","cn":22,"pt":"GO","pr":2200}</v>
       </c>
       <c r="Q197" t="str">
         <f t="shared" si="22"/>
@@ -20997,19 +21577,27 @@
         <v>0</v>
       </c>
       <c r="C198">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
+      <c r="D198" t="s">
+        <v>96</v>
+      </c>
       <c r="E198" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
+        <f t="shared" ref="E198:E211" ca="1" si="25">IF(ISBLANK(D198),"",
+VLOOKUP(D198,OFFSET(INDIRECT("$A:$B"),0,MATCH(D$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v>fe</v>
       </c>
       <c r="F198" t="str">
-        <f t="shared" si="23"/>
-        <v/>
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="G198" t="s">
+        <v>151</v>
       </c>
       <c r="H198" t="str">
-        <f>IF(OR(
+        <f ca="1">IF(OR(
   AND(NOT(ISERROR(FIND("상자",D198))),ISBLANK(G198)),
   AND(ISBLANK(D198),ISBLANK(G198)),
   AND(NOT(ISERROR(FIND("안 지정",D198))),ISNUMBER(G198))),"",
@@ -21020,15 +21608,30 @@
 IF(NOT(ISERROR(FIND("캐릭터",D198))),
   IFERROR(VLOOKUP(G198,[2]ActorTable!$A:$G,MATCH("이름참고",[2]ActorTable!$1:$1,0),0),"캐릭터없음"),
 "")))))</f>
-        <v/>
+        <v>레이 리볼버</v>
+      </c>
+      <c r="I198">
+        <v>1</v>
+      </c>
+      <c r="K198" t="s">
+        <v>76</v>
+      </c>
+      <c r="M198">
+        <v>840</v>
+      </c>
+      <c r="N198">
+        <v>530</v>
+      </c>
+      <c r="O198">
+        <v>1</v>
       </c>
       <c r="P198" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":22,"sl":0,"tp":"fe","vl":"Equip8001","cn":1,"pt":"GO","pr":5000},{"dy":22,"sl":1,"tp":"fe","vl":"Equip7102","cn":1,"pt":"GO","pr":24450},{"dy":22,"sl":2,"tp":"upn","vl":"44408","cn":16,"pt":"GO","pr":1600},{"dy":22,"sl":3,"tp":"uph","vl":"63155","cn":19,"pt":"GO","pr":1900},{"dy":22,"sl":4,"tp":"upn","vl":"38771","cn":22,"pt":"GO","pr":2200},{"dy":23,"sl":0,"tp":"fe","vl":"Equip0402","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":23,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":23,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":23,"sl":3,"tp":"upn","vl":"44055","cn":16,"pt":"GO","pr":1600},{"dy":23,"sl":4,"tp":"uph","vl":"48761","cn":18,"pt":"GO","pr":1800},{"dy":23,"sl":5,"tp":"fp","vl":"Actor1216","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":23,"sl":6,"tp":"upn","vl":"78946","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":24,"sl":0,"tp":"fe","vl":"Equip7101","cn":1,"pt":"GO","pr":5000},{"dy":24,"sl":1,"tp":"fe","vl":"Equip6101","cn":1,"pt":"GO","pr":24450},{"dy":24,"sl":2,"tp":"upn","vl":"54180","cn":16,"pt":"GO","pr":1600},{"dy":24,"sl":3,"tp":"uph","vl":"11504","cn":19,"pt":"GO","pr":1900},{"dy":24,"sl":4,"tp":"upn","vl":"18718","cn":22,"pt":"GO","pr":2200},{"dy":25,"sl":0,"tp":"fe","vl":"Equip3401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":25,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":25,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":25,"sl":3,"tp":"upn","vl":"94114","cn":16,"pt":"GO","pr":1600},{"dy":25,"sl":4,"tp":"uph","vl":"67435","cn":18,"pt":"GO","pr":1800},{"dy":25,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":25,"sl":6,"tp":"upn","vl":"43788","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":26,"sl":0,"tp":"fe","vl":"Equip4001","cn":1,"pt":"GO","pr":5000},{"dy":26,"sl":1,"tp":"fe","vl":"Equip5201","cn":1,"pt":"GO","pr":24450},{"dy":26,"sl":2,"tp":"upn","vl":"57510","cn":16,"pt":"GO","pr":1600},{"dy":26,"sl":3,"tp":"uph","vl":"13933","cn":19,"pt":"GO","pr":1900},{"dy":26,"sl":4,"tp":"upn","vl":"63758","cn":22,"pt":"GO","pr":2200},{"dy":27,"sl":0,"tp":"fe","vl":"Equip5401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":27,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":27,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":27,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":27,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":28,"sl":0,"tp":"fe","vl":"Equip0102","cn":1,"pt":"GO","pr":5000},{"dy":28,"sl":1,"tp":"fe","vl":"Equip1102","cn":1,"pt":"GO","pr":24450},{"dy":28,"sl":2,"tp":"upn","vl":"78493","cn":16,"pt":"GO","pr":1600},{"dy":28,"sl":3,"tp":"uph","vl":"65706","cn":19,"pt":"GO","pr":1900},{"dy":28,"sl":4,"tp":"upn","vl":"40322","cn":22,"pt":"GO","pr":2200},{"dy":29,"sl":0,"tp":"fe","vl":"Equip6401","cn":1,"pt":"DI","pp":840,"pr":530}</v>
       </c>
       <c r="Q198" t="str">
-        <f t="shared" si="22"/>
-        <v/>
+        <f t="shared" ca="1" si="22"/>
+        <v>{"dy":29,"sl":0,"tp":"fe","vl":"Equip6401","cn":1,"pt":"DI","pp":840,"pr":530}</v>
       </c>
     </row>
     <row r="199" spans="1:17">
@@ -21039,15 +21642,19 @@
         <v>1</v>
       </c>
       <c r="C199">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
+      <c r="D199" t="s">
+        <v>97</v>
+      </c>
       <c r="E199" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
+        <f t="shared" ca="1" si="25"/>
+        <v>bn</v>
       </c>
       <c r="F199" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" ref="F199:F218" si="26">IF(ISBLANK($D199),"",
+IF(AND($B199&gt;=VLOOKUP($D199,$S:$V,3,0),$B199&lt;=VLOOKUP($D199,$S:$V,4,0)),"","슬롯타입이상"))</f>
         <v/>
       </c>
       <c r="H199" t="str">
@@ -21064,13 +21671,25 @@
 "")))))</f>
         <v/>
       </c>
+      <c r="I199">
+        <v>1</v>
+      </c>
+      <c r="K199" t="s">
+        <v>76</v>
+      </c>
+      <c r="N199">
+        <v>30</v>
+      </c>
+      <c r="O199">
+        <v>1</v>
+      </c>
       <c r="P199" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":22,"sl":0,"tp":"fe","vl":"Equip8001","cn":1,"pt":"GO","pr":5000},{"dy":22,"sl":1,"tp":"fe","vl":"Equip7102","cn":1,"pt":"GO","pr":24450},{"dy":22,"sl":2,"tp":"upn","vl":"44408","cn":16,"pt":"GO","pr":1600},{"dy":22,"sl":3,"tp":"uph","vl":"63155","cn":19,"pt":"GO","pr":1900},{"dy":22,"sl":4,"tp":"upn","vl":"38771","cn":22,"pt":"GO","pr":2200},{"dy":23,"sl":0,"tp":"fe","vl":"Equip0402","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":23,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":23,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":23,"sl":3,"tp":"upn","vl":"44055","cn":16,"pt":"GO","pr":1600},{"dy":23,"sl":4,"tp":"uph","vl":"48761","cn":18,"pt":"GO","pr":1800},{"dy":23,"sl":5,"tp":"fp","vl":"Actor1216","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":23,"sl":6,"tp":"upn","vl":"78946","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":24,"sl":0,"tp":"fe","vl":"Equip7101","cn":1,"pt":"GO","pr":5000},{"dy":24,"sl":1,"tp":"fe","vl":"Equip6101","cn":1,"pt":"GO","pr":24450},{"dy":24,"sl":2,"tp":"upn","vl":"54180","cn":16,"pt":"GO","pr":1600},{"dy":24,"sl":3,"tp":"uph","vl":"11504","cn":19,"pt":"GO","pr":1900},{"dy":24,"sl":4,"tp":"upn","vl":"18718","cn":22,"pt":"GO","pr":2200},{"dy":25,"sl":0,"tp":"fe","vl":"Equip3401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":25,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":25,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":25,"sl":3,"tp":"upn","vl":"94114","cn":16,"pt":"GO","pr":1600},{"dy":25,"sl":4,"tp":"uph","vl":"67435","cn":18,"pt":"GO","pr":1800},{"dy":25,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":25,"sl":6,"tp":"upn","vl":"43788","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":26,"sl":0,"tp":"fe","vl":"Equip4001","cn":1,"pt":"GO","pr":5000},{"dy":26,"sl":1,"tp":"fe","vl":"Equip5201","cn":1,"pt":"GO","pr":24450},{"dy":26,"sl":2,"tp":"upn","vl":"57510","cn":16,"pt":"GO","pr":1600},{"dy":26,"sl":3,"tp":"uph","vl":"13933","cn":19,"pt":"GO","pr":1900},{"dy":26,"sl":4,"tp":"upn","vl":"63758","cn":22,"pt":"GO","pr":2200},{"dy":27,"sl":0,"tp":"fe","vl":"Equip5401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":27,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":27,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":27,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":27,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":28,"sl":0,"tp":"fe","vl":"Equip0102","cn":1,"pt":"GO","pr":5000},{"dy":28,"sl":1,"tp":"fe","vl":"Equip1102","cn":1,"pt":"GO","pr":24450},{"dy":28,"sl":2,"tp":"upn","vl":"78493","cn":16,"pt":"GO","pr":1600},{"dy":28,"sl":3,"tp":"uph","vl":"65706","cn":19,"pt":"GO","pr":1900},{"dy":28,"sl":4,"tp":"upn","vl":"40322","cn":22,"pt":"GO","pr":2200},{"dy":29,"sl":0,"tp":"fe","vl":"Equip6401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":29,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30}</v>
       </c>
       <c r="Q199" t="str">
-        <f t="shared" si="22"/>
-        <v/>
+        <f t="shared" ca="1" si="22"/>
+        <v>{"dy":29,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30}</v>
       </c>
     </row>
     <row r="200" spans="1:17">
@@ -21081,15 +21700,18 @@
         <v>2</v>
       </c>
       <c r="C200">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
+      <c r="D200" t="s">
+        <v>98</v>
+      </c>
       <c r="E200" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
+        <f t="shared" ca="1" si="25"/>
+        <v>bh</v>
       </c>
       <c r="F200" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="H200" t="str">
@@ -21106,13 +21728,28 @@
 "")))))</f>
         <v/>
       </c>
+      <c r="I200">
+        <v>1</v>
+      </c>
+      <c r="K200" t="s">
+        <v>76</v>
+      </c>
+      <c r="M200">
+        <v>120</v>
+      </c>
+      <c r="N200">
+        <v>70</v>
+      </c>
+      <c r="O200">
+        <v>1</v>
+      </c>
       <c r="P200" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":22,"sl":0,"tp":"fe","vl":"Equip8001","cn":1,"pt":"GO","pr":5000},{"dy":22,"sl":1,"tp":"fe","vl":"Equip7102","cn":1,"pt":"GO","pr":24450},{"dy":22,"sl":2,"tp":"upn","vl":"44408","cn":16,"pt":"GO","pr":1600},{"dy":22,"sl":3,"tp":"uph","vl":"63155","cn":19,"pt":"GO","pr":1900},{"dy":22,"sl":4,"tp":"upn","vl":"38771","cn":22,"pt":"GO","pr":2200},{"dy":23,"sl":0,"tp":"fe","vl":"Equip0402","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":23,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":23,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":23,"sl":3,"tp":"upn","vl":"44055","cn":16,"pt":"GO","pr":1600},{"dy":23,"sl":4,"tp":"uph","vl":"48761","cn":18,"pt":"GO","pr":1800},{"dy":23,"sl":5,"tp":"fp","vl":"Actor1216","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":23,"sl":6,"tp":"upn","vl":"78946","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":24,"sl":0,"tp":"fe","vl":"Equip7101","cn":1,"pt":"GO","pr":5000},{"dy":24,"sl":1,"tp":"fe","vl":"Equip6101","cn":1,"pt":"GO","pr":24450},{"dy":24,"sl":2,"tp":"upn","vl":"54180","cn":16,"pt":"GO","pr":1600},{"dy":24,"sl":3,"tp":"uph","vl":"11504","cn":19,"pt":"GO","pr":1900},{"dy":24,"sl":4,"tp":"upn","vl":"18718","cn":22,"pt":"GO","pr":2200},{"dy":25,"sl":0,"tp":"fe","vl":"Equip3401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":25,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":25,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":25,"sl":3,"tp":"upn","vl":"94114","cn":16,"pt":"GO","pr":1600},{"dy":25,"sl":4,"tp":"uph","vl":"67435","cn":18,"pt":"GO","pr":1800},{"dy":25,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":25,"sl":6,"tp":"upn","vl":"43788","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":26,"sl":0,"tp":"fe","vl":"Equip4001","cn":1,"pt":"GO","pr":5000},{"dy":26,"sl":1,"tp":"fe","vl":"Equip5201","cn":1,"pt":"GO","pr":24450},{"dy":26,"sl":2,"tp":"upn","vl":"57510","cn":16,"pt":"GO","pr":1600},{"dy":26,"sl":3,"tp":"uph","vl":"13933","cn":19,"pt":"GO","pr":1900},{"dy":26,"sl":4,"tp":"upn","vl":"63758","cn":22,"pt":"GO","pr":2200},{"dy":27,"sl":0,"tp":"fe","vl":"Equip5401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":27,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":27,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":27,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":27,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":28,"sl":0,"tp":"fe","vl":"Equip0102","cn":1,"pt":"GO","pr":5000},{"dy":28,"sl":1,"tp":"fe","vl":"Equip1102","cn":1,"pt":"GO","pr":24450},{"dy":28,"sl":2,"tp":"upn","vl":"78493","cn":16,"pt":"GO","pr":1600},{"dy":28,"sl":3,"tp":"uph","vl":"65706","cn":19,"pt":"GO","pr":1900},{"dy":28,"sl":4,"tp":"upn","vl":"40322","cn":22,"pt":"GO","pr":2200},{"dy":29,"sl":0,"tp":"fe","vl":"Equip6401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":29,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":29,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70}</v>
       </c>
       <c r="Q200" t="str">
-        <f t="shared" si="22"/>
-        <v/>
+        <f t="shared" ca="1" si="22"/>
+        <v>{"dy":29,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70}</v>
       </c>
     </row>
     <row r="201" spans="1:17">
@@ -21123,16 +21760,22 @@
         <v>3</v>
       </c>
       <c r="C201">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
+      <c r="D201" t="s">
+        <v>106</v>
+      </c>
       <c r="E201" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
+        <f t="shared" ca="1" si="25"/>
+        <v>upn</v>
       </c>
       <c r="F201" t="str">
-        <f t="shared" si="23"/>
-        <v/>
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="G201">
+        <v>70045</v>
       </c>
       <c r="H201" t="str">
         <f>IF(OR(
@@ -21148,13 +21791,25 @@
 "")))))</f>
         <v/>
       </c>
+      <c r="I201">
+        <v>16</v>
+      </c>
+      <c r="K201" t="s">
+        <v>73</v>
+      </c>
+      <c r="N201">
+        <v>1600</v>
+      </c>
+      <c r="O201">
+        <v>1</v>
+      </c>
       <c r="P201" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":22,"sl":0,"tp":"fe","vl":"Equip8001","cn":1,"pt":"GO","pr":5000},{"dy":22,"sl":1,"tp":"fe","vl":"Equip7102","cn":1,"pt":"GO","pr":24450},{"dy":22,"sl":2,"tp":"upn","vl":"44408","cn":16,"pt":"GO","pr":1600},{"dy":22,"sl":3,"tp":"uph","vl":"63155","cn":19,"pt":"GO","pr":1900},{"dy":22,"sl":4,"tp":"upn","vl":"38771","cn":22,"pt":"GO","pr":2200},{"dy":23,"sl":0,"tp":"fe","vl":"Equip0402","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":23,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":23,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":23,"sl":3,"tp":"upn","vl":"44055","cn":16,"pt":"GO","pr":1600},{"dy":23,"sl":4,"tp":"uph","vl":"48761","cn":18,"pt":"GO","pr":1800},{"dy":23,"sl":5,"tp":"fp","vl":"Actor1216","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":23,"sl":6,"tp":"upn","vl":"78946","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":24,"sl":0,"tp":"fe","vl":"Equip7101","cn":1,"pt":"GO","pr":5000},{"dy":24,"sl":1,"tp":"fe","vl":"Equip6101","cn":1,"pt":"GO","pr":24450},{"dy":24,"sl":2,"tp":"upn","vl":"54180","cn":16,"pt":"GO","pr":1600},{"dy":24,"sl":3,"tp":"uph","vl":"11504","cn":19,"pt":"GO","pr":1900},{"dy":24,"sl":4,"tp":"upn","vl":"18718","cn":22,"pt":"GO","pr":2200},{"dy":25,"sl":0,"tp":"fe","vl":"Equip3401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":25,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":25,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":25,"sl":3,"tp":"upn","vl":"94114","cn":16,"pt":"GO","pr":1600},{"dy":25,"sl":4,"tp":"uph","vl":"67435","cn":18,"pt":"GO","pr":1800},{"dy":25,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":25,"sl":6,"tp":"upn","vl":"43788","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":26,"sl":0,"tp":"fe","vl":"Equip4001","cn":1,"pt":"GO","pr":5000},{"dy":26,"sl":1,"tp":"fe","vl":"Equip5201","cn":1,"pt":"GO","pr":24450},{"dy":26,"sl":2,"tp":"upn","vl":"57510","cn":16,"pt":"GO","pr":1600},{"dy":26,"sl":3,"tp":"uph","vl":"13933","cn":19,"pt":"GO","pr":1900},{"dy":26,"sl":4,"tp":"upn","vl":"63758","cn":22,"pt":"GO","pr":2200},{"dy":27,"sl":0,"tp":"fe","vl":"Equip5401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":27,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":27,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":27,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":27,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":28,"sl":0,"tp":"fe","vl":"Equip0102","cn":1,"pt":"GO","pr":5000},{"dy":28,"sl":1,"tp":"fe","vl":"Equip1102","cn":1,"pt":"GO","pr":24450},{"dy":28,"sl":2,"tp":"upn","vl":"78493","cn":16,"pt":"GO","pr":1600},{"dy":28,"sl":3,"tp":"uph","vl":"65706","cn":19,"pt":"GO","pr":1900},{"dy":28,"sl":4,"tp":"upn","vl":"40322","cn":22,"pt":"GO","pr":2200},{"dy":29,"sl":0,"tp":"fe","vl":"Equip6401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":29,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":29,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":29,"sl":3,"tp":"upn","vl":"70045","cn":16,"pt":"GO","pr":1600}</v>
       </c>
       <c r="Q201" t="str">
-        <f t="shared" si="22"/>
-        <v/>
+        <f t="shared" ca="1" si="22"/>
+        <v>{"dy":29,"sl":3,"tp":"upn","vl":"70045","cn":16,"pt":"GO","pr":1600}</v>
       </c>
     </row>
     <row r="202" spans="1:17">
@@ -21165,16 +21820,22 @@
         <v>4</v>
       </c>
       <c r="C202">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
+      <c r="D202" t="s">
+        <v>105</v>
+      </c>
       <c r="E202" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
+        <f t="shared" ca="1" si="25"/>
+        <v>uph</v>
       </c>
       <c r="F202" t="str">
-        <f t="shared" si="23"/>
-        <v/>
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="G202">
+        <v>35320</v>
       </c>
       <c r="H202" t="str">
         <f>IF(OR(
@@ -21190,13 +21851,25 @@
 "")))))</f>
         <v/>
       </c>
+      <c r="I202">
+        <v>18</v>
+      </c>
+      <c r="K202" t="s">
+        <v>73</v>
+      </c>
+      <c r="N202">
+        <v>1800</v>
+      </c>
+      <c r="O202">
+        <v>1</v>
+      </c>
       <c r="P202" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":22,"sl":0,"tp":"fe","vl":"Equip8001","cn":1,"pt":"GO","pr":5000},{"dy":22,"sl":1,"tp":"fe","vl":"Equip7102","cn":1,"pt":"GO","pr":24450},{"dy":22,"sl":2,"tp":"upn","vl":"44408","cn":16,"pt":"GO","pr":1600},{"dy":22,"sl":3,"tp":"uph","vl":"63155","cn":19,"pt":"GO","pr":1900},{"dy":22,"sl":4,"tp":"upn","vl":"38771","cn":22,"pt":"GO","pr":2200},{"dy":23,"sl":0,"tp":"fe","vl":"Equip0402","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":23,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":23,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":23,"sl":3,"tp":"upn","vl":"44055","cn":16,"pt":"GO","pr":1600},{"dy":23,"sl":4,"tp":"uph","vl":"48761","cn":18,"pt":"GO","pr":1800},{"dy":23,"sl":5,"tp":"fp","vl":"Actor1216","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":23,"sl":6,"tp":"upn","vl":"78946","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":24,"sl":0,"tp":"fe","vl":"Equip7101","cn":1,"pt":"GO","pr":5000},{"dy":24,"sl":1,"tp":"fe","vl":"Equip6101","cn":1,"pt":"GO","pr":24450},{"dy":24,"sl":2,"tp":"upn","vl":"54180","cn":16,"pt":"GO","pr":1600},{"dy":24,"sl":3,"tp":"uph","vl":"11504","cn":19,"pt":"GO","pr":1900},{"dy":24,"sl":4,"tp":"upn","vl":"18718","cn":22,"pt":"GO","pr":2200},{"dy":25,"sl":0,"tp":"fe","vl":"Equip3401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":25,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":25,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":25,"sl":3,"tp":"upn","vl":"94114","cn":16,"pt":"GO","pr":1600},{"dy":25,"sl":4,"tp":"uph","vl":"67435","cn":18,"pt":"GO","pr":1800},{"dy":25,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":25,"sl":6,"tp":"upn","vl":"43788","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":26,"sl":0,"tp":"fe","vl":"Equip4001","cn":1,"pt":"GO","pr":5000},{"dy":26,"sl":1,"tp":"fe","vl":"Equip5201","cn":1,"pt":"GO","pr":24450},{"dy":26,"sl":2,"tp":"upn","vl":"57510","cn":16,"pt":"GO","pr":1600},{"dy":26,"sl":3,"tp":"uph","vl":"13933","cn":19,"pt":"GO","pr":1900},{"dy":26,"sl":4,"tp":"upn","vl":"63758","cn":22,"pt":"GO","pr":2200},{"dy":27,"sl":0,"tp":"fe","vl":"Equip5401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":27,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":27,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":27,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":27,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":28,"sl":0,"tp":"fe","vl":"Equip0102","cn":1,"pt":"GO","pr":5000},{"dy":28,"sl":1,"tp":"fe","vl":"Equip1102","cn":1,"pt":"GO","pr":24450},{"dy":28,"sl":2,"tp":"upn","vl":"78493","cn":16,"pt":"GO","pr":1600},{"dy":28,"sl":3,"tp":"uph","vl":"65706","cn":19,"pt":"GO","pr":1900},{"dy":28,"sl":4,"tp":"upn","vl":"40322","cn":22,"pt":"GO","pr":2200},{"dy":29,"sl":0,"tp":"fe","vl":"Equip6401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":29,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":29,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":29,"sl":3,"tp":"upn","vl":"70045","cn":16,"pt":"GO","pr":1600},{"dy":29,"sl":4,"tp":"uph","vl":"35320","cn":18,"pt":"GO","pr":1800}</v>
       </c>
       <c r="Q202" t="str">
-        <f t="shared" si="22"/>
-        <v/>
+        <f t="shared" ca="1" si="22"/>
+        <v>{"dy":29,"sl":4,"tp":"uph","vl":"35320","cn":18,"pt":"GO","pr":1800}</v>
       </c>
     </row>
     <row r="203" spans="1:17">
@@ -21207,16 +21880,22 @@
         <v>5</v>
       </c>
       <c r="C203">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
+      <c r="D203" t="s">
+        <v>100</v>
+      </c>
       <c r="E203" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
+        <f t="shared" ca="1" si="25"/>
+        <v>fp</v>
       </c>
       <c r="F203" t="str">
-        <f t="shared" si="23"/>
-        <v/>
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="G203" t="s">
+        <v>149</v>
       </c>
       <c r="H203" t="str">
         <f>IF(OR(
@@ -21230,15 +21909,30 @@
 IF(NOT(ISERROR(FIND("캐릭터",D203))),
   IFERROR(VLOOKUP(G203,[2]ActorTable!$A:$G,MATCH("이름참고",[2]ActorTable!$1:$1,0),0),"캐릭터없음"),
 "")))))</f>
-        <v/>
+        <v>데몬헌트리스</v>
+      </c>
+      <c r="I203">
+        <v>140</v>
+      </c>
+      <c r="K203" t="s">
+        <v>76</v>
+      </c>
+      <c r="M203">
+        <v>340</v>
+      </c>
+      <c r="N203">
+        <v>120</v>
+      </c>
+      <c r="O203">
+        <v>1</v>
       </c>
       <c r="P203" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":22,"sl":0,"tp":"fe","vl":"Equip8001","cn":1,"pt":"GO","pr":5000},{"dy":22,"sl":1,"tp":"fe","vl":"Equip7102","cn":1,"pt":"GO","pr":24450},{"dy":22,"sl":2,"tp":"upn","vl":"44408","cn":16,"pt":"GO","pr":1600},{"dy":22,"sl":3,"tp":"uph","vl":"63155","cn":19,"pt":"GO","pr":1900},{"dy":22,"sl":4,"tp":"upn","vl":"38771","cn":22,"pt":"GO","pr":2200},{"dy":23,"sl":0,"tp":"fe","vl":"Equip0402","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":23,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":23,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":23,"sl":3,"tp":"upn","vl":"44055","cn":16,"pt":"GO","pr":1600},{"dy":23,"sl":4,"tp":"uph","vl":"48761","cn":18,"pt":"GO","pr":1800},{"dy":23,"sl":5,"tp":"fp","vl":"Actor1216","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":23,"sl":6,"tp":"upn","vl":"78946","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":24,"sl":0,"tp":"fe","vl":"Equip7101","cn":1,"pt":"GO","pr":5000},{"dy":24,"sl":1,"tp":"fe","vl":"Equip6101","cn":1,"pt":"GO","pr":24450},{"dy":24,"sl":2,"tp":"upn","vl":"54180","cn":16,"pt":"GO","pr":1600},{"dy":24,"sl":3,"tp":"uph","vl":"11504","cn":19,"pt":"GO","pr":1900},{"dy":24,"sl":4,"tp":"upn","vl":"18718","cn":22,"pt":"GO","pr":2200},{"dy":25,"sl":0,"tp":"fe","vl":"Equip3401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":25,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":25,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":25,"sl":3,"tp":"upn","vl":"94114","cn":16,"pt":"GO","pr":1600},{"dy":25,"sl":4,"tp":"uph","vl":"67435","cn":18,"pt":"GO","pr":1800},{"dy":25,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":25,"sl":6,"tp":"upn","vl":"43788","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":26,"sl":0,"tp":"fe","vl":"Equip4001","cn":1,"pt":"GO","pr":5000},{"dy":26,"sl":1,"tp":"fe","vl":"Equip5201","cn":1,"pt":"GO","pr":24450},{"dy":26,"sl":2,"tp":"upn","vl":"57510","cn":16,"pt":"GO","pr":1600},{"dy":26,"sl":3,"tp":"uph","vl":"13933","cn":19,"pt":"GO","pr":1900},{"dy":26,"sl":4,"tp":"upn","vl":"63758","cn":22,"pt":"GO","pr":2200},{"dy":27,"sl":0,"tp":"fe","vl":"Equip5401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":27,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":27,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":27,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":27,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":28,"sl":0,"tp":"fe","vl":"Equip0102","cn":1,"pt":"GO","pr":5000},{"dy":28,"sl":1,"tp":"fe","vl":"Equip1102","cn":1,"pt":"GO","pr":24450},{"dy":28,"sl":2,"tp":"upn","vl":"78493","cn":16,"pt":"GO","pr":1600},{"dy":28,"sl":3,"tp":"uph","vl":"65706","cn":19,"pt":"GO","pr":1900},{"dy":28,"sl":4,"tp":"upn","vl":"40322","cn":22,"pt":"GO","pr":2200},{"dy":29,"sl":0,"tp":"fe","vl":"Equip6401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":29,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":29,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":29,"sl":3,"tp":"upn","vl":"70045","cn":16,"pt":"GO","pr":1600},{"dy":29,"sl":4,"tp":"uph","vl":"35320","cn":18,"pt":"GO","pr":1800},{"dy":29,"sl":5,"tp":"fp","vl":"Actor1226","cn":140,"pt":"DI","pp":340,"pr":120}</v>
       </c>
       <c r="Q203" t="str">
-        <f t="shared" si="22"/>
-        <v/>
+        <f t="shared" ca="1" si="22"/>
+        <v>{"dy":29,"sl":5,"tp":"fp","vl":"Actor1226","cn":140,"pt":"DI","pp":340,"pr":120}</v>
       </c>
     </row>
     <row r="204" spans="1:17">
@@ -21249,16 +21943,22 @@
         <v>6</v>
       </c>
       <c r="C204">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
+      <c r="D204" t="s">
+        <v>106</v>
+      </c>
       <c r="E204" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
+        <f t="shared" ca="1" si="25"/>
+        <v>upn</v>
       </c>
       <c r="F204" t="str">
-        <f t="shared" si="23"/>
-        <v/>
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="G204">
+        <v>58062</v>
       </c>
       <c r="H204" t="str">
         <f>IF(OR(
@@ -21274,13 +21974,28 @@
 "")))))</f>
         <v/>
       </c>
+      <c r="I204">
+        <v>154</v>
+      </c>
+      <c r="K204" t="s">
+        <v>76</v>
+      </c>
+      <c r="M204">
+        <v>130</v>
+      </c>
+      <c r="N204">
+        <v>16</v>
+      </c>
+      <c r="O204">
+        <v>1</v>
+      </c>
       <c r="P204" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":22,"sl":0,"tp":"fe","vl":"Equip8001","cn":1,"pt":"GO","pr":5000},{"dy":22,"sl":1,"tp":"fe","vl":"Equip7102","cn":1,"pt":"GO","pr":24450},{"dy":22,"sl":2,"tp":"upn","vl":"44408","cn":16,"pt":"GO","pr":1600},{"dy":22,"sl":3,"tp":"uph","vl":"63155","cn":19,"pt":"GO","pr":1900},{"dy":22,"sl":4,"tp":"upn","vl":"38771","cn":22,"pt":"GO","pr":2200},{"dy":23,"sl":0,"tp":"fe","vl":"Equip0402","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":23,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":23,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":23,"sl":3,"tp":"upn","vl":"44055","cn":16,"pt":"GO","pr":1600},{"dy":23,"sl":4,"tp":"uph","vl":"48761","cn":18,"pt":"GO","pr":1800},{"dy":23,"sl":5,"tp":"fp","vl":"Actor1216","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":23,"sl":6,"tp":"upn","vl":"78946","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":24,"sl":0,"tp":"fe","vl":"Equip7101","cn":1,"pt":"GO","pr":5000},{"dy":24,"sl":1,"tp":"fe","vl":"Equip6101","cn":1,"pt":"GO","pr":24450},{"dy":24,"sl":2,"tp":"upn","vl":"54180","cn":16,"pt":"GO","pr":1600},{"dy":24,"sl":3,"tp":"uph","vl":"11504","cn":19,"pt":"GO","pr":1900},{"dy":24,"sl":4,"tp":"upn","vl":"18718","cn":22,"pt":"GO","pr":2200},{"dy":25,"sl":0,"tp":"fe","vl":"Equip3401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":25,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":25,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":25,"sl":3,"tp":"upn","vl":"94114","cn":16,"pt":"GO","pr":1600},{"dy":25,"sl":4,"tp":"uph","vl":"67435","cn":18,"pt":"GO","pr":1800},{"dy":25,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":25,"sl":6,"tp":"upn","vl":"43788","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":26,"sl":0,"tp":"fe","vl":"Equip4001","cn":1,"pt":"GO","pr":5000},{"dy":26,"sl":1,"tp":"fe","vl":"Equip5201","cn":1,"pt":"GO","pr":24450},{"dy":26,"sl":2,"tp":"upn","vl":"57510","cn":16,"pt":"GO","pr":1600},{"dy":26,"sl":3,"tp":"uph","vl":"13933","cn":19,"pt":"GO","pr":1900},{"dy":26,"sl":4,"tp":"upn","vl":"63758","cn":22,"pt":"GO","pr":2200},{"dy":27,"sl":0,"tp":"fe","vl":"Equip5401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":27,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":27,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":27,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":27,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":28,"sl":0,"tp":"fe","vl":"Equip0102","cn":1,"pt":"GO","pr":5000},{"dy":28,"sl":1,"tp":"fe","vl":"Equip1102","cn":1,"pt":"GO","pr":24450},{"dy":28,"sl":2,"tp":"upn","vl":"78493","cn":16,"pt":"GO","pr":1600},{"dy":28,"sl":3,"tp":"uph","vl":"65706","cn":19,"pt":"GO","pr":1900},{"dy":28,"sl":4,"tp":"upn","vl":"40322","cn":22,"pt":"GO","pr":2200},{"dy":29,"sl":0,"tp":"fe","vl":"Equip6401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":29,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":29,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":29,"sl":3,"tp":"upn","vl":"70045","cn":16,"pt":"GO","pr":1600},{"dy":29,"sl":4,"tp":"uph","vl":"35320","cn":18,"pt":"GO","pr":1800},{"dy":29,"sl":5,"tp":"fp","vl":"Actor1226","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":29,"sl":6,"tp":"upn","vl":"58062","cn":154,"pt":"DI","pp":130,"pr":16}</v>
       </c>
       <c r="Q204" t="str">
-        <f t="shared" si="22"/>
-        <v/>
+        <f t="shared" ca="1" si="22"/>
+        <v>{"dy":29,"sl":6,"tp":"upn","vl":"58062","cn":154,"pt":"DI","pp":130,"pr":16}</v>
       </c>
     </row>
     <row r="205" spans="1:17">
@@ -21291,19 +22006,25 @@
         <v>0</v>
       </c>
       <c r="C205">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
+      <c r="D205" t="s">
+        <v>96</v>
+      </c>
       <c r="E205" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
+        <f t="shared" ca="1" si="25"/>
+        <v>fe</v>
       </c>
       <c r="F205" t="str">
-        <f t="shared" si="23"/>
-        <v/>
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="G205" t="s">
+        <v>161</v>
       </c>
       <c r="H205" t="str">
-        <f>IF(OR(
+        <f ca="1">IF(OR(
   AND(NOT(ISERROR(FIND("상자",D205))),ISBLANK(G205)),
   AND(ISBLANK(D205),ISBLANK(G205)),
   AND(NOT(ISERROR(FIND("안 지정",D205))),ISNUMBER(G205))),"",
@@ -21314,15 +22035,27 @@
 IF(NOT(ISERROR(FIND("캐릭터",D205))),
   IFERROR(VLOOKUP(G205,[2]ActorTable!$A:$G,MATCH("이름참고",[2]ActorTable!$1:$1,0),0),"캐릭터없음"),
 "")))))</f>
-        <v/>
+        <v>헤비 메이스</v>
+      </c>
+      <c r="I205">
+        <v>1</v>
+      </c>
+      <c r="K205" t="s">
+        <v>73</v>
+      </c>
+      <c r="N205">
+        <v>5000</v>
+      </c>
+      <c r="O205">
+        <v>1</v>
       </c>
       <c r="P205" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":22,"sl":0,"tp":"fe","vl":"Equip8001","cn":1,"pt":"GO","pr":5000},{"dy":22,"sl":1,"tp":"fe","vl":"Equip7102","cn":1,"pt":"GO","pr":24450},{"dy":22,"sl":2,"tp":"upn","vl":"44408","cn":16,"pt":"GO","pr":1600},{"dy":22,"sl":3,"tp":"uph","vl":"63155","cn":19,"pt":"GO","pr":1900},{"dy":22,"sl":4,"tp":"upn","vl":"38771","cn":22,"pt":"GO","pr":2200},{"dy":23,"sl":0,"tp":"fe","vl":"Equip0402","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":23,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":23,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":23,"sl":3,"tp":"upn","vl":"44055","cn":16,"pt":"GO","pr":1600},{"dy":23,"sl":4,"tp":"uph","vl":"48761","cn":18,"pt":"GO","pr":1800},{"dy":23,"sl":5,"tp":"fp","vl":"Actor1216","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":23,"sl":6,"tp":"upn","vl":"78946","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":24,"sl":0,"tp":"fe","vl":"Equip7101","cn":1,"pt":"GO","pr":5000},{"dy":24,"sl":1,"tp":"fe","vl":"Equip6101","cn":1,"pt":"GO","pr":24450},{"dy":24,"sl":2,"tp":"upn","vl":"54180","cn":16,"pt":"GO","pr":1600},{"dy":24,"sl":3,"tp":"uph","vl":"11504","cn":19,"pt":"GO","pr":1900},{"dy":24,"sl":4,"tp":"upn","vl":"18718","cn":22,"pt":"GO","pr":2200},{"dy":25,"sl":0,"tp":"fe","vl":"Equip3401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":25,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":25,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":25,"sl":3,"tp":"upn","vl":"94114","cn":16,"pt":"GO","pr":1600},{"dy":25,"sl":4,"tp":"uph","vl":"67435","cn":18,"pt":"GO","pr":1800},{"dy":25,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":25,"sl":6,"tp":"upn","vl":"43788","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":26,"sl":0,"tp":"fe","vl":"Equip4001","cn":1,"pt":"GO","pr":5000},{"dy":26,"sl":1,"tp":"fe","vl":"Equip5201","cn":1,"pt":"GO","pr":24450},{"dy":26,"sl":2,"tp":"upn","vl":"57510","cn":16,"pt":"GO","pr":1600},{"dy":26,"sl":3,"tp":"uph","vl":"13933","cn":19,"pt":"GO","pr":1900},{"dy":26,"sl":4,"tp":"upn","vl":"63758","cn":22,"pt":"GO","pr":2200},{"dy":27,"sl":0,"tp":"fe","vl":"Equip5401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":27,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":27,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":27,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":27,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":28,"sl":0,"tp":"fe","vl":"Equip0102","cn":1,"pt":"GO","pr":5000},{"dy":28,"sl":1,"tp":"fe","vl":"Equip1102","cn":1,"pt":"GO","pr":24450},{"dy":28,"sl":2,"tp":"upn","vl":"78493","cn":16,"pt":"GO","pr":1600},{"dy":28,"sl":3,"tp":"uph","vl":"65706","cn":19,"pt":"GO","pr":1900},{"dy":28,"sl":4,"tp":"upn","vl":"40322","cn":22,"pt":"GO","pr":2200},{"dy":29,"sl":0,"tp":"fe","vl":"Equip6401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":29,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":29,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":29,"sl":3,"tp":"upn","vl":"70045","cn":16,"pt":"GO","pr":1600},{"dy":29,"sl":4,"tp":"uph","vl":"35320","cn":18,"pt":"GO","pr":1800},{"dy":29,"sl":5,"tp":"fp","vl":"Actor1226","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":29,"sl":6,"tp":"upn","vl":"58062","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":30,"sl":0,"tp":"fe","vl":"Equip4102","cn":1,"pt":"GO","pr":5000}</v>
       </c>
       <c r="Q205" t="str">
-        <f t="shared" si="22"/>
-        <v/>
+        <f t="shared" ca="1" si="22"/>
+        <v>{"dy":30,"sl":0,"tp":"fe","vl":"Equip4102","cn":1,"pt":"GO","pr":5000}</v>
       </c>
     </row>
     <row r="206" spans="1:17">
@@ -21333,19 +22066,25 @@
         <v>1</v>
       </c>
       <c r="C206">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
+      <c r="D206" t="s">
+        <v>96</v>
+      </c>
       <c r="E206" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
+        <f t="shared" ca="1" si="25"/>
+        <v>fe</v>
       </c>
       <c r="F206" t="str">
-        <f t="shared" si="23"/>
-        <v/>
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="G206" t="s">
+        <v>139</v>
       </c>
       <c r="H206" t="str">
-        <f>IF(OR(
+        <f ca="1">IF(OR(
   AND(NOT(ISERROR(FIND("상자",D206))),ISBLANK(G206)),
   AND(ISBLANK(D206),ISBLANK(G206)),
   AND(NOT(ISERROR(FIND("안 지정",D206))),ISNUMBER(G206))),"",
@@ -21356,15 +22095,27 @@
 IF(NOT(ISERROR(FIND("캐릭터",D206))),
   IFERROR(VLOOKUP(G206,[2]ActorTable!$A:$G,MATCH("이름참고",[2]ActorTable!$1:$1,0),0),"캐릭터없음"),
 "")))))</f>
-        <v/>
+        <v>밀리 마체테</v>
+      </c>
+      <c r="I206">
+        <v>1</v>
+      </c>
+      <c r="K206" t="s">
+        <v>73</v>
+      </c>
+      <c r="N206">
+        <v>24450</v>
+      </c>
+      <c r="O206">
+        <v>1</v>
       </c>
       <c r="P206" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":22,"sl":0,"tp":"fe","vl":"Equip8001","cn":1,"pt":"GO","pr":5000},{"dy":22,"sl":1,"tp":"fe","vl":"Equip7102","cn":1,"pt":"GO","pr":24450},{"dy":22,"sl":2,"tp":"upn","vl":"44408","cn":16,"pt":"GO","pr":1600},{"dy":22,"sl":3,"tp":"uph","vl":"63155","cn":19,"pt":"GO","pr":1900},{"dy":22,"sl":4,"tp":"upn","vl":"38771","cn":22,"pt":"GO","pr":2200},{"dy":23,"sl":0,"tp":"fe","vl":"Equip0402","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":23,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":23,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":23,"sl":3,"tp":"upn","vl":"44055","cn":16,"pt":"GO","pr":1600},{"dy":23,"sl":4,"tp":"uph","vl":"48761","cn":18,"pt":"GO","pr":1800},{"dy":23,"sl":5,"tp":"fp","vl":"Actor1216","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":23,"sl":6,"tp":"upn","vl":"78946","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":24,"sl":0,"tp":"fe","vl":"Equip7101","cn":1,"pt":"GO","pr":5000},{"dy":24,"sl":1,"tp":"fe","vl":"Equip6101","cn":1,"pt":"GO","pr":24450},{"dy":24,"sl":2,"tp":"upn","vl":"54180","cn":16,"pt":"GO","pr":1600},{"dy":24,"sl":3,"tp":"uph","vl":"11504","cn":19,"pt":"GO","pr":1900},{"dy":24,"sl":4,"tp":"upn","vl":"18718","cn":22,"pt":"GO","pr":2200},{"dy":25,"sl":0,"tp":"fe","vl":"Equip3401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":25,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":25,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":25,"sl":3,"tp":"upn","vl":"94114","cn":16,"pt":"GO","pr":1600},{"dy":25,"sl":4,"tp":"uph","vl":"67435","cn":18,"pt":"GO","pr":1800},{"dy":25,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":25,"sl":6,"tp":"upn","vl":"43788","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":26,"sl":0,"tp":"fe","vl":"Equip4001","cn":1,"pt":"GO","pr":5000},{"dy":26,"sl":1,"tp":"fe","vl":"Equip5201","cn":1,"pt":"GO","pr":24450},{"dy":26,"sl":2,"tp":"upn","vl":"57510","cn":16,"pt":"GO","pr":1600},{"dy":26,"sl":3,"tp":"uph","vl":"13933","cn":19,"pt":"GO","pr":1900},{"dy":26,"sl":4,"tp":"upn","vl":"63758","cn":22,"pt":"GO","pr":2200},{"dy":27,"sl":0,"tp":"fe","vl":"Equip5401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":27,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":27,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":27,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":27,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":28,"sl":0,"tp":"fe","vl":"Equip0102","cn":1,"pt":"GO","pr":5000},{"dy":28,"sl":1,"tp":"fe","vl":"Equip1102","cn":1,"pt":"GO","pr":24450},{"dy":28,"sl":2,"tp":"upn","vl":"78493","cn":16,"pt":"GO","pr":1600},{"dy":28,"sl":3,"tp":"uph","vl":"65706","cn":19,"pt":"GO","pr":1900},{"dy":28,"sl":4,"tp":"upn","vl":"40322","cn":22,"pt":"GO","pr":2200},{"dy":29,"sl":0,"tp":"fe","vl":"Equip6401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":29,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":29,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":29,"sl":3,"tp":"upn","vl":"70045","cn":16,"pt":"GO","pr":1600},{"dy":29,"sl":4,"tp":"uph","vl":"35320","cn":18,"pt":"GO","pr":1800},{"dy":29,"sl":5,"tp":"fp","vl":"Actor1226","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":29,"sl":6,"tp":"upn","vl":"58062","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":30,"sl":0,"tp":"fe","vl":"Equip4102","cn":1,"pt":"GO","pr":5000},{"dy":30,"sl":1,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":24450}</v>
       </c>
       <c r="Q206" t="str">
-        <f t="shared" si="22"/>
-        <v/>
+        <f t="shared" ca="1" si="22"/>
+        <v>{"dy":30,"sl":1,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":24450}</v>
       </c>
     </row>
     <row r="207" spans="1:17">
@@ -21375,16 +22126,22 @@
         <v>2</v>
       </c>
       <c r="C207">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
+      <c r="D207" t="s">
+        <v>106</v>
+      </c>
       <c r="E207" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
+        <f t="shared" ca="1" si="25"/>
+        <v>upn</v>
       </c>
       <c r="F207" t="str">
-        <f t="shared" si="23"/>
-        <v/>
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="G207">
+        <v>23308</v>
       </c>
       <c r="H207" t="str">
         <f>IF(OR(
@@ -21400,13 +22157,25 @@
 "")))))</f>
         <v/>
       </c>
+      <c r="I207">
+        <v>16</v>
+      </c>
+      <c r="K207" t="s">
+        <v>73</v>
+      </c>
+      <c r="N207">
+        <v>1600</v>
+      </c>
+      <c r="O207">
+        <v>1</v>
+      </c>
       <c r="P207" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":22,"sl":0,"tp":"fe","vl":"Equip8001","cn":1,"pt":"GO","pr":5000},{"dy":22,"sl":1,"tp":"fe","vl":"Equip7102","cn":1,"pt":"GO","pr":24450},{"dy":22,"sl":2,"tp":"upn","vl":"44408","cn":16,"pt":"GO","pr":1600},{"dy":22,"sl":3,"tp":"uph","vl":"63155","cn":19,"pt":"GO","pr":1900},{"dy":22,"sl":4,"tp":"upn","vl":"38771","cn":22,"pt":"GO","pr":2200},{"dy":23,"sl":0,"tp":"fe","vl":"Equip0402","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":23,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":23,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":23,"sl":3,"tp":"upn","vl":"44055","cn":16,"pt":"GO","pr":1600},{"dy":23,"sl":4,"tp":"uph","vl":"48761","cn":18,"pt":"GO","pr":1800},{"dy":23,"sl":5,"tp":"fp","vl":"Actor1216","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":23,"sl":6,"tp":"upn","vl":"78946","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":24,"sl":0,"tp":"fe","vl":"Equip7101","cn":1,"pt":"GO","pr":5000},{"dy":24,"sl":1,"tp":"fe","vl":"Equip6101","cn":1,"pt":"GO","pr":24450},{"dy":24,"sl":2,"tp":"upn","vl":"54180","cn":16,"pt":"GO","pr":1600},{"dy":24,"sl":3,"tp":"uph","vl":"11504","cn":19,"pt":"GO","pr":1900},{"dy":24,"sl":4,"tp":"upn","vl":"18718","cn":22,"pt":"GO","pr":2200},{"dy":25,"sl":0,"tp":"fe","vl":"Equip3401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":25,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":25,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":25,"sl":3,"tp":"upn","vl":"94114","cn":16,"pt":"GO","pr":1600},{"dy":25,"sl":4,"tp":"uph","vl":"67435","cn":18,"pt":"GO","pr":1800},{"dy":25,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":25,"sl":6,"tp":"upn","vl":"43788","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":26,"sl":0,"tp":"fe","vl":"Equip4001","cn":1,"pt":"GO","pr":5000},{"dy":26,"sl":1,"tp":"fe","vl":"Equip5201","cn":1,"pt":"GO","pr":24450},{"dy":26,"sl":2,"tp":"upn","vl":"57510","cn":16,"pt":"GO","pr":1600},{"dy":26,"sl":3,"tp":"uph","vl":"13933","cn":19,"pt":"GO","pr":1900},{"dy":26,"sl":4,"tp":"upn","vl":"63758","cn":22,"pt":"GO","pr":2200},{"dy":27,"sl":0,"tp":"fe","vl":"Equip5401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":27,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":27,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":27,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":27,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":28,"sl":0,"tp":"fe","vl":"Equip0102","cn":1,"pt":"GO","pr":5000},{"dy":28,"sl":1,"tp":"fe","vl":"Equip1102","cn":1,"pt":"GO","pr":24450},{"dy":28,"sl":2,"tp":"upn","vl":"78493","cn":16,"pt":"GO","pr":1600},{"dy":28,"sl":3,"tp":"uph","vl":"65706","cn":19,"pt":"GO","pr":1900},{"dy":28,"sl":4,"tp":"upn","vl":"40322","cn":22,"pt":"GO","pr":2200},{"dy":29,"sl":0,"tp":"fe","vl":"Equip6401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":29,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":29,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":29,"sl":3,"tp":"upn","vl":"70045","cn":16,"pt":"GO","pr":1600},{"dy":29,"sl":4,"tp":"uph","vl":"35320","cn":18,"pt":"GO","pr":1800},{"dy":29,"sl":5,"tp":"fp","vl":"Actor1226","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":29,"sl":6,"tp":"upn","vl":"58062","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":30,"sl":0,"tp":"fe","vl":"Equip4102","cn":1,"pt":"GO","pr":5000},{"dy":30,"sl":1,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":24450},{"dy":30,"sl":2,"tp":"upn","vl":"23308","cn":16,"pt":"GO","pr":1600}</v>
       </c>
       <c r="Q207" t="str">
-        <f t="shared" si="22"/>
-        <v/>
+        <f t="shared" ca="1" si="22"/>
+        <v>{"dy":30,"sl":2,"tp":"upn","vl":"23308","cn":16,"pt":"GO","pr":1600}</v>
       </c>
     </row>
     <row r="208" spans="1:17">
@@ -21417,16 +22186,22 @@
         <v>3</v>
       </c>
       <c r="C208">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
+      <c r="D208" t="s">
+        <v>105</v>
+      </c>
       <c r="E208" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
+        <f t="shared" ca="1" si="25"/>
+        <v>uph</v>
       </c>
       <c r="F208" t="str">
-        <f t="shared" si="23"/>
-        <v/>
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="G208">
+        <v>50149</v>
       </c>
       <c r="H208" t="str">
         <f>IF(OR(
@@ -21442,13 +22217,25 @@
 "")))))</f>
         <v/>
       </c>
+      <c r="I208">
+        <v>19</v>
+      </c>
+      <c r="K208" t="s">
+        <v>73</v>
+      </c>
+      <c r="N208">
+        <v>1900</v>
+      </c>
+      <c r="O208">
+        <v>1</v>
+      </c>
       <c r="P208" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":22,"sl":0,"tp":"fe","vl":"Equip8001","cn":1,"pt":"GO","pr":5000},{"dy":22,"sl":1,"tp":"fe","vl":"Equip7102","cn":1,"pt":"GO","pr":24450},{"dy":22,"sl":2,"tp":"upn","vl":"44408","cn":16,"pt":"GO","pr":1600},{"dy":22,"sl":3,"tp":"uph","vl":"63155","cn":19,"pt":"GO","pr":1900},{"dy":22,"sl":4,"tp":"upn","vl":"38771","cn":22,"pt":"GO","pr":2200},{"dy":23,"sl":0,"tp":"fe","vl":"Equip0402","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":23,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":23,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":23,"sl":3,"tp":"upn","vl":"44055","cn":16,"pt":"GO","pr":1600},{"dy":23,"sl":4,"tp":"uph","vl":"48761","cn":18,"pt":"GO","pr":1800},{"dy":23,"sl":5,"tp":"fp","vl":"Actor1216","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":23,"sl":6,"tp":"upn","vl":"78946","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":24,"sl":0,"tp":"fe","vl":"Equip7101","cn":1,"pt":"GO","pr":5000},{"dy":24,"sl":1,"tp":"fe","vl":"Equip6101","cn":1,"pt":"GO","pr":24450},{"dy":24,"sl":2,"tp":"upn","vl":"54180","cn":16,"pt":"GO","pr":1600},{"dy":24,"sl":3,"tp":"uph","vl":"11504","cn":19,"pt":"GO","pr":1900},{"dy":24,"sl":4,"tp":"upn","vl":"18718","cn":22,"pt":"GO","pr":2200},{"dy":25,"sl":0,"tp":"fe","vl":"Equip3401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":25,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":25,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":25,"sl":3,"tp":"upn","vl":"94114","cn":16,"pt":"GO","pr":1600},{"dy":25,"sl":4,"tp":"uph","vl":"67435","cn":18,"pt":"GO","pr":1800},{"dy":25,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":25,"sl":6,"tp":"upn","vl":"43788","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":26,"sl":0,"tp":"fe","vl":"Equip4001","cn":1,"pt":"GO","pr":5000},{"dy":26,"sl":1,"tp":"fe","vl":"Equip5201","cn":1,"pt":"GO","pr":24450},{"dy":26,"sl":2,"tp":"upn","vl":"57510","cn":16,"pt":"GO","pr":1600},{"dy":26,"sl":3,"tp":"uph","vl":"13933","cn":19,"pt":"GO","pr":1900},{"dy":26,"sl":4,"tp":"upn","vl":"63758","cn":22,"pt":"GO","pr":2200},{"dy":27,"sl":0,"tp":"fe","vl":"Equip5401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":27,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":27,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":27,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":27,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":28,"sl":0,"tp":"fe","vl":"Equip0102","cn":1,"pt":"GO","pr":5000},{"dy":28,"sl":1,"tp":"fe","vl":"Equip1102","cn":1,"pt":"GO","pr":24450},{"dy":28,"sl":2,"tp":"upn","vl":"78493","cn":16,"pt":"GO","pr":1600},{"dy":28,"sl":3,"tp":"uph","vl":"65706","cn":19,"pt":"GO","pr":1900},{"dy":28,"sl":4,"tp":"upn","vl":"40322","cn":22,"pt":"GO","pr":2200},{"dy":29,"sl":0,"tp":"fe","vl":"Equip6401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":29,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":29,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":29,"sl":3,"tp":"upn","vl":"70045","cn":16,"pt":"GO","pr":1600},{"dy":29,"sl":4,"tp":"uph","vl":"35320","cn":18,"pt":"GO","pr":1800},{"dy":29,"sl":5,"tp":"fp","vl":"Actor1226","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":29,"sl":6,"tp":"upn","vl":"58062","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":30,"sl":0,"tp":"fe","vl":"Equip4102","cn":1,"pt":"GO","pr":5000},{"dy":30,"sl":1,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":24450},{"dy":30,"sl":2,"tp":"upn","vl":"23308","cn":16,"pt":"GO","pr":1600},{"dy":30,"sl":3,"tp":"uph","vl":"50149","cn":19,"pt":"GO","pr":1900}</v>
       </c>
       <c r="Q208" t="str">
-        <f t="shared" si="22"/>
-        <v/>
+        <f t="shared" ca="1" si="22"/>
+        <v>{"dy":30,"sl":3,"tp":"uph","vl":"50149","cn":19,"pt":"GO","pr":1900}</v>
       </c>
     </row>
     <row r="209" spans="1:17">
@@ -21459,16 +22246,22 @@
         <v>4</v>
       </c>
       <c r="C209">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
+      <c r="D209" t="s">
+        <v>106</v>
+      </c>
       <c r="E209" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
+        <f t="shared" ca="1" si="25"/>
+        <v>upn</v>
       </c>
       <c r="F209" t="str">
-        <f t="shared" si="23"/>
-        <v/>
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="G209">
+        <v>10989</v>
       </c>
       <c r="H209" t="str">
         <f>IF(OR(
@@ -21484,13 +22277,25 @@
 "")))))</f>
         <v/>
       </c>
+      <c r="I209">
+        <v>22</v>
+      </c>
+      <c r="K209" t="s">
+        <v>73</v>
+      </c>
+      <c r="N209">
+        <v>2200</v>
+      </c>
+      <c r="O209">
+        <v>1</v>
+      </c>
       <c r="P209" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":22,"sl":0,"tp":"fe","vl":"Equip8001","cn":1,"pt":"GO","pr":5000},{"dy":22,"sl":1,"tp":"fe","vl":"Equip7102","cn":1,"pt":"GO","pr":24450},{"dy":22,"sl":2,"tp":"upn","vl":"44408","cn":16,"pt":"GO","pr":1600},{"dy":22,"sl":3,"tp":"uph","vl":"63155","cn":19,"pt":"GO","pr":1900},{"dy":22,"sl":4,"tp":"upn","vl":"38771","cn":22,"pt":"GO","pr":2200},{"dy":23,"sl":0,"tp":"fe","vl":"Equip0402","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":23,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":23,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":23,"sl":3,"tp":"upn","vl":"44055","cn":16,"pt":"GO","pr":1600},{"dy":23,"sl":4,"tp":"uph","vl":"48761","cn":18,"pt":"GO","pr":1800},{"dy":23,"sl":5,"tp":"fp","vl":"Actor1216","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":23,"sl":6,"tp":"upn","vl":"78946","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":24,"sl":0,"tp":"fe","vl":"Equip7101","cn":1,"pt":"GO","pr":5000},{"dy":24,"sl":1,"tp":"fe","vl":"Equip6101","cn":1,"pt":"GO","pr":24450},{"dy":24,"sl":2,"tp":"upn","vl":"54180","cn":16,"pt":"GO","pr":1600},{"dy":24,"sl":3,"tp":"uph","vl":"11504","cn":19,"pt":"GO","pr":1900},{"dy":24,"sl":4,"tp":"upn","vl":"18718","cn":22,"pt":"GO","pr":2200},{"dy":25,"sl":0,"tp":"fe","vl":"Equip3401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":25,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":25,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":25,"sl":3,"tp":"upn","vl":"94114","cn":16,"pt":"GO","pr":1600},{"dy":25,"sl":4,"tp":"uph","vl":"67435","cn":18,"pt":"GO","pr":1800},{"dy":25,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":25,"sl":6,"tp":"upn","vl":"43788","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":26,"sl":0,"tp":"fe","vl":"Equip4001","cn":1,"pt":"GO","pr":5000},{"dy":26,"sl":1,"tp":"fe","vl":"Equip5201","cn":1,"pt":"GO","pr":24450},{"dy":26,"sl":2,"tp":"upn","vl":"57510","cn":16,"pt":"GO","pr":1600},{"dy":26,"sl":3,"tp":"uph","vl":"13933","cn":19,"pt":"GO","pr":1900},{"dy":26,"sl":4,"tp":"upn","vl":"63758","cn":22,"pt":"GO","pr":2200},{"dy":27,"sl":0,"tp":"fe","vl":"Equip5401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":27,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":27,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":27,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":27,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":28,"sl":0,"tp":"fe","vl":"Equip0102","cn":1,"pt":"GO","pr":5000},{"dy":28,"sl":1,"tp":"fe","vl":"Equip1102","cn":1,"pt":"GO","pr":24450},{"dy":28,"sl":2,"tp":"upn","vl":"78493","cn":16,"pt":"GO","pr":1600},{"dy":28,"sl":3,"tp":"uph","vl":"65706","cn":19,"pt":"GO","pr":1900},{"dy":28,"sl":4,"tp":"upn","vl":"40322","cn":22,"pt":"GO","pr":2200},{"dy":29,"sl":0,"tp":"fe","vl":"Equip6401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":29,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":29,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":29,"sl":3,"tp":"upn","vl":"70045","cn":16,"pt":"GO","pr":1600},{"dy":29,"sl":4,"tp":"uph","vl":"35320","cn":18,"pt":"GO","pr":1800},{"dy":29,"sl":5,"tp":"fp","vl":"Actor1226","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":29,"sl":6,"tp":"upn","vl":"58062","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":30,"sl":0,"tp":"fe","vl":"Equip4102","cn":1,"pt":"GO","pr":5000},{"dy":30,"sl":1,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":24450},{"dy":30,"sl":2,"tp":"upn","vl":"23308","cn":16,"pt":"GO","pr":1600},{"dy":30,"sl":3,"tp":"uph","vl":"50149","cn":19,"pt":"GO","pr":1900},{"dy":30,"sl":4,"tp":"upn","vl":"10989","cn":22,"pt":"GO","pr":2200}</v>
       </c>
       <c r="Q209" t="str">
-        <f t="shared" si="22"/>
-        <v/>
+        <f t="shared" ca="1" si="22"/>
+        <v>{"dy":30,"sl":4,"tp":"upn","vl":"10989","cn":22,"pt":"GO","pr":2200}</v>
       </c>
     </row>
     <row r="210" spans="1:17">
@@ -21501,15 +22306,15 @@
         <v>5</v>
       </c>
       <c r="C210">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="E210" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="F210" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="H210" t="str">
@@ -21527,8 +22332,8 @@
         <v/>
       </c>
       <c r="P210" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":22,"sl":0,"tp":"fe","vl":"Equip8001","cn":1,"pt":"GO","pr":5000},{"dy":22,"sl":1,"tp":"fe","vl":"Equip7102","cn":1,"pt":"GO","pr":24450},{"dy":22,"sl":2,"tp":"upn","vl":"44408","cn":16,"pt":"GO","pr":1600},{"dy":22,"sl":3,"tp":"uph","vl":"63155","cn":19,"pt":"GO","pr":1900},{"dy":22,"sl":4,"tp":"upn","vl":"38771","cn":22,"pt":"GO","pr":2200},{"dy":23,"sl":0,"tp":"fe","vl":"Equip0402","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":23,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":23,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":23,"sl":3,"tp":"upn","vl":"44055","cn":16,"pt":"GO","pr":1600},{"dy":23,"sl":4,"tp":"uph","vl":"48761","cn":18,"pt":"GO","pr":1800},{"dy":23,"sl":5,"tp":"fp","vl":"Actor1216","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":23,"sl":6,"tp":"upn","vl":"78946","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":24,"sl":0,"tp":"fe","vl":"Equip7101","cn":1,"pt":"GO","pr":5000},{"dy":24,"sl":1,"tp":"fe","vl":"Equip6101","cn":1,"pt":"GO","pr":24450},{"dy":24,"sl":2,"tp":"upn","vl":"54180","cn":16,"pt":"GO","pr":1600},{"dy":24,"sl":3,"tp":"uph","vl":"11504","cn":19,"pt":"GO","pr":1900},{"dy":24,"sl":4,"tp":"upn","vl":"18718","cn":22,"pt":"GO","pr":2200},{"dy":25,"sl":0,"tp":"fe","vl":"Equip3401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":25,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":25,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":25,"sl":3,"tp":"upn","vl":"94114","cn":16,"pt":"GO","pr":1600},{"dy":25,"sl":4,"tp":"uph","vl":"67435","cn":18,"pt":"GO","pr":1800},{"dy":25,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":25,"sl":6,"tp":"upn","vl":"43788","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":26,"sl":0,"tp":"fe","vl":"Equip4001","cn":1,"pt":"GO","pr":5000},{"dy":26,"sl":1,"tp":"fe","vl":"Equip5201","cn":1,"pt":"GO","pr":24450},{"dy":26,"sl":2,"tp":"upn","vl":"57510","cn":16,"pt":"GO","pr":1600},{"dy":26,"sl":3,"tp":"uph","vl":"13933","cn":19,"pt":"GO","pr":1900},{"dy":26,"sl":4,"tp":"upn","vl":"63758","cn":22,"pt":"GO","pr":2200},{"dy":27,"sl":0,"tp":"fe","vl":"Equip5401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":27,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":27,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":27,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":27,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":28,"sl":0,"tp":"fe","vl":"Equip0102","cn":1,"pt":"GO","pr":5000},{"dy":28,"sl":1,"tp":"fe","vl":"Equip1102","cn":1,"pt":"GO","pr":24450},{"dy":28,"sl":2,"tp":"upn","vl":"78493","cn":16,"pt":"GO","pr":1600},{"dy":28,"sl":3,"tp":"uph","vl":"65706","cn":19,"pt":"GO","pr":1900},{"dy":28,"sl":4,"tp":"upn","vl":"40322","cn":22,"pt":"GO","pr":2200},{"dy":29,"sl":0,"tp":"fe","vl":"Equip6401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":29,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":29,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":29,"sl":3,"tp":"upn","vl":"70045","cn":16,"pt":"GO","pr":1600},{"dy":29,"sl":4,"tp":"uph","vl":"35320","cn":18,"pt":"GO","pr":1800},{"dy":29,"sl":5,"tp":"fp","vl":"Actor1226","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":29,"sl":6,"tp":"upn","vl":"58062","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":30,"sl":0,"tp":"fe","vl":"Equip4102","cn":1,"pt":"GO","pr":5000},{"dy":30,"sl":1,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":24450},{"dy":30,"sl":2,"tp":"upn","vl":"23308","cn":16,"pt":"GO","pr":1600},{"dy":30,"sl":3,"tp":"uph","vl":"50149","cn":19,"pt":"GO","pr":1900},{"dy":30,"sl":4,"tp":"upn","vl":"10989","cn":22,"pt":"GO","pr":2200}</v>
       </c>
       <c r="Q210" t="str">
         <f t="shared" si="22"/>
@@ -21543,15 +22348,15 @@
         <v>6</v>
       </c>
       <c r="C211">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="E211" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="F211" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="H211" t="str">
@@ -21569,8 +22374,8 @@
         <v/>
       </c>
       <c r="P211" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":22,"sl":0,"tp":"fe","vl":"Equip8001","cn":1,"pt":"GO","pr":5000},{"dy":22,"sl":1,"tp":"fe","vl":"Equip7102","cn":1,"pt":"GO","pr":24450},{"dy":22,"sl":2,"tp":"upn","vl":"44408","cn":16,"pt":"GO","pr":1600},{"dy":22,"sl":3,"tp":"uph","vl":"63155","cn":19,"pt":"GO","pr":1900},{"dy":22,"sl":4,"tp":"upn","vl":"38771","cn":22,"pt":"GO","pr":2200},{"dy":23,"sl":0,"tp":"fe","vl":"Equip0402","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":23,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":23,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":23,"sl":3,"tp":"upn","vl":"44055","cn":16,"pt":"GO","pr":1600},{"dy":23,"sl":4,"tp":"uph","vl":"48761","cn":18,"pt":"GO","pr":1800},{"dy":23,"sl":5,"tp":"fp","vl":"Actor1216","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":23,"sl":6,"tp":"upn","vl":"78946","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":24,"sl":0,"tp":"fe","vl":"Equip7101","cn":1,"pt":"GO","pr":5000},{"dy":24,"sl":1,"tp":"fe","vl":"Equip6101","cn":1,"pt":"GO","pr":24450},{"dy":24,"sl":2,"tp":"upn","vl":"54180","cn":16,"pt":"GO","pr":1600},{"dy":24,"sl":3,"tp":"uph","vl":"11504","cn":19,"pt":"GO","pr":1900},{"dy":24,"sl":4,"tp":"upn","vl":"18718","cn":22,"pt":"GO","pr":2200},{"dy":25,"sl":0,"tp":"fe","vl":"Equip3401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":25,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":25,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":25,"sl":3,"tp":"upn","vl":"94114","cn":16,"pt":"GO","pr":1600},{"dy":25,"sl":4,"tp":"uph","vl":"67435","cn":18,"pt":"GO","pr":1800},{"dy":25,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":25,"sl":6,"tp":"upn","vl":"43788","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":26,"sl":0,"tp":"fe","vl":"Equip4001","cn":1,"pt":"GO","pr":5000},{"dy":26,"sl":1,"tp":"fe","vl":"Equip5201","cn":1,"pt":"GO","pr":24450},{"dy":26,"sl":2,"tp":"upn","vl":"57510","cn":16,"pt":"GO","pr":1600},{"dy":26,"sl":3,"tp":"uph","vl":"13933","cn":19,"pt":"GO","pr":1900},{"dy":26,"sl":4,"tp":"upn","vl":"63758","cn":22,"pt":"GO","pr":2200},{"dy":27,"sl":0,"tp":"fe","vl":"Equip5401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":27,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":27,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":27,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":27,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":28,"sl":0,"tp":"fe","vl":"Equip0102","cn":1,"pt":"GO","pr":5000},{"dy":28,"sl":1,"tp":"fe","vl":"Equip1102","cn":1,"pt":"GO","pr":24450},{"dy":28,"sl":2,"tp":"upn","vl":"78493","cn":16,"pt":"GO","pr":1600},{"dy":28,"sl":3,"tp":"uph","vl":"65706","cn":19,"pt":"GO","pr":1900},{"dy":28,"sl":4,"tp":"upn","vl":"40322","cn":22,"pt":"GO","pr":2200},{"dy":29,"sl":0,"tp":"fe","vl":"Equip6401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":29,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":29,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":29,"sl":3,"tp":"upn","vl":"70045","cn":16,"pt":"GO","pr":1600},{"dy":29,"sl":4,"tp":"uph","vl":"35320","cn":18,"pt":"GO","pr":1800},{"dy":29,"sl":5,"tp":"fp","vl":"Actor1226","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":29,"sl":6,"tp":"upn","vl":"58062","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":30,"sl":0,"tp":"fe","vl":"Equip4102","cn":1,"pt":"GO","pr":5000},{"dy":30,"sl":1,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":24450},{"dy":30,"sl":2,"tp":"upn","vl":"23308","cn":16,"pt":"GO","pr":1600},{"dy":30,"sl":3,"tp":"uph","vl":"50149","cn":19,"pt":"GO","pr":1900},{"dy":30,"sl":4,"tp":"upn","vl":"10989","cn":22,"pt":"GO","pr":2200}</v>
       </c>
       <c r="Q211" t="str">
         <f t="shared" si="22"/>
@@ -21585,19 +22390,27 @@
         <v>0</v>
       </c>
       <c r="C212">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
+      <c r="D212" t="s">
+        <v>96</v>
+      </c>
       <c r="E212" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
+        <f t="shared" ref="E212:E218" ca="1" si="27">IF(ISBLANK(D212),"",
+VLOOKUP(D212,OFFSET(INDIRECT("$A:$B"),0,MATCH(D$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v>fe</v>
       </c>
       <c r="F212" t="str">
-        <f t="shared" si="23"/>
-        <v/>
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="G212" t="s">
+        <v>152</v>
       </c>
       <c r="H212" t="str">
-        <f>IF(OR(
+        <f ca="1">IF(OR(
   AND(NOT(ISERROR(FIND("상자",D212))),ISBLANK(G212)),
   AND(ISBLANK(D212),ISBLANK(G212)),
   AND(NOT(ISERROR(FIND("안 지정",D212))),ISNUMBER(G212))),"",
@@ -21608,15 +22421,30 @@
 IF(NOT(ISERROR(FIND("캐릭터",D212))),
   IFERROR(VLOOKUP(G212,[2]ActorTable!$A:$G,MATCH("이름참고",[2]ActorTable!$1:$1,0),0),"캐릭터없음"),
 "")))))</f>
-        <v/>
+        <v>발열하는 스톤 소드</v>
+      </c>
+      <c r="I212">
+        <v>1</v>
+      </c>
+      <c r="K212" t="s">
+        <v>76</v>
+      </c>
+      <c r="M212">
+        <v>840</v>
+      </c>
+      <c r="N212">
+        <v>530</v>
+      </c>
+      <c r="O212">
+        <v>1</v>
       </c>
       <c r="P212" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":22,"sl":0,"tp":"fe","vl":"Equip8001","cn":1,"pt":"GO","pr":5000},{"dy":22,"sl":1,"tp":"fe","vl":"Equip7102","cn":1,"pt":"GO","pr":24450},{"dy":22,"sl":2,"tp":"upn","vl":"44408","cn":16,"pt":"GO","pr":1600},{"dy":22,"sl":3,"tp":"uph","vl":"63155","cn":19,"pt":"GO","pr":1900},{"dy":22,"sl":4,"tp":"upn","vl":"38771","cn":22,"pt":"GO","pr":2200},{"dy":23,"sl":0,"tp":"fe","vl":"Equip0402","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":23,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":23,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":23,"sl":3,"tp":"upn","vl":"44055","cn":16,"pt":"GO","pr":1600},{"dy":23,"sl":4,"tp":"uph","vl":"48761","cn":18,"pt":"GO","pr":1800},{"dy":23,"sl":5,"tp":"fp","vl":"Actor1216","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":23,"sl":6,"tp":"upn","vl":"78946","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":24,"sl":0,"tp":"fe","vl":"Equip7101","cn":1,"pt":"GO","pr":5000},{"dy":24,"sl":1,"tp":"fe","vl":"Equip6101","cn":1,"pt":"GO","pr":24450},{"dy":24,"sl":2,"tp":"upn","vl":"54180","cn":16,"pt":"GO","pr":1600},{"dy":24,"sl":3,"tp":"uph","vl":"11504","cn":19,"pt":"GO","pr":1900},{"dy":24,"sl":4,"tp":"upn","vl":"18718","cn":22,"pt":"GO","pr":2200},{"dy":25,"sl":0,"tp":"fe","vl":"Equip3401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":25,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":25,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":25,"sl":3,"tp":"upn","vl":"94114","cn":16,"pt":"GO","pr":1600},{"dy":25,"sl":4,"tp":"uph","vl":"67435","cn":18,"pt":"GO","pr":1800},{"dy":25,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":25,"sl":6,"tp":"upn","vl":"43788","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":26,"sl":0,"tp":"fe","vl":"Equip4001","cn":1,"pt":"GO","pr":5000},{"dy":26,"sl":1,"tp":"fe","vl":"Equip5201","cn":1,"pt":"GO","pr":24450},{"dy":26,"sl":2,"tp":"upn","vl":"57510","cn":16,"pt":"GO","pr":1600},{"dy":26,"sl":3,"tp":"uph","vl":"13933","cn":19,"pt":"GO","pr":1900},{"dy":26,"sl":4,"tp":"upn","vl":"63758","cn":22,"pt":"GO","pr":2200},{"dy":27,"sl":0,"tp":"fe","vl":"Equip5401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":27,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":27,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":27,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":27,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":28,"sl":0,"tp":"fe","vl":"Equip0102","cn":1,"pt":"GO","pr":5000},{"dy":28,"sl":1,"tp":"fe","vl":"Equip1102","cn":1,"pt":"GO","pr":24450},{"dy":28,"sl":2,"tp":"upn","vl":"78493","cn":16,"pt":"GO","pr":1600},{"dy":28,"sl":3,"tp":"uph","vl":"65706","cn":19,"pt":"GO","pr":1900},{"dy":28,"sl":4,"tp":"upn","vl":"40322","cn":22,"pt":"GO","pr":2200},{"dy":29,"sl":0,"tp":"fe","vl":"Equip6401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":29,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":29,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":29,"sl":3,"tp":"upn","vl":"70045","cn":16,"pt":"GO","pr":1600},{"dy":29,"sl":4,"tp":"uph","vl":"35320","cn":18,"pt":"GO","pr":1800},{"dy":29,"sl":5,"tp":"fp","vl":"Actor1226","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":29,"sl":6,"tp":"upn","vl":"58062","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":30,"sl":0,"tp":"fe","vl":"Equip4102","cn":1,"pt":"GO","pr":5000},{"dy":30,"sl":1,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":24450},{"dy":30,"sl":2,"tp":"upn","vl":"23308","cn":16,"pt":"GO","pr":1600},{"dy":30,"sl":3,"tp":"uph","vl":"50149","cn":19,"pt":"GO","pr":1900},{"dy":30,"sl":4,"tp":"upn","vl":"10989","cn":22,"pt":"GO","pr":2200},{"dy":31,"sl":0,"tp":"fe","vl":"Equip8401","cn":1,"pt":"DI","pp":840,"pr":530}</v>
       </c>
       <c r="Q212" t="str">
-        <f t="shared" si="22"/>
-        <v/>
+        <f t="shared" ca="1" si="22"/>
+        <v>{"dy":31,"sl":0,"tp":"fe","vl":"Equip8401","cn":1,"pt":"DI","pp":840,"pr":530}</v>
       </c>
     </row>
     <row r="213" spans="1:17">
@@ -21627,15 +22455,18 @@
         <v>1</v>
       </c>
       <c r="C213">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
+      <c r="D213" t="s">
+        <v>97</v>
+      </c>
       <c r="E213" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
+        <f t="shared" ca="1" si="27"/>
+        <v>bn</v>
       </c>
       <c r="F213" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="H213" t="str">
@@ -21652,13 +22483,25 @@
 "")))))</f>
         <v/>
       </c>
+      <c r="I213">
+        <v>1</v>
+      </c>
+      <c r="K213" t="s">
+        <v>76</v>
+      </c>
+      <c r="N213">
+        <v>30</v>
+      </c>
+      <c r="O213">
+        <v>1</v>
+      </c>
       <c r="P213" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":22,"sl":0,"tp":"fe","vl":"Equip8001","cn":1,"pt":"GO","pr":5000},{"dy":22,"sl":1,"tp":"fe","vl":"Equip7102","cn":1,"pt":"GO","pr":24450},{"dy":22,"sl":2,"tp":"upn","vl":"44408","cn":16,"pt":"GO","pr":1600},{"dy":22,"sl":3,"tp":"uph","vl":"63155","cn":19,"pt":"GO","pr":1900},{"dy":22,"sl":4,"tp":"upn","vl":"38771","cn":22,"pt":"GO","pr":2200},{"dy":23,"sl":0,"tp":"fe","vl":"Equip0402","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":23,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":23,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":23,"sl":3,"tp":"upn","vl":"44055","cn":16,"pt":"GO","pr":1600},{"dy":23,"sl":4,"tp":"uph","vl":"48761","cn":18,"pt":"GO","pr":1800},{"dy":23,"sl":5,"tp":"fp","vl":"Actor1216","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":23,"sl":6,"tp":"upn","vl":"78946","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":24,"sl":0,"tp":"fe","vl":"Equip7101","cn":1,"pt":"GO","pr":5000},{"dy":24,"sl":1,"tp":"fe","vl":"Equip6101","cn":1,"pt":"GO","pr":24450},{"dy":24,"sl":2,"tp":"upn","vl":"54180","cn":16,"pt":"GO","pr":1600},{"dy":24,"sl":3,"tp":"uph","vl":"11504","cn":19,"pt":"GO","pr":1900},{"dy":24,"sl":4,"tp":"upn","vl":"18718","cn":22,"pt":"GO","pr":2200},{"dy":25,"sl":0,"tp":"fe","vl":"Equip3401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":25,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":25,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":25,"sl":3,"tp":"upn","vl":"94114","cn":16,"pt":"GO","pr":1600},{"dy":25,"sl":4,"tp":"uph","vl":"67435","cn":18,"pt":"GO","pr":1800},{"dy":25,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":25,"sl":6,"tp":"upn","vl":"43788","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":26,"sl":0,"tp":"fe","vl":"Equip4001","cn":1,"pt":"GO","pr":5000},{"dy":26,"sl":1,"tp":"fe","vl":"Equip5201","cn":1,"pt":"GO","pr":24450},{"dy":26,"sl":2,"tp":"upn","vl":"57510","cn":16,"pt":"GO","pr":1600},{"dy":26,"sl":3,"tp":"uph","vl":"13933","cn":19,"pt":"GO","pr":1900},{"dy":26,"sl":4,"tp":"upn","vl":"63758","cn":22,"pt":"GO","pr":2200},{"dy":27,"sl":0,"tp":"fe","vl":"Equip5401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":27,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":27,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":27,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":27,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":28,"sl":0,"tp":"fe","vl":"Equip0102","cn":1,"pt":"GO","pr":5000},{"dy":28,"sl":1,"tp":"fe","vl":"Equip1102","cn":1,"pt":"GO","pr":24450},{"dy":28,"sl":2,"tp":"upn","vl":"78493","cn":16,"pt":"GO","pr":1600},{"dy":28,"sl":3,"tp":"uph","vl":"65706","cn":19,"pt":"GO","pr":1900},{"dy":28,"sl":4,"tp":"upn","vl":"40322","cn":22,"pt":"GO","pr":2200},{"dy":29,"sl":0,"tp":"fe","vl":"Equip6401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":29,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":29,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":29,"sl":3,"tp":"upn","vl":"70045","cn":16,"pt":"GO","pr":1600},{"dy":29,"sl":4,"tp":"uph","vl":"35320","cn":18,"pt":"GO","pr":1800},{"dy":29,"sl":5,"tp":"fp","vl":"Actor1226","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":29,"sl":6,"tp":"upn","vl":"58062","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":30,"sl":0,"tp":"fe","vl":"Equip4102","cn":1,"pt":"GO","pr":5000},{"dy":30,"sl":1,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":24450},{"dy":30,"sl":2,"tp":"upn","vl":"23308","cn":16,"pt":"GO","pr":1600},{"dy":30,"sl":3,"tp":"uph","vl":"50149","cn":19,"pt":"GO","pr":1900},{"dy":30,"sl":4,"tp":"upn","vl":"10989","cn":22,"pt":"GO","pr":2200},{"dy":31,"sl":0,"tp":"fe","vl":"Equip8401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":31,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30}</v>
       </c>
       <c r="Q213" t="str">
-        <f t="shared" si="22"/>
-        <v/>
+        <f t="shared" ca="1" si="22"/>
+        <v>{"dy":31,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30}</v>
       </c>
     </row>
     <row r="214" spans="1:17">
@@ -21669,15 +22512,18 @@
         <v>2</v>
       </c>
       <c r="C214">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
+      <c r="D214" t="s">
+        <v>98</v>
+      </c>
       <c r="E214" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
+        <f t="shared" ca="1" si="27"/>
+        <v>bh</v>
       </c>
       <c r="F214" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="H214" t="str">
@@ -21694,13 +22540,28 @@
 "")))))</f>
         <v/>
       </c>
+      <c r="I214">
+        <v>1</v>
+      </c>
+      <c r="K214" t="s">
+        <v>76</v>
+      </c>
+      <c r="M214">
+        <v>120</v>
+      </c>
+      <c r="N214">
+        <v>70</v>
+      </c>
+      <c r="O214">
+        <v>1</v>
+      </c>
       <c r="P214" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":22,"sl":0,"tp":"fe","vl":"Equip8001","cn":1,"pt":"GO","pr":5000},{"dy":22,"sl":1,"tp":"fe","vl":"Equip7102","cn":1,"pt":"GO","pr":24450},{"dy":22,"sl":2,"tp":"upn","vl":"44408","cn":16,"pt":"GO","pr":1600},{"dy":22,"sl":3,"tp":"uph","vl":"63155","cn":19,"pt":"GO","pr":1900},{"dy":22,"sl":4,"tp":"upn","vl":"38771","cn":22,"pt":"GO","pr":2200},{"dy":23,"sl":0,"tp":"fe","vl":"Equip0402","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":23,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":23,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":23,"sl":3,"tp":"upn","vl":"44055","cn":16,"pt":"GO","pr":1600},{"dy":23,"sl":4,"tp":"uph","vl":"48761","cn":18,"pt":"GO","pr":1800},{"dy":23,"sl":5,"tp":"fp","vl":"Actor1216","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":23,"sl":6,"tp":"upn","vl":"78946","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":24,"sl":0,"tp":"fe","vl":"Equip7101","cn":1,"pt":"GO","pr":5000},{"dy":24,"sl":1,"tp":"fe","vl":"Equip6101","cn":1,"pt":"GO","pr":24450},{"dy":24,"sl":2,"tp":"upn","vl":"54180","cn":16,"pt":"GO","pr":1600},{"dy":24,"sl":3,"tp":"uph","vl":"11504","cn":19,"pt":"GO","pr":1900},{"dy":24,"sl":4,"tp":"upn","vl":"18718","cn":22,"pt":"GO","pr":2200},{"dy":25,"sl":0,"tp":"fe","vl":"Equip3401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":25,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":25,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":25,"sl":3,"tp":"upn","vl":"94114","cn":16,"pt":"GO","pr":1600},{"dy":25,"sl":4,"tp":"uph","vl":"67435","cn":18,"pt":"GO","pr":1800},{"dy":25,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":25,"sl":6,"tp":"upn","vl":"43788","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":26,"sl":0,"tp":"fe","vl":"Equip4001","cn":1,"pt":"GO","pr":5000},{"dy":26,"sl":1,"tp":"fe","vl":"Equip5201","cn":1,"pt":"GO","pr":24450},{"dy":26,"sl":2,"tp":"upn","vl":"57510","cn":16,"pt":"GO","pr":1600},{"dy":26,"sl":3,"tp":"uph","vl":"13933","cn":19,"pt":"GO","pr":1900},{"dy":26,"sl":4,"tp":"upn","vl":"63758","cn":22,"pt":"GO","pr":2200},{"dy":27,"sl":0,"tp":"fe","vl":"Equip5401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":27,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":27,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":27,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":27,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":28,"sl":0,"tp":"fe","vl":"Equip0102","cn":1,"pt":"GO","pr":5000},{"dy":28,"sl":1,"tp":"fe","vl":"Equip1102","cn":1,"pt":"GO","pr":24450},{"dy":28,"sl":2,"tp":"upn","vl":"78493","cn":16,"pt":"GO","pr":1600},{"dy":28,"sl":3,"tp":"uph","vl":"65706","cn":19,"pt":"GO","pr":1900},{"dy":28,"sl":4,"tp":"upn","vl":"40322","cn":22,"pt":"GO","pr":2200},{"dy":29,"sl":0,"tp":"fe","vl":"Equip6401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":29,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":29,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":29,"sl":3,"tp":"upn","vl":"70045","cn":16,"pt":"GO","pr":1600},{"dy":29,"sl":4,"tp":"uph","vl":"35320","cn":18,"pt":"GO","pr":1800},{"dy":29,"sl":5,"tp":"fp","vl":"Actor1226","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":29,"sl":6,"tp":"upn","vl":"58062","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":30,"sl":0,"tp":"fe","vl":"Equip4102","cn":1,"pt":"GO","pr":5000},{"dy":30,"sl":1,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":24450},{"dy":30,"sl":2,"tp":"upn","vl":"23308","cn":16,"pt":"GO","pr":1600},{"dy":30,"sl":3,"tp":"uph","vl":"50149","cn":19,"pt":"GO","pr":1900},{"dy":30,"sl":4,"tp":"upn","vl":"10989","cn":22,"pt":"GO","pr":2200},{"dy":31,"sl":0,"tp":"fe","vl":"Equip8401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":31,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":31,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70}</v>
       </c>
       <c r="Q214" t="str">
-        <f t="shared" si="22"/>
-        <v/>
+        <f t="shared" ca="1" si="22"/>
+        <v>{"dy":31,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70}</v>
       </c>
     </row>
     <row r="215" spans="1:17">
@@ -21711,16 +22572,22 @@
         <v>3</v>
       </c>
       <c r="C215">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
+      <c r="D215" t="s">
+        <v>106</v>
+      </c>
       <c r="E215" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
+        <f t="shared" ca="1" si="27"/>
+        <v>upn</v>
       </c>
       <c r="F215" t="str">
-        <f t="shared" si="23"/>
-        <v/>
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="G215">
+        <v>72117</v>
       </c>
       <c r="H215" t="str">
         <f>IF(OR(
@@ -21736,13 +22603,25 @@
 "")))))</f>
         <v/>
       </c>
+      <c r="I215">
+        <v>16</v>
+      </c>
+      <c r="K215" t="s">
+        <v>73</v>
+      </c>
+      <c r="N215">
+        <v>1600</v>
+      </c>
+      <c r="O215">
+        <v>1</v>
+      </c>
       <c r="P215" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":22,"sl":0,"tp":"fe","vl":"Equip8001","cn":1,"pt":"GO","pr":5000},{"dy":22,"sl":1,"tp":"fe","vl":"Equip7102","cn":1,"pt":"GO","pr":24450},{"dy":22,"sl":2,"tp":"upn","vl":"44408","cn":16,"pt":"GO","pr":1600},{"dy":22,"sl":3,"tp":"uph","vl":"63155","cn":19,"pt":"GO","pr":1900},{"dy":22,"sl":4,"tp":"upn","vl":"38771","cn":22,"pt":"GO","pr":2200},{"dy":23,"sl":0,"tp":"fe","vl":"Equip0402","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":23,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":23,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":23,"sl":3,"tp":"upn","vl":"44055","cn":16,"pt":"GO","pr":1600},{"dy":23,"sl":4,"tp":"uph","vl":"48761","cn":18,"pt":"GO","pr":1800},{"dy":23,"sl":5,"tp":"fp","vl":"Actor1216","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":23,"sl":6,"tp":"upn","vl":"78946","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":24,"sl":0,"tp":"fe","vl":"Equip7101","cn":1,"pt":"GO","pr":5000},{"dy":24,"sl":1,"tp":"fe","vl":"Equip6101","cn":1,"pt":"GO","pr":24450},{"dy":24,"sl":2,"tp":"upn","vl":"54180","cn":16,"pt":"GO","pr":1600},{"dy":24,"sl":3,"tp":"uph","vl":"11504","cn":19,"pt":"GO","pr":1900},{"dy":24,"sl":4,"tp":"upn","vl":"18718","cn":22,"pt":"GO","pr":2200},{"dy":25,"sl":0,"tp":"fe","vl":"Equip3401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":25,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":25,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":25,"sl":3,"tp":"upn","vl":"94114","cn":16,"pt":"GO","pr":1600},{"dy":25,"sl":4,"tp":"uph","vl":"67435","cn":18,"pt":"GO","pr":1800},{"dy":25,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":25,"sl":6,"tp":"upn","vl":"43788","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":26,"sl":0,"tp":"fe","vl":"Equip4001","cn":1,"pt":"GO","pr":5000},{"dy":26,"sl":1,"tp":"fe","vl":"Equip5201","cn":1,"pt":"GO","pr":24450},{"dy":26,"sl":2,"tp":"upn","vl":"57510","cn":16,"pt":"GO","pr":1600},{"dy":26,"sl":3,"tp":"uph","vl":"13933","cn":19,"pt":"GO","pr":1900},{"dy":26,"sl":4,"tp":"upn","vl":"63758","cn":22,"pt":"GO","pr":2200},{"dy":27,"sl":0,"tp":"fe","vl":"Equip5401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":27,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":27,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":27,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":27,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":28,"sl":0,"tp":"fe","vl":"Equip0102","cn":1,"pt":"GO","pr":5000},{"dy":28,"sl":1,"tp":"fe","vl":"Equip1102","cn":1,"pt":"GO","pr":24450},{"dy":28,"sl":2,"tp":"upn","vl":"78493","cn":16,"pt":"GO","pr":1600},{"dy":28,"sl":3,"tp":"uph","vl":"65706","cn":19,"pt":"GO","pr":1900},{"dy":28,"sl":4,"tp":"upn","vl":"40322","cn":22,"pt":"GO","pr":2200},{"dy":29,"sl":0,"tp":"fe","vl":"Equip6401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":29,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":29,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":29,"sl":3,"tp":"upn","vl":"70045","cn":16,"pt":"GO","pr":1600},{"dy":29,"sl":4,"tp":"uph","vl":"35320","cn":18,"pt":"GO","pr":1800},{"dy":29,"sl":5,"tp":"fp","vl":"Actor1226","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":29,"sl":6,"tp":"upn","vl":"58062","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":30,"sl":0,"tp":"fe","vl":"Equip4102","cn":1,"pt":"GO","pr":5000},{"dy":30,"sl":1,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":24450},{"dy":30,"sl":2,"tp":"upn","vl":"23308","cn":16,"pt":"GO","pr":1600},{"dy":30,"sl":3,"tp":"uph","vl":"50149","cn":19,"pt":"GO","pr":1900},{"dy":30,"sl":4,"tp":"upn","vl":"10989","cn":22,"pt":"GO","pr":2200},{"dy":31,"sl":0,"tp":"fe","vl":"Equip8401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":31,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":31,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":31,"sl":3,"tp":"upn","vl":"72117","cn":16,"pt":"GO","pr":1600}</v>
       </c>
       <c r="Q215" t="str">
-        <f t="shared" si="22"/>
-        <v/>
+        <f t="shared" ca="1" si="22"/>
+        <v>{"dy":31,"sl":3,"tp":"upn","vl":"72117","cn":16,"pt":"GO","pr":1600}</v>
       </c>
     </row>
     <row r="216" spans="1:17">
@@ -21753,16 +22632,22 @@
         <v>4</v>
       </c>
       <c r="C216">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
+      <c r="D216" t="s">
+        <v>105</v>
+      </c>
       <c r="E216" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
+        <f t="shared" ca="1" si="27"/>
+        <v>uph</v>
       </c>
       <c r="F216" t="str">
-        <f t="shared" si="23"/>
-        <v/>
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="G216">
+        <v>75026</v>
       </c>
       <c r="H216" t="str">
         <f>IF(OR(
@@ -21778,13 +22663,25 @@
 "")))))</f>
         <v/>
       </c>
+      <c r="I216">
+        <v>18</v>
+      </c>
+      <c r="K216" t="s">
+        <v>73</v>
+      </c>
+      <c r="N216">
+        <v>1800</v>
+      </c>
+      <c r="O216">
+        <v>1</v>
+      </c>
       <c r="P216" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":22,"sl":0,"tp":"fe","vl":"Equip8001","cn":1,"pt":"GO","pr":5000},{"dy":22,"sl":1,"tp":"fe","vl":"Equip7102","cn":1,"pt":"GO","pr":24450},{"dy":22,"sl":2,"tp":"upn","vl":"44408","cn":16,"pt":"GO","pr":1600},{"dy":22,"sl":3,"tp":"uph","vl":"63155","cn":19,"pt":"GO","pr":1900},{"dy":22,"sl":4,"tp":"upn","vl":"38771","cn":22,"pt":"GO","pr":2200},{"dy":23,"sl":0,"tp":"fe","vl":"Equip0402","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":23,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":23,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":23,"sl":3,"tp":"upn","vl":"44055","cn":16,"pt":"GO","pr":1600},{"dy":23,"sl":4,"tp":"uph","vl":"48761","cn":18,"pt":"GO","pr":1800},{"dy":23,"sl":5,"tp":"fp","vl":"Actor1216","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":23,"sl":6,"tp":"upn","vl":"78946","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":24,"sl":0,"tp":"fe","vl":"Equip7101","cn":1,"pt":"GO","pr":5000},{"dy":24,"sl":1,"tp":"fe","vl":"Equip6101","cn":1,"pt":"GO","pr":24450},{"dy":24,"sl":2,"tp":"upn","vl":"54180","cn":16,"pt":"GO","pr":1600},{"dy":24,"sl":3,"tp":"uph","vl":"11504","cn":19,"pt":"GO","pr":1900},{"dy":24,"sl":4,"tp":"upn","vl":"18718","cn":22,"pt":"GO","pr":2200},{"dy":25,"sl":0,"tp":"fe","vl":"Equip3401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":25,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":25,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":25,"sl":3,"tp":"upn","vl":"94114","cn":16,"pt":"GO","pr":1600},{"dy":25,"sl":4,"tp":"uph","vl":"67435","cn":18,"pt":"GO","pr":1800},{"dy":25,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":25,"sl":6,"tp":"upn","vl":"43788","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":26,"sl":0,"tp":"fe","vl":"Equip4001","cn":1,"pt":"GO","pr":5000},{"dy":26,"sl":1,"tp":"fe","vl":"Equip5201","cn":1,"pt":"GO","pr":24450},{"dy":26,"sl":2,"tp":"upn","vl":"57510","cn":16,"pt":"GO","pr":1600},{"dy":26,"sl":3,"tp":"uph","vl":"13933","cn":19,"pt":"GO","pr":1900},{"dy":26,"sl":4,"tp":"upn","vl":"63758","cn":22,"pt":"GO","pr":2200},{"dy":27,"sl":0,"tp":"fe","vl":"Equip5401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":27,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":27,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":27,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":27,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":28,"sl":0,"tp":"fe","vl":"Equip0102","cn":1,"pt":"GO","pr":5000},{"dy":28,"sl":1,"tp":"fe","vl":"Equip1102","cn":1,"pt":"GO","pr":24450},{"dy":28,"sl":2,"tp":"upn","vl":"78493","cn":16,"pt":"GO","pr":1600},{"dy":28,"sl":3,"tp":"uph","vl":"65706","cn":19,"pt":"GO","pr":1900},{"dy":28,"sl":4,"tp":"upn","vl":"40322","cn":22,"pt":"GO","pr":2200},{"dy":29,"sl":0,"tp":"fe","vl":"Equip6401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":29,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":29,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":29,"sl":3,"tp":"upn","vl":"70045","cn":16,"pt":"GO","pr":1600},{"dy":29,"sl":4,"tp":"uph","vl":"35320","cn":18,"pt":"GO","pr":1800},{"dy":29,"sl":5,"tp":"fp","vl":"Actor1226","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":29,"sl":6,"tp":"upn","vl":"58062","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":30,"sl":0,"tp":"fe","vl":"Equip4102","cn":1,"pt":"GO","pr":5000},{"dy":30,"sl":1,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":24450},{"dy":30,"sl":2,"tp":"upn","vl":"23308","cn":16,"pt":"GO","pr":1600},{"dy":30,"sl":3,"tp":"uph","vl":"50149","cn":19,"pt":"GO","pr":1900},{"dy":30,"sl":4,"tp":"upn","vl":"10989","cn":22,"pt":"GO","pr":2200},{"dy":31,"sl":0,"tp":"fe","vl":"Equip8401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":31,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":31,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":31,"sl":3,"tp":"upn","vl":"72117","cn":16,"pt":"GO","pr":1600},{"dy":31,"sl":4,"tp":"uph","vl":"75026","cn":18,"pt":"GO","pr":1800}</v>
       </c>
       <c r="Q216" t="str">
-        <f t="shared" si="22"/>
-        <v/>
+        <f t="shared" ca="1" si="22"/>
+        <v>{"dy":31,"sl":4,"tp":"uph","vl":"75026","cn":18,"pt":"GO","pr":1800}</v>
       </c>
     </row>
     <row r="217" spans="1:17">
@@ -21795,16 +22692,22 @@
         <v>5</v>
       </c>
       <c r="C217">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
+      <c r="D217" t="s">
+        <v>100</v>
+      </c>
       <c r="E217" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
+        <f t="shared" ca="1" si="27"/>
+        <v>fp</v>
       </c>
       <c r="F217" t="str">
-        <f t="shared" si="23"/>
-        <v/>
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="G217" t="s">
+        <v>135</v>
       </c>
       <c r="H217" t="str">
         <f>IF(OR(
@@ -21818,15 +22721,30 @@
 IF(NOT(ISERROR(FIND("캐릭터",D217))),
   IFERROR(VLOOKUP(G217,[2]ActorTable!$A:$G,MATCH("이름참고",[2]ActorTable!$1:$1,0),0),"캐릭터없음"),
 "")))))</f>
-        <v/>
+        <v>시리아</v>
+      </c>
+      <c r="I217">
+        <v>140</v>
+      </c>
+      <c r="K217" t="s">
+        <v>76</v>
+      </c>
+      <c r="M217">
+        <v>340</v>
+      </c>
+      <c r="N217">
+        <v>120</v>
+      </c>
+      <c r="O217">
+        <v>1</v>
       </c>
       <c r="P217" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":22,"sl":0,"tp":"fe","vl":"Equip8001","cn":1,"pt":"GO","pr":5000},{"dy":22,"sl":1,"tp":"fe","vl":"Equip7102","cn":1,"pt":"GO","pr":24450},{"dy":22,"sl":2,"tp":"upn","vl":"44408","cn":16,"pt":"GO","pr":1600},{"dy":22,"sl":3,"tp":"uph","vl":"63155","cn":19,"pt":"GO","pr":1900},{"dy":22,"sl":4,"tp":"upn","vl":"38771","cn":22,"pt":"GO","pr":2200},{"dy":23,"sl":0,"tp":"fe","vl":"Equip0402","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":23,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":23,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":23,"sl":3,"tp":"upn","vl":"44055","cn":16,"pt":"GO","pr":1600},{"dy":23,"sl":4,"tp":"uph","vl":"48761","cn":18,"pt":"GO","pr":1800},{"dy":23,"sl":5,"tp":"fp","vl":"Actor1216","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":23,"sl":6,"tp":"upn","vl":"78946","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":24,"sl":0,"tp":"fe","vl":"Equip7101","cn":1,"pt":"GO","pr":5000},{"dy":24,"sl":1,"tp":"fe","vl":"Equip6101","cn":1,"pt":"GO","pr":24450},{"dy":24,"sl":2,"tp":"upn","vl":"54180","cn":16,"pt":"GO","pr":1600},{"dy":24,"sl":3,"tp":"uph","vl":"11504","cn":19,"pt":"GO","pr":1900},{"dy":24,"sl":4,"tp":"upn","vl":"18718","cn":22,"pt":"GO","pr":2200},{"dy":25,"sl":0,"tp":"fe","vl":"Equip3401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":25,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":25,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":25,"sl":3,"tp":"upn","vl":"94114","cn":16,"pt":"GO","pr":1600},{"dy":25,"sl":4,"tp":"uph","vl":"67435","cn":18,"pt":"GO","pr":1800},{"dy":25,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":25,"sl":6,"tp":"upn","vl":"43788","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":26,"sl":0,"tp":"fe","vl":"Equip4001","cn":1,"pt":"GO","pr":5000},{"dy":26,"sl":1,"tp":"fe","vl":"Equip5201","cn":1,"pt":"GO","pr":24450},{"dy":26,"sl":2,"tp":"upn","vl":"57510","cn":16,"pt":"GO","pr":1600},{"dy":26,"sl":3,"tp":"uph","vl":"13933","cn":19,"pt":"GO","pr":1900},{"dy":26,"sl":4,"tp":"upn","vl":"63758","cn":22,"pt":"GO","pr":2200},{"dy":27,"sl":0,"tp":"fe","vl":"Equip5401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":27,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":27,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":27,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":27,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":28,"sl":0,"tp":"fe","vl":"Equip0102","cn":1,"pt":"GO","pr":5000},{"dy":28,"sl":1,"tp":"fe","vl":"Equip1102","cn":1,"pt":"GO","pr":24450},{"dy":28,"sl":2,"tp":"upn","vl":"78493","cn":16,"pt":"GO","pr":1600},{"dy":28,"sl":3,"tp":"uph","vl":"65706","cn":19,"pt":"GO","pr":1900},{"dy":28,"sl":4,"tp":"upn","vl":"40322","cn":22,"pt":"GO","pr":2200},{"dy":29,"sl":0,"tp":"fe","vl":"Equip6401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":29,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":29,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":29,"sl":3,"tp":"upn","vl":"70045","cn":16,"pt":"GO","pr":1600},{"dy":29,"sl":4,"tp":"uph","vl":"35320","cn":18,"pt":"GO","pr":1800},{"dy":29,"sl":5,"tp":"fp","vl":"Actor1226","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":29,"sl":6,"tp":"upn","vl":"58062","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":30,"sl":0,"tp":"fe","vl":"Equip4102","cn":1,"pt":"GO","pr":5000},{"dy":30,"sl":1,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":24450},{"dy":30,"sl":2,"tp":"upn","vl":"23308","cn":16,"pt":"GO","pr":1600},{"dy":30,"sl":3,"tp":"uph","vl":"50149","cn":19,"pt":"GO","pr":1900},{"dy":30,"sl":4,"tp":"upn","vl":"10989","cn":22,"pt":"GO","pr":2200},{"dy":31,"sl":0,"tp":"fe","vl":"Equip8401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":31,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":31,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":31,"sl":3,"tp":"upn","vl":"72117","cn":16,"pt":"GO","pr":1600},{"dy":31,"sl":4,"tp":"uph","vl":"75026","cn":18,"pt":"GO","pr":1800},{"dy":31,"sl":5,"tp":"fp","vl":"Actor0233","cn":140,"pt":"DI","pp":340,"pr":120}</v>
       </c>
       <c r="Q217" t="str">
-        <f t="shared" si="22"/>
-        <v/>
+        <f t="shared" ca="1" si="22"/>
+        <v>{"dy":31,"sl":5,"tp":"fp","vl":"Actor0233","cn":140,"pt":"DI","pp":340,"pr":120}</v>
       </c>
     </row>
     <row r="218" spans="1:17">
@@ -21837,16 +22755,22 @@
         <v>6</v>
       </c>
       <c r="C218">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
+      <c r="D218" t="s">
+        <v>106</v>
+      </c>
       <c r="E218" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
+        <f t="shared" ca="1" si="27"/>
+        <v>upn</v>
       </c>
       <c r="F218" t="str">
-        <f t="shared" si="23"/>
-        <v/>
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="G218">
+        <v>27682</v>
       </c>
       <c r="H218" t="str">
         <f>IF(OR(
@@ -21862,13 +22786,28 @@
 "")))))</f>
         <v/>
       </c>
+      <c r="I218">
+        <v>154</v>
+      </c>
+      <c r="K218" t="s">
+        <v>76</v>
+      </c>
+      <c r="M218">
+        <v>130</v>
+      </c>
+      <c r="N218">
+        <v>16</v>
+      </c>
+      <c r="O218">
+        <v>1</v>
+      </c>
       <c r="P218" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":22,"sl":0,"tp":"fe","vl":"Equip8001","cn":1,"pt":"GO","pr":5000},{"dy":22,"sl":1,"tp":"fe","vl":"Equip7102","cn":1,"pt":"GO","pr":24450},{"dy":22,"sl":2,"tp":"upn","vl":"44408","cn":16,"pt":"GO","pr":1600},{"dy":22,"sl":3,"tp":"uph","vl":"63155","cn":19,"pt":"GO","pr":1900},{"dy":22,"sl":4,"tp":"upn","vl":"38771","cn":22,"pt":"GO","pr":2200},{"dy":23,"sl":0,"tp":"fe","vl":"Equip0402","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":23,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":23,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":23,"sl":3,"tp":"upn","vl":"44055","cn":16,"pt":"GO","pr":1600},{"dy":23,"sl":4,"tp":"uph","vl":"48761","cn":18,"pt":"GO","pr":1800},{"dy":23,"sl":5,"tp":"fp","vl":"Actor1216","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":23,"sl":6,"tp":"upn","vl":"78946","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":24,"sl":0,"tp":"fe","vl":"Equip7101","cn":1,"pt":"GO","pr":5000},{"dy":24,"sl":1,"tp":"fe","vl":"Equip6101","cn":1,"pt":"GO","pr":24450},{"dy":24,"sl":2,"tp":"upn","vl":"54180","cn":16,"pt":"GO","pr":1600},{"dy":24,"sl":3,"tp":"uph","vl":"11504","cn":19,"pt":"GO","pr":1900},{"dy":24,"sl":4,"tp":"upn","vl":"18718","cn":22,"pt":"GO","pr":2200},{"dy":25,"sl":0,"tp":"fe","vl":"Equip3401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":25,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":25,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":25,"sl":3,"tp":"upn","vl":"94114","cn":16,"pt":"GO","pr":1600},{"dy":25,"sl":4,"tp":"uph","vl":"67435","cn":18,"pt":"GO","pr":1800},{"dy":25,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":25,"sl":6,"tp":"upn","vl":"43788","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":26,"sl":0,"tp":"fe","vl":"Equip4001","cn":1,"pt":"GO","pr":5000},{"dy":26,"sl":1,"tp":"fe","vl":"Equip5201","cn":1,"pt":"GO","pr":24450},{"dy":26,"sl":2,"tp":"upn","vl":"57510","cn":16,"pt":"GO","pr":1600},{"dy":26,"sl":3,"tp":"uph","vl":"13933","cn":19,"pt":"GO","pr":1900},{"dy":26,"sl":4,"tp":"upn","vl":"63758","cn":22,"pt":"GO","pr":2200},{"dy":27,"sl":0,"tp":"fe","vl":"Equip5401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":27,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":27,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":27,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":27,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":28,"sl":0,"tp":"fe","vl":"Equip0102","cn":1,"pt":"GO","pr":5000},{"dy":28,"sl":1,"tp":"fe","vl":"Equip1102","cn":1,"pt":"GO","pr":24450},{"dy":28,"sl":2,"tp":"upn","vl":"78493","cn":16,"pt":"GO","pr":1600},{"dy":28,"sl":3,"tp":"uph","vl":"65706","cn":19,"pt":"GO","pr":1900},{"dy":28,"sl":4,"tp":"upn","vl":"40322","cn":22,"pt":"GO","pr":2200},{"dy":29,"sl":0,"tp":"fe","vl":"Equip6401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":29,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":29,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":29,"sl":3,"tp":"upn","vl":"70045","cn":16,"pt":"GO","pr":1600},{"dy":29,"sl":4,"tp":"uph","vl":"35320","cn":18,"pt":"GO","pr":1800},{"dy":29,"sl":5,"tp":"fp","vl":"Actor1226","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":29,"sl":6,"tp":"upn","vl":"58062","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":30,"sl":0,"tp":"fe","vl":"Equip4102","cn":1,"pt":"GO","pr":5000},{"dy":30,"sl":1,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":24450},{"dy":30,"sl":2,"tp":"upn","vl":"23308","cn":16,"pt":"GO","pr":1600},{"dy":30,"sl":3,"tp":"uph","vl":"50149","cn":19,"pt":"GO","pr":1900},{"dy":30,"sl":4,"tp":"upn","vl":"10989","cn":22,"pt":"GO","pr":2200},{"dy":31,"sl":0,"tp":"fe","vl":"Equip8401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":31,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":31,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":31,"sl":3,"tp":"upn","vl":"72117","cn":16,"pt":"GO","pr":1600},{"dy":31,"sl":4,"tp":"uph","vl":"75026","cn":18,"pt":"GO","pr":1800},{"dy":31,"sl":5,"tp":"fp","vl":"Actor0233","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":31,"sl":6,"tp":"upn","vl":"27682","cn":154,"pt":"DI","pp":130,"pr":16}</v>
       </c>
       <c r="Q218" t="str">
-        <f t="shared" si="22"/>
-        <v/>
+        <f t="shared" ca="1" si="22"/>
+        <v>{"dy":31,"sl":6,"tp":"upn","vl":"27682","cn":154,"pt":"DI","pp":130,"pr":16}</v>
       </c>
     </row>
     <row r="219" spans="1:17">
@@ -21879,15 +22818,18 @@
         <v>7</v>
       </c>
       <c r="C219">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="E219" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ref="E194:E257" ca="1" si="28">IF(ISBLANK(D219),"",
+VLOOKUP(D219,OFFSET(INDIRECT("$A:$B"),0,MATCH(D$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
         <v/>
       </c>
       <c r="F219" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" ref="F195:F258" si="29">IF(ISBLANK($D219),"",
+IF(AND($B219&gt;=VLOOKUP($D219,$S:$V,3,0),$B219&lt;=VLOOKUP($D219,$S:$V,4,0)),"","슬롯타입이상"))</f>
         <v/>
       </c>
       <c r="H219" t="str">
@@ -21905,8 +22847,8 @@
         <v/>
       </c>
       <c r="P219" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":22,"sl":0,"tp":"fe","vl":"Equip8001","cn":1,"pt":"GO","pr":5000},{"dy":22,"sl":1,"tp":"fe","vl":"Equip7102","cn":1,"pt":"GO","pr":24450},{"dy":22,"sl":2,"tp":"upn","vl":"44408","cn":16,"pt":"GO","pr":1600},{"dy":22,"sl":3,"tp":"uph","vl":"63155","cn":19,"pt":"GO","pr":1900},{"dy":22,"sl":4,"tp":"upn","vl":"38771","cn":22,"pt":"GO","pr":2200},{"dy":23,"sl":0,"tp":"fe","vl":"Equip0402","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":23,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":23,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":23,"sl":3,"tp":"upn","vl":"44055","cn":16,"pt":"GO","pr":1600},{"dy":23,"sl":4,"tp":"uph","vl":"48761","cn":18,"pt":"GO","pr":1800},{"dy":23,"sl":5,"tp":"fp","vl":"Actor1216","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":23,"sl":6,"tp":"upn","vl":"78946","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":24,"sl":0,"tp":"fe","vl":"Equip7101","cn":1,"pt":"GO","pr":5000},{"dy":24,"sl":1,"tp":"fe","vl":"Equip6101","cn":1,"pt":"GO","pr":24450},{"dy":24,"sl":2,"tp":"upn","vl":"54180","cn":16,"pt":"GO","pr":1600},{"dy":24,"sl":3,"tp":"uph","vl":"11504","cn":19,"pt":"GO","pr":1900},{"dy":24,"sl":4,"tp":"upn","vl":"18718","cn":22,"pt":"GO","pr":2200},{"dy":25,"sl":0,"tp":"fe","vl":"Equip3401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":25,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":25,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":25,"sl":3,"tp":"upn","vl":"94114","cn":16,"pt":"GO","pr":1600},{"dy":25,"sl":4,"tp":"uph","vl":"67435","cn":18,"pt":"GO","pr":1800},{"dy":25,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":25,"sl":6,"tp":"upn","vl":"43788","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":26,"sl":0,"tp":"fe","vl":"Equip4001","cn":1,"pt":"GO","pr":5000},{"dy":26,"sl":1,"tp":"fe","vl":"Equip5201","cn":1,"pt":"GO","pr":24450},{"dy":26,"sl":2,"tp":"upn","vl":"57510","cn":16,"pt":"GO","pr":1600},{"dy":26,"sl":3,"tp":"uph","vl":"13933","cn":19,"pt":"GO","pr":1900},{"dy":26,"sl":4,"tp":"upn","vl":"63758","cn":22,"pt":"GO","pr":2200},{"dy":27,"sl":0,"tp":"fe","vl":"Equip5401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":27,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":27,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":27,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":27,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":28,"sl":0,"tp":"fe","vl":"Equip0102","cn":1,"pt":"GO","pr":5000},{"dy":28,"sl":1,"tp":"fe","vl":"Equip1102","cn":1,"pt":"GO","pr":24450},{"dy":28,"sl":2,"tp":"upn","vl":"78493","cn":16,"pt":"GO","pr":1600},{"dy":28,"sl":3,"tp":"uph","vl":"65706","cn":19,"pt":"GO","pr":1900},{"dy":28,"sl":4,"tp":"upn","vl":"40322","cn":22,"pt":"GO","pr":2200},{"dy":29,"sl":0,"tp":"fe","vl":"Equip6401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":29,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":29,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":29,"sl":3,"tp":"upn","vl":"70045","cn":16,"pt":"GO","pr":1600},{"dy":29,"sl":4,"tp":"uph","vl":"35320","cn":18,"pt":"GO","pr":1800},{"dy":29,"sl":5,"tp":"fp","vl":"Actor1226","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":29,"sl":6,"tp":"upn","vl":"58062","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":30,"sl":0,"tp":"fe","vl":"Equip4102","cn":1,"pt":"GO","pr":5000},{"dy":30,"sl":1,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":24450},{"dy":30,"sl":2,"tp":"upn","vl":"23308","cn":16,"pt":"GO","pr":1600},{"dy":30,"sl":3,"tp":"uph","vl":"50149","cn":19,"pt":"GO","pr":1900},{"dy":30,"sl":4,"tp":"upn","vl":"10989","cn":22,"pt":"GO","pr":2200},{"dy":31,"sl":0,"tp":"fe","vl":"Equip8401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":31,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":31,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":31,"sl":3,"tp":"upn","vl":"72117","cn":16,"pt":"GO","pr":1600},{"dy":31,"sl":4,"tp":"uph","vl":"75026","cn":18,"pt":"GO","pr":1800},{"dy":31,"sl":5,"tp":"fp","vl":"Actor0233","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":31,"sl":6,"tp":"upn","vl":"27682","cn":154,"pt":"DI","pp":130,"pr":16}</v>
       </c>
       <c r="Q219" t="str">
         <f t="shared" si="22"/>
@@ -21921,15 +22863,15 @@
         <v>7</v>
       </c>
       <c r="C220">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="E220" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="F220" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="H220" t="str">
@@ -21947,8 +22889,8 @@
         <v/>
       </c>
       <c r="P220" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":22,"sl":0,"tp":"fe","vl":"Equip8001","cn":1,"pt":"GO","pr":5000},{"dy":22,"sl":1,"tp":"fe","vl":"Equip7102","cn":1,"pt":"GO","pr":24450},{"dy":22,"sl":2,"tp":"upn","vl":"44408","cn":16,"pt":"GO","pr":1600},{"dy":22,"sl":3,"tp":"uph","vl":"63155","cn":19,"pt":"GO","pr":1900},{"dy":22,"sl":4,"tp":"upn","vl":"38771","cn":22,"pt":"GO","pr":2200},{"dy":23,"sl":0,"tp":"fe","vl":"Equip0402","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":23,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":23,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":23,"sl":3,"tp":"upn","vl":"44055","cn":16,"pt":"GO","pr":1600},{"dy":23,"sl":4,"tp":"uph","vl":"48761","cn":18,"pt":"GO","pr":1800},{"dy":23,"sl":5,"tp":"fp","vl":"Actor1216","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":23,"sl":6,"tp":"upn","vl":"78946","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":24,"sl":0,"tp":"fe","vl":"Equip7101","cn":1,"pt":"GO","pr":5000},{"dy":24,"sl":1,"tp":"fe","vl":"Equip6101","cn":1,"pt":"GO","pr":24450},{"dy":24,"sl":2,"tp":"upn","vl":"54180","cn":16,"pt":"GO","pr":1600},{"dy":24,"sl":3,"tp":"uph","vl":"11504","cn":19,"pt":"GO","pr":1900},{"dy":24,"sl":4,"tp":"upn","vl":"18718","cn":22,"pt":"GO","pr":2200},{"dy":25,"sl":0,"tp":"fe","vl":"Equip3401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":25,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":25,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":25,"sl":3,"tp":"upn","vl":"94114","cn":16,"pt":"GO","pr":1600},{"dy":25,"sl":4,"tp":"uph","vl":"67435","cn":18,"pt":"GO","pr":1800},{"dy":25,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":25,"sl":6,"tp":"upn","vl":"43788","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":26,"sl":0,"tp":"fe","vl":"Equip4001","cn":1,"pt":"GO","pr":5000},{"dy":26,"sl":1,"tp":"fe","vl":"Equip5201","cn":1,"pt":"GO","pr":24450},{"dy":26,"sl":2,"tp":"upn","vl":"57510","cn":16,"pt":"GO","pr":1600},{"dy":26,"sl":3,"tp":"uph","vl":"13933","cn":19,"pt":"GO","pr":1900},{"dy":26,"sl":4,"tp":"upn","vl":"63758","cn":22,"pt":"GO","pr":2200},{"dy":27,"sl":0,"tp":"fe","vl":"Equip5401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":27,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":27,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":27,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":27,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":28,"sl":0,"tp":"fe","vl":"Equip0102","cn":1,"pt":"GO","pr":5000},{"dy":28,"sl":1,"tp":"fe","vl":"Equip1102","cn":1,"pt":"GO","pr":24450},{"dy":28,"sl":2,"tp":"upn","vl":"78493","cn":16,"pt":"GO","pr":1600},{"dy":28,"sl":3,"tp":"uph","vl":"65706","cn":19,"pt":"GO","pr":1900},{"dy":28,"sl":4,"tp":"upn","vl":"40322","cn":22,"pt":"GO","pr":2200},{"dy":29,"sl":0,"tp":"fe","vl":"Equip6401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":29,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":29,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":29,"sl":3,"tp":"upn","vl":"70045","cn":16,"pt":"GO","pr":1600},{"dy":29,"sl":4,"tp":"uph","vl":"35320","cn":18,"pt":"GO","pr":1800},{"dy":29,"sl":5,"tp":"fp","vl":"Actor1226","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":29,"sl":6,"tp":"upn","vl":"58062","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":30,"sl":0,"tp":"fe","vl":"Equip4102","cn":1,"pt":"GO","pr":5000},{"dy":30,"sl":1,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":24450},{"dy":30,"sl":2,"tp":"upn","vl":"23308","cn":16,"pt":"GO","pr":1600},{"dy":30,"sl":3,"tp":"uph","vl":"50149","cn":19,"pt":"GO","pr":1900},{"dy":30,"sl":4,"tp":"upn","vl":"10989","cn":22,"pt":"GO","pr":2200},{"dy":31,"sl":0,"tp":"fe","vl":"Equip8401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":31,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":31,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":31,"sl":3,"tp":"upn","vl":"72117","cn":16,"pt":"GO","pr":1600},{"dy":31,"sl":4,"tp":"uph","vl":"75026","cn":18,"pt":"GO","pr":1800},{"dy":31,"sl":5,"tp":"fp","vl":"Actor0233","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":31,"sl":6,"tp":"upn","vl":"27682","cn":154,"pt":"DI","pp":130,"pr":16}</v>
       </c>
       <c r="Q220" t="str">
         <f t="shared" si="22"/>
@@ -21963,15 +22905,15 @@
         <v>7</v>
       </c>
       <c r="C221">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="E221" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="F221" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="H221" t="str">
@@ -21989,8 +22931,8 @@
         <v/>
       </c>
       <c r="P221" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":22,"sl":0,"tp":"fe","vl":"Equip8001","cn":1,"pt":"GO","pr":5000},{"dy":22,"sl":1,"tp":"fe","vl":"Equip7102","cn":1,"pt":"GO","pr":24450},{"dy":22,"sl":2,"tp":"upn","vl":"44408","cn":16,"pt":"GO","pr":1600},{"dy":22,"sl":3,"tp":"uph","vl":"63155","cn":19,"pt":"GO","pr":1900},{"dy":22,"sl":4,"tp":"upn","vl":"38771","cn":22,"pt":"GO","pr":2200},{"dy":23,"sl":0,"tp":"fe","vl":"Equip0402","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":23,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":23,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":23,"sl":3,"tp":"upn","vl":"44055","cn":16,"pt":"GO","pr":1600},{"dy":23,"sl":4,"tp":"uph","vl":"48761","cn":18,"pt":"GO","pr":1800},{"dy":23,"sl":5,"tp":"fp","vl":"Actor1216","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":23,"sl":6,"tp":"upn","vl":"78946","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":24,"sl":0,"tp":"fe","vl":"Equip7101","cn":1,"pt":"GO","pr":5000},{"dy":24,"sl":1,"tp":"fe","vl":"Equip6101","cn":1,"pt":"GO","pr":24450},{"dy":24,"sl":2,"tp":"upn","vl":"54180","cn":16,"pt":"GO","pr":1600},{"dy":24,"sl":3,"tp":"uph","vl":"11504","cn":19,"pt":"GO","pr":1900},{"dy":24,"sl":4,"tp":"upn","vl":"18718","cn":22,"pt":"GO","pr":2200},{"dy":25,"sl":0,"tp":"fe","vl":"Equip3401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":25,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":25,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":25,"sl":3,"tp":"upn","vl":"94114","cn":16,"pt":"GO","pr":1600},{"dy":25,"sl":4,"tp":"uph","vl":"67435","cn":18,"pt":"GO","pr":1800},{"dy":25,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":25,"sl":6,"tp":"upn","vl":"43788","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":26,"sl":0,"tp":"fe","vl":"Equip4001","cn":1,"pt":"GO","pr":5000},{"dy":26,"sl":1,"tp":"fe","vl":"Equip5201","cn":1,"pt":"GO","pr":24450},{"dy":26,"sl":2,"tp":"upn","vl":"57510","cn":16,"pt":"GO","pr":1600},{"dy":26,"sl":3,"tp":"uph","vl":"13933","cn":19,"pt":"GO","pr":1900},{"dy":26,"sl":4,"tp":"upn","vl":"63758","cn":22,"pt":"GO","pr":2200},{"dy":27,"sl":0,"tp":"fe","vl":"Equip5401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":27,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":27,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":27,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":27,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":28,"sl":0,"tp":"fe","vl":"Equip0102","cn":1,"pt":"GO","pr":5000},{"dy":28,"sl":1,"tp":"fe","vl":"Equip1102","cn":1,"pt":"GO","pr":24450},{"dy":28,"sl":2,"tp":"upn","vl":"78493","cn":16,"pt":"GO","pr":1600},{"dy":28,"sl":3,"tp":"uph","vl":"65706","cn":19,"pt":"GO","pr":1900},{"dy":28,"sl":4,"tp":"upn","vl":"40322","cn":22,"pt":"GO","pr":2200},{"dy":29,"sl":0,"tp":"fe","vl":"Equip6401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":29,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":29,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":29,"sl":3,"tp":"upn","vl":"70045","cn":16,"pt":"GO","pr":1600},{"dy":29,"sl":4,"tp":"uph","vl":"35320","cn":18,"pt":"GO","pr":1800},{"dy":29,"sl":5,"tp":"fp","vl":"Actor1226","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":29,"sl":6,"tp":"upn","vl":"58062","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":30,"sl":0,"tp":"fe","vl":"Equip4102","cn":1,"pt":"GO","pr":5000},{"dy":30,"sl":1,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":24450},{"dy":30,"sl":2,"tp":"upn","vl":"23308","cn":16,"pt":"GO","pr":1600},{"dy":30,"sl":3,"tp":"uph","vl":"50149","cn":19,"pt":"GO","pr":1900},{"dy":30,"sl":4,"tp":"upn","vl":"10989","cn":22,"pt":"GO","pr":2200},{"dy":31,"sl":0,"tp":"fe","vl":"Equip8401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":31,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":31,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":31,"sl":3,"tp":"upn","vl":"72117","cn":16,"pt":"GO","pr":1600},{"dy":31,"sl":4,"tp":"uph","vl":"75026","cn":18,"pt":"GO","pr":1800},{"dy":31,"sl":5,"tp":"fp","vl":"Actor0233","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":31,"sl":6,"tp":"upn","vl":"27682","cn":154,"pt":"DI","pp":130,"pr":16}</v>
       </c>
       <c r="Q221" t="str">
         <f t="shared" si="22"/>
@@ -22005,15 +22947,15 @@
         <v>7</v>
       </c>
       <c r="C222">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="E222" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="F222" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="H222" t="str">
@@ -22031,8 +22973,8 @@
         <v/>
       </c>
       <c r="P222" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":22,"sl":0,"tp":"fe","vl":"Equip8001","cn":1,"pt":"GO","pr":5000},{"dy":22,"sl":1,"tp":"fe","vl":"Equip7102","cn":1,"pt":"GO","pr":24450},{"dy":22,"sl":2,"tp":"upn","vl":"44408","cn":16,"pt":"GO","pr":1600},{"dy":22,"sl":3,"tp":"uph","vl":"63155","cn":19,"pt":"GO","pr":1900},{"dy":22,"sl":4,"tp":"upn","vl":"38771","cn":22,"pt":"GO","pr":2200},{"dy":23,"sl":0,"tp":"fe","vl":"Equip0402","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":23,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":23,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":23,"sl":3,"tp":"upn","vl":"44055","cn":16,"pt":"GO","pr":1600},{"dy":23,"sl":4,"tp":"uph","vl":"48761","cn":18,"pt":"GO","pr":1800},{"dy":23,"sl":5,"tp":"fp","vl":"Actor1216","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":23,"sl":6,"tp":"upn","vl":"78946","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":24,"sl":0,"tp":"fe","vl":"Equip7101","cn":1,"pt":"GO","pr":5000},{"dy":24,"sl":1,"tp":"fe","vl":"Equip6101","cn":1,"pt":"GO","pr":24450},{"dy":24,"sl":2,"tp":"upn","vl":"54180","cn":16,"pt":"GO","pr":1600},{"dy":24,"sl":3,"tp":"uph","vl":"11504","cn":19,"pt":"GO","pr":1900},{"dy":24,"sl":4,"tp":"upn","vl":"18718","cn":22,"pt":"GO","pr":2200},{"dy":25,"sl":0,"tp":"fe","vl":"Equip3401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":25,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":25,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":25,"sl":3,"tp":"upn","vl":"94114","cn":16,"pt":"GO","pr":1600},{"dy":25,"sl":4,"tp":"uph","vl":"67435","cn":18,"pt":"GO","pr":1800},{"dy":25,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":25,"sl":6,"tp":"upn","vl":"43788","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":26,"sl":0,"tp":"fe","vl":"Equip4001","cn":1,"pt":"GO","pr":5000},{"dy":26,"sl":1,"tp":"fe","vl":"Equip5201","cn":1,"pt":"GO","pr":24450},{"dy":26,"sl":2,"tp":"upn","vl":"57510","cn":16,"pt":"GO","pr":1600},{"dy":26,"sl":3,"tp":"uph","vl":"13933","cn":19,"pt":"GO","pr":1900},{"dy":26,"sl":4,"tp":"upn","vl":"63758","cn":22,"pt":"GO","pr":2200},{"dy":27,"sl":0,"tp":"fe","vl":"Equip5401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":27,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":27,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":27,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":27,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":28,"sl":0,"tp":"fe","vl":"Equip0102","cn":1,"pt":"GO","pr":5000},{"dy":28,"sl":1,"tp":"fe","vl":"Equip1102","cn":1,"pt":"GO","pr":24450},{"dy":28,"sl":2,"tp":"upn","vl":"78493","cn":16,"pt":"GO","pr":1600},{"dy":28,"sl":3,"tp":"uph","vl":"65706","cn":19,"pt":"GO","pr":1900},{"dy":28,"sl":4,"tp":"upn","vl":"40322","cn":22,"pt":"GO","pr":2200},{"dy":29,"sl":0,"tp":"fe","vl":"Equip6401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":29,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":29,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":29,"sl":3,"tp":"upn","vl":"70045","cn":16,"pt":"GO","pr":1600},{"dy":29,"sl":4,"tp":"uph","vl":"35320","cn":18,"pt":"GO","pr":1800},{"dy":29,"sl":5,"tp":"fp","vl":"Actor1226","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":29,"sl":6,"tp":"upn","vl":"58062","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":30,"sl":0,"tp":"fe","vl":"Equip4102","cn":1,"pt":"GO","pr":5000},{"dy":30,"sl":1,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":24450},{"dy":30,"sl":2,"tp":"upn","vl":"23308","cn":16,"pt":"GO","pr":1600},{"dy":30,"sl":3,"tp":"uph","vl":"50149","cn":19,"pt":"GO","pr":1900},{"dy":30,"sl":4,"tp":"upn","vl":"10989","cn":22,"pt":"GO","pr":2200},{"dy":31,"sl":0,"tp":"fe","vl":"Equip8401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":31,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":31,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":31,"sl":3,"tp":"upn","vl":"72117","cn":16,"pt":"GO","pr":1600},{"dy":31,"sl":4,"tp":"uph","vl":"75026","cn":18,"pt":"GO","pr":1800},{"dy":31,"sl":5,"tp":"fp","vl":"Actor0233","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":31,"sl":6,"tp":"upn","vl":"27682","cn":154,"pt":"DI","pp":130,"pr":16}</v>
       </c>
       <c r="Q222" t="str">
         <f t="shared" si="22"/>
@@ -22047,15 +22989,15 @@
         <v>7</v>
       </c>
       <c r="C223">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="E223" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="F223" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="H223" t="str">
@@ -22073,8 +23015,8 @@
         <v/>
       </c>
       <c r="P223" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":22,"sl":0,"tp":"fe","vl":"Equip8001","cn":1,"pt":"GO","pr":5000},{"dy":22,"sl":1,"tp":"fe","vl":"Equip7102","cn":1,"pt":"GO","pr":24450},{"dy":22,"sl":2,"tp":"upn","vl":"44408","cn":16,"pt":"GO","pr":1600},{"dy":22,"sl":3,"tp":"uph","vl":"63155","cn":19,"pt":"GO","pr":1900},{"dy":22,"sl":4,"tp":"upn","vl":"38771","cn":22,"pt":"GO","pr":2200},{"dy":23,"sl":0,"tp":"fe","vl":"Equip0402","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":23,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":23,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":23,"sl":3,"tp":"upn","vl":"44055","cn":16,"pt":"GO","pr":1600},{"dy":23,"sl":4,"tp":"uph","vl":"48761","cn":18,"pt":"GO","pr":1800},{"dy":23,"sl":5,"tp":"fp","vl":"Actor1216","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":23,"sl":6,"tp":"upn","vl":"78946","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":24,"sl":0,"tp":"fe","vl":"Equip7101","cn":1,"pt":"GO","pr":5000},{"dy":24,"sl":1,"tp":"fe","vl":"Equip6101","cn":1,"pt":"GO","pr":24450},{"dy":24,"sl":2,"tp":"upn","vl":"54180","cn":16,"pt":"GO","pr":1600},{"dy":24,"sl":3,"tp":"uph","vl":"11504","cn":19,"pt":"GO","pr":1900},{"dy":24,"sl":4,"tp":"upn","vl":"18718","cn":22,"pt":"GO","pr":2200},{"dy":25,"sl":0,"tp":"fe","vl":"Equip3401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":25,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":25,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":25,"sl":3,"tp":"upn","vl":"94114","cn":16,"pt":"GO","pr":1600},{"dy":25,"sl":4,"tp":"uph","vl":"67435","cn":18,"pt":"GO","pr":1800},{"dy":25,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":25,"sl":6,"tp":"upn","vl":"43788","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":26,"sl":0,"tp":"fe","vl":"Equip4001","cn":1,"pt":"GO","pr":5000},{"dy":26,"sl":1,"tp":"fe","vl":"Equip5201","cn":1,"pt":"GO","pr":24450},{"dy":26,"sl":2,"tp":"upn","vl":"57510","cn":16,"pt":"GO","pr":1600},{"dy":26,"sl":3,"tp":"uph","vl":"13933","cn":19,"pt":"GO","pr":1900},{"dy":26,"sl":4,"tp":"upn","vl":"63758","cn":22,"pt":"GO","pr":2200},{"dy":27,"sl":0,"tp":"fe","vl":"Equip5401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":27,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":27,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":27,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":27,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":28,"sl":0,"tp":"fe","vl":"Equip0102","cn":1,"pt":"GO","pr":5000},{"dy":28,"sl":1,"tp":"fe","vl":"Equip1102","cn":1,"pt":"GO","pr":24450},{"dy":28,"sl":2,"tp":"upn","vl":"78493","cn":16,"pt":"GO","pr":1600},{"dy":28,"sl":3,"tp":"uph","vl":"65706","cn":19,"pt":"GO","pr":1900},{"dy":28,"sl":4,"tp":"upn","vl":"40322","cn":22,"pt":"GO","pr":2200},{"dy":29,"sl":0,"tp":"fe","vl":"Equip6401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":29,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":29,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":29,"sl":3,"tp":"upn","vl":"70045","cn":16,"pt":"GO","pr":1600},{"dy":29,"sl":4,"tp":"uph","vl":"35320","cn":18,"pt":"GO","pr":1800},{"dy":29,"sl":5,"tp":"fp","vl":"Actor1226","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":29,"sl":6,"tp":"upn","vl":"58062","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":30,"sl":0,"tp":"fe","vl":"Equip4102","cn":1,"pt":"GO","pr":5000},{"dy":30,"sl":1,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":24450},{"dy":30,"sl":2,"tp":"upn","vl":"23308","cn":16,"pt":"GO","pr":1600},{"dy":30,"sl":3,"tp":"uph","vl":"50149","cn":19,"pt":"GO","pr":1900},{"dy":30,"sl":4,"tp":"upn","vl":"10989","cn":22,"pt":"GO","pr":2200},{"dy":31,"sl":0,"tp":"fe","vl":"Equip8401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":31,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":31,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":31,"sl":3,"tp":"upn","vl":"72117","cn":16,"pt":"GO","pr":1600},{"dy":31,"sl":4,"tp":"uph","vl":"75026","cn":18,"pt":"GO","pr":1800},{"dy":31,"sl":5,"tp":"fp","vl":"Actor0233","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":31,"sl":6,"tp":"upn","vl":"27682","cn":154,"pt":"DI","pp":130,"pr":16}</v>
       </c>
       <c r="Q223" t="str">
         <f t="shared" si="22"/>
@@ -22089,15 +23031,15 @@
         <v>7</v>
       </c>
       <c r="C224">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="E224" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="F224" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="H224" t="str">
@@ -22115,8 +23057,8 @@
         <v/>
       </c>
       <c r="P224" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":22,"sl":0,"tp":"fe","vl":"Equip8001","cn":1,"pt":"GO","pr":5000},{"dy":22,"sl":1,"tp":"fe","vl":"Equip7102","cn":1,"pt":"GO","pr":24450},{"dy":22,"sl":2,"tp":"upn","vl":"44408","cn":16,"pt":"GO","pr":1600},{"dy":22,"sl":3,"tp":"uph","vl":"63155","cn":19,"pt":"GO","pr":1900},{"dy":22,"sl":4,"tp":"upn","vl":"38771","cn":22,"pt":"GO","pr":2200},{"dy":23,"sl":0,"tp":"fe","vl":"Equip0402","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":23,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":23,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":23,"sl":3,"tp":"upn","vl":"44055","cn":16,"pt":"GO","pr":1600},{"dy":23,"sl":4,"tp":"uph","vl":"48761","cn":18,"pt":"GO","pr":1800},{"dy":23,"sl":5,"tp":"fp","vl":"Actor1216","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":23,"sl":6,"tp":"upn","vl":"78946","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":24,"sl":0,"tp":"fe","vl":"Equip7101","cn":1,"pt":"GO","pr":5000},{"dy":24,"sl":1,"tp":"fe","vl":"Equip6101","cn":1,"pt":"GO","pr":24450},{"dy":24,"sl":2,"tp":"upn","vl":"54180","cn":16,"pt":"GO","pr":1600},{"dy":24,"sl":3,"tp":"uph","vl":"11504","cn":19,"pt":"GO","pr":1900},{"dy":24,"sl":4,"tp":"upn","vl":"18718","cn":22,"pt":"GO","pr":2200},{"dy":25,"sl":0,"tp":"fe","vl":"Equip3401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":25,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":25,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":25,"sl":3,"tp":"upn","vl":"94114","cn":16,"pt":"GO","pr":1600},{"dy":25,"sl":4,"tp":"uph","vl":"67435","cn":18,"pt":"GO","pr":1800},{"dy":25,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":25,"sl":6,"tp":"upn","vl":"43788","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":26,"sl":0,"tp":"fe","vl":"Equip4001","cn":1,"pt":"GO","pr":5000},{"dy":26,"sl":1,"tp":"fe","vl":"Equip5201","cn":1,"pt":"GO","pr":24450},{"dy":26,"sl":2,"tp":"upn","vl":"57510","cn":16,"pt":"GO","pr":1600},{"dy":26,"sl":3,"tp":"uph","vl":"13933","cn":19,"pt":"GO","pr":1900},{"dy":26,"sl":4,"tp":"upn","vl":"63758","cn":22,"pt":"GO","pr":2200},{"dy":27,"sl":0,"tp":"fe","vl":"Equip5401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":27,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":27,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":27,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":27,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":28,"sl":0,"tp":"fe","vl":"Equip0102","cn":1,"pt":"GO","pr":5000},{"dy":28,"sl":1,"tp":"fe","vl":"Equip1102","cn":1,"pt":"GO","pr":24450},{"dy":28,"sl":2,"tp":"upn","vl":"78493","cn":16,"pt":"GO","pr":1600},{"dy":28,"sl":3,"tp":"uph","vl":"65706","cn":19,"pt":"GO","pr":1900},{"dy":28,"sl":4,"tp":"upn","vl":"40322","cn":22,"pt":"GO","pr":2200},{"dy":29,"sl":0,"tp":"fe","vl":"Equip6401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":29,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":29,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":29,"sl":3,"tp":"upn","vl":"70045","cn":16,"pt":"GO","pr":1600},{"dy":29,"sl":4,"tp":"uph","vl":"35320","cn":18,"pt":"GO","pr":1800},{"dy":29,"sl":5,"tp":"fp","vl":"Actor1226","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":29,"sl":6,"tp":"upn","vl":"58062","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":30,"sl":0,"tp":"fe","vl":"Equip4102","cn":1,"pt":"GO","pr":5000},{"dy":30,"sl":1,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":24450},{"dy":30,"sl":2,"tp":"upn","vl":"23308","cn":16,"pt":"GO","pr":1600},{"dy":30,"sl":3,"tp":"uph","vl":"50149","cn":19,"pt":"GO","pr":1900},{"dy":30,"sl":4,"tp":"upn","vl":"10989","cn":22,"pt":"GO","pr":2200},{"dy":31,"sl":0,"tp":"fe","vl":"Equip8401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":31,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":31,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":31,"sl":3,"tp":"upn","vl":"72117","cn":16,"pt":"GO","pr":1600},{"dy":31,"sl":4,"tp":"uph","vl":"75026","cn":18,"pt":"GO","pr":1800},{"dy":31,"sl":5,"tp":"fp","vl":"Actor0233","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":31,"sl":6,"tp":"upn","vl":"27682","cn":154,"pt":"DI","pp":130,"pr":16}</v>
       </c>
       <c r="Q224" t="str">
         <f t="shared" si="22"/>
@@ -22131,15 +23073,15 @@
         <v>7</v>
       </c>
       <c r="C225">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="E225" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="F225" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="H225" t="str">
@@ -22157,8 +23099,8 @@
         <v/>
       </c>
       <c r="P225" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":22,"sl":0,"tp":"fe","vl":"Equip8001","cn":1,"pt":"GO","pr":5000},{"dy":22,"sl":1,"tp":"fe","vl":"Equip7102","cn":1,"pt":"GO","pr":24450},{"dy":22,"sl":2,"tp":"upn","vl":"44408","cn":16,"pt":"GO","pr":1600},{"dy":22,"sl":3,"tp":"uph","vl":"63155","cn":19,"pt":"GO","pr":1900},{"dy":22,"sl":4,"tp":"upn","vl":"38771","cn":22,"pt":"GO","pr":2200},{"dy":23,"sl":0,"tp":"fe","vl":"Equip0402","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":23,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":23,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":23,"sl":3,"tp":"upn","vl":"44055","cn":16,"pt":"GO","pr":1600},{"dy":23,"sl":4,"tp":"uph","vl":"48761","cn":18,"pt":"GO","pr":1800},{"dy":23,"sl":5,"tp":"fp","vl":"Actor1216","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":23,"sl":6,"tp":"upn","vl":"78946","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":24,"sl":0,"tp":"fe","vl":"Equip7101","cn":1,"pt":"GO","pr":5000},{"dy":24,"sl":1,"tp":"fe","vl":"Equip6101","cn":1,"pt":"GO","pr":24450},{"dy":24,"sl":2,"tp":"upn","vl":"54180","cn":16,"pt":"GO","pr":1600},{"dy":24,"sl":3,"tp":"uph","vl":"11504","cn":19,"pt":"GO","pr":1900},{"dy":24,"sl":4,"tp":"upn","vl":"18718","cn":22,"pt":"GO","pr":2200},{"dy":25,"sl":0,"tp":"fe","vl":"Equip3401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":25,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":25,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":25,"sl":3,"tp":"upn","vl":"94114","cn":16,"pt":"GO","pr":1600},{"dy":25,"sl":4,"tp":"uph","vl":"67435","cn":18,"pt":"GO","pr":1800},{"dy":25,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":25,"sl":6,"tp":"upn","vl":"43788","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":26,"sl":0,"tp":"fe","vl":"Equip4001","cn":1,"pt":"GO","pr":5000},{"dy":26,"sl":1,"tp":"fe","vl":"Equip5201","cn":1,"pt":"GO","pr":24450},{"dy":26,"sl":2,"tp":"upn","vl":"57510","cn":16,"pt":"GO","pr":1600},{"dy":26,"sl":3,"tp":"uph","vl":"13933","cn":19,"pt":"GO","pr":1900},{"dy":26,"sl":4,"tp":"upn","vl":"63758","cn":22,"pt":"GO","pr":2200},{"dy":27,"sl":0,"tp":"fe","vl":"Equip5401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":27,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":27,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":27,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":27,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":28,"sl":0,"tp":"fe","vl":"Equip0102","cn":1,"pt":"GO","pr":5000},{"dy":28,"sl":1,"tp":"fe","vl":"Equip1102","cn":1,"pt":"GO","pr":24450},{"dy":28,"sl":2,"tp":"upn","vl":"78493","cn":16,"pt":"GO","pr":1600},{"dy":28,"sl":3,"tp":"uph","vl":"65706","cn":19,"pt":"GO","pr":1900},{"dy":28,"sl":4,"tp":"upn","vl":"40322","cn":22,"pt":"GO","pr":2200},{"dy":29,"sl":0,"tp":"fe","vl":"Equip6401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":29,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":29,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":29,"sl":3,"tp":"upn","vl":"70045","cn":16,"pt":"GO","pr":1600},{"dy":29,"sl":4,"tp":"uph","vl":"35320","cn":18,"pt":"GO","pr":1800},{"dy":29,"sl":5,"tp":"fp","vl":"Actor1226","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":29,"sl":6,"tp":"upn","vl":"58062","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":30,"sl":0,"tp":"fe","vl":"Equip4102","cn":1,"pt":"GO","pr":5000},{"dy":30,"sl":1,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":24450},{"dy":30,"sl":2,"tp":"upn","vl":"23308","cn":16,"pt":"GO","pr":1600},{"dy":30,"sl":3,"tp":"uph","vl":"50149","cn":19,"pt":"GO","pr":1900},{"dy":30,"sl":4,"tp":"upn","vl":"10989","cn":22,"pt":"GO","pr":2200},{"dy":31,"sl":0,"tp":"fe","vl":"Equip8401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":31,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":31,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":31,"sl":3,"tp":"upn","vl":"72117","cn":16,"pt":"GO","pr":1600},{"dy":31,"sl":4,"tp":"uph","vl":"75026","cn":18,"pt":"GO","pr":1800},{"dy":31,"sl":5,"tp":"fp","vl":"Actor0233","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":31,"sl":6,"tp":"upn","vl":"27682","cn":154,"pt":"DI","pp":130,"pr":16}</v>
       </c>
       <c r="Q225" t="str">
         <f t="shared" si="22"/>
@@ -22173,15 +23115,15 @@
         <v>7</v>
       </c>
       <c r="C226">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="E226" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="F226" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="H226" t="str">
@@ -22199,8 +23141,8 @@
         <v/>
       </c>
       <c r="P226" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":22,"sl":0,"tp":"fe","vl":"Equip8001","cn":1,"pt":"GO","pr":5000},{"dy":22,"sl":1,"tp":"fe","vl":"Equip7102","cn":1,"pt":"GO","pr":24450},{"dy":22,"sl":2,"tp":"upn","vl":"44408","cn":16,"pt":"GO","pr":1600},{"dy":22,"sl":3,"tp":"uph","vl":"63155","cn":19,"pt":"GO","pr":1900},{"dy":22,"sl":4,"tp":"upn","vl":"38771","cn":22,"pt":"GO","pr":2200},{"dy":23,"sl":0,"tp":"fe","vl":"Equip0402","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":23,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":23,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":23,"sl":3,"tp":"upn","vl":"44055","cn":16,"pt":"GO","pr":1600},{"dy":23,"sl":4,"tp":"uph","vl":"48761","cn":18,"pt":"GO","pr":1800},{"dy":23,"sl":5,"tp":"fp","vl":"Actor1216","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":23,"sl":6,"tp":"upn","vl":"78946","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":24,"sl":0,"tp":"fe","vl":"Equip7101","cn":1,"pt":"GO","pr":5000},{"dy":24,"sl":1,"tp":"fe","vl":"Equip6101","cn":1,"pt":"GO","pr":24450},{"dy":24,"sl":2,"tp":"upn","vl":"54180","cn":16,"pt":"GO","pr":1600},{"dy":24,"sl":3,"tp":"uph","vl":"11504","cn":19,"pt":"GO","pr":1900},{"dy":24,"sl":4,"tp":"upn","vl":"18718","cn":22,"pt":"GO","pr":2200},{"dy":25,"sl":0,"tp":"fe","vl":"Equip3401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":25,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":25,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":25,"sl":3,"tp":"upn","vl":"94114","cn":16,"pt":"GO","pr":1600},{"dy":25,"sl":4,"tp":"uph","vl":"67435","cn":18,"pt":"GO","pr":1800},{"dy":25,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":25,"sl":6,"tp":"upn","vl":"43788","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":26,"sl":0,"tp":"fe","vl":"Equip4001","cn":1,"pt":"GO","pr":5000},{"dy":26,"sl":1,"tp":"fe","vl":"Equip5201","cn":1,"pt":"GO","pr":24450},{"dy":26,"sl":2,"tp":"upn","vl":"57510","cn":16,"pt":"GO","pr":1600},{"dy":26,"sl":3,"tp":"uph","vl":"13933","cn":19,"pt":"GO","pr":1900},{"dy":26,"sl":4,"tp":"upn","vl":"63758","cn":22,"pt":"GO","pr":2200},{"dy":27,"sl":0,"tp":"fe","vl":"Equip5401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":27,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":27,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":27,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":27,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":28,"sl":0,"tp":"fe","vl":"Equip0102","cn":1,"pt":"GO","pr":5000},{"dy":28,"sl":1,"tp":"fe","vl":"Equip1102","cn":1,"pt":"GO","pr":24450},{"dy":28,"sl":2,"tp":"upn","vl":"78493","cn":16,"pt":"GO","pr":1600},{"dy":28,"sl":3,"tp":"uph","vl":"65706","cn":19,"pt":"GO","pr":1900},{"dy":28,"sl":4,"tp":"upn","vl":"40322","cn":22,"pt":"GO","pr":2200},{"dy":29,"sl":0,"tp":"fe","vl":"Equip6401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":29,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":29,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":29,"sl":3,"tp":"upn","vl":"70045","cn":16,"pt":"GO","pr":1600},{"dy":29,"sl":4,"tp":"uph","vl":"35320","cn":18,"pt":"GO","pr":1800},{"dy":29,"sl":5,"tp":"fp","vl":"Actor1226","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":29,"sl":6,"tp":"upn","vl":"58062","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":30,"sl":0,"tp":"fe","vl":"Equip4102","cn":1,"pt":"GO","pr":5000},{"dy":30,"sl":1,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":24450},{"dy":30,"sl":2,"tp":"upn","vl":"23308","cn":16,"pt":"GO","pr":1600},{"dy":30,"sl":3,"tp":"uph","vl":"50149","cn":19,"pt":"GO","pr":1900},{"dy":30,"sl":4,"tp":"upn","vl":"10989","cn":22,"pt":"GO","pr":2200},{"dy":31,"sl":0,"tp":"fe","vl":"Equip8401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":31,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":31,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":31,"sl":3,"tp":"upn","vl":"72117","cn":16,"pt":"GO","pr":1600},{"dy":31,"sl":4,"tp":"uph","vl":"75026","cn":18,"pt":"GO","pr":1800},{"dy":31,"sl":5,"tp":"fp","vl":"Actor0233","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":31,"sl":6,"tp":"upn","vl":"27682","cn":154,"pt":"DI","pp":130,"pr":16}</v>
       </c>
       <c r="Q226" t="str">
         <f t="shared" si="22"/>
@@ -22215,15 +23157,15 @@
         <v>7</v>
       </c>
       <c r="C227">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="E227" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="F227" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="H227" t="str">
@@ -22241,8 +23183,8 @@
         <v/>
       </c>
       <c r="P227" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":22,"sl":0,"tp":"fe","vl":"Equip8001","cn":1,"pt":"GO","pr":5000},{"dy":22,"sl":1,"tp":"fe","vl":"Equip7102","cn":1,"pt":"GO","pr":24450},{"dy":22,"sl":2,"tp":"upn","vl":"44408","cn":16,"pt":"GO","pr":1600},{"dy":22,"sl":3,"tp":"uph","vl":"63155","cn":19,"pt":"GO","pr":1900},{"dy":22,"sl":4,"tp":"upn","vl":"38771","cn":22,"pt":"GO","pr":2200},{"dy":23,"sl":0,"tp":"fe","vl":"Equip0402","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":23,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":23,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":23,"sl":3,"tp":"upn","vl":"44055","cn":16,"pt":"GO","pr":1600},{"dy":23,"sl":4,"tp":"uph","vl":"48761","cn":18,"pt":"GO","pr":1800},{"dy":23,"sl":5,"tp":"fp","vl":"Actor1216","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":23,"sl":6,"tp":"upn","vl":"78946","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":24,"sl":0,"tp":"fe","vl":"Equip7101","cn":1,"pt":"GO","pr":5000},{"dy":24,"sl":1,"tp":"fe","vl":"Equip6101","cn":1,"pt":"GO","pr":24450},{"dy":24,"sl":2,"tp":"upn","vl":"54180","cn":16,"pt":"GO","pr":1600},{"dy":24,"sl":3,"tp":"uph","vl":"11504","cn":19,"pt":"GO","pr":1900},{"dy":24,"sl":4,"tp":"upn","vl":"18718","cn":22,"pt":"GO","pr":2200},{"dy":25,"sl":0,"tp":"fe","vl":"Equip3401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":25,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":25,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":25,"sl":3,"tp":"upn","vl":"94114","cn":16,"pt":"GO","pr":1600},{"dy":25,"sl":4,"tp":"uph","vl":"67435","cn":18,"pt":"GO","pr":1800},{"dy":25,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":25,"sl":6,"tp":"upn","vl":"43788","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":26,"sl":0,"tp":"fe","vl":"Equip4001","cn":1,"pt":"GO","pr":5000},{"dy":26,"sl":1,"tp":"fe","vl":"Equip5201","cn":1,"pt":"GO","pr":24450},{"dy":26,"sl":2,"tp":"upn","vl":"57510","cn":16,"pt":"GO","pr":1600},{"dy":26,"sl":3,"tp":"uph","vl":"13933","cn":19,"pt":"GO","pr":1900},{"dy":26,"sl":4,"tp":"upn","vl":"63758","cn":22,"pt":"GO","pr":2200},{"dy":27,"sl":0,"tp":"fe","vl":"Equip5401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":27,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":27,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":27,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":27,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":28,"sl":0,"tp":"fe","vl":"Equip0102","cn":1,"pt":"GO","pr":5000},{"dy":28,"sl":1,"tp":"fe","vl":"Equip1102","cn":1,"pt":"GO","pr":24450},{"dy":28,"sl":2,"tp":"upn","vl":"78493","cn":16,"pt":"GO","pr":1600},{"dy":28,"sl":3,"tp":"uph","vl":"65706","cn":19,"pt":"GO","pr":1900},{"dy":28,"sl":4,"tp":"upn","vl":"40322","cn":22,"pt":"GO","pr":2200},{"dy":29,"sl":0,"tp":"fe","vl":"Equip6401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":29,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":29,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":29,"sl":3,"tp":"upn","vl":"70045","cn":16,"pt":"GO","pr":1600},{"dy":29,"sl":4,"tp":"uph","vl":"35320","cn":18,"pt":"GO","pr":1800},{"dy":29,"sl":5,"tp":"fp","vl":"Actor1226","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":29,"sl":6,"tp":"upn","vl":"58062","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":30,"sl":0,"tp":"fe","vl":"Equip4102","cn":1,"pt":"GO","pr":5000},{"dy":30,"sl":1,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":24450},{"dy":30,"sl":2,"tp":"upn","vl":"23308","cn":16,"pt":"GO","pr":1600},{"dy":30,"sl":3,"tp":"uph","vl":"50149","cn":19,"pt":"GO","pr":1900},{"dy":30,"sl":4,"tp":"upn","vl":"10989","cn":22,"pt":"GO","pr":2200},{"dy":31,"sl":0,"tp":"fe","vl":"Equip8401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":31,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":31,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":31,"sl":3,"tp":"upn","vl":"72117","cn":16,"pt":"GO","pr":1600},{"dy":31,"sl":4,"tp":"uph","vl":"75026","cn":18,"pt":"GO","pr":1800},{"dy":31,"sl":5,"tp":"fp","vl":"Actor0233","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":31,"sl":6,"tp":"upn","vl":"27682","cn":154,"pt":"DI","pp":130,"pr":16}</v>
       </c>
       <c r="Q227" t="str">
         <f t="shared" si="22"/>
@@ -22257,18 +23199,18 @@
         <v>7</v>
       </c>
       <c r="C228">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="D228" t="s">
         <v>99</v>
       </c>
       <c r="E228" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="28"/>
         <v>fc</v>
       </c>
       <c r="F228" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="G228" t="s">
@@ -22301,8 +23243,8 @@
         <v>720</v>
       </c>
       <c r="P228" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":22,"sl":0,"tp":"fe","vl":"Equip8001","cn":1,"pt":"GO","pr":5000},{"dy":22,"sl":1,"tp":"fe","vl":"Equip7102","cn":1,"pt":"GO","pr":24450},{"dy":22,"sl":2,"tp":"upn","vl":"44408","cn":16,"pt":"GO","pr":1600},{"dy":22,"sl":3,"tp":"uph","vl":"63155","cn":19,"pt":"GO","pr":1900},{"dy":22,"sl":4,"tp":"upn","vl":"38771","cn":22,"pt":"GO","pr":2200},{"dy":23,"sl":0,"tp":"fe","vl":"Equip0402","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":23,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":23,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":23,"sl":3,"tp":"upn","vl":"44055","cn":16,"pt":"GO","pr":1600},{"dy":23,"sl":4,"tp":"uph","vl":"48761","cn":18,"pt":"GO","pr":1800},{"dy":23,"sl":5,"tp":"fp","vl":"Actor1216","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":23,"sl":6,"tp":"upn","vl":"78946","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":24,"sl":0,"tp":"fe","vl":"Equip7101","cn":1,"pt":"GO","pr":5000},{"dy":24,"sl":1,"tp":"fe","vl":"Equip6101","cn":1,"pt":"GO","pr":24450},{"dy":24,"sl":2,"tp":"upn","vl":"54180","cn":16,"pt":"GO","pr":1600},{"dy":24,"sl":3,"tp":"uph","vl":"11504","cn":19,"pt":"GO","pr":1900},{"dy":24,"sl":4,"tp":"upn","vl":"18718","cn":22,"pt":"GO","pr":2200},{"dy":25,"sl":0,"tp":"fe","vl":"Equip3401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":25,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":25,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":25,"sl":3,"tp":"upn","vl":"94114","cn":16,"pt":"GO","pr":1600},{"dy":25,"sl":4,"tp":"uph","vl":"67435","cn":18,"pt":"GO","pr":1800},{"dy":25,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":25,"sl":6,"tp":"upn","vl":"43788","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":26,"sl":0,"tp":"fe","vl":"Equip4001","cn":1,"pt":"GO","pr":5000},{"dy":26,"sl":1,"tp":"fe","vl":"Equip5201","cn":1,"pt":"GO","pr":24450},{"dy":26,"sl":2,"tp":"upn","vl":"57510","cn":16,"pt":"GO","pr":1600},{"dy":26,"sl":3,"tp":"uph","vl":"13933","cn":19,"pt":"GO","pr":1900},{"dy":26,"sl":4,"tp":"upn","vl":"63758","cn":22,"pt":"GO","pr":2200},{"dy":27,"sl":0,"tp":"fe","vl":"Equip5401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":27,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":27,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":27,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":27,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":28,"sl":0,"tp":"fe","vl":"Equip0102","cn":1,"pt":"GO","pr":5000},{"dy":28,"sl":1,"tp":"fe","vl":"Equip1102","cn":1,"pt":"GO","pr":24450},{"dy":28,"sl":2,"tp":"upn","vl":"78493","cn":16,"pt":"GO","pr":1600},{"dy":28,"sl":3,"tp":"uph","vl":"65706","cn":19,"pt":"GO","pr":1900},{"dy":28,"sl":4,"tp":"upn","vl":"40322","cn":22,"pt":"GO","pr":2200},{"dy":29,"sl":0,"tp":"fe","vl":"Equip6401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":29,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":29,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":29,"sl":3,"tp":"upn","vl":"70045","cn":16,"pt":"GO","pr":1600},{"dy":29,"sl":4,"tp":"uph","vl":"35320","cn":18,"pt":"GO","pr":1800},{"dy":29,"sl":5,"tp":"fp","vl":"Actor1226","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":29,"sl":6,"tp":"upn","vl":"58062","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":30,"sl":0,"tp":"fe","vl":"Equip4102","cn":1,"pt":"GO","pr":5000},{"dy":30,"sl":1,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":24450},{"dy":30,"sl":2,"tp":"upn","vl":"23308","cn":16,"pt":"GO","pr":1600},{"dy":30,"sl":3,"tp":"uph","vl":"50149","cn":19,"pt":"GO","pr":1900},{"dy":30,"sl":4,"tp":"upn","vl":"10989","cn":22,"pt":"GO","pr":2200},{"dy":31,"sl":0,"tp":"fe","vl":"Equip8401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":31,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":31,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":31,"sl":3,"tp":"upn","vl":"72117","cn":16,"pt":"GO","pr":1600},{"dy":31,"sl":4,"tp":"uph","vl":"75026","cn":18,"pt":"GO","pr":1800},{"dy":31,"sl":5,"tp":"fp","vl":"Actor0233","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":31,"sl":6,"tp":"upn","vl":"27682","cn":154,"pt":"DI","pp":130,"pr":16}</v>
       </c>
       <c r="Q228" t="str">
         <f t="shared" si="22"/>
@@ -22317,18 +23259,18 @@
         <v>7</v>
       </c>
       <c r="C229">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="D229" t="s">
         <v>99</v>
       </c>
       <c r="E229" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="28"/>
         <v>fc</v>
       </c>
       <c r="F229" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="G229" t="s">
@@ -22361,8 +23303,8 @@
         <v>720</v>
       </c>
       <c r="P229" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":22,"sl":0,"tp":"fe","vl":"Equip8001","cn":1,"pt":"GO","pr":5000},{"dy":22,"sl":1,"tp":"fe","vl":"Equip7102","cn":1,"pt":"GO","pr":24450},{"dy":22,"sl":2,"tp":"upn","vl":"44408","cn":16,"pt":"GO","pr":1600},{"dy":22,"sl":3,"tp":"uph","vl":"63155","cn":19,"pt":"GO","pr":1900},{"dy":22,"sl":4,"tp":"upn","vl":"38771","cn":22,"pt":"GO","pr":2200},{"dy":23,"sl":0,"tp":"fe","vl":"Equip0402","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":23,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":23,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":23,"sl":3,"tp":"upn","vl":"44055","cn":16,"pt":"GO","pr":1600},{"dy":23,"sl":4,"tp":"uph","vl":"48761","cn":18,"pt":"GO","pr":1800},{"dy":23,"sl":5,"tp":"fp","vl":"Actor1216","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":23,"sl":6,"tp":"upn","vl":"78946","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":24,"sl":0,"tp":"fe","vl":"Equip7101","cn":1,"pt":"GO","pr":5000},{"dy":24,"sl":1,"tp":"fe","vl":"Equip6101","cn":1,"pt":"GO","pr":24450},{"dy":24,"sl":2,"tp":"upn","vl":"54180","cn":16,"pt":"GO","pr":1600},{"dy":24,"sl":3,"tp":"uph","vl":"11504","cn":19,"pt":"GO","pr":1900},{"dy":24,"sl":4,"tp":"upn","vl":"18718","cn":22,"pt":"GO","pr":2200},{"dy":25,"sl":0,"tp":"fe","vl":"Equip3401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":25,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":25,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":25,"sl":3,"tp":"upn","vl":"94114","cn":16,"pt":"GO","pr":1600},{"dy":25,"sl":4,"tp":"uph","vl":"67435","cn":18,"pt":"GO","pr":1800},{"dy":25,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":25,"sl":6,"tp":"upn","vl":"43788","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":26,"sl":0,"tp":"fe","vl":"Equip4001","cn":1,"pt":"GO","pr":5000},{"dy":26,"sl":1,"tp":"fe","vl":"Equip5201","cn":1,"pt":"GO","pr":24450},{"dy":26,"sl":2,"tp":"upn","vl":"57510","cn":16,"pt":"GO","pr":1600},{"dy":26,"sl":3,"tp":"uph","vl":"13933","cn":19,"pt":"GO","pr":1900},{"dy":26,"sl":4,"tp":"upn","vl":"63758","cn":22,"pt":"GO","pr":2200},{"dy":27,"sl":0,"tp":"fe","vl":"Equip5401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":27,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":27,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":27,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":27,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":28,"sl":0,"tp":"fe","vl":"Equip0102","cn":1,"pt":"GO","pr":5000},{"dy":28,"sl":1,"tp":"fe","vl":"Equip1102","cn":1,"pt":"GO","pr":24450},{"dy":28,"sl":2,"tp":"upn","vl":"78493","cn":16,"pt":"GO","pr":1600},{"dy":28,"sl":3,"tp":"uph","vl":"65706","cn":19,"pt":"GO","pr":1900},{"dy":28,"sl":4,"tp":"upn","vl":"40322","cn":22,"pt":"GO","pr":2200},{"dy":29,"sl":0,"tp":"fe","vl":"Equip6401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":29,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":29,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":29,"sl":3,"tp":"upn","vl":"70045","cn":16,"pt":"GO","pr":1600},{"dy":29,"sl":4,"tp":"uph","vl":"35320","cn":18,"pt":"GO","pr":1800},{"dy":29,"sl":5,"tp":"fp","vl":"Actor1226","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":29,"sl":6,"tp":"upn","vl":"58062","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":30,"sl":0,"tp":"fe","vl":"Equip4102","cn":1,"pt":"GO","pr":5000},{"dy":30,"sl":1,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":24450},{"dy":30,"sl":2,"tp":"upn","vl":"23308","cn":16,"pt":"GO","pr":1600},{"dy":30,"sl":3,"tp":"uph","vl":"50149","cn":19,"pt":"GO","pr":1900},{"dy":30,"sl":4,"tp":"upn","vl":"10989","cn":22,"pt":"GO","pr":2200},{"dy":31,"sl":0,"tp":"fe","vl":"Equip8401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":31,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":31,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":31,"sl":3,"tp":"upn","vl":"72117","cn":16,"pt":"GO","pr":1600},{"dy":31,"sl":4,"tp":"uph","vl":"75026","cn":18,"pt":"GO","pr":1800},{"dy":31,"sl":5,"tp":"fp","vl":"Actor0233","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":31,"sl":6,"tp":"upn","vl":"27682","cn":154,"pt":"DI","pp":130,"pr":16}</v>
       </c>
       <c r="Q229" t="str">
         <f t="shared" si="22"/>
@@ -22377,18 +23319,18 @@
         <v>7</v>
       </c>
       <c r="C230">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="D230" t="s">
         <v>99</v>
       </c>
       <c r="E230" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="28"/>
         <v>fc</v>
       </c>
       <c r="F230" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="G230" t="s">
@@ -22421,8 +23363,8 @@
         <v>720</v>
       </c>
       <c r="P230" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":22,"sl":0,"tp":"fe","vl":"Equip8001","cn":1,"pt":"GO","pr":5000},{"dy":22,"sl":1,"tp":"fe","vl":"Equip7102","cn":1,"pt":"GO","pr":24450},{"dy":22,"sl":2,"tp":"upn","vl":"44408","cn":16,"pt":"GO","pr":1600},{"dy":22,"sl":3,"tp":"uph","vl":"63155","cn":19,"pt":"GO","pr":1900},{"dy":22,"sl":4,"tp":"upn","vl":"38771","cn":22,"pt":"GO","pr":2200},{"dy":23,"sl":0,"tp":"fe","vl":"Equip0402","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":23,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":23,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":23,"sl":3,"tp":"upn","vl":"44055","cn":16,"pt":"GO","pr":1600},{"dy":23,"sl":4,"tp":"uph","vl":"48761","cn":18,"pt":"GO","pr":1800},{"dy":23,"sl":5,"tp":"fp","vl":"Actor1216","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":23,"sl":6,"tp":"upn","vl":"78946","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":24,"sl":0,"tp":"fe","vl":"Equip7101","cn":1,"pt":"GO","pr":5000},{"dy":24,"sl":1,"tp":"fe","vl":"Equip6101","cn":1,"pt":"GO","pr":24450},{"dy":24,"sl":2,"tp":"upn","vl":"54180","cn":16,"pt":"GO","pr":1600},{"dy":24,"sl":3,"tp":"uph","vl":"11504","cn":19,"pt":"GO","pr":1900},{"dy":24,"sl":4,"tp":"upn","vl":"18718","cn":22,"pt":"GO","pr":2200},{"dy":25,"sl":0,"tp":"fe","vl":"Equip3401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":25,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":25,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":25,"sl":3,"tp":"upn","vl":"94114","cn":16,"pt":"GO","pr":1600},{"dy":25,"sl":4,"tp":"uph","vl":"67435","cn":18,"pt":"GO","pr":1800},{"dy":25,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":25,"sl":6,"tp":"upn","vl":"43788","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":26,"sl":0,"tp":"fe","vl":"Equip4001","cn":1,"pt":"GO","pr":5000},{"dy":26,"sl":1,"tp":"fe","vl":"Equip5201","cn":1,"pt":"GO","pr":24450},{"dy":26,"sl":2,"tp":"upn","vl":"57510","cn":16,"pt":"GO","pr":1600},{"dy":26,"sl":3,"tp":"uph","vl":"13933","cn":19,"pt":"GO","pr":1900},{"dy":26,"sl":4,"tp":"upn","vl":"63758","cn":22,"pt":"GO","pr":2200},{"dy":27,"sl":0,"tp":"fe","vl":"Equip5401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":27,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":27,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":27,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":27,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":28,"sl":0,"tp":"fe","vl":"Equip0102","cn":1,"pt":"GO","pr":5000},{"dy":28,"sl":1,"tp":"fe","vl":"Equip1102","cn":1,"pt":"GO","pr":24450},{"dy":28,"sl":2,"tp":"upn","vl":"78493","cn":16,"pt":"GO","pr":1600},{"dy":28,"sl":3,"tp":"uph","vl":"65706","cn":19,"pt":"GO","pr":1900},{"dy":28,"sl":4,"tp":"upn","vl":"40322","cn":22,"pt":"GO","pr":2200},{"dy":29,"sl":0,"tp":"fe","vl":"Equip6401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":29,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":29,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":29,"sl":3,"tp":"upn","vl":"70045","cn":16,"pt":"GO","pr":1600},{"dy":29,"sl":4,"tp":"uph","vl":"35320","cn":18,"pt":"GO","pr":1800},{"dy":29,"sl":5,"tp":"fp","vl":"Actor1226","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":29,"sl":6,"tp":"upn","vl":"58062","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":30,"sl":0,"tp":"fe","vl":"Equip4102","cn":1,"pt":"GO","pr":5000},{"dy":30,"sl":1,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":24450},{"dy":30,"sl":2,"tp":"upn","vl":"23308","cn":16,"pt":"GO","pr":1600},{"dy":30,"sl":3,"tp":"uph","vl":"50149","cn":19,"pt":"GO","pr":1900},{"dy":30,"sl":4,"tp":"upn","vl":"10989","cn":22,"pt":"GO","pr":2200},{"dy":31,"sl":0,"tp":"fe","vl":"Equip8401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":31,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":31,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":31,"sl":3,"tp":"upn","vl":"72117","cn":16,"pt":"GO","pr":1600},{"dy":31,"sl":4,"tp":"uph","vl":"75026","cn":18,"pt":"GO","pr":1800},{"dy":31,"sl":5,"tp":"fp","vl":"Actor0233","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":31,"sl":6,"tp":"upn","vl":"27682","cn":154,"pt":"DI","pp":130,"pr":16}</v>
       </c>
       <c r="Q230" t="str">
         <f t="shared" si="22"/>
@@ -22437,15 +23379,15 @@
         <v>7</v>
       </c>
       <c r="C231">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="E231" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="F231" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="H231" t="str">
@@ -22463,8 +23405,8 @@
         <v/>
       </c>
       <c r="P231" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":22,"sl":0,"tp":"fe","vl":"Equip8001","cn":1,"pt":"GO","pr":5000},{"dy":22,"sl":1,"tp":"fe","vl":"Equip7102","cn":1,"pt":"GO","pr":24450},{"dy":22,"sl":2,"tp":"upn","vl":"44408","cn":16,"pt":"GO","pr":1600},{"dy":22,"sl":3,"tp":"uph","vl":"63155","cn":19,"pt":"GO","pr":1900},{"dy":22,"sl":4,"tp":"upn","vl":"38771","cn":22,"pt":"GO","pr":2200},{"dy":23,"sl":0,"tp":"fe","vl":"Equip0402","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":23,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":23,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":23,"sl":3,"tp":"upn","vl":"44055","cn":16,"pt":"GO","pr":1600},{"dy":23,"sl":4,"tp":"uph","vl":"48761","cn":18,"pt":"GO","pr":1800},{"dy":23,"sl":5,"tp":"fp","vl":"Actor1216","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":23,"sl":6,"tp":"upn","vl":"78946","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":24,"sl":0,"tp":"fe","vl":"Equip7101","cn":1,"pt":"GO","pr":5000},{"dy":24,"sl":1,"tp":"fe","vl":"Equip6101","cn":1,"pt":"GO","pr":24450},{"dy":24,"sl":2,"tp":"upn","vl":"54180","cn":16,"pt":"GO","pr":1600},{"dy":24,"sl":3,"tp":"uph","vl":"11504","cn":19,"pt":"GO","pr":1900},{"dy":24,"sl":4,"tp":"upn","vl":"18718","cn":22,"pt":"GO","pr":2200},{"dy":25,"sl":0,"tp":"fe","vl":"Equip3401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":25,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":25,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":25,"sl":3,"tp":"upn","vl":"94114","cn":16,"pt":"GO","pr":1600},{"dy":25,"sl":4,"tp":"uph","vl":"67435","cn":18,"pt":"GO","pr":1800},{"dy":25,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":25,"sl":6,"tp":"upn","vl":"43788","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":26,"sl":0,"tp":"fe","vl":"Equip4001","cn":1,"pt":"GO","pr":5000},{"dy":26,"sl":1,"tp":"fe","vl":"Equip5201","cn":1,"pt":"GO","pr":24450},{"dy":26,"sl":2,"tp":"upn","vl":"57510","cn":16,"pt":"GO","pr":1600},{"dy":26,"sl":3,"tp":"uph","vl":"13933","cn":19,"pt":"GO","pr":1900},{"dy":26,"sl":4,"tp":"upn","vl":"63758","cn":22,"pt":"GO","pr":2200},{"dy":27,"sl":0,"tp":"fe","vl":"Equip5401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":27,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":27,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":27,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":27,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":28,"sl":0,"tp":"fe","vl":"Equip0102","cn":1,"pt":"GO","pr":5000},{"dy":28,"sl":1,"tp":"fe","vl":"Equip1102","cn":1,"pt":"GO","pr":24450},{"dy":28,"sl":2,"tp":"upn","vl":"78493","cn":16,"pt":"GO","pr":1600},{"dy":28,"sl":3,"tp":"uph","vl":"65706","cn":19,"pt":"GO","pr":1900},{"dy":28,"sl":4,"tp":"upn","vl":"40322","cn":22,"pt":"GO","pr":2200},{"dy":29,"sl":0,"tp":"fe","vl":"Equip6401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":29,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":29,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":29,"sl":3,"tp":"upn","vl":"70045","cn":16,"pt":"GO","pr":1600},{"dy":29,"sl":4,"tp":"uph","vl":"35320","cn":18,"pt":"GO","pr":1800},{"dy":29,"sl":5,"tp":"fp","vl":"Actor1226","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":29,"sl":6,"tp":"upn","vl":"58062","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":30,"sl":0,"tp":"fe","vl":"Equip4102","cn":1,"pt":"GO","pr":5000},{"dy":30,"sl":1,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":24450},{"dy":30,"sl":2,"tp":"upn","vl":"23308","cn":16,"pt":"GO","pr":1600},{"dy":30,"sl":3,"tp":"uph","vl":"50149","cn":19,"pt":"GO","pr":1900},{"dy":30,"sl":4,"tp":"upn","vl":"10989","cn":22,"pt":"GO","pr":2200},{"dy":31,"sl":0,"tp":"fe","vl":"Equip8401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":31,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":31,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":31,"sl":3,"tp":"upn","vl":"72117","cn":16,"pt":"GO","pr":1600},{"dy":31,"sl":4,"tp":"uph","vl":"75026","cn":18,"pt":"GO","pr":1800},{"dy":31,"sl":5,"tp":"fp","vl":"Actor0233","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":31,"sl":6,"tp":"upn","vl":"27682","cn":154,"pt":"DI","pp":130,"pr":16}</v>
       </c>
       <c r="Q231" t="str">
         <f t="shared" si="22"/>
@@ -22479,20 +23421,20 @@
         <v>7</v>
       </c>
       <c r="C232">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="D232" t="s">
         <v>99</v>
       </c>
       <c r="E232" t="str">
-        <f t="shared" ref="E232:E234" ca="1" si="25">IF(ISBLANK(D232),"",
+        <f t="shared" ref="E232:E234" ca="1" si="30">IF(ISBLANK(D232),"",
 VLOOKUP(D232,OFFSET(INDIRECT("$A:$B"),0,MATCH(D$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v>fc</v>
       </c>
       <c r="F232" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="G232" t="s">
@@ -22525,8 +23467,8 @@
         <v>720</v>
       </c>
       <c r="P232" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800}</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,"sl":6,"tp":"uch","vl":"48441","cn":1,"pt":"DI","pp":160,"pr":80},{"dy":20,"sl":0,"tp":"fe","vl":"Equip2301","cn":1,"pt":"GO","pr":5000},{"dy":20,"sl":1,"tp":"fe","vl":"Equip3201","cn":1,"pt":"GO","pr":24450},{"dy":20,"sl":2,"tp":"upn","vl":"71053","cn":17,"pt":"GO","pr":1700},{"dy":20,"sl":3,"tp":"uph","vl":"14534","cn":20,"pt":"GO","pr":2000},{"dy":20,"sl":4,"tp":"upn","vl":"86634","cn":18,"pt":"GO","pr":1800},{"dy":22,"sl":0,"tp":"fe","vl":"Equip8001","cn":1,"pt":"GO","pr":5000},{"dy":22,"sl":1,"tp":"fe","vl":"Equip7102","cn":1,"pt":"GO","pr":24450},{"dy":22,"sl":2,"tp":"upn","vl":"44408","cn":16,"pt":"GO","pr":1600},{"dy":22,"sl":3,"tp":"uph","vl":"63155","cn":19,"pt":"GO","pr":1900},{"dy":22,"sl":4,"tp":"upn","vl":"38771","cn":22,"pt":"GO","pr":2200},{"dy":23,"sl":0,"tp":"fe","vl":"Equip0402","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":23,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":23,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":23,"sl":3,"tp":"upn","vl":"44055","cn":16,"pt":"GO","pr":1600},{"dy":23,"sl":4,"tp":"uph","vl":"48761","cn":18,"pt":"GO","pr":1800},{"dy":23,"sl":5,"tp":"fp","vl":"Actor1216","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":23,"sl":6,"tp":"upn","vl":"78946","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":24,"sl":0,"tp":"fe","vl":"Equip7101","cn":1,"pt":"GO","pr":5000},{"dy":24,"sl":1,"tp":"fe","vl":"Equip6101","cn":1,"pt":"GO","pr":24450},{"dy":24,"sl":2,"tp":"upn","vl":"54180","cn":16,"pt":"GO","pr":1600},{"dy":24,"sl":3,"tp":"uph","vl":"11504","cn":19,"pt":"GO","pr":1900},{"dy":24,"sl":4,"tp":"upn","vl":"18718","cn":22,"pt":"GO","pr":2200},{"dy":25,"sl":0,"tp":"fe","vl":"Equip3401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":25,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":25,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":25,"sl":3,"tp":"upn","vl":"94114","cn":16,"pt":"GO","pr":1600},{"dy":25,"sl":4,"tp":"uph","vl":"67435","cn":18,"pt":"GO","pr":1800},{"dy":25,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":25,"sl":6,"tp":"upn","vl":"43788","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":26,"sl":0,"tp":"fe","vl":"Equip4001","cn":1,"pt":"GO","pr":5000},{"dy":26,"sl":1,"tp":"fe","vl":"Equip5201","cn":1,"pt":"GO","pr":24450},{"dy":26,"sl":2,"tp":"upn","vl":"57510","cn":16,"pt":"GO","pr":1600},{"dy":26,"sl":3,"tp":"uph","vl":"13933","cn":19,"pt":"GO","pr":1900},{"dy":26,"sl":4,"tp":"upn","vl":"63758","cn":22,"pt":"GO","pr":2200},{"dy":27,"sl":0,"tp":"fe","vl":"Equip5401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":27,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":27,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":27,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":27,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":28,"sl":0,"tp":"fe","vl":"Equip0102","cn":1,"pt":"GO","pr":5000},{"dy":28,"sl":1,"tp":"fe","vl":"Equip1102","cn":1,"pt":"GO","pr":24450},{"dy":28,"sl":2,"tp":"upn","vl":"78493","cn":16,"pt":"GO","pr":1600},{"dy":28,"sl":3,"tp":"uph","vl":"65706","cn":19,"pt":"GO","pr":1900},{"dy":28,"sl":4,"tp":"upn","vl":"40322","cn":22,"pt":"GO","pr":2200},{"dy":29,"sl":0,"tp":"fe","vl":"Equip6401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":29,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":29,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":29,"sl":3,"tp":"upn","vl":"70045","cn":16,"pt":"GO","pr":1600},{"dy":29,"sl":4,"tp":"uph","vl":"35320","cn":18,"pt":"GO","pr":1800},{"dy":29,"sl":5,"tp":"fp","vl":"Actor1226","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":29,"sl":6,"tp":"upn","vl":"58062","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":30,"sl":0,"tp":"fe","vl":"Equip4102","cn":1,"pt":"GO","pr":5000},{"dy":30,"sl":1,"tp":"fe","vl":"Equip5301","cn":1,"pt":"GO","pr":24450},{"dy":30,"sl":2,"tp":"upn","vl":"23308","cn":16,"pt":"GO","pr":1600},{"dy":30,"sl":3,"tp":"uph","vl":"50149","cn":19,"pt":"GO","pr":1900},{"dy":30,"sl":4,"tp":"upn","vl":"10989","cn":22,"pt":"GO","pr":2200},{"dy":31,"sl":0,"tp":"fe","vl":"Equip8401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":31,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":31,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":31,"sl":3,"tp":"upn","vl":"72117","cn":16,"pt":"GO","pr":1600},{"dy":31,"sl":4,"tp":"uph","vl":"75026","cn":18,"pt":"GO","pr":1800},{"dy":31,"sl":5,"tp":"fp","vl":"Actor0233","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":31,"sl":6,"tp":"upn","vl":"27682","cn":154,"pt":"DI","pp":130,"pr":16}</v>
       </c>
       <c r="Q232" t="str">
         <f t="shared" si="22"/>
@@ -22541,18 +23483,18 @@
         <v>7</v>
       </c>
       <c r="C233">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="D233" t="s">
         <v>99</v>
       </c>
       <c r="E233" t="str">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="30"/>
         <v>fc</v>
       </c>
       <c r="F233" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="G233" t="s">
@@ -22585,8 +23527,8 @@
         <v>720</v>
       </c>
       <c r="P233" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v>,{"dy":17,"sl":0,"tp":"fe","vl":"Equip7401","cn":1,"pt":"DI","pp":840,"pr":530},{"dy":17,"sl":1,"tp":"bn","cn":1,"pt":"DI","pr":30},{"dy":17,"sl":2,"tp":"bh","cn":1,"pt":"DI","pp":120,"pr":70},{"dy":17,"sl":3,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":17,"sl":4,"tp":"uph","vl":"56573","cn":18,"pt":"GO","pr":1800},{"dy":17,"sl":5,"tp":"fp","vl":"Actor1218","cn":140,"pt":"DI","pp":340,"pr":120},{"dy":17,"sl":6,"tp":"upn","vl":"75145","cn":154,"pt":"DI","pp":130,"pr":16},{"dy":18,"sl":0,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":5000},{"dy":18,"sl":1,"tp":"fe","vl":"Equip1001","cn":1,"pt":"GO","pr":24450},{"dy":18,"sl":2,"tp":"upn","vl":"57153","cn":16,"pt":"GO","pr":1600},{"dy":18,"sl":3,"tp":"uph","vl":"34534","cn":19,"pt":"GO","pr":1900},{"dy":18,"sl":4,"tp":"upn","vl":"66634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":0,"tp":"fe","vl":"Equip5001","cn":1,"pt":"GO","pr":5000},{"dy":19,"sl":1,"tp":"fe","vl":"Equip6201","cn":1,"pt":"GO","pr":24450},{"dy":19,"sl":2,"tp":"upn","vl":"47153","cn":16,"pt":"GO","pr":1600},{"dy":19,"sl":3,"tp":"uph","vl":"24534","cn":19,"pt":"GO","pr":1900},{"dy":19,"sl":4,"tp":"upn","vl":"56634","cn":22,"pt":"GO","pr":2200},{"dy":19,"sl":5,"tp":"fp","vl":"Actor1218","cn":1470,"pt":"DI","pp":340,"pr":120},{"dy":19,